--- a/Output/IB metric.xlsx
+++ b/Output/IB metric.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="148">
   <si>
     <t>IB target orders</t>
   </si>
@@ -6586,141 +6586,156 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR28"/>
+  <dimension ref="A1:AW28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:49">
       <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:49">
       <c r="A2" s="1" t="s">
         <v>82</v>
       </c>
@@ -6731,124 +6746,139 @@
         <v>275.2856862731043</v>
       </c>
       <c r="D2">
+        <v>1233.103639735105</v>
+      </c>
+      <c r="E2">
+        <v>1504.412593905556</v>
+      </c>
+      <c r="F2">
+        <v>1505.604971175757</v>
+      </c>
+      <c r="G2">
+        <v>1989.601833873955</v>
+      </c>
+      <c r="H2">
+        <v>1609.800799148847</v>
+      </c>
+      <c r="I2">
         <v>56.41441968203712</v>
       </c>
-      <c r="E2">
-        <v>188.896762506034</v>
-      </c>
-      <c r="H2">
+      <c r="J2">
+        <v>1449.307710892835</v>
+      </c>
+      <c r="M2">
         <v>1403.420564831694</v>
       </c>
-      <c r="I2">
+      <c r="N2">
         <v>1768.970305158225</v>
       </c>
-      <c r="J2">
+      <c r="O2">
         <v>1670.216556312725</v>
       </c>
-      <c r="K2">
+      <c r="P2">
         <v>1608.209099148469</v>
       </c>
-      <c r="L2">
+      <c r="Q2">
         <v>1634.887979054007</v>
       </c>
-      <c r="M2">
+      <c r="R2">
         <v>1622.324456687208</v>
       </c>
-      <c r="N2">
+      <c r="S2">
         <v>1187.553638703567</v>
       </c>
-      <c r="O2">
+      <c r="T2">
         <v>1579.692498869388</v>
       </c>
-      <c r="P2">
-        <v>188.896762506034</v>
-      </c>
-      <c r="Q2">
-        <v>7.362729344389514</v>
-      </c>
-      <c r="R2">
+      <c r="U2">
+        <v>1449.307710892835</v>
+      </c>
+      <c r="V2">
+        <v>0.08996349567217221</v>
+      </c>
+      <c r="W2">
         <v>1587.518135496957</v>
       </c>
-      <c r="S2">
+      <c r="X2">
         <v>1370.337371081929</v>
       </c>
-      <c r="T2">
+      <c r="Y2">
         <v>1544.953396914737</v>
       </c>
-      <c r="U2">
+      <c r="Z2">
         <v>1904.705963327319</v>
       </c>
-      <c r="V2">
+      <c r="AA2">
         <v>1407.747055697891</v>
       </c>
-      <c r="W2">
+      <c r="AB2">
         <v>1508.253005900752</v>
       </c>
-      <c r="X2">
+      <c r="AC2">
         <v>7076.666237999255</v>
       </c>
-      <c r="Y2">
+      <c r="AD2">
         <v>1567.759765954134</v>
       </c>
-      <c r="Z2">
+      <c r="AE2">
         <v>1579.692498869388</v>
       </c>
-      <c r="AA2">
+      <c r="AF2">
         <v>-0.007553832738836253</v>
       </c>
-      <c r="AB2">
+      <c r="AG2">
         <v>1811.267463716788</v>
       </c>
-      <c r="AC2">
+      <c r="AH2">
         <v>1698.048026081483</v>
       </c>
-      <c r="AD2">
+      <c r="AI2">
         <v>1761.587622899767</v>
       </c>
-      <c r="AE2">
+      <c r="AJ2">
         <v>1381.369101194292</v>
       </c>
-      <c r="AF2">
+      <c r="AK2">
         <v>1799.746857303587</v>
       </c>
-      <c r="AG2">
+      <c r="AL2">
         <v>1969.504181491423</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AM2" t="s">
         <v>95</v>
       </c>
-      <c r="AI2">
+      <c r="AN2">
         <v>1714.366550062499</v>
       </c>
-      <c r="AJ2">
+      <c r="AO2">
         <v>1567.759765954134</v>
       </c>
-      <c r="AK2">
+      <c r="AP2">
         <v>0.09351355181585519</v>
       </c>
-      <c r="AL2">
+      <c r="AQ2">
         <v>1971.748790307228</v>
       </c>
-      <c r="AM2">
+      <c r="AR2">
         <v>1946.06362322632</v>
       </c>
-      <c r="AN2">
+      <c r="AS2">
         <v>2001.7902288938</v>
       </c>
-      <c r="AO2">
+      <c r="AT2">
         <v>1823.238687388268</v>
       </c>
-      <c r="AP2">
+      <c r="AU2">
         <v>1939.78560543728</v>
       </c>
-      <c r="AQ2">
+      <c r="AV2">
         <v>1714.366550062499</v>
       </c>
-      <c r="AR2">
+      <c r="AW2">
         <v>0.1314882487450324</v>
       </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:49">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>87</v>
@@ -6857,124 +6887,139 @@
         <v>6.2582056892779</v>
       </c>
       <c r="D3">
+        <v>80.30362389813908</v>
+      </c>
+      <c r="E3">
+        <v>89.83030303030303</v>
+      </c>
+      <c r="F3">
+        <v>85.75457317073172</v>
+      </c>
+      <c r="G3">
+        <v>135.3538050734313</v>
+      </c>
+      <c r="H3">
+        <v>115.919028340081</v>
+      </c>
+      <c r="I3">
         <v>1.577181208053691</v>
       </c>
-      <c r="E3">
-        <v>4.410596026490066</v>
-      </c>
-      <c r="H3">
+      <c r="J3">
+        <v>92.62080042832287</v>
+      </c>
+      <c r="M3">
         <v>90.92666666666666</v>
       </c>
-      <c r="I3">
+      <c r="N3">
         <v>116.3263888888889</v>
       </c>
-      <c r="J3">
+      <c r="O3">
         <v>106.878612716763</v>
       </c>
-      <c r="K3">
+      <c r="P3">
         <v>99.03636363636363</v>
       </c>
-      <c r="L3">
+      <c r="Q3">
         <v>102.6932826362484</v>
       </c>
-      <c r="M3">
+      <c r="R3">
         <v>109.7416201117318</v>
       </c>
-      <c r="N3">
+      <c r="S3">
         <v>82.73348519362187</v>
       </c>
-      <c r="O3">
+      <c r="T3">
         <v>102.1983059292476</v>
       </c>
-      <c r="P3">
-        <v>4.410596026490066</v>
-      </c>
-      <c r="Q3">
-        <v>22.17108738035494</v>
-      </c>
-      <c r="R3">
+      <c r="U3">
+        <v>92.62080042832287</v>
+      </c>
+      <c r="V3">
+        <v>0.1034055574626198</v>
+      </c>
+      <c r="W3">
         <v>96.40270104358501</v>
       </c>
-      <c r="S3">
+      <c r="X3">
         <v>89.87730061349693</v>
       </c>
-      <c r="T3">
+      <c r="Y3">
         <v>91.43863769817969</v>
       </c>
-      <c r="U3">
+      <c r="Z3">
         <v>129.6026097271649</v>
       </c>
-      <c r="V3">
+      <c r="AA3">
         <v>97.83706253585771</v>
       </c>
-      <c r="W3">
+      <c r="AB3">
         <v>99.9671772428884</v>
       </c>
-      <c r="X3">
+      <c r="AC3">
         <v>435.8823529411764</v>
       </c>
-      <c r="Y3">
+      <c r="AD3">
         <v>101.5962239862691</v>
       </c>
-      <c r="Z3">
+      <c r="AE3">
         <v>102.1983059292476</v>
       </c>
-      <c r="AA3">
+      <c r="AF3">
         <v>-0.005891310403867256</v>
       </c>
-      <c r="AB3">
+      <c r="AG3">
         <v>110.0844594594595</v>
       </c>
-      <c r="AC3">
+      <c r="AH3">
         <v>101.966966966967</v>
       </c>
-      <c r="AD3">
+      <c r="AI3">
         <v>109.327731092437</v>
       </c>
-      <c r="AE3">
+      <c r="AJ3">
         <v>84.31383902721483</v>
       </c>
-      <c r="AF3">
+      <c r="AK3">
         <v>112.6723095525998</v>
       </c>
-      <c r="AG3">
+      <c r="AL3">
         <v>135.5766621438263</v>
       </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
         <v>106.4128756384369</v>
       </c>
-      <c r="AJ3">
+      <c r="AO3">
         <v>101.5962239862691</v>
       </c>
-      <c r="AK3">
+      <c r="AP3">
         <v>0.04740975070903031</v>
       </c>
-      <c r="AL3">
+      <c r="AQ3">
         <v>122.5222551928783</v>
       </c>
-      <c r="AM3">
+      <c r="AR3">
         <v>121.3425345043915</v>
       </c>
-      <c r="AN3">
+      <c r="AS3">
         <v>134.3131373725255</v>
       </c>
-      <c r="AO3">
+      <c r="AT3">
         <v>113.248</v>
       </c>
-      <c r="AP3">
+      <c r="AU3">
         <v>123.6417964505614</v>
       </c>
-      <c r="AQ3">
+      <c r="AV3">
         <v>106.4128756384369</v>
       </c>
-      <c r="AR3">
+      <c r="AW3">
         <v>0.1619063549289268</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:49">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>88</v>
@@ -6983,124 +7028,139 @@
         <v>286</v>
       </c>
       <c r="D4">
+        <v>8199</v>
+      </c>
+      <c r="E4">
+        <v>14822</v>
+      </c>
+      <c r="F4">
+        <v>11251</v>
+      </c>
+      <c r="G4">
+        <v>20276</v>
+      </c>
+      <c r="H4">
+        <v>14316</v>
+      </c>
+      <c r="I4">
         <v>47</v>
       </c>
-      <c r="E4">
-        <v>286</v>
-      </c>
-      <c r="H4">
+      <c r="J4">
+        <v>11525</v>
+      </c>
+      <c r="M4">
         <v>13639</v>
       </c>
-      <c r="I4">
+      <c r="N4">
         <v>16751</v>
       </c>
-      <c r="J4">
+      <c r="O4">
         <v>16641</v>
       </c>
-      <c r="K4">
+      <c r="P4">
         <v>16341</v>
       </c>
-      <c r="L4">
+      <c r="Q4">
         <v>16205</v>
       </c>
-      <c r="M4">
+      <c r="R4">
         <v>15715</v>
       </c>
-      <c r="N4">
+      <c r="S4">
         <v>7264</v>
       </c>
-      <c r="O4">
+      <c r="T4">
         <v>15882</v>
       </c>
-      <c r="P4">
-        <v>286</v>
-      </c>
-      <c r="Q4">
-        <v>54.53146853146853</v>
-      </c>
-      <c r="R4">
+      <c r="U4">
+        <v>11525</v>
+      </c>
+      <c r="V4">
+        <v>0.3780477223427332</v>
+      </c>
+      <c r="W4">
         <v>15704</v>
       </c>
-      <c r="S4">
+      <c r="X4">
         <v>14650</v>
       </c>
-      <c r="T4">
+      <c r="Y4">
         <v>15572</v>
       </c>
-      <c r="U4">
+      <c r="Z4">
         <v>21851</v>
       </c>
-      <c r="V4">
+      <c r="AA4">
         <v>17053</v>
       </c>
-      <c r="W4">
+      <c r="AB4">
         <v>9137</v>
       </c>
-      <c r="X4">
+      <c r="AC4">
         <v>741</v>
       </c>
-      <c r="Y4">
+      <c r="AD4">
         <v>15661.16666666667</v>
       </c>
-      <c r="Z4">
+      <c r="AE4">
         <v>15882</v>
       </c>
-      <c r="AA4">
+      <c r="AF4">
         <v>-0.01390462997943165</v>
       </c>
-      <c r="AB4">
+      <c r="AG4">
         <v>13034</v>
       </c>
-      <c r="AC4">
+      <c r="AH4">
         <v>13582</v>
       </c>
-      <c r="AD4">
+      <c r="AI4">
         <v>19515</v>
       </c>
-      <c r="AE4">
+      <c r="AJ4">
         <v>14561</v>
       </c>
-      <c r="AF4">
+      <c r="AK4">
         <v>18636</v>
       </c>
-      <c r="AG4">
+      <c r="AL4">
         <v>9992</v>
       </c>
-      <c r="AH4">
+      <c r="AM4">
         <v>269</v>
       </c>
-      <c r="AI4">
+      <c r="AN4">
         <v>14886.66666666667</v>
       </c>
-      <c r="AJ4">
+      <c r="AO4">
         <v>15661.16666666667</v>
       </c>
-      <c r="AK4">
+      <c r="AP4">
         <v>-0.0494535315589516</v>
       </c>
-      <c r="AL4">
+      <c r="AQ4">
         <v>12387</v>
       </c>
-      <c r="AM4">
+      <c r="AR4">
         <v>19342</v>
       </c>
-      <c r="AN4">
+      <c r="AS4">
         <v>22390</v>
       </c>
-      <c r="AO4">
+      <c r="AT4">
         <v>14156</v>
       </c>
-      <c r="AP4">
+      <c r="AU4">
         <v>18039.66666666667</v>
       </c>
-      <c r="AQ4">
+      <c r="AV4">
         <v>14886.66666666667</v>
       </c>
-      <c r="AR4">
+      <c r="AW4">
         <v>0.2118002686968206</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:49">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>89</v>
@@ -7109,124 +7169,139 @@
         <v>45.7</v>
       </c>
       <c r="D5">
+        <v>102.1</v>
+      </c>
+      <c r="E5">
+        <v>165</v>
+      </c>
+      <c r="F5">
+        <v>131.2</v>
+      </c>
+      <c r="G5">
+        <v>149.8</v>
+      </c>
+      <c r="H5">
+        <v>123.5</v>
+      </c>
+      <c r="I5">
         <v>29.8</v>
       </c>
-      <c r="E5">
-        <v>45.7</v>
-      </c>
-      <c r="H5">
+      <c r="J5">
+        <v>119.55</v>
+      </c>
+      <c r="M5">
         <v>150</v>
       </c>
-      <c r="I5">
+      <c r="N5">
         <v>144</v>
       </c>
-      <c r="J5">
+      <c r="O5">
         <v>155.7</v>
       </c>
-      <c r="K5">
+      <c r="P5">
         <v>165</v>
       </c>
-      <c r="L5">
+      <c r="Q5">
         <v>157.8</v>
       </c>
-      <c r="M5">
+      <c r="R5">
         <v>143.2</v>
       </c>
-      <c r="N5">
+      <c r="S5">
         <v>87.8</v>
       </c>
-      <c r="O5">
+      <c r="T5">
         <v>152.6166666666667</v>
       </c>
-      <c r="P5">
-        <v>45.7</v>
-      </c>
-      <c r="Q5">
-        <v>2.339533187454413</v>
-      </c>
-      <c r="R5">
+      <c r="U5">
+        <v>119.55</v>
+      </c>
+      <c r="V5">
+        <v>0.2765927784748363</v>
+      </c>
+      <c r="W5">
         <v>162.9</v>
       </c>
-      <c r="S5">
+      <c r="X5">
         <v>163</v>
       </c>
-      <c r="T5">
+      <c r="Y5">
         <v>170.3</v>
       </c>
-      <c r="U5">
+      <c r="Z5">
         <v>168.6</v>
       </c>
-      <c r="V5">
+      <c r="AA5">
         <v>174.3</v>
       </c>
-      <c r="W5">
+      <c r="AB5">
         <v>91.40000000000001</v>
       </c>
-      <c r="X5">
+      <c r="AC5">
         <v>1.7</v>
       </c>
-      <c r="Y5">
+      <c r="AD5">
         <v>155.0833333333333</v>
       </c>
-      <c r="Z5">
+      <c r="AE5">
         <v>152.6166666666667</v>
       </c>
-      <c r="AA5">
+      <c r="AF5">
         <v>0.01616249863492403</v>
       </c>
-      <c r="AB5">
+      <c r="AG5">
         <v>118.4</v>
       </c>
-      <c r="AC5">
+      <c r="AH5">
         <v>133.2</v>
       </c>
-      <c r="AD5">
+      <c r="AI5">
         <v>178.5</v>
       </c>
-      <c r="AE5">
+      <c r="AJ5">
         <v>172.7</v>
       </c>
-      <c r="AF5">
+      <c r="AK5">
         <v>165.4</v>
       </c>
-      <c r="AG5">
+      <c r="AL5">
         <v>73.7</v>
       </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
         <v>140.3166666666667</v>
       </c>
-      <c r="AJ5">
+      <c r="AO5">
         <v>155.0833333333333</v>
       </c>
-      <c r="AK5">
+      <c r="AP5">
         <v>-0.0952176249328317</v>
       </c>
-      <c r="AL5">
+      <c r="AQ5">
         <v>101.1</v>
       </c>
-      <c r="AM5">
+      <c r="AR5">
         <v>159.4</v>
       </c>
-      <c r="AN5">
+      <c r="AS5">
         <v>166.7</v>
       </c>
-      <c r="AO5">
+      <c r="AT5">
         <v>125</v>
       </c>
-      <c r="AP5">
+      <c r="AU5">
         <v>142.4</v>
       </c>
-      <c r="AQ5">
+      <c r="AV5">
         <v>140.3166666666667</v>
       </c>
-      <c r="AR5">
+      <c r="AW5">
         <v>0.01484736904620498</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:49">
       <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
@@ -7237,115 +7312,139 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>29.6078431372549</v>
+      </c>
+      <c r="E6">
+        <v>33.59712230215828</v>
+      </c>
+      <c r="F6">
+        <v>34.67213114754099</v>
+      </c>
+      <c r="G6">
+        <v>20.66115702479339</v>
       </c>
       <c r="H6">
+        <v>20.2247191011236</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>28.18007662835249</v>
+      </c>
+      <c r="M6">
         <v>22.95081967213115</v>
       </c>
-      <c r="I6">
+      <c r="N6">
         <v>33.53982300884955</v>
       </c>
-      <c r="J6">
+      <c r="O6">
         <v>29.78142076502732</v>
       </c>
-      <c r="K6">
+      <c r="P6">
         <v>30.89655172413793</v>
       </c>
-      <c r="L6">
+      <c r="Q6">
         <v>29.07692307692308</v>
       </c>
-      <c r="M6">
+      <c r="R6">
         <v>27.3972602739726</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <v>29.13357400722022</v>
       </c>
-      <c r="R6">
+      <c r="U6">
+        <v>28.18007662835249</v>
+      </c>
+      <c r="V6">
+        <v>0.0338358689169922</v>
+      </c>
+      <c r="W6">
         <v>34.90066225165562</v>
       </c>
-      <c r="S6">
+      <c r="X6">
         <v>38.33333333333333</v>
       </c>
-      <c r="T6">
+      <c r="Y6">
         <v>31.72619047619047</v>
       </c>
-      <c r="U6">
+      <c r="Z6">
         <v>34.20289855072463</v>
       </c>
-      <c r="V6">
+      <c r="AA6">
         <v>25.12195121951219</v>
       </c>
-      <c r="W6">
+      <c r="AB6">
         <v>26.89655172413793</v>
       </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
         <v>32.19354838709678</v>
       </c>
-      <c r="Z6">
+      <c r="AE6">
         <v>29.13357400722022</v>
       </c>
-      <c r="AA6">
+      <c r="AF6">
         <v>0.105032577847064</v>
       </c>
-      <c r="AB6">
+      <c r="AG6">
         <v>46.35514018691589</v>
       </c>
-      <c r="AC6">
+      <c r="AH6">
         <v>36.87898089171975</v>
       </c>
-      <c r="AD6">
+      <c r="AI6">
         <v>26.88888888888889</v>
       </c>
-      <c r="AE6">
+      <c r="AJ6">
         <v>27.44186046511628</v>
       </c>
-      <c r="AF6">
+      <c r="AK6">
         <v>33.66906474820144</v>
       </c>
-      <c r="AG6">
+      <c r="AL6">
         <v>34.82758620689656</v>
       </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
         <v>33.5670356703567</v>
       </c>
-      <c r="AJ6">
+      <c r="AO6">
         <v>32.19354838709678</v>
       </c>
-      <c r="AK6">
+      <c r="AP6">
         <v>0.04266343264635042</v>
       </c>
-      <c r="AL6">
+      <c r="AQ6">
         <v>28.56209150326797</v>
       </c>
-      <c r="AM6">
+      <c r="AR6">
         <v>35.76642335766424</v>
       </c>
-      <c r="AN6">
+      <c r="AS6">
         <v>38.71794871794872</v>
       </c>
-      <c r="AO6">
+      <c r="AT6">
         <v>35.83333333333334</v>
       </c>
-      <c r="AP6">
+      <c r="AU6">
         <v>34.64664310954063</v>
       </c>
-      <c r="AQ6">
+      <c r="AV6">
         <v>33.5670356703567</v>
       </c>
-      <c r="AR6">
+      <c r="AW6">
         <v>0.03216272803431797</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:49">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>88</v>
@@ -7354,124 +7453,139 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="F7">
+        <v>423</v>
+      </c>
+      <c r="G7">
+        <v>250</v>
       </c>
       <c r="H7">
+        <v>180</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>245.1666666666667</v>
+      </c>
+      <c r="M7">
         <v>280</v>
       </c>
-      <c r="I7">
+      <c r="N7">
         <v>379</v>
       </c>
-      <c r="J7">
+      <c r="O7">
         <v>545</v>
       </c>
-      <c r="K7">
+      <c r="P7">
         <v>448</v>
       </c>
-      <c r="L7">
+      <c r="Q7">
         <v>567</v>
       </c>
-      <c r="M7">
+      <c r="R7">
         <v>200</v>
       </c>
-      <c r="N7">
+      <c r="S7">
         <v>2</v>
       </c>
-      <c r="O7">
+      <c r="T7">
         <v>403.1666666666667</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
+      <c r="U7">
+        <v>245.1666666666667</v>
+      </c>
+      <c r="V7">
+        <v>0.644459551325629</v>
+      </c>
+      <c r="W7">
         <v>527</v>
       </c>
-      <c r="S7">
+      <c r="X7">
         <v>414</v>
       </c>
-      <c r="T7">
+      <c r="Y7">
         <v>533</v>
       </c>
-      <c r="U7">
+      <c r="Z7">
         <v>472</v>
       </c>
-      <c r="V7">
+      <c r="AA7">
         <v>309</v>
       </c>
-      <c r="W7">
+      <c r="AB7">
         <v>234</v>
       </c>
-      <c r="X7">
+      <c r="AC7">
         <v>6</v>
       </c>
-      <c r="Y7">
+      <c r="AD7">
         <v>414.8333333333333</v>
       </c>
-      <c r="Z7">
+      <c r="AE7">
         <v>403.1666666666667</v>
       </c>
-      <c r="AA7">
+      <c r="AF7">
         <v>0.02893757751136827</v>
       </c>
-      <c r="AB7">
+      <c r="AG7">
         <v>496</v>
       </c>
-      <c r="AC7">
+      <c r="AH7">
         <v>579</v>
       </c>
-      <c r="AD7">
+      <c r="AI7">
         <v>484</v>
       </c>
-      <c r="AE7">
+      <c r="AJ7">
         <v>472</v>
       </c>
-      <c r="AF7">
+      <c r="AK7">
         <v>468</v>
       </c>
-      <c r="AG7">
+      <c r="AL7">
         <v>202</v>
       </c>
-      <c r="AH7">
+      <c r="AM7">
         <v>28</v>
       </c>
-      <c r="AI7">
+      <c r="AN7">
         <v>450.1666666666667</v>
       </c>
-      <c r="AJ7">
+      <c r="AO7">
         <v>414.8333333333333</v>
       </c>
-      <c r="AK7">
+      <c r="AP7">
         <v>0.0851747689835276</v>
       </c>
-      <c r="AL7">
+      <c r="AQ7">
         <v>437</v>
       </c>
-      <c r="AM7">
+      <c r="AR7">
         <v>490</v>
       </c>
-      <c r="AN7">
+      <c r="AS7">
         <v>604</v>
       </c>
-      <c r="AO7">
+      <c r="AT7">
         <v>430</v>
       </c>
-      <c r="AP7">
+      <c r="AU7">
         <v>510.3333333333333</v>
       </c>
-      <c r="AQ7">
+      <c r="AV7">
         <v>450.1666666666667</v>
       </c>
-      <c r="AR7">
+      <c r="AW7">
         <v>0.1336542021473528</v>
       </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:49">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>89</v>
@@ -7480,124 +7594,139 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>13.9</v>
+      </c>
+      <c r="F8">
+        <v>12.2</v>
+      </c>
+      <c r="G8">
+        <v>12.1</v>
       </c>
       <c r="H8">
+        <v>8.899999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="M8">
         <v>12.2</v>
       </c>
-      <c r="I8">
+      <c r="N8">
         <v>11.3</v>
       </c>
-      <c r="J8">
+      <c r="O8">
         <v>18.3</v>
       </c>
-      <c r="K8">
+      <c r="P8">
         <v>14.5</v>
       </c>
-      <c r="L8">
+      <c r="Q8">
         <v>19.5</v>
       </c>
-      <c r="M8">
+      <c r="R8">
         <v>7.3</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
         <v>13.85</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
+      <c r="U8">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="V8">
+        <v>0.5919540229885059</v>
+      </c>
+      <c r="W8">
         <v>15.1</v>
       </c>
-      <c r="S8">
+      <c r="X8">
         <v>10.8</v>
       </c>
-      <c r="T8">
+      <c r="Y8">
         <v>16.8</v>
       </c>
-      <c r="U8">
+      <c r="Z8">
         <v>13.8</v>
       </c>
-      <c r="V8">
+      <c r="AA8">
         <v>12.3</v>
       </c>
-      <c r="W8">
+      <c r="AB8">
         <v>8.699999999999999</v>
       </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
         <v>12.91666666666667</v>
       </c>
-      <c r="Z8">
+      <c r="AE8">
         <v>13.85</v>
       </c>
-      <c r="AA8">
+      <c r="AF8">
         <v>-0.06738868832731648</v>
       </c>
-      <c r="AB8">
+      <c r="AG8">
         <v>10.7</v>
       </c>
-      <c r="AC8">
+      <c r="AH8">
         <v>15.7</v>
       </c>
-      <c r="AD8">
+      <c r="AI8">
         <v>18</v>
       </c>
-      <c r="AE8">
+      <c r="AJ8">
         <v>17.2</v>
       </c>
-      <c r="AF8">
+      <c r="AK8">
         <v>13.9</v>
       </c>
-      <c r="AG8">
+      <c r="AL8">
         <v>5.8</v>
       </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
         <v>13.55</v>
       </c>
-      <c r="AJ8">
+      <c r="AO8">
         <v>12.91666666666667</v>
       </c>
-      <c r="AK8">
+      <c r="AP8">
         <v>0.04903225806451617</v>
       </c>
-      <c r="AL8">
+      <c r="AQ8">
         <v>15.3</v>
       </c>
-      <c r="AM8">
+      <c r="AR8">
         <v>13.7</v>
       </c>
-      <c r="AN8">
+      <c r="AS8">
         <v>15.6</v>
       </c>
-      <c r="AO8">
+      <c r="AT8">
         <v>12</v>
       </c>
-      <c r="AP8">
+      <c r="AU8">
         <v>14.86666666666667</v>
       </c>
-      <c r="AQ8">
+      <c r="AV8">
         <v>13.55</v>
       </c>
-      <c r="AR8">
+      <c r="AW8">
         <v>0.09717097170971711</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:49">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -7608,124 +7737,139 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>95</v>
+        <v>309.2075471698113</v>
+      </c>
+      <c r="E9">
+        <v>360.4872389791183</v>
+      </c>
+      <c r="F9">
+        <v>315.0696378830084</v>
+      </c>
+      <c r="G9">
+        <v>514.9748743718593</v>
       </c>
       <c r="H9">
+        <v>406.6163141993957</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>394.0414798206278</v>
+      </c>
+      <c r="M9">
         <v>274.5901639344262</v>
       </c>
-      <c r="I9">
+      <c r="N9">
         <v>401.6781609195402</v>
       </c>
-      <c r="J9">
+      <c r="O9">
         <v>411.0900473933649</v>
       </c>
-      <c r="K9">
+      <c r="P9">
         <v>337.1115537848605</v>
       </c>
-      <c r="L9">
+      <c r="Q9">
         <v>417.3901098901099</v>
       </c>
-      <c r="M9">
+      <c r="R9">
         <v>311.8162839248434</v>
       </c>
-      <c r="N9">
+      <c r="S9">
         <v>338.7946428571429</v>
       </c>
-      <c r="O9">
+      <c r="T9">
         <v>352.9924502402197</v>
       </c>
-      <c r="P9" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q9">
-        <v>-1</v>
-      </c>
-      <c r="R9">
+      <c r="U9">
+        <v>394.0414798206278</v>
+      </c>
+      <c r="V9">
+        <v>-0.1041743869175755</v>
+      </c>
+      <c r="W9">
         <v>304.5166959578207</v>
       </c>
-      <c r="S9">
+      <c r="X9">
         <v>227.462962962963</v>
       </c>
-      <c r="T9">
+      <c r="Y9">
         <v>380.9306930693069</v>
       </c>
-      <c r="U9">
+      <c r="Z9">
         <v>410.0614754098361</v>
       </c>
-      <c r="V9">
+      <c r="AA9">
         <v>334.6428571428571</v>
       </c>
-      <c r="W9">
+      <c r="AB9">
         <v>668.8461538461538</v>
       </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
         <v>347.8175775480059</v>
       </c>
-      <c r="Z9">
+      <c r="AE9">
         <v>352.9924502402197</v>
       </c>
-      <c r="AA9">
+      <c r="AF9">
         <v>-0.01466000955174018</v>
       </c>
-      <c r="AB9">
+      <c r="AG9">
         <v>334.0586797066015</v>
       </c>
-      <c r="AC9">
+      <c r="AH9">
         <v>342.0680628272251</v>
       </c>
-      <c r="AD9">
+      <c r="AI9">
         <v>405.458089668616</v>
       </c>
-      <c r="AE9">
+      <c r="AJ9">
         <v>314.692144373673</v>
       </c>
-      <c r="AF9">
+      <c r="AK9">
         <v>491.860465116279</v>
       </c>
-      <c r="AG9">
+      <c r="AL9">
         <v>546.9677419354839</v>
       </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
         <v>391.0889830508474</v>
       </c>
-      <c r="AJ9">
+      <c r="AO9">
         <v>347.8175775480059</v>
       </c>
-      <c r="AK9">
+      <c r="AP9">
         <v>0.1244083344145228</v>
       </c>
-      <c r="AL9">
+      <c r="AQ9">
         <v>394.6178343949045</v>
       </c>
-      <c r="AM9">
+      <c r="AR9">
         <v>434.8434237995825</v>
       </c>
-      <c r="AN9">
+      <c r="AS9">
         <v>366.8662674650698</v>
       </c>
-      <c r="AO9">
+      <c r="AT9">
         <v>407.9271708683473</v>
       </c>
-      <c r="AP9">
+      <c r="AU9">
         <v>400.7450030284675</v>
       </c>
-      <c r="AQ9">
+      <c r="AV9">
         <v>391.0889830508474</v>
       </c>
-      <c r="AR9">
+      <c r="AW9">
         <v>0.0246900843442186</v>
       </c>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:49">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>88</v>
@@ -7734,124 +7878,139 @@
         <v>1167</v>
       </c>
       <c r="D10">
+        <v>8194</v>
+      </c>
+      <c r="E10">
+        <v>15537</v>
+      </c>
+      <c r="F10">
+        <v>11311</v>
+      </c>
+      <c r="G10">
+        <v>20496</v>
+      </c>
+      <c r="H10">
+        <v>13459</v>
+      </c>
+      <c r="I10">
         <v>133</v>
       </c>
-      <c r="E10">
-        <v>1167</v>
-      </c>
-      <c r="H10">
+      <c r="J10">
+        <v>11694</v>
+      </c>
+      <c r="M10">
         <v>13400</v>
       </c>
-      <c r="I10">
+      <c r="N10">
         <v>17473</v>
       </c>
-      <c r="J10">
+      <c r="O10">
         <v>17348</v>
       </c>
-      <c r="K10">
+      <c r="P10">
         <v>16923</v>
       </c>
-      <c r="L10">
+      <c r="Q10">
         <v>15193</v>
       </c>
-      <c r="M10">
+      <c r="R10">
         <v>14936</v>
       </c>
-      <c r="N10">
+      <c r="S10">
         <v>7589</v>
       </c>
-      <c r="O10">
+      <c r="T10">
         <v>15878.83333333333</v>
       </c>
-      <c r="P10">
-        <v>1167</v>
-      </c>
-      <c r="Q10">
-        <v>12.60654098828906</v>
-      </c>
-      <c r="R10">
+      <c r="U10">
+        <v>11694</v>
+      </c>
+      <c r="V10">
+        <v>0.3578615814377744</v>
+      </c>
+      <c r="W10">
         <v>17327</v>
       </c>
-      <c r="S10">
+      <c r="X10">
         <v>12283</v>
       </c>
-      <c r="T10">
+      <c r="Y10">
         <v>19237</v>
       </c>
-      <c r="U10">
+      <c r="Z10">
         <v>20011</v>
       </c>
-      <c r="V10">
+      <c r="AA10">
         <v>15929</v>
       </c>
-      <c r="W10">
+      <c r="AB10">
         <v>8695</v>
       </c>
-      <c r="X10">
+      <c r="AC10">
         <v>707</v>
       </c>
-      <c r="Y10">
+      <c r="AD10">
         <v>15580.33333333333</v>
       </c>
-      <c r="Z10">
+      <c r="AE10">
         <v>15878.83333333333</v>
       </c>
-      <c r="AA10">
+      <c r="AF10">
         <v>-0.01879861030932162</v>
       </c>
-      <c r="AB10">
+      <c r="AG10">
         <v>13663</v>
       </c>
-      <c r="AC10">
+      <c r="AH10">
         <v>13067</v>
       </c>
-      <c r="AD10">
+      <c r="AI10">
         <v>20800</v>
       </c>
-      <c r="AE10">
+      <c r="AJ10">
         <v>14822</v>
       </c>
-      <c r="AF10">
+      <c r="AK10">
         <v>21150</v>
       </c>
-      <c r="AG10">
+      <c r="AL10">
         <v>8478</v>
       </c>
-      <c r="AH10">
+      <c r="AM10">
         <v>317</v>
       </c>
-      <c r="AI10">
+      <c r="AN10">
         <v>15330</v>
       </c>
-      <c r="AJ10">
+      <c r="AO10">
         <v>15580.33333333333</v>
       </c>
-      <c r="AK10">
+      <c r="AP10">
         <v>-0.01606726428617278</v>
       </c>
-      <c r="AL10">
+      <c r="AQ10">
         <v>12391</v>
       </c>
-      <c r="AM10">
+      <c r="AR10">
         <v>20829</v>
       </c>
-      <c r="AN10">
+      <c r="AS10">
         <v>18380</v>
       </c>
-      <c r="AO10">
+      <c r="AT10">
         <v>14563</v>
       </c>
-      <c r="AP10">
+      <c r="AU10">
         <v>17200</v>
       </c>
-      <c r="AQ10">
+      <c r="AV10">
         <v>15330</v>
       </c>
-      <c r="AR10">
+      <c r="AW10">
         <v>0.1219830397912589</v>
       </c>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:49">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>89</v>
@@ -7860,124 +8019,139 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>43.1</v>
+      </c>
+      <c r="F11">
+        <v>35.9</v>
+      </c>
+      <c r="G11">
+        <v>39.8</v>
       </c>
       <c r="H11">
+        <v>33.1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>29.73333333333333</v>
+      </c>
+      <c r="M11">
         <v>48.8</v>
       </c>
-      <c r="I11">
+      <c r="N11">
         <v>43.5</v>
       </c>
-      <c r="J11">
+      <c r="O11">
         <v>42.2</v>
       </c>
-      <c r="K11">
+      <c r="P11">
         <v>50.2</v>
       </c>
-      <c r="L11">
+      <c r="Q11">
         <v>36.4</v>
       </c>
-      <c r="M11">
+      <c r="R11">
         <v>47.9</v>
       </c>
-      <c r="N11">
+      <c r="S11">
         <v>22.4</v>
       </c>
-      <c r="O11">
+      <c r="T11">
         <v>44.83333333333334</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
+      <c r="U11">
+        <v>29.73333333333333</v>
+      </c>
+      <c r="V11">
+        <v>0.507847533632287</v>
+      </c>
+      <c r="W11">
         <v>56.9</v>
       </c>
-      <c r="S11">
+      <c r="X11">
         <v>54</v>
       </c>
-      <c r="T11">
+      <c r="Y11">
         <v>50.5</v>
       </c>
-      <c r="U11">
+      <c r="Z11">
         <v>48.8</v>
       </c>
-      <c r="V11">
+      <c r="AA11">
         <v>47.6</v>
       </c>
-      <c r="W11">
+      <c r="AB11">
         <v>13</v>
       </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
         <v>45.13333333333333</v>
       </c>
-      <c r="Z11">
+      <c r="AE11">
         <v>44.83333333333334</v>
       </c>
-      <c r="AA11">
+      <c r="AF11">
         <v>0.006691449814126393</v>
       </c>
-      <c r="AB11">
+      <c r="AG11">
         <v>40.9</v>
       </c>
-      <c r="AC11">
+      <c r="AH11">
         <v>38.2</v>
       </c>
-      <c r="AD11">
+      <c r="AI11">
         <v>51.3</v>
       </c>
-      <c r="AE11">
+      <c r="AJ11">
         <v>47.1</v>
       </c>
-      <c r="AF11">
+      <c r="AK11">
         <v>43</v>
       </c>
-      <c r="AG11">
+      <c r="AL11">
         <v>15.5</v>
       </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
         <v>39.33333333333333</v>
       </c>
-      <c r="AJ11">
+      <c r="AO11">
         <v>45.13333333333333</v>
       </c>
-      <c r="AK11">
+      <c r="AP11">
         <v>-0.1285081240768096</v>
       </c>
-      <c r="AL11">
+      <c r="AQ11">
         <v>31.4</v>
       </c>
-      <c r="AM11">
+      <c r="AR11">
         <v>47.9</v>
       </c>
-      <c r="AN11">
+      <c r="AS11">
         <v>50.1</v>
       </c>
-      <c r="AO11">
+      <c r="AT11">
         <v>35.7</v>
       </c>
-      <c r="AP11">
+      <c r="AU11">
         <v>43.13333333333333</v>
       </c>
-      <c r="AQ11">
+      <c r="AV11">
         <v>39.33333333333333</v>
       </c>
-      <c r="AR11">
+      <c r="AW11">
         <v>0.09661016949152557</v>
       </c>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:49">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -7988,124 +8162,139 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>95</v>
+        <v>2059.75</v>
+      </c>
+      <c r="E12">
+        <v>2387.619047619048</v>
+      </c>
+      <c r="F12">
+        <v>1888.5</v>
+      </c>
+      <c r="G12">
+        <v>3240.46875</v>
       </c>
       <c r="H12">
+        <v>4098.181818181818</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>2700.153846153846</v>
+      </c>
+      <c r="M12">
         <v>1976.666666666667</v>
       </c>
-      <c r="I12">
+      <c r="N12">
         <v>2617.230769230769</v>
       </c>
-      <c r="J12">
+      <c r="O12">
         <v>2980.363636363636</v>
       </c>
-      <c r="K12">
+      <c r="P12">
         <v>2051.190476190476</v>
       </c>
-      <c r="L12">
+      <c r="Q12">
         <v>2270.140845070423</v>
       </c>
-      <c r="M12">
+      <c r="R12">
         <v>2368.253968253968</v>
       </c>
-      <c r="N12">
+      <c r="S12">
         <v>2010.833333333333</v>
       </c>
-      <c r="O12">
+      <c r="T12">
         <v>2314.89841986456</v>
       </c>
-      <c r="P12" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q12">
-        <v>-1</v>
-      </c>
-      <c r="R12">
+      <c r="U12">
+        <v>2700.153846153846</v>
+      </c>
+      <c r="V12">
+        <v>-0.1426790650607008</v>
+      </c>
+      <c r="W12">
         <v>1646.938775510204</v>
       </c>
-      <c r="S12">
+      <c r="X12">
         <v>1576.590909090909</v>
       </c>
-      <c r="T12">
+      <c r="Y12">
         <v>2540.31746031746</v>
       </c>
-      <c r="U12">
+      <c r="Z12">
         <v>3403.283582089552</v>
       </c>
-      <c r="V12">
+      <c r="AA12">
         <v>3142.156862745098</v>
       </c>
-      <c r="W12">
+      <c r="AB12">
         <v>2754.666666666667</v>
       </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
         <v>2363.123425692695</v>
       </c>
-      <c r="Z12">
+      <c r="AE12">
         <v>2314.89841986456</v>
       </c>
-      <c r="AA12">
+      <c r="AF12">
         <v>0.02083245010420653</v>
       </c>
-      <c r="AB12">
+      <c r="AG12">
         <v>1582.588235294118</v>
       </c>
-      <c r="AC12">
+      <c r="AH12">
         <v>1862</v>
       </c>
-      <c r="AD12">
+      <c r="AI12">
         <v>3029</v>
       </c>
-      <c r="AE12">
+      <c r="AJ12">
         <v>1815.128205128205</v>
       </c>
-      <c r="AF12">
+      <c r="AK12">
         <v>2806.40625</v>
       </c>
-      <c r="AG12">
+      <c r="AL12">
         <v>2132.608695652174</v>
       </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
         <v>2185.157384987894</v>
       </c>
-      <c r="AJ12">
+      <c r="AO12">
         <v>2363.123425692695</v>
       </c>
-      <c r="AK12">
+      <c r="AP12">
         <v>-0.07530966803083283</v>
       </c>
-      <c r="AL12">
+      <c r="AQ12">
         <v>2211.964285714286</v>
       </c>
-      <c r="AM12">
+      <c r="AR12">
         <v>2540.493827160494</v>
       </c>
-      <c r="AN12">
+      <c r="AS12">
         <v>2338.333333333333</v>
       </c>
-      <c r="AO12">
+      <c r="AT12">
         <v>1666.551724137931</v>
       </c>
-      <c r="AP12">
+      <c r="AU12">
         <v>2181.815286624204</v>
       </c>
-      <c r="AQ12">
+      <c r="AV12">
         <v>2185.157384987894</v>
       </c>
-      <c r="AR12">
+      <c r="AW12">
         <v>-0.001529454302307998</v>
       </c>
     </row>
-    <row r="13" spans="1:44">
+    <row r="13" spans="1:49">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>88</v>
@@ -8114,124 +8303,139 @@
         <v>1179</v>
       </c>
       <c r="D13">
+        <v>8239</v>
+      </c>
+      <c r="E13">
+        <v>15042</v>
+      </c>
+      <c r="F13">
+        <v>11331</v>
+      </c>
+      <c r="G13">
+        <v>20739</v>
+      </c>
+      <c r="H13">
+        <v>13524</v>
+      </c>
+      <c r="I13">
         <v>150</v>
       </c>
-      <c r="E13">
-        <v>1179</v>
-      </c>
-      <c r="H13">
+      <c r="J13">
+        <v>11675.66666666667</v>
+      </c>
+      <c r="M13">
         <v>13639</v>
       </c>
-      <c r="I13">
+      <c r="N13">
         <v>17012</v>
       </c>
-      <c r="J13">
+      <c r="O13">
         <v>16392</v>
       </c>
-      <c r="K13">
+      <c r="P13">
         <v>17230</v>
       </c>
-      <c r="L13">
+      <c r="Q13">
         <v>16118</v>
       </c>
-      <c r="M13">
+      <c r="R13">
         <v>14920</v>
       </c>
-      <c r="N13">
+      <c r="S13">
         <v>7239</v>
       </c>
-      <c r="O13">
+      <c r="T13">
         <v>15885.16666666667</v>
       </c>
-      <c r="P13">
-        <v>1179</v>
-      </c>
-      <c r="Q13">
-        <v>12.47342380548487</v>
-      </c>
-      <c r="R13">
+      <c r="U13">
+        <v>11675.66666666667</v>
+      </c>
+      <c r="V13">
+        <v>0.3605361578211095</v>
+      </c>
+      <c r="W13">
         <v>16140</v>
       </c>
-      <c r="S13">
+      <c r="X13">
         <v>13874</v>
       </c>
-      <c r="T13">
+      <c r="Y13">
         <v>16004</v>
       </c>
-      <c r="U13">
+      <c r="Z13">
         <v>22802</v>
       </c>
-      <c r="V13">
+      <c r="AA13">
         <v>16025</v>
       </c>
-      <c r="W13">
+      <c r="AB13">
         <v>8264</v>
       </c>
-      <c r="X13">
+      <c r="AC13">
         <v>707</v>
       </c>
-      <c r="Y13">
+      <c r="AD13">
         <v>15518.16666666667</v>
       </c>
-      <c r="Z13">
+      <c r="AE13">
         <v>15885.16666666667</v>
       </c>
-      <c r="AA13">
+      <c r="AF13">
         <v>-0.02310331441281699</v>
       </c>
-      <c r="AB13">
+      <c r="AG13">
         <v>13452</v>
       </c>
-      <c r="AC13">
+      <c r="AH13">
         <v>13034</v>
       </c>
-      <c r="AD13">
+      <c r="AI13">
         <v>21203</v>
       </c>
-      <c r="AE13">
+      <c r="AJ13">
         <v>14158</v>
       </c>
-      <c r="AF13">
+      <c r="AK13">
         <v>17961</v>
       </c>
-      <c r="AG13">
+      <c r="AL13">
         <v>9810</v>
       </c>
-      <c r="AH13">
+      <c r="AM13">
         <v>629</v>
       </c>
-      <c r="AI13">
+      <c r="AN13">
         <v>14936.33333333333</v>
       </c>
-      <c r="AJ13">
+      <c r="AO13">
         <v>15518.16666666667</v>
       </c>
-      <c r="AK13">
+      <c r="AP13">
         <v>-0.0374936901910663</v>
       </c>
-      <c r="AL13">
+      <c r="AQ13">
         <v>12387</v>
       </c>
-      <c r="AM13">
+      <c r="AR13">
         <v>20578</v>
       </c>
-      <c r="AN13">
+      <c r="AS13">
         <v>21045</v>
       </c>
-      <c r="AO13">
+      <c r="AT13">
         <v>14499</v>
       </c>
-      <c r="AP13">
+      <c r="AU13">
         <v>18003.33333333333</v>
       </c>
-      <c r="AQ13">
+      <c r="AV13">
         <v>14936.33333333333</v>
       </c>
-      <c r="AR13">
+      <c r="AW13">
         <v>0.2053382133053627</v>
       </c>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:49">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>89</v>
@@ -8240,124 +8444,139 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>6.3</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>6.4</v>
       </c>
       <c r="H14">
+        <v>3.3</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>4.333333333333334</v>
+      </c>
+      <c r="M14">
         <v>6.9</v>
       </c>
-      <c r="I14">
+      <c r="N14">
         <v>6.5</v>
       </c>
-      <c r="J14">
+      <c r="O14">
         <v>5.5</v>
       </c>
-      <c r="K14">
+      <c r="P14">
         <v>8.4</v>
       </c>
-      <c r="L14">
+      <c r="Q14">
         <v>7.1</v>
       </c>
-      <c r="M14">
+      <c r="R14">
         <v>6.3</v>
       </c>
-      <c r="N14">
+      <c r="S14">
         <v>3.6</v>
       </c>
-      <c r="O14">
+      <c r="T14">
         <v>6.783333333333332</v>
       </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
+      <c r="U14">
+        <v>4.333333333333334</v>
+      </c>
+      <c r="V14">
+        <v>0.5653846153846149</v>
+      </c>
+      <c r="W14">
         <v>9.800000000000001</v>
       </c>
-      <c r="S14">
+      <c r="X14">
         <v>8.800000000000001</v>
       </c>
-      <c r="T14">
+      <c r="Y14">
         <v>6.3</v>
       </c>
-      <c r="U14">
+      <c r="Z14">
         <v>6.7</v>
       </c>
-      <c r="V14">
+      <c r="AA14">
         <v>5.1</v>
       </c>
-      <c r="W14">
+      <c r="AB14">
         <v>3</v>
       </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
         <v>6.616666666666667</v>
       </c>
-      <c r="Z14">
+      <c r="AE14">
         <v>6.783333333333332</v>
       </c>
-      <c r="AA14">
+      <c r="AF14">
         <v>-0.02457002457002433</v>
       </c>
-      <c r="AB14">
+      <c r="AG14">
         <v>8.5</v>
       </c>
-      <c r="AC14">
+      <c r="AH14">
         <v>7</v>
       </c>
-      <c r="AD14">
+      <c r="AI14">
         <v>7</v>
       </c>
-      <c r="AE14">
+      <c r="AJ14">
         <v>7.8</v>
       </c>
-      <c r="AF14">
+      <c r="AK14">
         <v>6.4</v>
       </c>
-      <c r="AG14">
+      <c r="AL14">
         <v>4.6</v>
       </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
         <v>6.883333333333334</v>
       </c>
-      <c r="AJ14">
+      <c r="AO14">
         <v>6.616666666666667</v>
       </c>
-      <c r="AK14">
+      <c r="AP14">
         <v>0.04030226700251882</v>
       </c>
-      <c r="AL14">
+      <c r="AQ14">
         <v>5.6</v>
       </c>
-      <c r="AM14">
+      <c r="AR14">
         <v>8.1</v>
       </c>
-      <c r="AN14">
+      <c r="AS14">
         <v>9</v>
       </c>
-      <c r="AO14">
+      <c r="AT14">
         <v>8.699999999999999</v>
       </c>
-      <c r="AP14">
+      <c r="AU14">
         <v>7.566666666666666</v>
       </c>
-      <c r="AQ14">
+      <c r="AV14">
         <v>6.883333333333334</v>
       </c>
-      <c r="AR14">
+      <c r="AW14">
         <v>0.09927360774818395</v>
       </c>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:49">
       <c r="A15" s="1" t="s">
         <v>84</v>
       </c>
@@ -8368,124 +8587,139 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>95</v>
+        <v>432.578947368421</v>
+      </c>
+      <c r="E15">
+        <v>483.2362459546926</v>
+      </c>
+      <c r="F15">
+        <v>515.5707762557078</v>
+      </c>
+      <c r="G15">
+        <v>674.5888157894738</v>
       </c>
       <c r="H15">
+        <v>580</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>552.3019017432647</v>
+      </c>
+      <c r="M15">
         <v>494.1666666666666</v>
       </c>
-      <c r="I15">
+      <c r="N15">
         <v>496.5147058823529</v>
       </c>
-      <c r="J15">
+      <c r="O15">
         <v>583.6219081272085</v>
       </c>
-      <c r="K15">
+      <c r="P15">
         <v>552.1546052631579</v>
       </c>
-      <c r="L15">
+      <c r="Q15">
         <v>536.9269102990033</v>
       </c>
-      <c r="M15">
+      <c r="R15">
         <v>557</v>
       </c>
-      <c r="N15">
+      <c r="S15">
         <v>461.8789808917198</v>
       </c>
-      <c r="O15">
+      <c r="T15">
         <v>529.7159090909091</v>
       </c>
-      <c r="P15" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q15">
-        <v>-1</v>
-      </c>
-      <c r="R15">
+      <c r="U15">
+        <v>552.3019017432647</v>
+      </c>
+      <c r="V15">
+        <v>-0.04089428731109923</v>
+      </c>
+      <c r="W15">
         <v>534.2953020134228</v>
       </c>
-      <c r="S15">
+      <c r="X15">
         <v>421.9526627218935</v>
       </c>
-      <c r="T15">
+      <c r="Y15">
         <v>499.6202531645569</v>
       </c>
-      <c r="U15">
+      <c r="Z15">
         <v>660.5473372781065</v>
       </c>
-      <c r="V15">
+      <c r="AA15">
         <v>572.2837370242215</v>
       </c>
-      <c r="W15">
+      <c r="AB15">
         <v>659.1287878787879</v>
       </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
         <v>550.9175920514319</v>
       </c>
-      <c r="Z15">
+      <c r="AE15">
         <v>529.7159090909091</v>
       </c>
-      <c r="AA15">
+      <c r="AF15">
         <v>0.0400246294224178</v>
       </c>
-      <c r="AB15">
+      <c r="AG15">
         <v>533.991935483871</v>
       </c>
-      <c r="AC15">
+      <c r="AH15">
         <v>443.6</v>
       </c>
-      <c r="AD15">
+      <c r="AI15">
         <v>497.7750611246944</v>
       </c>
-      <c r="AE15">
+      <c r="AJ15">
         <v>364.4543147208122</v>
       </c>
-      <c r="AF15">
+      <c r="AK15">
         <v>482.8100263852243</v>
       </c>
-      <c r="AG15">
+      <c r="AL15">
         <v>647.1241830065359</v>
       </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
         <v>477.5252257036643</v>
       </c>
-      <c r="AJ15">
+      <c r="AO15">
         <v>550.9175920514319</v>
       </c>
-      <c r="AK15">
+      <c r="AP15">
         <v>-0.1332184112590762</v>
       </c>
-      <c r="AL15">
+      <c r="AQ15">
         <v>581.5492957746479</v>
       </c>
-      <c r="AM15">
+      <c r="AR15">
         <v>496.5174129353234</v>
       </c>
-      <c r="AN15">
+      <c r="AS15">
         <v>613.4887005649717</v>
       </c>
-      <c r="AO15">
+      <c r="AT15">
         <v>584.795918367347</v>
       </c>
-      <c r="AP15">
+      <c r="AU15">
         <v>563.3607907742999</v>
       </c>
-      <c r="AQ15">
+      <c r="AV15">
         <v>477.5252257036643</v>
       </c>
-      <c r="AR15">
+      <c r="AW15">
         <v>0.1797508496941733</v>
       </c>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:49">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>88</v>
@@ -8494,124 +8728,139 @@
         <v>732.5</v>
       </c>
       <c r="D16">
+        <v>8219</v>
+      </c>
+      <c r="E16">
+        <v>14932</v>
+      </c>
+      <c r="F16">
+        <v>11291</v>
+      </c>
+      <c r="G16">
+        <v>20507.5</v>
+      </c>
+      <c r="H16">
+        <v>13920</v>
+      </c>
+      <c r="I16">
         <v>98.5</v>
       </c>
-      <c r="E16">
-        <v>732.5</v>
-      </c>
-      <c r="H16">
+      <c r="J16">
+        <v>11600.33333333333</v>
+      </c>
+      <c r="M16">
         <v>13639</v>
       </c>
-      <c r="I16">
+      <c r="N16">
         <v>16881.5</v>
       </c>
-      <c r="J16">
+      <c r="O16">
         <v>16516.5</v>
       </c>
-      <c r="K16">
+      <c r="P16">
         <v>16785.5</v>
       </c>
-      <c r="L16">
+      <c r="Q16">
         <v>16161.5</v>
       </c>
-      <c r="M16">
+      <c r="R16">
         <v>15317.5</v>
       </c>
-      <c r="N16">
+      <c r="S16">
         <v>7251.5</v>
       </c>
-      <c r="O16">
+      <c r="T16">
         <v>15883.58333333333</v>
       </c>
-      <c r="P16">
-        <v>732.5</v>
-      </c>
-      <c r="Q16">
-        <v>20.68407281001138</v>
-      </c>
-      <c r="R16">
+      <c r="U16">
+        <v>11600.33333333333</v>
+      </c>
+      <c r="V16">
+        <v>0.3692350794517398</v>
+      </c>
+      <c r="W16">
         <v>15922</v>
       </c>
-      <c r="S16">
+      <c r="X16">
         <v>14262</v>
       </c>
-      <c r="T16">
+      <c r="Y16">
         <v>15788</v>
       </c>
-      <c r="U16">
+      <c r="Z16">
         <v>22326.5</v>
       </c>
-      <c r="V16">
+      <c r="AA16">
         <v>16539</v>
       </c>
-      <c r="W16">
+      <c r="AB16">
         <v>8700.5</v>
       </c>
-      <c r="X16">
+      <c r="AC16">
         <v>724</v>
       </c>
-      <c r="Y16">
+      <c r="AD16">
         <v>15589.66666666667</v>
       </c>
-      <c r="Z16">
+      <c r="AE16">
         <v>15883.58333333333</v>
       </c>
-      <c r="AA16">
+      <c r="AF16">
         <v>-0.01850443067527796</v>
       </c>
-      <c r="AB16">
+      <c r="AG16">
         <v>13243</v>
       </c>
-      <c r="AC16">
+      <c r="AH16">
         <v>13308</v>
       </c>
-      <c r="AD16">
+      <c r="AI16">
         <v>20359</v>
       </c>
-      <c r="AE16">
+      <c r="AJ16">
         <v>14359.5</v>
       </c>
-      <c r="AF16">
+      <c r="AK16">
         <v>18298.5</v>
       </c>
-      <c r="AG16">
+      <c r="AL16">
         <v>9901</v>
       </c>
-      <c r="AH16">
+      <c r="AM16">
         <v>449</v>
       </c>
-      <c r="AI16">
+      <c r="AN16">
         <v>14911.5</v>
       </c>
-      <c r="AJ16">
+      <c r="AO16">
         <v>15589.66666666667</v>
       </c>
-      <c r="AK16">
+      <c r="AP16">
         <v>-0.04350103701169572</v>
       </c>
-      <c r="AL16">
+      <c r="AQ16">
         <v>12387</v>
       </c>
-      <c r="AM16">
+      <c r="AR16">
         <v>19960</v>
       </c>
-      <c r="AN16">
+      <c r="AS16">
         <v>21717.5</v>
       </c>
-      <c r="AO16">
+      <c r="AT16">
         <v>14327.5</v>
       </c>
-      <c r="AP16">
+      <c r="AU16">
         <v>18021.5</v>
       </c>
-      <c r="AQ16">
+      <c r="AV16">
         <v>14911.5</v>
       </c>
-      <c r="AR16">
+      <c r="AW16">
         <v>0.2085638601079705</v>
       </c>
     </row>
-    <row r="17" spans="1:44">
+    <row r="17" spans="1:49">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>89</v>
@@ -8620,124 +8869,139 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>30.9</v>
+      </c>
+      <c r="F17">
+        <v>21.9</v>
+      </c>
+      <c r="G17">
+        <v>30.4</v>
       </c>
       <c r="H17">
+        <v>24</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>21.03333333333333</v>
+      </c>
+      <c r="M17">
         <v>27.6</v>
       </c>
-      <c r="I17">
+      <c r="N17">
         <v>34</v>
       </c>
-      <c r="J17">
+      <c r="O17">
         <v>28.3</v>
       </c>
-      <c r="K17">
+      <c r="P17">
         <v>30.4</v>
       </c>
-      <c r="L17">
+      <c r="Q17">
         <v>30.1</v>
       </c>
-      <c r="M17">
+      <c r="R17">
         <v>27.5</v>
       </c>
-      <c r="N17">
+      <c r="S17">
         <v>15.7</v>
       </c>
-      <c r="O17">
+      <c r="T17">
         <v>29.65</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
+      <c r="U17">
+        <v>21.03333333333333</v>
+      </c>
+      <c r="V17">
+        <v>0.4096671949286848</v>
+      </c>
+      <c r="W17">
         <v>29.8</v>
       </c>
-      <c r="S17">
+      <c r="X17">
         <v>33.8</v>
       </c>
-      <c r="T17">
+      <c r="Y17">
         <v>31.6</v>
       </c>
-      <c r="U17">
+      <c r="Z17">
         <v>33.8</v>
       </c>
-      <c r="V17">
+      <c r="AA17">
         <v>28.9</v>
       </c>
-      <c r="W17">
+      <c r="AB17">
         <v>13.2</v>
       </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
         <v>28.51666666666667</v>
       </c>
-      <c r="Z17">
+      <c r="AE17">
         <v>29.65</v>
       </c>
-      <c r="AA17">
+      <c r="AF17">
         <v>-0.03822372119168083</v>
       </c>
-      <c r="AB17">
+      <c r="AG17">
         <v>24.8</v>
       </c>
-      <c r="AC17">
+      <c r="AH17">
         <v>30</v>
       </c>
-      <c r="AD17">
+      <c r="AI17">
         <v>40.9</v>
       </c>
-      <c r="AE17">
+      <c r="AJ17">
         <v>39.4</v>
       </c>
-      <c r="AF17">
+      <c r="AK17">
         <v>37.9</v>
       </c>
-      <c r="AG17">
+      <c r="AL17">
         <v>15.3</v>
       </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
         <v>31.38333333333334</v>
       </c>
-      <c r="AJ17">
+      <c r="AO17">
         <v>28.51666666666667</v>
       </c>
-      <c r="AK17">
+      <c r="AP17">
         <v>0.1005260081823496</v>
       </c>
-      <c r="AL17">
+      <c r="AQ17">
         <v>21.3</v>
       </c>
-      <c r="AM17">
+      <c r="AR17">
         <v>40.2</v>
       </c>
-      <c r="AN17">
+      <c r="AS17">
         <v>35.4</v>
       </c>
-      <c r="AO17">
+      <c r="AT17">
         <v>24.5</v>
       </c>
-      <c r="AP17">
+      <c r="AU17">
         <v>32.3</v>
       </c>
-      <c r="AQ17">
+      <c r="AV17">
         <v>31.38333333333334</v>
       </c>
-      <c r="AR17">
+      <c r="AW17">
         <v>0.02920870950610732</v>
       </c>
     </row>
-    <row r="18" spans="1:44">
+    <row r="18" spans="1:49">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
@@ -8748,124 +9012,139 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>95</v>
+        <v>819.9</v>
+      </c>
+      <c r="E18">
+        <v>529.3571428571429</v>
+      </c>
+      <c r="F18">
+        <v>540.9134615384615</v>
+      </c>
+      <c r="G18">
+        <v>765.1320754716982</v>
       </c>
       <c r="H18">
+        <v>712.2388059701493</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>656.518026565465</v>
+      </c>
+      <c r="M18">
         <v>678.5572139303482</v>
       </c>
-      <c r="I18">
+      <c r="N18">
         <v>649.2635658914728</v>
       </c>
-      <c r="J18">
+      <c r="O18">
         <v>635.1526717557251</v>
       </c>
-      <c r="K18">
+      <c r="P18">
         <v>585.6989247311828</v>
       </c>
-      <c r="L18">
+      <c r="Q18">
         <v>635.4901960784314</v>
       </c>
-      <c r="M18">
+      <c r="R18">
         <v>695.3539823008849</v>
       </c>
-      <c r="N18">
+      <c r="S18">
         <v>474.7712418300654</v>
       </c>
-      <c r="O18">
+      <c r="T18">
         <v>627.6376988984088</v>
       </c>
-      <c r="P18" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q18">
-        <v>-1</v>
-      </c>
-      <c r="R18">
+      <c r="U18">
+        <v>656.518026565465</v>
+      </c>
+      <c r="V18">
+        <v>-0.04399015182894817</v>
+      </c>
+      <c r="W18">
         <v>597.1102661596958</v>
       </c>
-      <c r="S18">
+      <c r="X18">
         <v>631.4655172413793</v>
       </c>
-      <c r="T18">
+      <c r="Y18">
         <v>714.3119266055046</v>
       </c>
-      <c r="U18">
+      <c r="Z18">
         <v>735.7239057239058</v>
       </c>
-      <c r="V18">
+      <c r="AA18">
         <v>698.8934426229507</v>
       </c>
-      <c r="W18">
+      <c r="AB18">
         <v>452.3267326732673</v>
       </c>
-      <c r="X18">
+      <c r="AC18">
         <v>926.25</v>
       </c>
-      <c r="Y18">
+      <c r="AD18">
         <v>646.9125683060109</v>
       </c>
-      <c r="Z18">
+      <c r="AE18">
         <v>627.6376988984088</v>
       </c>
-      <c r="AA18">
+      <c r="AF18">
         <v>0.03071018430128114</v>
       </c>
-      <c r="AB18">
+      <c r="AG18">
         <v>740.5681818181819</v>
       </c>
-      <c r="AC18">
+      <c r="AH18">
         <v>726.3101604278074</v>
       </c>
-      <c r="AD18">
+      <c r="AI18">
         <v>679.9651567944251</v>
       </c>
-      <c r="AE18">
+      <c r="AJ18">
         <v>459.3375394321766</v>
       </c>
-      <c r="AF18">
+      <c r="AK18">
         <v>520.5586592178771</v>
       </c>
-      <c r="AG18">
+      <c r="AL18">
         <v>502.1105527638192</v>
       </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
         <v>587.8543307086615</v>
       </c>
-      <c r="AJ18">
+      <c r="AO18">
         <v>646.9125683060109</v>
       </c>
-      <c r="AK18">
+      <c r="AP18">
         <v>-0.0912924566483504</v>
       </c>
-      <c r="AL18">
+      <c r="AQ18">
         <v>904.1605839416059</v>
       </c>
-      <c r="AM18">
+      <c r="AR18">
         <v>761.496062992126</v>
       </c>
-      <c r="AN18">
+      <c r="AS18">
         <v>785.6140350877193</v>
       </c>
-      <c r="AO18">
+      <c r="AT18">
         <v>693.9215686274509</v>
       </c>
-      <c r="AP18">
+      <c r="AU18">
         <v>775.8522727272727</v>
       </c>
-      <c r="AQ18">
+      <c r="AV18">
         <v>587.8543307086615</v>
       </c>
-      <c r="AR18">
+      <c r="AW18">
         <v>0.3198036183419433</v>
       </c>
     </row>
-    <row r="19" spans="1:44">
+    <row r="19" spans="1:49">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>88</v>
@@ -8874,124 +9153,139 @@
         <v>286</v>
       </c>
       <c r="D19">
+        <v>8199</v>
+      </c>
+      <c r="E19">
+        <v>14822</v>
+      </c>
+      <c r="F19">
+        <v>11251</v>
+      </c>
+      <c r="G19">
+        <v>20276</v>
+      </c>
+      <c r="H19">
+        <v>14316</v>
+      </c>
+      <c r="I19">
         <v>47</v>
       </c>
-      <c r="E19">
-        <v>286</v>
-      </c>
-      <c r="H19">
+      <c r="J19">
+        <v>11525</v>
+      </c>
+      <c r="M19">
         <v>13639</v>
       </c>
-      <c r="I19">
+      <c r="N19">
         <v>16751</v>
       </c>
-      <c r="J19">
+      <c r="O19">
         <v>16641</v>
       </c>
-      <c r="K19">
+      <c r="P19">
         <v>16341</v>
       </c>
-      <c r="L19">
+      <c r="Q19">
         <v>16205</v>
       </c>
-      <c r="M19">
+      <c r="R19">
         <v>15715</v>
       </c>
-      <c r="N19">
+      <c r="S19">
         <v>7264</v>
       </c>
-      <c r="O19">
+      <c r="T19">
         <v>15882</v>
       </c>
-      <c r="P19">
-        <v>286</v>
-      </c>
-      <c r="Q19">
-        <v>54.53146853146853</v>
-      </c>
-      <c r="R19">
+      <c r="U19">
+        <v>11525</v>
+      </c>
+      <c r="V19">
+        <v>0.3780477223427332</v>
+      </c>
+      <c r="W19">
         <v>15704</v>
       </c>
-      <c r="S19">
+      <c r="X19">
         <v>14650</v>
       </c>
-      <c r="T19">
+      <c r="Y19">
         <v>15572</v>
       </c>
-      <c r="U19">
+      <c r="Z19">
         <v>21851</v>
       </c>
-      <c r="V19">
+      <c r="AA19">
         <v>17053</v>
       </c>
-      <c r="W19">
+      <c r="AB19">
         <v>9137</v>
       </c>
-      <c r="X19">
+      <c r="AC19">
         <v>741</v>
       </c>
-      <c r="Y19">
+      <c r="AD19">
         <v>15661.16666666667</v>
       </c>
-      <c r="Z19">
+      <c r="AE19">
         <v>15882</v>
       </c>
-      <c r="AA19">
+      <c r="AF19">
         <v>-0.01390462997943165</v>
       </c>
-      <c r="AB19">
+      <c r="AG19">
         <v>13034</v>
       </c>
-      <c r="AC19">
+      <c r="AH19">
         <v>13582</v>
       </c>
-      <c r="AD19">
+      <c r="AI19">
         <v>19515</v>
       </c>
-      <c r="AE19">
+      <c r="AJ19">
         <v>14561</v>
       </c>
-      <c r="AF19">
+      <c r="AK19">
         <v>18636</v>
       </c>
-      <c r="AG19">
+      <c r="AL19">
         <v>9992</v>
       </c>
-      <c r="AH19">
+      <c r="AM19">
         <v>269</v>
       </c>
-      <c r="AI19">
+      <c r="AN19">
         <v>14886.66666666667</v>
       </c>
-      <c r="AJ19">
+      <c r="AO19">
         <v>15661.16666666667</v>
       </c>
-      <c r="AK19">
+      <c r="AP19">
         <v>-0.0494535315589516</v>
       </c>
-      <c r="AL19">
+      <c r="AQ19">
         <v>12387</v>
       </c>
-      <c r="AM19">
+      <c r="AR19">
         <v>19342</v>
       </c>
-      <c r="AN19">
+      <c r="AS19">
         <v>22390</v>
       </c>
-      <c r="AO19">
+      <c r="AT19">
         <v>14156</v>
       </c>
-      <c r="AP19">
+      <c r="AU19">
         <v>18039.66666666667</v>
       </c>
-      <c r="AQ19">
+      <c r="AV19">
         <v>14886.66666666667</v>
       </c>
-      <c r="AR19">
+      <c r="AW19">
         <v>0.2118002686968206</v>
       </c>
     </row>
-    <row r="20" spans="1:44">
+    <row r="20" spans="1:49">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>89</v>
@@ -9000,124 +9294,139 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="F20">
+        <v>20.8</v>
+      </c>
+      <c r="G20">
+        <v>26.5</v>
       </c>
       <c r="H20">
         <v>20.1</v>
       </c>
       <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>17.56666666666667</v>
+      </c>
+      <c r="M20">
+        <v>20.1</v>
+      </c>
+      <c r="N20">
         <v>25.8</v>
       </c>
-      <c r="J20">
+      <c r="O20">
         <v>26.2</v>
       </c>
-      <c r="K20">
+      <c r="P20">
         <v>27.9</v>
       </c>
-      <c r="L20">
+      <c r="Q20">
         <v>25.5</v>
       </c>
-      <c r="M20">
+      <c r="R20">
         <v>22.6</v>
       </c>
-      <c r="N20">
+      <c r="S20">
         <v>15.3</v>
       </c>
-      <c r="O20">
+      <c r="T20">
         <v>24.68333333333333</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
+      <c r="U20">
+        <v>17.56666666666667</v>
+      </c>
+      <c r="V20">
+        <v>0.4051233396584442</v>
+      </c>
+      <c r="W20">
         <v>26.3</v>
       </c>
-      <c r="S20">
+      <c r="X20">
         <v>23.2</v>
       </c>
-      <c r="T20">
+      <c r="Y20">
         <v>21.8</v>
       </c>
-      <c r="U20">
+      <c r="Z20">
         <v>29.7</v>
       </c>
-      <c r="V20">
+      <c r="AA20">
         <v>24.4</v>
       </c>
-      <c r="W20">
+      <c r="AB20">
         <v>20.2</v>
       </c>
-      <c r="X20">
+      <c r="AC20">
         <v>0.8</v>
       </c>
-      <c r="Y20">
+      <c r="AD20">
         <v>24.26666666666667</v>
       </c>
-      <c r="Z20">
+      <c r="AE20">
         <v>24.68333333333333</v>
       </c>
-      <c r="AA20">
+      <c r="AF20">
         <v>-0.01688048615800131</v>
       </c>
-      <c r="AB20">
+      <c r="AG20">
         <v>17.6</v>
       </c>
-      <c r="AC20">
+      <c r="AH20">
         <v>18.7</v>
       </c>
-      <c r="AD20">
+      <c r="AI20">
         <v>28.7</v>
       </c>
-      <c r="AE20">
+      <c r="AJ20">
         <v>31.7</v>
       </c>
-      <c r="AF20">
+      <c r="AK20">
         <v>35.8</v>
       </c>
-      <c r="AG20">
+      <c r="AL20">
         <v>19.9</v>
       </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
         <v>25.4</v>
       </c>
-      <c r="AJ20">
+      <c r="AO20">
         <v>24.26666666666667</v>
       </c>
-      <c r="AK20">
+      <c r="AP20">
         <v>0.04670329670329676</v>
       </c>
-      <c r="AL20">
+      <c r="AQ20">
         <v>13.7</v>
       </c>
-      <c r="AM20">
+      <c r="AR20">
         <v>25.4</v>
       </c>
-      <c r="AN20">
+      <c r="AS20">
         <v>28.5</v>
       </c>
-      <c r="AO20">
+      <c r="AT20">
         <v>20.4</v>
       </c>
-      <c r="AP20">
+      <c r="AU20">
         <v>22.53333333333333</v>
       </c>
-      <c r="AQ20">
+      <c r="AV20">
         <v>25.4</v>
       </c>
-      <c r="AR20">
+      <c r="AW20">
         <v>-0.1128608923884515</v>
       </c>
     </row>
-    <row r="21" spans="1:44">
+    <row r="21" spans="1:49">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -9128,124 +9437,139 @@
         <v>1.663019693654267</v>
       </c>
       <c r="D21">
+        <v>12.02666666666667</v>
+      </c>
+      <c r="E21">
+        <v>23.55140186915888</v>
+      </c>
+      <c r="F21">
+        <v>28.31395348837209</v>
+      </c>
+      <c r="G21">
+        <v>25.28901734104046</v>
+      </c>
+      <c r="H21">
+        <v>14.66275659824047</v>
+      </c>
+      <c r="I21">
         <v>0.4026845637583892</v>
       </c>
-      <c r="E21">
-        <v>1.165562913907285</v>
-      </c>
-      <c r="H21">
+      <c r="J21">
+        <v>15.04828118964851</v>
+      </c>
+      <c r="M21">
         <v>22.3546511627907</v>
       </c>
-      <c r="I21">
+      <c r="N21">
         <v>28.82096069868996</v>
       </c>
-      <c r="J21">
+      <c r="O21">
         <v>18.4375</v>
       </c>
-      <c r="K21">
+      <c r="P21">
         <v>28.27380952380952</v>
       </c>
-      <c r="L21">
+      <c r="Q21">
         <v>22.44897959183673</v>
       </c>
-      <c r="M21">
+      <c r="R21">
         <v>28.57594936708861</v>
       </c>
-      <c r="N21">
+      <c r="S21">
         <v>11.65584415584416</v>
       </c>
-      <c r="O21">
+      <c r="T21">
         <v>22.70531400966183</v>
       </c>
-      <c r="P21">
-        <v>1.165562913907285</v>
-      </c>
-      <c r="Q21">
-        <v>18.48012736056214</v>
-      </c>
-      <c r="R21">
+      <c r="U21">
+        <v>15.04828118964851</v>
+      </c>
+      <c r="V21">
+        <v>0.5088310567508847</v>
+      </c>
+      <c r="W21">
         <v>31.72</v>
       </c>
-      <c r="S21">
+      <c r="X21">
         <v>27.25308641975308</v>
       </c>
-      <c r="T21">
+      <c r="Y21">
         <v>16.85912240184757</v>
       </c>
-      <c r="U21">
+      <c r="Z21">
         <v>23.49162011173184</v>
       </c>
-      <c r="V21">
+      <c r="AA21">
         <v>12.69642857142857</v>
       </c>
-      <c r="W21">
+      <c r="AB21">
         <v>13.99399399399399</v>
       </c>
-      <c r="X21">
+      <c r="AC21">
         <v>84.44444444444444</v>
       </c>
-      <c r="Y21">
+      <c r="AD21">
         <v>19.85002205558006</v>
       </c>
-      <c r="Z21">
+      <c r="AE21">
         <v>22.70531400966183</v>
       </c>
-      <c r="AA21">
+      <c r="AF21">
         <v>-0.1257543477648779</v>
       </c>
-      <c r="AB21">
+      <c r="AG21">
         <v>40.44025157232705</v>
       </c>
-      <c r="AC21">
+      <c r="AH21">
         <v>36.56779661016949</v>
       </c>
-      <c r="AD21">
+      <c r="AI21">
         <v>31.44171779141104</v>
       </c>
-      <c r="AE21">
+      <c r="AJ21">
         <v>31.42372881355932</v>
       </c>
-      <c r="AF21">
+      <c r="AK21">
         <v>33.45070422535211</v>
       </c>
-      <c r="AG21">
+      <c r="AL21">
         <v>38.25396825396825</v>
       </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
         <v>34.43899018232819</v>
       </c>
-      <c r="AJ21">
+      <c r="AO21">
         <v>19.85002205558006</v>
       </c>
-      <c r="AK21">
+      <c r="AP21">
         <v>0.7349597942964001</v>
       </c>
-      <c r="AL21">
+      <c r="AQ21">
         <v>46.08695652173913</v>
       </c>
-      <c r="AM21">
+      <c r="AR21">
         <v>40.45643153526971</v>
       </c>
-      <c r="AN21">
+      <c r="AS21">
         <v>44.05693950177936</v>
       </c>
-      <c r="AO21">
+      <c r="AT21">
         <v>31.89873417721519</v>
       </c>
-      <c r="AP21">
+      <c r="AU21">
         <v>40.18952062430323</v>
       </c>
-      <c r="AQ21">
+      <c r="AV21">
         <v>34.43899018232819</v>
       </c>
-      <c r="AR21">
+      <c r="AW21">
         <v>0.1669773245827004</v>
       </c>
     </row>
-    <row r="22" spans="1:44">
+    <row r="22" spans="1:49">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>88</v>
@@ -9254,124 +9578,139 @@
         <v>76</v>
       </c>
       <c r="D22">
+        <v>451</v>
+      </c>
+      <c r="E22">
+        <v>1008</v>
+      </c>
+      <c r="F22">
+        <v>974</v>
+      </c>
+      <c r="G22">
+        <v>875</v>
+      </c>
+      <c r="H22">
+        <v>500</v>
+      </c>
+      <c r="I22">
         <v>12</v>
       </c>
-      <c r="E22">
+      <c r="J22">
+        <v>647.3333333333334</v>
+      </c>
+      <c r="M22">
+        <v>769</v>
+      </c>
+      <c r="N22">
+        <v>660</v>
+      </c>
+      <c r="O22">
+        <v>649</v>
+      </c>
+      <c r="P22">
+        <v>950</v>
+      </c>
+      <c r="Q22">
+        <v>880</v>
+      </c>
+      <c r="R22">
+        <v>903</v>
+      </c>
+      <c r="S22">
+        <v>359</v>
+      </c>
+      <c r="T22">
+        <v>801.8333333333334</v>
+      </c>
+      <c r="U22">
+        <v>647.3333333333334</v>
+      </c>
+      <c r="V22">
+        <v>0.2386714727085479</v>
+      </c>
+      <c r="W22">
+        <v>793</v>
+      </c>
+      <c r="X22">
+        <v>883</v>
+      </c>
+      <c r="Y22">
+        <v>730</v>
+      </c>
+      <c r="Z22">
+        <v>841</v>
+      </c>
+      <c r="AA22">
+        <v>711</v>
+      </c>
+      <c r="AB22">
+        <v>466</v>
+      </c>
+      <c r="AC22">
         <v>76</v>
       </c>
-      <c r="H22">
-        <v>769</v>
-      </c>
-      <c r="I22">
-        <v>660</v>
-      </c>
-      <c r="J22">
-        <v>649</v>
-      </c>
-      <c r="K22">
+      <c r="AD22">
+        <v>737.3333333333334</v>
+      </c>
+      <c r="AE22">
+        <v>801.8333333333334</v>
+      </c>
+      <c r="AF22">
+        <v>-0.08044065682810231</v>
+      </c>
+      <c r="AG22">
+        <v>643</v>
+      </c>
+      <c r="AH22">
+        <v>863</v>
+      </c>
+      <c r="AI22">
+        <v>1025</v>
+      </c>
+      <c r="AJ22">
+        <v>927</v>
+      </c>
+      <c r="AK22">
         <v>950</v>
       </c>
-      <c r="L22">
-        <v>880</v>
-      </c>
-      <c r="M22">
-        <v>903</v>
-      </c>
-      <c r="N22">
-        <v>359</v>
-      </c>
-      <c r="O22">
-        <v>801.8333333333334</v>
-      </c>
-      <c r="P22">
-        <v>76</v>
-      </c>
-      <c r="Q22">
-        <v>9.550438596491228</v>
-      </c>
-      <c r="R22">
-        <v>793</v>
-      </c>
-      <c r="S22">
-        <v>883</v>
-      </c>
-      <c r="T22">
-        <v>730</v>
-      </c>
-      <c r="U22">
-        <v>841</v>
-      </c>
-      <c r="V22">
-        <v>711</v>
-      </c>
-      <c r="W22">
-        <v>466</v>
-      </c>
-      <c r="X22">
-        <v>76</v>
-      </c>
-      <c r="Y22">
+      <c r="AL22">
+        <v>482</v>
+      </c>
+      <c r="AM22">
+        <v>21</v>
+      </c>
+      <c r="AN22">
+        <v>815</v>
+      </c>
+      <c r="AO22">
         <v>737.3333333333334</v>
       </c>
-      <c r="Z22">
-        <v>801.8333333333334</v>
-      </c>
-      <c r="AA22">
-        <v>-0.08044065682810231</v>
-      </c>
-      <c r="AB22">
-        <v>643</v>
-      </c>
-      <c r="AC22">
-        <v>863</v>
-      </c>
-      <c r="AD22">
-        <v>1025</v>
-      </c>
-      <c r="AE22">
-        <v>927</v>
-      </c>
-      <c r="AF22">
-        <v>950</v>
-      </c>
-      <c r="AG22">
-        <v>482</v>
-      </c>
-      <c r="AH22">
-        <v>21</v>
-      </c>
-      <c r="AI22">
+      <c r="AP22">
+        <v>0.1053345388788427</v>
+      </c>
+      <c r="AQ22">
+        <v>636</v>
+      </c>
+      <c r="AR22">
+        <v>975</v>
+      </c>
+      <c r="AS22">
+        <v>1238</v>
+      </c>
+      <c r="AT22">
+        <v>756</v>
+      </c>
+      <c r="AU22">
+        <v>949.6666666666666</v>
+      </c>
+      <c r="AV22">
         <v>815</v>
       </c>
-      <c r="AJ22">
-        <v>737.3333333333334</v>
-      </c>
-      <c r="AK22">
-        <v>0.1053345388788427</v>
-      </c>
-      <c r="AL22">
-        <v>636</v>
-      </c>
-      <c r="AM22">
-        <v>975</v>
-      </c>
-      <c r="AN22">
-        <v>1238</v>
-      </c>
-      <c r="AO22">
-        <v>756</v>
-      </c>
-      <c r="AP22">
-        <v>949.6666666666666</v>
-      </c>
-      <c r="AQ22">
-        <v>815</v>
-      </c>
-      <c r="AR22">
+      <c r="AW22">
         <v>0.1652351738241309</v>
       </c>
     </row>
-    <row r="23" spans="1:44">
+    <row r="23" spans="1:49">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>89</v>
@@ -9380,124 +9719,139 @@
         <v>45.7</v>
       </c>
       <c r="D23">
+        <v>37.5</v>
+      </c>
+      <c r="E23">
+        <v>42.8</v>
+      </c>
+      <c r="F23">
+        <v>34.4</v>
+      </c>
+      <c r="G23">
+        <v>34.6</v>
+      </c>
+      <c r="H23">
+        <v>34.09999999999999</v>
+      </c>
+      <c r="I23">
         <v>29.8</v>
       </c>
-      <c r="E23">
-        <v>45.7</v>
-      </c>
-      <c r="H23">
+      <c r="J23">
+        <v>38.18333333333333</v>
+      </c>
+      <c r="M23">
         <v>34.40000000000001</v>
       </c>
-      <c r="I23">
+      <c r="N23">
         <v>22.9</v>
       </c>
-      <c r="J23">
+      <c r="O23">
         <v>35.2</v>
       </c>
-      <c r="K23">
+      <c r="P23">
         <v>33.6</v>
       </c>
-      <c r="L23">
+      <c r="Q23">
         <v>39.2</v>
       </c>
-      <c r="M23">
+      <c r="R23">
         <v>31.6</v>
       </c>
-      <c r="N23">
+      <c r="S23">
         <v>30.8</v>
       </c>
-      <c r="O23">
+      <c r="T23">
         <v>32.81666666666667</v>
       </c>
-      <c r="P23">
-        <v>45.7</v>
-      </c>
-      <c r="Q23">
-        <v>-0.2819110138584973</v>
-      </c>
-      <c r="R23">
+      <c r="U23">
+        <v>38.18333333333333</v>
+      </c>
+      <c r="V23">
+        <v>-0.1405499781754691</v>
+      </c>
+      <c r="W23">
         <v>25</v>
       </c>
-      <c r="S23">
+      <c r="X23">
         <v>32.40000000000001</v>
       </c>
-      <c r="T23">
+      <c r="Y23">
         <v>43.3</v>
       </c>
-      <c r="U23">
+      <c r="Z23">
         <v>35.8</v>
       </c>
-      <c r="V23">
+      <c r="AA23">
         <v>56</v>
       </c>
-      <c r="W23">
+      <c r="AB23">
         <v>33.3</v>
       </c>
-      <c r="X23">
+      <c r="AC23">
         <v>0.9</v>
       </c>
-      <c r="Y23">
+      <c r="AD23">
         <v>37.63333333333333</v>
       </c>
-      <c r="Z23">
+      <c r="AE23">
         <v>32.81666666666667</v>
       </c>
-      <c r="AA23">
+      <c r="AF23">
         <v>0.1467750126968004</v>
       </c>
-      <c r="AB23">
+      <c r="AG23">
         <v>15.9</v>
       </c>
-      <c r="AC23">
+      <c r="AH23">
         <v>23.6</v>
       </c>
-      <c r="AD23">
+      <c r="AI23">
         <v>32.6</v>
       </c>
-      <c r="AE23">
+      <c r="AJ23">
         <v>29.5</v>
       </c>
-      <c r="AF23">
+      <c r="AK23">
         <v>28.4</v>
       </c>
-      <c r="AG23">
+      <c r="AL23">
         <v>12.6</v>
       </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
         <v>23.76666666666667</v>
       </c>
-      <c r="AJ23">
+      <c r="AO23">
         <v>37.63333333333333</v>
       </c>
-      <c r="AK23">
+      <c r="AP23">
         <v>-0.3684676705048716</v>
       </c>
-      <c r="AL23">
+      <c r="AQ23">
         <v>13.8</v>
       </c>
-      <c r="AM23">
+      <c r="AR23">
         <v>24.1</v>
       </c>
-      <c r="AN23">
+      <c r="AS23">
         <v>28.1</v>
       </c>
-      <c r="AO23">
+      <c r="AT23">
         <v>23.7</v>
       </c>
-      <c r="AP23">
+      <c r="AU23">
         <v>22</v>
       </c>
-      <c r="AQ23">
+      <c r="AV23">
         <v>23.76666666666667</v>
       </c>
-      <c r="AR23">
+      <c r="AW23">
         <v>-0.07433380084151464</v>
       </c>
     </row>
-    <row r="24" spans="1:44">
+    <row r="24" spans="1:49">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -9508,124 +9862,139 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>19.63157894736842</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>124.1379310344827</v>
+      </c>
+      <c r="F24">
+        <v>72.16494845360825</v>
+      </c>
+      <c r="G24">
+        <v>484.4715447154471</v>
       </c>
       <c r="H24">
+        <v>204.7222222222222</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>112.6677445432498</v>
+      </c>
+      <c r="M24">
         <v>308.9349112426036</v>
       </c>
-      <c r="I24">
+      <c r="N24">
         <v>521.2371134020619</v>
       </c>
-      <c r="J24">
+      <c r="O24">
         <v>176.7368421052632</v>
       </c>
-      <c r="K24">
+      <c r="P24">
         <v>143.5051546391753</v>
       </c>
-      <c r="L24">
+      <c r="Q24">
         <v>236.896551724138</v>
       </c>
-      <c r="M24">
+      <c r="R24">
         <v>136.7021276595745</v>
       </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
         <v>195.3131749460043</v>
       </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
+      <c r="U24">
+        <v>112.6677445432498</v>
+      </c>
+      <c r="V24">
+        <v>0.7335323054330727</v>
+      </c>
+      <c r="W24">
         <v>116.6492146596859</v>
       </c>
-      <c r="S24">
+      <c r="X24">
         <v>279.1279069767442</v>
       </c>
-      <c r="T24">
+      <c r="Y24">
         <v>271.7910447761194</v>
       </c>
-      <c r="U24">
+      <c r="Z24">
         <v>173.0769230769231</v>
       </c>
-      <c r="V24">
+      <c r="AA24">
         <v>183.6681222707424</v>
       </c>
-      <c r="W24">
+      <c r="AB24">
         <v>46.20689655172414</v>
       </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
         <v>161.5202108963093</v>
       </c>
-      <c r="Z24">
+      <c r="AE24">
         <v>195.3131749460043</v>
       </c>
-      <c r="AA24">
+      <c r="AF24">
         <v>-0.1730193780273005</v>
       </c>
-      <c r="AB24">
+      <c r="AG24">
         <v>176.7441860465116</v>
       </c>
-      <c r="AC24">
+      <c r="AH24">
         <v>95.32710280373833</v>
       </c>
-      <c r="AD24">
+      <c r="AI24">
         <v>133.1645569620253</v>
       </c>
-      <c r="AE24">
+      <c r="AJ24">
         <v>396.8275862068966</v>
       </c>
-      <c r="AF24">
+      <c r="AK24">
         <v>143.5668789808917</v>
       </c>
-      <c r="AG24">
+      <c r="AL24">
         <v>92.29813664596273</v>
       </c>
-      <c r="AH24">
+      <c r="AM24">
         <v>4.066666666666666</v>
       </c>
-      <c r="AI24">
+      <c r="AN24">
         <v>148.5501489572989</v>
       </c>
-      <c r="AJ24">
+      <c r="AO24">
         <v>161.5202108963093</v>
       </c>
-      <c r="AK24">
+      <c r="AP24">
         <v>-0.08029993192205997</v>
       </c>
-      <c r="AL24">
+      <c r="AQ24">
         <v>51.36363636363636</v>
       </c>
-      <c r="AM24">
+      <c r="AR24">
         <v>28.18181818181818</v>
       </c>
-      <c r="AN24">
+      <c r="AS24">
         <v>81.49659863945578</v>
       </c>
-      <c r="AO24">
+      <c r="AT24">
         <v>74.33333333333333</v>
       </c>
-      <c r="AP24">
+      <c r="AU24">
         <v>57.65217391304348</v>
       </c>
-      <c r="AQ24">
+      <c r="AV24">
         <v>148.5501489572989</v>
       </c>
-      <c r="AR24">
+      <c r="AW24">
         <v>-0.6119009350194881</v>
       </c>
     </row>
-    <row r="25" spans="1:44">
+    <row r="25" spans="1:49">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>88</v>
@@ -9634,124 +10003,139 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>2520</v>
+      </c>
+      <c r="F25">
+        <v>1400</v>
+      </c>
+      <c r="G25">
+        <v>5959</v>
       </c>
       <c r="H25">
+        <v>3685</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>2322.833333333333</v>
+      </c>
+      <c r="M25">
         <v>5221</v>
       </c>
-      <c r="I25">
+      <c r="N25">
         <v>5056</v>
       </c>
-      <c r="J25">
+      <c r="O25">
         <v>1679</v>
       </c>
-      <c r="K25">
+      <c r="P25">
         <v>2784</v>
       </c>
-      <c r="L25">
+      <c r="Q25">
         <v>2061</v>
       </c>
-      <c r="M25">
+      <c r="R25">
         <v>1285</v>
       </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
         <v>3014.333333333333</v>
       </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
+      <c r="U25">
+        <v>2322.833333333333</v>
+      </c>
+      <c r="V25">
+        <v>0.2976967783597617</v>
+      </c>
+      <c r="W25">
         <v>2228</v>
       </c>
-      <c r="S25">
+      <c r="X25">
         <v>4801</v>
       </c>
-      <c r="T25">
+      <c r="Y25">
         <v>3642</v>
       </c>
-      <c r="U25">
+      <c r="Z25">
         <v>2700</v>
       </c>
-      <c r="V25">
+      <c r="AA25">
         <v>4206</v>
       </c>
-      <c r="W25">
+      <c r="AB25">
         <v>804</v>
       </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
         <v>3063.5</v>
       </c>
-      <c r="Z25">
+      <c r="AE25">
         <v>3014.333333333333</v>
       </c>
-      <c r="AA25">
+      <c r="AF25">
         <v>0.01631095875262623</v>
       </c>
-      <c r="AB25">
+      <c r="AG25">
         <v>2280</v>
       </c>
-      <c r="AC25">
+      <c r="AH25">
         <v>1020</v>
       </c>
-      <c r="AD25">
+      <c r="AI25">
         <v>2104</v>
       </c>
-      <c r="AE25">
+      <c r="AJ25">
         <v>5754</v>
       </c>
-      <c r="AF25">
+      <c r="AK25">
         <v>2254</v>
       </c>
-      <c r="AG25">
+      <c r="AL25">
         <v>1486</v>
       </c>
-      <c r="AH25">
+      <c r="AM25">
         <v>61</v>
       </c>
-      <c r="AI25">
+      <c r="AN25">
         <v>2483</v>
       </c>
-      <c r="AJ25">
+      <c r="AO25">
         <v>3063.5</v>
       </c>
-      <c r="AK25">
+      <c r="AP25">
         <v>-0.1894891464011751</v>
       </c>
-      <c r="AL25">
+      <c r="AQ25">
         <v>791</v>
       </c>
-      <c r="AM25">
+      <c r="AR25">
         <v>434</v>
       </c>
-      <c r="AN25">
+      <c r="AS25">
         <v>1198</v>
       </c>
-      <c r="AO25">
+      <c r="AT25">
         <v>892</v>
       </c>
-      <c r="AP25">
+      <c r="AU25">
         <v>807.6666666666666</v>
       </c>
-      <c r="AQ25">
+      <c r="AV25">
         <v>2483</v>
       </c>
-      <c r="AR25">
+      <c r="AW25">
         <v>-0.6747214391193449</v>
       </c>
     </row>
-    <row r="26" spans="1:44">
+    <row r="26" spans="1:49">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>89</v>
@@ -9760,124 +10144,139 @@
         <v>16.3</v>
       </c>
       <c r="D26">
+        <v>19</v>
+      </c>
+      <c r="E26">
+        <v>20.3</v>
+      </c>
+      <c r="F26">
+        <v>19.4</v>
+      </c>
+      <c r="G26">
+        <v>12.3</v>
+      </c>
+      <c r="H26">
+        <v>18</v>
+      </c>
+      <c r="I26">
         <v>18.4</v>
       </c>
-      <c r="E26">
-        <v>16.3</v>
-      </c>
-      <c r="H26">
+      <c r="J26">
+        <v>17.55</v>
+      </c>
+      <c r="M26">
         <v>16.9</v>
       </c>
-      <c r="I26">
+      <c r="N26">
         <v>9.699999999999999</v>
       </c>
-      <c r="J26">
+      <c r="O26">
         <v>9.5</v>
       </c>
-      <c r="K26">
+      <c r="P26">
         <v>19.4</v>
       </c>
-      <c r="L26">
+      <c r="Q26">
         <v>8.699999999999999</v>
       </c>
-      <c r="M26">
+      <c r="R26">
         <v>9.4</v>
       </c>
-      <c r="N26">
+      <c r="S26">
         <v>19</v>
       </c>
-      <c r="O26">
+      <c r="T26">
         <v>12.26666666666667</v>
       </c>
-      <c r="P26">
-        <v>16.3</v>
-      </c>
-      <c r="Q26">
-        <v>-0.2474437627811862</v>
-      </c>
-      <c r="R26">
+      <c r="U26">
+        <v>17.55</v>
+      </c>
+      <c r="V26">
+        <v>-0.3010446343779678</v>
+      </c>
+      <c r="W26">
         <v>19.1</v>
       </c>
-      <c r="S26">
+      <c r="X26">
         <v>17.2</v>
       </c>
-      <c r="T26">
+      <c r="Y26">
         <v>13.4</v>
       </c>
-      <c r="U26">
+      <c r="Z26">
         <v>15.6</v>
       </c>
-      <c r="V26">
+      <c r="AA26">
         <v>22.9</v>
       </c>
-      <c r="W26">
+      <c r="AB26">
         <v>17.4</v>
       </c>
-      <c r="X26">
+      <c r="AC26">
         <v>8.199999999999999</v>
       </c>
-      <c r="Y26">
+      <c r="AD26">
         <v>17.6</v>
       </c>
-      <c r="Z26">
+      <c r="AE26">
         <v>12.26666666666667</v>
       </c>
-      <c r="AA26">
+      <c r="AF26">
         <v>0.4347826086956521</v>
       </c>
-      <c r="AB26">
+      <c r="AG26">
         <v>12.9</v>
       </c>
-      <c r="AC26">
+      <c r="AH26">
         <v>10.7</v>
       </c>
-      <c r="AD26">
+      <c r="AI26">
         <v>15.8</v>
       </c>
-      <c r="AE26">
+      <c r="AJ26">
         <v>14.5</v>
       </c>
-      <c r="AF26">
+      <c r="AK26">
         <v>15.7</v>
       </c>
-      <c r="AG26">
+      <c r="AL26">
         <v>16.1</v>
       </c>
-      <c r="AH26">
+      <c r="AM26">
         <v>15</v>
       </c>
-      <c r="AI26">
+      <c r="AN26">
         <v>14.28333333333334</v>
       </c>
-      <c r="AJ26">
+      <c r="AO26">
         <v>17.6</v>
       </c>
-      <c r="AK26">
+      <c r="AP26">
         <v>-0.1884469696969694</v>
       </c>
-      <c r="AL26">
+      <c r="AQ26">
         <v>15.4</v>
       </c>
-      <c r="AM26">
+      <c r="AR26">
         <v>15.4</v>
       </c>
-      <c r="AN26">
+      <c r="AS26">
         <v>14.7</v>
       </c>
-      <c r="AO26">
+      <c r="AT26">
         <v>12</v>
       </c>
-      <c r="AP26">
+      <c r="AU26">
         <v>15.16666666666667</v>
       </c>
-      <c r="AQ26">
+      <c r="AV26">
         <v>14.28333333333334</v>
       </c>
-      <c r="AR26">
+      <c r="AW26">
         <v>0.0618436406067675</v>
       </c>
     </row>
-    <row r="27" spans="1:44">
+    <row r="27" spans="1:49">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>93</v>
@@ -9885,86 +10284,101 @@
       <c r="C27" t="s">
         <v>95</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27">
+        <v>126.9195046439629</v>
+      </c>
+      <c r="E27">
+        <v>121.2929623567921</v>
+      </c>
+      <c r="F27">
+        <v>116.2293388429752</v>
+      </c>
+      <c r="G27">
+        <v>176.0069444444445</v>
+      </c>
+      <c r="H27">
+        <v>160.1342281879195</v>
+      </c>
+      <c r="I27" t="s">
         <v>95</v>
       </c>
-      <c r="H27">
+      <c r="M27">
         <v>117.984429065744</v>
       </c>
-      <c r="I27">
+      <c r="N27">
         <v>138.3236994219653</v>
       </c>
-      <c r="J27">
+      <c r="O27">
         <v>138.0995850622407</v>
       </c>
-      <c r="K27">
+      <c r="P27">
         <v>124.3607305936073</v>
       </c>
-      <c r="L27">
+      <c r="Q27">
         <v>136.6357504215852</v>
       </c>
-      <c r="M27">
+      <c r="R27">
         <v>140.8154121863799</v>
       </c>
-      <c r="N27">
+      <c r="S27">
         <v>127.4385964912281</v>
       </c>
-      <c r="R27">
+      <c r="W27">
         <v>113.8796229151559</v>
       </c>
-      <c r="S27">
+      <c r="X27">
         <v>112.1745788667688</v>
       </c>
-      <c r="T27">
+      <c r="Y27">
         <v>122.6141732283465</v>
       </c>
-      <c r="U27">
+      <c r="Z27">
         <v>164.5406626506025</v>
       </c>
-      <c r="V27">
+      <c r="AA27">
         <v>144.1504649196957</v>
       </c>
-      <c r="W27">
+      <c r="AB27">
         <v>157.263339070568</v>
       </c>
-      <c r="X27">
+      <c r="AC27">
         <v>926.2499999999998</v>
       </c>
-      <c r="AB27">
+      <c r="AG27">
         <v>127.1609756097561</v>
       </c>
-      <c r="AC27">
+      <c r="AH27">
         <v>123.9233576642335</v>
       </c>
-      <c r="AD27">
+      <c r="AI27">
         <v>133.7559972583962</v>
       </c>
-      <c r="AE27">
+      <c r="AJ27">
         <v>101.6829608938548</v>
       </c>
-      <c r="AF27">
+      <c r="AK27">
         <v>136.029197080292</v>
       </c>
-      <c r="AG27">
+      <c r="AL27">
         <v>163.5351882160393</v>
       </c>
-      <c r="AH27" t="s">
+      <c r="AM27" t="s">
         <v>95</v>
       </c>
-      <c r="AL27">
+      <c r="AQ27">
         <v>141.8900343642612</v>
       </c>
-      <c r="AM27">
+      <c r="AR27">
         <v>142.9563932002957</v>
       </c>
-      <c r="AN27">
+      <c r="AS27">
         <v>161.5440115440115</v>
       </c>
-      <c r="AO27">
+      <c r="AT27">
         <v>139.7433366238894</v>
       </c>
     </row>
-    <row r="28" spans="1:44">
+    <row r="28" spans="1:49">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>94</v>
@@ -9973,81 +10387,96 @@
         <v>6.2582056892779</v>
       </c>
       <c r="D28">
+        <v>218.64</v>
+      </c>
+      <c r="E28">
+        <v>346.3084112149533</v>
+      </c>
+      <c r="F28">
+        <v>327.0639534883721</v>
+      </c>
+      <c r="G28">
+        <v>586.0115606936416</v>
+      </c>
+      <c r="H28">
+        <v>419.8240469208212</v>
+      </c>
+      <c r="I28">
         <v>1.577181208053691</v>
       </c>
-      <c r="H28">
+      <c r="M28">
         <v>396.4825581395348</v>
       </c>
-      <c r="I28">
+      <c r="N28">
         <v>731.4847161572053</v>
       </c>
-      <c r="J28">
+      <c r="O28">
         <v>472.7556818181818</v>
       </c>
-      <c r="K28">
+      <c r="P28">
         <v>486.3392857142857</v>
       </c>
-      <c r="L28">
+      <c r="Q28">
         <v>413.3928571428571</v>
       </c>
-      <c r="M28">
+      <c r="R28">
         <v>497.3101265822785</v>
       </c>
-      <c r="N28">
+      <c r="S28">
         <v>235.8441558441558</v>
       </c>
-      <c r="R28">
+      <c r="W28">
         <v>628.16</v>
       </c>
-      <c r="S28">
+      <c r="X28">
         <v>452.1604938271604</v>
       </c>
-      <c r="T28">
+      <c r="Y28">
         <v>359.6304849884526</v>
       </c>
-      <c r="U28">
+      <c r="Z28">
         <v>610.3631284916202</v>
       </c>
-      <c r="V28">
+      <c r="AA28">
         <v>304.5178571428572</v>
       </c>
-      <c r="W28">
+      <c r="AB28">
         <v>274.3843843843844</v>
       </c>
-      <c r="X28">
+      <c r="AC28">
         <v>823.3333333333333</v>
       </c>
-      <c r="AB28">
+      <c r="AG28">
         <v>819.748427672956</v>
       </c>
-      <c r="AC28">
+      <c r="AH28">
         <v>575.5084745762712</v>
       </c>
-      <c r="AD28">
+      <c r="AI28">
         <v>598.6196319018404</v>
       </c>
-      <c r="AE28">
+      <c r="AJ28">
         <v>493.593220338983</v>
       </c>
-      <c r="AF28">
+      <c r="AK28">
         <v>656.1971830985916</v>
       </c>
-      <c r="AG28">
+      <c r="AL28">
         <v>793.0158730158729</v>
       </c>
-      <c r="AH28" t="s">
+      <c r="AM28" t="s">
         <v>95</v>
       </c>
-      <c r="AL28">
+      <c r="AQ28">
         <v>897.6086956521739</v>
       </c>
-      <c r="AM28">
+      <c r="AR28">
         <v>802.5726141078837</v>
       </c>
-      <c r="AN28">
+      <c r="AS28">
         <v>796.797153024911</v>
       </c>
-      <c r="AO28">
+      <c r="AT28">
         <v>597.2995780590718</v>
       </c>
     </row>
@@ -13009,6 +13438,11 @@
       </c>
       <c r="L2" s="1" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:12">

--- a/Output/IB metric.xlsx
+++ b/Output/IB metric.xlsx
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>-0.1515</v>
+        <v>-0.1521666666666667</v>
       </c>
       <c r="L5">
-        <v>0.1515</v>
+        <v>0.1521666666666667</v>
       </c>
       <c r="M5">
         <v>432</v>
@@ -1424,13 +1424,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.03222222222222215</v>
+        <v>0.03138888888888891</v>
       </c>
       <c r="L6">
-        <v>0.03222222222222215</v>
+        <v>0.03138888888888891</v>
       </c>
       <c r="M6">
         <v>470</v>
@@ -1606,16 +1606,16 @@
         <v>18201</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.01138888888888889</v>
+        <v>0.01116666666666677</v>
       </c>
       <c r="L7">
-        <v>0.01138888888888889</v>
+        <v>0.01116666666666677</v>
       </c>
       <c r="M7">
         <v>561</v>
@@ -1639,13 +1639,13 @@
         <v>0.9103448275862069</v>
       </c>
       <c r="T7">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="U7">
-        <v>0.9285714285714286</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="V7">
-        <v>16911</v>
+        <v>16914</v>
       </c>
       <c r="W7">
         <v>33</v>
@@ -1681,16 +1681,16 @@
         <v>0.9528597329817043</v>
       </c>
       <c r="AH7">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AI7">
-        <v>0.8568872987477638</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AJ7">
-        <v>16206</v>
+        <v>16208</v>
       </c>
       <c r="AK7">
-        <v>0.9583111584175981</v>
+        <v>0.9582594300579401</v>
       </c>
       <c r="AL7">
         <v>28</v>
@@ -1705,22 +1705,22 @@
         <v>0.9167397020157756</v>
       </c>
       <c r="AP7">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AQ7">
-        <v>0.8568872987477638</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AR7">
-        <v>16236</v>
+        <v>16239</v>
       </c>
       <c r="AS7">
-        <v>0.9600851516764236</v>
+        <v>0.9600922312876907</v>
       </c>
       <c r="AT7">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="AU7">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AV7">
         <v>95</v>
@@ -1729,37 +1729,37 @@
         <v>829</v>
       </c>
       <c r="AX7">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AY7">
         <v>1</v>
       </c>
       <c r="AZ7">
-        <v>16911</v>
+        <v>16914</v>
       </c>
       <c r="BA7">
         <v>1</v>
       </c>
       <c r="BB7">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="BC7">
         <v>1</v>
       </c>
       <c r="BD7">
-        <v>16911</v>
+        <v>16914</v>
       </c>
       <c r="BE7">
         <v>1</v>
       </c>
       <c r="BF7">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="BG7">
         <v>1</v>
       </c>
       <c r="BH7">
-        <v>16911</v>
+        <v>16914</v>
       </c>
       <c r="BI7">
         <v>1</v>
@@ -1794,13 +1794,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>-0.0805555555555556</v>
+        <v>-0.08061111111111108</v>
       </c>
       <c r="L8">
-        <v>0.0805555555555556</v>
+        <v>0.08061111111111108</v>
       </c>
       <c r="M8">
         <v>412</v>
@@ -1979,13 +1979,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K9">
-        <v>-0.1035909090909091</v>
+        <v>-0.1032727272727273</v>
       </c>
       <c r="L9">
-        <v>0.1035909090909091</v>
+        <v>0.1032727272727273</v>
       </c>
       <c r="M9">
         <v>560</v>
@@ -2009,22 +2009,22 @@
         <v>0.8796610169491526</v>
       </c>
       <c r="T9">
-        <v>555</v>
+        <v>514</v>
       </c>
       <c r="U9">
-        <v>0.9823008849557522</v>
+        <v>0.9097345132743363</v>
       </c>
       <c r="V9">
-        <v>19645</v>
+        <v>16972</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="X9">
-        <v>0.001769911504424779</v>
+        <v>0.07433628318584071</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>2595</v>
       </c>
       <c r="Z9">
         <v>15645</v>
@@ -2051,88 +2051,88 @@
         <v>0.691800618629887</v>
       </c>
       <c r="AH9">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="AI9">
-        <v>0.736936936936937</v>
+        <v>0.7431906614785992</v>
       </c>
       <c r="AJ9">
-        <v>13573</v>
+        <v>11849</v>
       </c>
       <c r="AK9">
-        <v>0.690913718503436</v>
+        <v>0.6981498939429649</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="AM9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AN9">
-        <v>1</v>
+        <v>1725</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>0.6647398843930635</v>
       </c>
       <c r="AP9">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="AQ9">
-        <v>0.736936936936937</v>
+        <v>0.7431906614785992</v>
       </c>
       <c r="AR9">
-        <v>13674</v>
+        <v>11891</v>
       </c>
       <c r="AS9">
-        <v>0.6960549758208195</v>
+        <v>0.700624558095687</v>
       </c>
       <c r="AT9">
-        <v>6072</v>
+        <v>5993</v>
       </c>
       <c r="AU9">
-        <v>6072</v>
+        <v>5123</v>
       </c>
       <c r="AV9">
-        <v>0</v>
+        <v>870</v>
       </c>
       <c r="AW9">
-        <v>6125</v>
+        <v>5235</v>
       </c>
       <c r="AX9">
-        <v>549</v>
+        <v>514</v>
       </c>
       <c r="AY9">
-        <v>0.9891891891891892</v>
+        <v>1</v>
       </c>
       <c r="AZ9">
-        <v>19587</v>
+        <v>16972</v>
       </c>
       <c r="BA9">
-        <v>0.9970475948078391</v>
+        <v>1</v>
       </c>
       <c r="BB9">
-        <v>549</v>
+        <v>514</v>
       </c>
       <c r="BC9">
-        <v>0.9891891891891892</v>
+        <v>1</v>
       </c>
       <c r="BD9">
-        <v>19587</v>
+        <v>16972</v>
       </c>
       <c r="BE9">
-        <v>0.9970475948078391</v>
+        <v>1</v>
       </c>
       <c r="BF9">
-        <v>549</v>
+        <v>514</v>
       </c>
       <c r="BG9">
-        <v>0.9891891891891892</v>
+        <v>1</v>
       </c>
       <c r="BH9">
-        <v>19587</v>
+        <v>16972</v>
       </c>
       <c r="BI9">
-        <v>0.9970475948078391</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:61">
@@ -2194,13 +2194,22 @@
         <v>0.9306930693069307</v>
       </c>
       <c r="T10">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="U10">
-        <v>0.9716981132075472</v>
+        <v>0.9339622641509434</v>
       </c>
       <c r="V10">
-        <v>2603</v>
+        <v>2497</v>
+      </c>
+      <c r="W10">
+        <v>5</v>
+      </c>
+      <c r="X10">
+        <v>0.04716981132075472</v>
+      </c>
+      <c r="Y10">
+        <v>110</v>
       </c>
       <c r="Z10">
         <v>8400</v>
@@ -2227,76 +2236,88 @@
         <v>0.9791666666666666</v>
       </c>
       <c r="AH10">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AI10">
-        <v>0.9805825242718447</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>2559</v>
+        <v>2461</v>
       </c>
       <c r="AK10">
-        <v>0.9830964271993853</v>
+        <v>0.9855826992390869</v>
+      </c>
+      <c r="AL10">
+        <v>2</v>
+      </c>
+      <c r="AM10">
+        <v>0.4</v>
+      </c>
+      <c r="AN10">
+        <v>98</v>
+      </c>
+      <c r="AO10">
+        <v>0.8909090909090909</v>
       </c>
       <c r="AP10">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AQ10">
-        <v>0.9805825242718447</v>
+        <v>1</v>
       </c>
       <c r="AR10">
-        <v>2599</v>
+        <v>2497</v>
       </c>
       <c r="AS10">
-        <v>0.9984633115635805</v>
+        <v>1</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AU10">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AW10">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="AX10">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AY10">
-        <v>0.9805825242718447</v>
+        <v>1</v>
       </c>
       <c r="AZ10">
-        <v>2599</v>
+        <v>2497</v>
       </c>
       <c r="BA10">
-        <v>0.9984633115635805</v>
+        <v>1</v>
       </c>
       <c r="BB10">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BC10">
-        <v>0.9805825242718447</v>
+        <v>1</v>
       </c>
       <c r="BD10">
-        <v>2599</v>
+        <v>2497</v>
       </c>
       <c r="BE10">
-        <v>0.9984633115635805</v>
+        <v>1</v>
       </c>
       <c r="BF10">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BG10">
-        <v>0.9805825242718447</v>
+        <v>1</v>
       </c>
       <c r="BH10">
-        <v>2599</v>
+        <v>2497</v>
       </c>
       <c r="BI10">
-        <v>0.9984633115635805</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:61">
@@ -2502,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="K14">
-        <v>-0.1531363636363636</v>
+        <v>-0.1516363636363637</v>
       </c>
       <c r="L14">
-        <v>0.1531363636363636</v>
+        <v>0.1516363636363637</v>
       </c>
       <c r="M14">
         <v>367</v>
@@ -2532,13 +2553,22 @@
         <v>0.9568733153638814</v>
       </c>
       <c r="T14">
-        <v>367</v>
+        <v>310</v>
       </c>
       <c r="U14">
-        <v>0.9892183288409704</v>
+        <v>0.8355795148247979</v>
       </c>
       <c r="V14">
-        <v>18595</v>
+        <v>12734</v>
+      </c>
+      <c r="W14">
+        <v>61</v>
+      </c>
+      <c r="X14">
+        <v>0.1644204851752022</v>
+      </c>
+      <c r="Y14">
+        <v>5807</v>
       </c>
       <c r="Z14">
         <v>12903</v>
@@ -2565,76 +2595,88 @@
         <v>0.6920186785465086</v>
       </c>
       <c r="AH14">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AI14">
-        <v>0.8583106267029973</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
-        <v>12893</v>
+        <v>12710</v>
       </c>
       <c r="AK14">
-        <v>0.6933584296853993</v>
+        <v>0.9981152819224124</v>
+      </c>
+      <c r="AL14">
+        <v>5</v>
+      </c>
+      <c r="AM14">
+        <v>0.08196721311475409</v>
+      </c>
+      <c r="AN14">
+        <v>183</v>
+      </c>
+      <c r="AO14">
+        <v>0.03151369037368693</v>
       </c>
       <c r="AP14">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AQ14">
-        <v>0.8583106267029973</v>
+        <v>1</v>
       </c>
       <c r="AR14">
-        <v>12947</v>
+        <v>12734</v>
       </c>
       <c r="AS14">
-        <v>0.6962624361387469</v>
+        <v>1</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>5624</v>
       </c>
       <c r="AU14">
-        <v>5702</v>
+        <v>0</v>
       </c>
       <c r="AV14">
-        <v>0</v>
+        <v>5624</v>
       </c>
       <c r="AW14">
-        <v>5702</v>
+        <v>0</v>
       </c>
       <c r="AX14">
-        <v>363</v>
+        <v>310</v>
       </c>
       <c r="AY14">
-        <v>0.989100817438692</v>
+        <v>1</v>
       </c>
       <c r="AZ14">
-        <v>18539</v>
+        <v>12734</v>
       </c>
       <c r="BA14">
-        <v>0.9969884377520839</v>
+        <v>1</v>
       </c>
       <c r="BB14">
-        <v>363</v>
+        <v>310</v>
       </c>
       <c r="BC14">
-        <v>0.989100817438692</v>
+        <v>1</v>
       </c>
       <c r="BD14">
-        <v>18539</v>
+        <v>12734</v>
       </c>
       <c r="BE14">
-        <v>0.9969884377520839</v>
+        <v>1</v>
       </c>
       <c r="BF14">
-        <v>363</v>
+        <v>310</v>
       </c>
       <c r="BG14">
-        <v>0.989100817438692</v>
+        <v>1</v>
       </c>
       <c r="BH14">
-        <v>18539</v>
+        <v>12734</v>
       </c>
       <c r="BI14">
-        <v>0.9969884377520839</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:61">
@@ -2696,22 +2738,22 @@
         <v>0.9481132075471698</v>
       </c>
       <c r="T15">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="U15">
-        <v>0.9742388758782201</v>
+        <v>0.8992974238875878</v>
       </c>
       <c r="V15">
-        <v>15250</v>
+        <v>13287</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="X15">
-        <v>0.00234192037470726</v>
+        <v>0.08430913348946135</v>
       </c>
       <c r="Y15">
-        <v>20</v>
+        <v>2227</v>
       </c>
       <c r="Z15">
         <v>20692</v>
@@ -2738,88 +2780,88 @@
         <v>0.9587176388270466</v>
       </c>
       <c r="AH15">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="AI15">
-        <v>0.9639423076923077</v>
+        <v>0.9973958333333334</v>
       </c>
       <c r="AJ15">
-        <v>15006</v>
+        <v>13348</v>
       </c>
       <c r="AK15">
-        <v>0.984</v>
+        <v>1.004590953563634</v>
       </c>
       <c r="AL15">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AM15">
-        <v>1</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AN15">
-        <v>20</v>
+        <v>1681</v>
       </c>
       <c r="AO15">
-        <v>1</v>
+        <v>0.75482712168837</v>
       </c>
       <c r="AP15">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="AQ15">
-        <v>0.9591346153846154</v>
+        <v>0.9921875</v>
       </c>
       <c r="AR15">
-        <v>15069</v>
+        <v>13249</v>
       </c>
       <c r="AS15">
-        <v>0.9881311475409836</v>
+        <v>0.9971400617144578</v>
       </c>
       <c r="AT15">
-        <v>244</v>
+        <v>485</v>
       </c>
       <c r="AU15">
-        <v>244</v>
+        <v>-61</v>
       </c>
       <c r="AV15">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="AW15">
-        <v>253</v>
+        <v>38</v>
       </c>
       <c r="AX15">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="AY15">
-        <v>0.9615384615384616</v>
+        <v>0.9947916666666666</v>
       </c>
       <c r="AZ15">
-        <v>15070</v>
+        <v>13250</v>
       </c>
       <c r="BA15">
-        <v>0.9881967213114754</v>
+        <v>0.9972153232482878</v>
       </c>
       <c r="BB15">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="BC15">
-        <v>0.9615384615384616</v>
+        <v>0.9947916666666666</v>
       </c>
       <c r="BD15">
-        <v>15070</v>
+        <v>13250</v>
       </c>
       <c r="BE15">
-        <v>0.9881967213114754</v>
+        <v>0.9972153232482878</v>
       </c>
       <c r="BF15">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="BG15">
-        <v>0.9615384615384616</v>
+        <v>0.9947916666666666</v>
       </c>
       <c r="BH15">
-        <v>15070</v>
+        <v>13250</v>
       </c>
       <c r="BI15">
-        <v>0.9881967213114754</v>
+        <v>0.9972153232482878</v>
       </c>
     </row>
     <row r="16" spans="1:61">
@@ -2881,22 +2923,22 @@
         <v>0.8980891719745223</v>
       </c>
       <c r="T16">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="U16">
-        <v>0.9911894273127754</v>
+        <v>0.9273127753303965</v>
       </c>
       <c r="V16">
-        <v>17715</v>
+        <v>15696</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="X16">
-        <v>0.002202643171806168</v>
+        <v>0.06828193832599119</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>1920</v>
       </c>
       <c r="Z16">
         <v>17118</v>
@@ -2923,88 +2965,88 @@
         <v>0.890143852551135</v>
       </c>
       <c r="AH16">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="AI16">
-        <v>0.9644444444444444</v>
+        <v>0.9833729216152018</v>
       </c>
       <c r="AJ16">
-        <v>15766</v>
+        <v>14825</v>
       </c>
       <c r="AK16">
-        <v>0.8899802427321479</v>
+        <v>0.9445081549439348</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AM16">
-        <v>1</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="AN16">
-        <v>1</v>
+        <v>942</v>
       </c>
       <c r="AO16">
-        <v>1</v>
+        <v>0.490625</v>
       </c>
       <c r="AP16">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="AQ16">
-        <v>0.9644444444444444</v>
+        <v>0.9833729216152018</v>
       </c>
       <c r="AR16">
-        <v>15846</v>
+        <v>14828</v>
       </c>
       <c r="AS16">
-        <v>0.8944961896697714</v>
+        <v>0.9446992864424058</v>
       </c>
       <c r="AT16">
-        <v>1949</v>
+        <v>1849</v>
       </c>
       <c r="AU16">
-        <v>1949</v>
+        <v>871</v>
       </c>
       <c r="AV16">
-        <v>0</v>
+        <v>978</v>
       </c>
       <c r="AW16">
-        <v>2119</v>
+        <v>905</v>
       </c>
       <c r="AX16">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="AY16">
-        <v>0.9844444444444445</v>
+        <v>1</v>
       </c>
       <c r="AZ16">
-        <v>16854</v>
+        <v>15696</v>
       </c>
       <c r="BA16">
-        <v>0.9513971210838272</v>
+        <v>1</v>
       </c>
       <c r="BB16">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="BC16">
-        <v>0.9844444444444445</v>
+        <v>1</v>
       </c>
       <c r="BD16">
-        <v>16854</v>
+        <v>15696</v>
       </c>
       <c r="BE16">
-        <v>0.9513971210838272</v>
+        <v>1</v>
       </c>
       <c r="BF16">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="BG16">
-        <v>0.9844444444444445</v>
+        <v>1</v>
       </c>
       <c r="BH16">
-        <v>16854</v>
+        <v>15696</v>
       </c>
       <c r="BI16">
-        <v>0.9513971210838272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:61">
@@ -3066,22 +3108,22 @@
         <v>0.9604743083003953</v>
       </c>
       <c r="T17">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="U17">
-        <v>0.9722222222222222</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="V17">
-        <v>6049</v>
+        <v>5862</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="X17">
-        <v>0.003968253968253968</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="Y17">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="Z17">
         <v>7813</v>
@@ -3108,76 +3150,88 @@
         <v>0.9836746809142178</v>
       </c>
       <c r="AH17">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AI17">
-        <v>0.9836734693877551</v>
+        <v>1</v>
       </c>
       <c r="AJ17">
-        <v>5942</v>
+        <v>5845</v>
       </c>
       <c r="AK17">
-        <v>0.9823111258059183</v>
+        <v>0.9970999658819516</v>
+      </c>
+      <c r="AL17">
+        <v>3</v>
+      </c>
+      <c r="AM17">
+        <v>0.375</v>
+      </c>
+      <c r="AN17">
+        <v>97</v>
+      </c>
+      <c r="AO17">
+        <v>0.5511363636363636</v>
       </c>
       <c r="AP17">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AQ17">
-        <v>0.9836734693877551</v>
+        <v>1</v>
       </c>
       <c r="AR17">
-        <v>5972</v>
+        <v>5862</v>
       </c>
       <c r="AS17">
-        <v>0.9872706232435113</v>
+        <v>1</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="AU17">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="AV17">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="AW17">
-        <v>1142</v>
+        <v>0</v>
       </c>
       <c r="AX17">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AY17">
-        <v>0.9836734693877551</v>
+        <v>1</v>
       </c>
       <c r="AZ17">
-        <v>5972</v>
+        <v>5862</v>
       </c>
       <c r="BA17">
-        <v>0.9872706232435113</v>
+        <v>1</v>
       </c>
       <c r="BB17">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="BC17">
-        <v>0.9836734693877551</v>
+        <v>1</v>
       </c>
       <c r="BD17">
-        <v>5972</v>
+        <v>5862</v>
       </c>
       <c r="BE17">
-        <v>0.9872706232435113</v>
+        <v>1</v>
       </c>
       <c r="BF17">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="BG17">
-        <v>0.9918367346938776</v>
+        <v>1</v>
       </c>
       <c r="BH17">
-        <v>6013</v>
+        <v>5862</v>
       </c>
       <c r="BI17">
-        <v>0.9940486030748884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:61">
@@ -3289,13 +3343,22 @@
         <v>0.9565217391304348</v>
       </c>
       <c r="T19">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="U19">
-        <v>0.9913544668587896</v>
+        <v>0.9250720461095101</v>
       </c>
       <c r="V19">
-        <v>14711</v>
+        <v>13649</v>
+      </c>
+      <c r="W19">
+        <v>23</v>
+      </c>
+      <c r="X19">
+        <v>0.06628242074927954</v>
+      </c>
+      <c r="Y19">
+        <v>1018</v>
       </c>
       <c r="Z19">
         <v>14618</v>
@@ -3322,76 +3385,88 @@
         <v>0.9321100917431193</v>
       </c>
       <c r="AH19">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="AI19">
-        <v>0.9593023255813954</v>
+        <v>0.9937694704049844</v>
       </c>
       <c r="AJ19">
-        <v>13712</v>
+        <v>13505</v>
       </c>
       <c r="AK19">
-        <v>0.9320916321120251</v>
+        <v>0.9894497765404059</v>
+      </c>
+      <c r="AL19">
+        <v>11</v>
+      </c>
+      <c r="AM19">
+        <v>0.4782608695652174</v>
+      </c>
+      <c r="AN19">
+        <v>207</v>
+      </c>
+      <c r="AO19">
+        <v>0.2033398821218075</v>
       </c>
       <c r="AP19">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="AQ19">
-        <v>0.9593023255813954</v>
+        <v>0.9937694704049844</v>
       </c>
       <c r="AR19">
-        <v>13864</v>
+        <v>13625</v>
       </c>
       <c r="AS19">
-        <v>0.9424240364353205</v>
+        <v>0.998241629423401</v>
       </c>
       <c r="AT19">
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="AU19">
-        <v>999</v>
+        <v>144</v>
       </c>
       <c r="AV19">
-        <v>0</v>
+        <v>811</v>
       </c>
       <c r="AW19">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="AX19">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="AY19">
-        <v>0.9883720930232558</v>
+        <v>0.9937694704049844</v>
       </c>
       <c r="AZ19">
-        <v>14629</v>
+        <v>13625</v>
       </c>
       <c r="BA19">
-        <v>0.994425939772959</v>
+        <v>0.998241629423401</v>
       </c>
       <c r="BB19">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="BC19">
-        <v>0.9883720930232558</v>
+        <v>0.9937694704049844</v>
       </c>
       <c r="BD19">
-        <v>14629</v>
+        <v>13625</v>
       </c>
       <c r="BE19">
-        <v>0.994425939772959</v>
+        <v>0.998241629423401</v>
       </c>
       <c r="BF19">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="BG19">
-        <v>0.9970930232558139</v>
+        <v>1</v>
       </c>
       <c r="BH19">
-        <v>14659</v>
+        <v>13649</v>
       </c>
       <c r="BI19">
-        <v>0.9964652300999253</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:61">
@@ -3423,13 +3498,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>-0.1053181818181819</v>
+        <v>-0.1052727272727273</v>
       </c>
       <c r="L20">
-        <v>0.1053181818181819</v>
+        <v>0.1052727272727273</v>
       </c>
       <c r="M20">
         <v>451</v>
@@ -3453,13 +3528,22 @@
         <v>0.9387308533916849</v>
       </c>
       <c r="T20">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="U20">
-        <v>0.9889867841409692</v>
+        <v>0.9273127753303965</v>
       </c>
       <c r="V20">
-        <v>19613</v>
+        <v>16417</v>
+      </c>
+      <c r="W20">
+        <v>29</v>
+      </c>
+      <c r="X20">
+        <v>0.06387665198237885</v>
+      </c>
+      <c r="Y20">
+        <v>3176</v>
       </c>
       <c r="Z20">
         <v>18562</v>
@@ -3486,76 +3570,88 @@
         <v>0.9092617995224305</v>
       </c>
       <c r="AH20">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="AI20">
-        <v>0.9131403118040089</v>
+        <v>0.9382422802850356</v>
       </c>
       <c r="AJ20">
-        <v>17829</v>
+        <v>15185</v>
       </c>
       <c r="AK20">
-        <v>0.9090399225003823</v>
+        <v>0.9249558384601327</v>
+      </c>
+      <c r="AL20">
+        <v>16</v>
+      </c>
+      <c r="AM20">
+        <v>0.5517241379310345</v>
+      </c>
+      <c r="AN20">
+        <v>2662</v>
+      </c>
+      <c r="AO20">
+        <v>0.8381612090680101</v>
       </c>
       <c r="AP20">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="AQ20">
-        <v>0.9131403118040089</v>
+        <v>0.9382422802850356</v>
       </c>
       <c r="AR20">
-        <v>18191</v>
+        <v>15513</v>
       </c>
       <c r="AS20">
-        <v>0.9274970682710447</v>
+        <v>0.9449351282207468</v>
       </c>
       <c r="AT20">
-        <v>0</v>
+        <v>1746</v>
       </c>
       <c r="AU20">
-        <v>1784</v>
+        <v>1232</v>
       </c>
       <c r="AV20">
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="AW20">
-        <v>1784</v>
+        <v>1232</v>
       </c>
       <c r="AX20">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AY20">
-        <v>0.9732739420935412</v>
+        <v>0.997624703087886</v>
       </c>
       <c r="AZ20">
-        <v>19216</v>
+        <v>16414</v>
       </c>
       <c r="BA20">
-        <v>0.9797583235609035</v>
+        <v>0.9998172625936529</v>
       </c>
       <c r="BB20">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="BC20">
-        <v>0.9732739420935412</v>
+        <v>0.997624703087886</v>
       </c>
       <c r="BD20">
-        <v>19216</v>
+        <v>16414</v>
       </c>
       <c r="BE20">
-        <v>0.9797583235609035</v>
+        <v>0.9998172625936529</v>
       </c>
       <c r="BF20">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="BG20">
-        <v>0.9933184855233853</v>
+        <v>0.997624703087886</v>
       </c>
       <c r="BH20">
-        <v>19424</v>
+        <v>16414</v>
       </c>
       <c r="BI20">
-        <v>0.9903635343904553</v>
+        <v>0.9998172625936529</v>
       </c>
     </row>
     <row r="21" spans="1:61">
@@ -3587,13 +3683,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K21">
-        <v>-0.01063636363636367</v>
+        <v>-0.01045454545454549</v>
       </c>
       <c r="L21">
-        <v>0.01063636363636367</v>
+        <v>0.01045454545454549</v>
       </c>
       <c r="M21">
         <v>608</v>
@@ -3617,13 +3713,22 @@
         <v>0.9083601286173634</v>
       </c>
       <c r="T21">
-        <v>621</v>
+        <v>571</v>
       </c>
       <c r="U21">
-        <v>0.9983922829581994</v>
+        <v>0.9180064308681672</v>
       </c>
       <c r="V21">
-        <v>21716</v>
+        <v>18665</v>
+      </c>
+      <c r="W21">
+        <v>50</v>
+      </c>
+      <c r="X21">
+        <v>0.08038585209003216</v>
+      </c>
+      <c r="Y21">
+        <v>2866</v>
       </c>
       <c r="Z21">
         <v>16031</v>
@@ -3650,76 +3755,88 @@
         <v>0.7044932463475144</v>
       </c>
       <c r="AH21">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="AI21">
-        <v>0.6843800322061192</v>
+        <v>0.702276707530648</v>
       </c>
       <c r="AJ21">
-        <v>15334</v>
+        <v>13856</v>
       </c>
       <c r="AK21">
-        <v>0.7061153066863143</v>
+        <v>0.742351995713903</v>
+      </c>
+      <c r="AL21">
+        <v>24</v>
+      </c>
+      <c r="AM21">
+        <v>0.48</v>
+      </c>
+      <c r="AN21">
+        <v>1478</v>
+      </c>
+      <c r="AO21">
+        <v>0.5157013258897418</v>
       </c>
       <c r="AP21">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="AQ21">
-        <v>0.6843800322061192</v>
+        <v>0.702276707530648</v>
       </c>
       <c r="AR21">
-        <v>15404</v>
+        <v>13881</v>
       </c>
       <c r="AS21">
-        <v>0.7093387364155461</v>
+        <v>0.7436914010179481</v>
       </c>
       <c r="AT21">
-        <v>0</v>
+        <v>6197</v>
       </c>
       <c r="AU21">
-        <v>6382</v>
+        <v>4809</v>
       </c>
       <c r="AV21">
-        <v>0</v>
+        <v>1388</v>
       </c>
       <c r="AW21">
-        <v>6867</v>
+        <v>5091</v>
       </c>
       <c r="AX21">
-        <v>608</v>
+        <v>570</v>
       </c>
       <c r="AY21">
-        <v>0.9790660225442834</v>
+        <v>0.9982486865148862</v>
       </c>
       <c r="AZ21">
-        <v>21529</v>
+        <v>18662</v>
       </c>
       <c r="BA21">
-        <v>0.9913888377233376</v>
+        <v>0.9998392713635146</v>
       </c>
       <c r="BB21">
-        <v>608</v>
+        <v>570</v>
       </c>
       <c r="BC21">
-        <v>0.9790660225442834</v>
+        <v>0.9982486865148862</v>
       </c>
       <c r="BD21">
-        <v>21529</v>
+        <v>18662</v>
       </c>
       <c r="BE21">
-        <v>0.9913888377233376</v>
+        <v>0.9998392713635146</v>
       </c>
       <c r="BF21">
-        <v>618</v>
+        <v>571</v>
       </c>
       <c r="BG21">
-        <v>0.9951690821256038</v>
+        <v>1</v>
       </c>
       <c r="BH21">
-        <v>21581</v>
+        <v>18665</v>
       </c>
       <c r="BI21">
-        <v>0.9937833855221956</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:61">
@@ -3751,13 +3868,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K22">
-        <v>-0.01009090909090904</v>
+        <v>-0.009545454545454524</v>
       </c>
       <c r="L22">
-        <v>0.01009090909090904</v>
+        <v>0.009545454545454524</v>
       </c>
       <c r="M22">
         <v>511</v>
@@ -3781,13 +3898,22 @@
         <v>0.9169811320754717</v>
       </c>
       <c r="T22">
-        <v>523</v>
+        <v>486</v>
       </c>
       <c r="U22">
-        <v>0.9980916030534351</v>
+        <v>0.9274809160305344</v>
       </c>
       <c r="V22">
-        <v>21758</v>
+        <v>18599</v>
+      </c>
+      <c r="W22">
+        <v>37</v>
+      </c>
+      <c r="X22">
+        <v>0.07061068702290077</v>
+      </c>
+      <c r="Y22">
+        <v>3096</v>
       </c>
       <c r="Z22">
         <v>18018</v>
@@ -3814,76 +3940,88 @@
         <v>0.5193314353935163</v>
       </c>
       <c r="AH22">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="AI22">
-        <v>0.5659655831739961</v>
+        <v>0.588477366255144</v>
       </c>
       <c r="AJ22">
-        <v>11290</v>
+        <v>9222</v>
       </c>
       <c r="AK22">
-        <v>0.5188896038238808</v>
+        <v>0.495833109306952</v>
+      </c>
+      <c r="AL22">
+        <v>10</v>
+      </c>
+      <c r="AM22">
+        <v>0.2702702702702703</v>
+      </c>
+      <c r="AN22">
+        <v>2068</v>
+      </c>
+      <c r="AO22">
+        <v>0.6679586563307494</v>
       </c>
       <c r="AP22">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="AQ22">
-        <v>0.5659655831739961</v>
+        <v>0.588477366255144</v>
       </c>
       <c r="AR22">
-        <v>11304</v>
+        <v>9224</v>
       </c>
       <c r="AS22">
-        <v>0.5195330453166651</v>
+        <v>0.4959406419699984</v>
       </c>
       <c r="AT22">
-        <v>0</v>
+        <v>10405</v>
       </c>
       <c r="AU22">
-        <v>10468</v>
+        <v>9377</v>
       </c>
       <c r="AV22">
-        <v>0</v>
+        <v>1028</v>
       </c>
       <c r="AW22">
-        <v>10950</v>
+        <v>9685</v>
       </c>
       <c r="AX22">
-        <v>514</v>
+        <v>486</v>
       </c>
       <c r="AY22">
-        <v>0.982791586998088</v>
+        <v>1</v>
       </c>
       <c r="AZ22">
-        <v>21700</v>
+        <v>18599</v>
       </c>
       <c r="BA22">
-        <v>0.997334313815608</v>
+        <v>1</v>
       </c>
       <c r="BB22">
-        <v>514</v>
+        <v>486</v>
       </c>
       <c r="BC22">
-        <v>0.982791586998088</v>
+        <v>1</v>
       </c>
       <c r="BD22">
-        <v>21700</v>
+        <v>18599</v>
       </c>
       <c r="BE22">
-        <v>0.997334313815608</v>
+        <v>1</v>
       </c>
       <c r="BF22">
-        <v>514</v>
+        <v>486</v>
       </c>
       <c r="BG22">
-        <v>0.982791586998088</v>
+        <v>1</v>
       </c>
       <c r="BH22">
-        <v>21700</v>
+        <v>18599</v>
       </c>
       <c r="BI22">
-        <v>0.997334313815608</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:61">
@@ -3945,13 +4083,22 @@
         <v>0.9377104377104377</v>
       </c>
       <c r="T23">
-        <v>587</v>
+        <v>552</v>
       </c>
       <c r="U23">
-        <v>0.9915540540540541</v>
+        <v>0.9324324324324325</v>
       </c>
       <c r="V23">
-        <v>21759</v>
+        <v>19657</v>
+      </c>
+      <c r="W23">
+        <v>35</v>
+      </c>
+      <c r="X23">
+        <v>0.05912162162162162</v>
+      </c>
+      <c r="Y23">
+        <v>2035</v>
       </c>
       <c r="Z23">
         <v>20967</v>
@@ -3978,76 +4125,88 @@
         <v>0.485722130697419</v>
       </c>
       <c r="AH23">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="AI23">
-        <v>0.2367972742759795</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="AJ23">
-        <v>10521</v>
+        <v>10098</v>
       </c>
       <c r="AK23">
-        <v>0.4835240590100648</v>
+        <v>0.5137101287073307</v>
+      </c>
+      <c r="AL23">
+        <v>7</v>
+      </c>
+      <c r="AM23">
+        <v>0.2</v>
+      </c>
+      <c r="AN23">
+        <v>423</v>
+      </c>
+      <c r="AO23">
+        <v>0.2078624078624079</v>
       </c>
       <c r="AP23">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="AQ23">
-        <v>0.2367972742759795</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="AR23">
-        <v>10552</v>
+        <v>10123</v>
       </c>
       <c r="AS23">
-        <v>0.4849487568362517</v>
+        <v>0.5149819402757287</v>
       </c>
       <c r="AT23">
-        <v>0</v>
+        <v>11171</v>
       </c>
       <c r="AU23">
-        <v>11238</v>
+        <v>9559</v>
       </c>
       <c r="AV23">
-        <v>0</v>
+        <v>1612</v>
       </c>
       <c r="AW23">
-        <v>11503</v>
+        <v>9841</v>
       </c>
       <c r="AX23">
-        <v>572</v>
+        <v>549</v>
       </c>
       <c r="AY23">
-        <v>0.9744463373083475</v>
+        <v>0.9945652173913043</v>
       </c>
       <c r="AZ23">
-        <v>21013</v>
+        <v>19185</v>
       </c>
       <c r="BA23">
-        <v>0.965715336182729</v>
+        <v>0.9759881975886453</v>
       </c>
       <c r="BB23">
-        <v>572</v>
+        <v>549</v>
       </c>
       <c r="BC23">
-        <v>0.9744463373083475</v>
+        <v>0.9945652173913043</v>
       </c>
       <c r="BD23">
-        <v>21013</v>
+        <v>19185</v>
       </c>
       <c r="BE23">
-        <v>0.965715336182729</v>
+        <v>0.9759881975886453</v>
       </c>
       <c r="BF23">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="BG23">
-        <v>0.9761499148211243</v>
+        <v>0.9945652173913043</v>
       </c>
       <c r="BH23">
-        <v>21067</v>
+        <v>19185</v>
       </c>
       <c r="BI23">
-        <v>0.9681970678799577</v>
+        <v>0.9759881975886453</v>
       </c>
     </row>
     <row r="24" spans="1:61">
@@ -4079,13 +4238,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K24">
-        <v>-0.5075000000000001</v>
+        <v>-0.507</v>
       </c>
       <c r="L24">
-        <v>0.5075000000000001</v>
+        <v>0.507</v>
       </c>
       <c r="M24">
         <v>196</v>
@@ -4109,13 +4268,22 @@
         <v>0.9113300492610837</v>
       </c>
       <c r="T24">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="U24">
-        <v>0.8938053097345132</v>
+        <v>0.8451327433628318</v>
       </c>
       <c r="V24">
-        <v>5479</v>
+        <v>5119</v>
+      </c>
+      <c r="W24">
+        <v>15</v>
+      </c>
+      <c r="X24">
+        <v>0.06637168141592921</v>
+      </c>
+      <c r="Y24">
+        <v>443</v>
       </c>
       <c r="Z24">
         <v>16085</v>
@@ -4142,76 +4310,88 @@
         <v>0.8830795262267344</v>
       </c>
       <c r="AH24">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AI24">
-        <v>0.9702970297029703</v>
+        <v>1</v>
       </c>
       <c r="AJ24">
-        <v>5184</v>
+        <v>5113</v>
       </c>
       <c r="AK24">
-        <v>0.9461580580397883</v>
+        <v>0.9988278960734518</v>
+      </c>
+      <c r="AL24">
+        <v>5</v>
+      </c>
+      <c r="AM24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AN24">
+        <v>71</v>
+      </c>
+      <c r="AO24">
+        <v>0.1602708803611738</v>
       </c>
       <c r="AP24">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AQ24">
-        <v>0.9702970297029703</v>
+        <v>1</v>
       </c>
       <c r="AR24">
-        <v>5205</v>
+        <v>5119</v>
       </c>
       <c r="AS24">
-        <v>0.9499908742471254</v>
+        <v>1</v>
       </c>
       <c r="AT24">
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="AU24">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="AV24">
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="AW24">
-        <v>1196</v>
+        <v>0</v>
       </c>
       <c r="AX24">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AY24">
-        <v>0.9702970297029703</v>
+        <v>1</v>
       </c>
       <c r="AZ24">
-        <v>5205</v>
+        <v>5119</v>
       </c>
       <c r="BA24">
-        <v>0.9499908742471254</v>
+        <v>1</v>
       </c>
       <c r="BB24">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="BC24">
-        <v>0.9702970297029703</v>
+        <v>1</v>
       </c>
       <c r="BD24">
-        <v>5205</v>
+        <v>5119</v>
       </c>
       <c r="BE24">
-        <v>0.9499908742471254</v>
+        <v>1</v>
       </c>
       <c r="BF24">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="BG24">
-        <v>0.9900990099009901</v>
+        <v>1</v>
       </c>
       <c r="BH24">
-        <v>5459</v>
+        <v>5119</v>
       </c>
       <c r="BI24">
-        <v>0.9963496988501551</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:61">
@@ -4329,13 +4509,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K26">
-        <v>-0.5948636363636364</v>
+        <v>-0.5947727272727272</v>
       </c>
       <c r="L26">
-        <v>0.5948636363636364</v>
+        <v>0.5947727272727272</v>
       </c>
       <c r="M26">
         <v>240</v>
@@ -4359,13 +4539,22 @@
         <v>0.9423868312757202</v>
       </c>
       <c r="T26">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="U26">
-        <v>0.9918699186991869</v>
+        <v>0.9308943089430894</v>
       </c>
       <c r="V26">
-        <v>8611</v>
+        <v>7897</v>
+      </c>
+      <c r="W26">
+        <v>15</v>
+      </c>
+      <c r="X26">
+        <v>0.06097560975609756</v>
+      </c>
+      <c r="Y26">
+        <v>701</v>
       </c>
       <c r="Z26">
         <v>8827</v>
@@ -4392,76 +4581,88 @@
         <v>0.973185235049927</v>
       </c>
       <c r="AH26">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="AI26">
-        <v>0.9754098360655737</v>
+        <v>1</v>
       </c>
       <c r="AJ26">
-        <v>8372</v>
+        <v>7841</v>
       </c>
       <c r="AK26">
-        <v>0.9722448031587504</v>
+        <v>0.9929086995061416</v>
+      </c>
+      <c r="AL26">
+        <v>9</v>
+      </c>
+      <c r="AM26">
+        <v>0.6</v>
+      </c>
+      <c r="AN26">
+        <v>531</v>
+      </c>
+      <c r="AO26">
+        <v>0.7574893009985735</v>
       </c>
       <c r="AP26">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="AQ26">
-        <v>0.9754098360655737</v>
+        <v>1</v>
       </c>
       <c r="AR26">
-        <v>8441</v>
+        <v>7897</v>
       </c>
       <c r="AS26">
-        <v>0.9802578097781907</v>
+        <v>1</v>
       </c>
       <c r="AT26">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AU26">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="AV26">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AW26">
         <v>0</v>
       </c>
       <c r="AX26">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="AY26">
-        <v>0.9836065573770492</v>
+        <v>1</v>
       </c>
       <c r="AZ26">
-        <v>8461</v>
+        <v>7897</v>
       </c>
       <c r="BA26">
-        <v>0.9825804203925212</v>
+        <v>1</v>
       </c>
       <c r="BB26">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="BC26">
-        <v>0.9836065573770492</v>
+        <v>1</v>
       </c>
       <c r="BD26">
-        <v>8461</v>
+        <v>7897</v>
       </c>
       <c r="BE26">
-        <v>0.9825804203925212</v>
+        <v>1</v>
       </c>
       <c r="BF26">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="BG26">
-        <v>0.9959016393442623</v>
+        <v>1</v>
       </c>
       <c r="BH26">
-        <v>8561</v>
+        <v>7897</v>
       </c>
       <c r="BI26">
-        <v>0.9941934734641737</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:61">
@@ -4523,13 +4724,22 @@
         <v>0.9222903885480572</v>
       </c>
       <c r="T27">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="U27">
-        <v>0.9771784232365145</v>
+        <v>0.9356846473029046</v>
       </c>
       <c r="V27">
-        <v>16940</v>
+        <v>14806</v>
+      </c>
+      <c r="W27">
+        <v>20</v>
+      </c>
+      <c r="X27">
+        <v>0.04149377593360996</v>
+      </c>
+      <c r="Y27">
+        <v>2048</v>
       </c>
       <c r="Z27">
         <v>16288</v>
@@ -4556,76 +4766,88 @@
         <v>0.9418884775838768</v>
       </c>
       <c r="AH27">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="AI27">
-        <v>0.9490445859872612</v>
+        <v>0.9623059866962306</v>
       </c>
       <c r="AJ27">
-        <v>15951</v>
+        <v>14135</v>
       </c>
       <c r="AK27">
-        <v>0.9416174734356553</v>
+        <v>0.9546805349182764</v>
+      </c>
+      <c r="AL27">
+        <v>13</v>
+      </c>
+      <c r="AM27">
+        <v>0.65</v>
+      </c>
+      <c r="AN27">
+        <v>1816</v>
+      </c>
+      <c r="AO27">
+        <v>0.88671875</v>
       </c>
       <c r="AP27">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="AQ27">
-        <v>0.9490445859872612</v>
+        <v>0.9623059866962306</v>
       </c>
       <c r="AR27">
-        <v>16075</v>
+        <v>14195</v>
       </c>
       <c r="AS27">
-        <v>0.9489374262101535</v>
+        <v>0.9587329461029312</v>
       </c>
       <c r="AT27">
-        <v>0</v>
+        <v>903</v>
       </c>
       <c r="AU27">
-        <v>989</v>
+        <v>671</v>
       </c>
       <c r="AV27">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="AW27">
-        <v>989</v>
+        <v>671</v>
       </c>
       <c r="AX27">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="AY27">
-        <v>0.9978768577494692</v>
+        <v>1</v>
       </c>
       <c r="AZ27">
-        <v>16928</v>
+        <v>14806</v>
       </c>
       <c r="BA27">
-        <v>0.9992916174734356</v>
+        <v>1</v>
       </c>
       <c r="BB27">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="BC27">
-        <v>0.9978768577494692</v>
+        <v>1</v>
       </c>
       <c r="BD27">
-        <v>16928</v>
+        <v>14806</v>
       </c>
       <c r="BE27">
-        <v>0.9992916174734356</v>
+        <v>1</v>
       </c>
       <c r="BF27">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="BG27">
-        <v>0.9978768577494692</v>
+        <v>1</v>
       </c>
       <c r="BH27">
-        <v>16928</v>
+        <v>14806</v>
       </c>
       <c r="BI27">
-        <v>0.9992916174734356</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:61">
@@ -4687,13 +4909,22 @@
         <v>0.9087719298245615</v>
       </c>
       <c r="T28">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="U28">
-        <v>0.9800664451827242</v>
+        <v>0.8803986710963455</v>
       </c>
       <c r="V28">
-        <v>10178</v>
+        <v>8119</v>
+      </c>
+      <c r="W28">
+        <v>30</v>
+      </c>
+      <c r="X28">
+        <v>0.09966777408637874</v>
+      </c>
+      <c r="Y28">
+        <v>1855</v>
       </c>
       <c r="Z28">
         <v>10655</v>
@@ -4720,76 +4951,88 @@
         <v>0.9172407101969535</v>
       </c>
       <c r="AH28">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="AI28">
-        <v>0.9288135593220339</v>
+        <v>1</v>
       </c>
       <c r="AJ28">
-        <v>9370</v>
+        <v>8044</v>
       </c>
       <c r="AK28">
-        <v>0.920613087050501</v>
+        <v>0.9907624091636901</v>
+      </c>
+      <c r="AL28">
+        <v>9</v>
+      </c>
+      <c r="AM28">
+        <v>0.3</v>
+      </c>
+      <c r="AN28">
+        <v>1326</v>
+      </c>
+      <c r="AO28">
+        <v>0.7148247978436658</v>
       </c>
       <c r="AP28">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="AQ28">
-        <v>0.9288135593220339</v>
+        <v>1</v>
       </c>
       <c r="AR28">
-        <v>9627</v>
+        <v>8119</v>
       </c>
       <c r="AS28">
-        <v>0.9458636274317155</v>
+        <v>1</v>
       </c>
       <c r="AT28">
-        <v>0</v>
+        <v>529</v>
       </c>
       <c r="AU28">
-        <v>808</v>
+        <v>0</v>
       </c>
       <c r="AV28">
-        <v>0</v>
+        <v>529</v>
       </c>
       <c r="AW28">
-        <v>808</v>
+        <v>0</v>
       </c>
       <c r="AX28">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="AY28">
-        <v>0.9322033898305084</v>
+        <v>1</v>
       </c>
       <c r="AZ28">
-        <v>9633</v>
+        <v>8119</v>
       </c>
       <c r="BA28">
-        <v>0.9464531342110434</v>
+        <v>1</v>
       </c>
       <c r="BB28">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="BC28">
-        <v>0.9322033898305084</v>
+        <v>1</v>
       </c>
       <c r="BD28">
-        <v>9633</v>
+        <v>8119</v>
       </c>
       <c r="BE28">
-        <v>0.9464531342110434</v>
+        <v>1</v>
       </c>
       <c r="BF28">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="BG28">
-        <v>0.9457627118644067</v>
+        <v>1</v>
       </c>
       <c r="BH28">
-        <v>9680</v>
+        <v>8119</v>
       </c>
       <c r="BI28">
-        <v>0.9510709373157792</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:61">
@@ -4821,13 +5064,13 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K29">
-        <v>-0.1639545454545455</v>
+        <v>-0.1635</v>
       </c>
       <c r="L29">
-        <v>0.1639545454545455</v>
+        <v>0.1635</v>
       </c>
       <c r="M29">
         <v>385</v>
@@ -4851,13 +5094,22 @@
         <v>0.959079283887468</v>
       </c>
       <c r="T29">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="U29">
-        <v>0.9851851851851852</v>
+        <v>0.9432098765432099</v>
       </c>
       <c r="V29">
-        <v>18373</v>
+        <v>13892</v>
+      </c>
+      <c r="W29">
+        <v>17</v>
+      </c>
+      <c r="X29">
+        <v>0.04197530864197531</v>
+      </c>
+      <c r="Y29">
+        <v>4433</v>
       </c>
       <c r="Z29">
         <v>18255</v>
@@ -4884,76 +5136,88 @@
         <v>0.9878758223237101</v>
       </c>
       <c r="AH29">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="AI29">
-        <v>0.9774436090225563</v>
+        <v>1</v>
       </c>
       <c r="AJ29">
-        <v>18151</v>
+        <v>13876</v>
       </c>
       <c r="AK29">
-        <v>0.9879170521961574</v>
+        <v>0.9988482579902102</v>
+      </c>
+      <c r="AL29">
+        <v>8</v>
+      </c>
+      <c r="AM29">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="AN29">
+        <v>4275</v>
+      </c>
+      <c r="AO29">
+        <v>0.9643582224227385</v>
       </c>
       <c r="AP29">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="AQ29">
-        <v>0.9774436090225563</v>
+        <v>1</v>
       </c>
       <c r="AR29">
-        <v>18203</v>
+        <v>13892</v>
       </c>
       <c r="AS29">
-        <v>0.9907472922222827</v>
+        <v>1</v>
       </c>
       <c r="AT29">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="AU29">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="AV29">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="AW29">
-        <v>972</v>
+        <v>0</v>
       </c>
       <c r="AX29">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="AY29">
-        <v>0.9924812030075187</v>
+        <v>1</v>
       </c>
       <c r="AZ29">
-        <v>18350</v>
+        <v>13892</v>
       </c>
       <c r="BA29">
-        <v>0.9987481630653676</v>
+        <v>1</v>
       </c>
       <c r="BB29">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="BC29">
-        <v>0.9924812030075187</v>
+        <v>1</v>
       </c>
       <c r="BD29">
-        <v>18350</v>
+        <v>13892</v>
       </c>
       <c r="BE29">
-        <v>0.9987481630653676</v>
+        <v>1</v>
       </c>
       <c r="BF29">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="BG29">
-        <v>0.9924812030075187</v>
+        <v>1</v>
       </c>
       <c r="BH29">
-        <v>18350</v>
+        <v>13892</v>
       </c>
       <c r="BI29">
-        <v>0.9987481630653676</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:61">
@@ -5015,13 +5279,22 @@
         <v>0.902317880794702</v>
       </c>
       <c r="T30">
-        <v>557</v>
+        <v>531</v>
       </c>
       <c r="U30">
-        <v>0.9875886524822695</v>
+        <v>0.9414893617021277</v>
       </c>
       <c r="V30">
-        <v>18080</v>
+        <v>16705</v>
+      </c>
+      <c r="W30">
+        <v>26</v>
+      </c>
+      <c r="X30">
+        <v>0.04609929078014184</v>
+      </c>
+      <c r="Y30">
+        <v>1283</v>
       </c>
       <c r="Z30">
         <v>8845</v>
@@ -5048,76 +5321,88 @@
         <v>0.4208</v>
       </c>
       <c r="AH30">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AI30">
-        <v>0.3913824057450628</v>
+        <v>0.3954802259887006</v>
       </c>
       <c r="AJ30">
-        <v>7584</v>
+        <v>7284</v>
       </c>
       <c r="AK30">
-        <v>0.4194690265486726</v>
+        <v>0.4360371146363364</v>
+      </c>
+      <c r="AL30">
+        <v>8</v>
+      </c>
+      <c r="AM30">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="AN30">
+        <v>300</v>
+      </c>
+      <c r="AO30">
+        <v>0.2338269680436477</v>
       </c>
       <c r="AP30">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AQ30">
-        <v>0.3913824057450628</v>
+        <v>0.3954802259887006</v>
       </c>
       <c r="AR30">
-        <v>7631</v>
+        <v>7319</v>
       </c>
       <c r="AS30">
-        <v>0.4220685840707964</v>
+        <v>0.4381322957198444</v>
       </c>
       <c r="AT30">
-        <v>0</v>
+        <v>10404</v>
       </c>
       <c r="AU30">
-        <v>10496</v>
+        <v>9421</v>
       </c>
       <c r="AV30">
-        <v>0</v>
+        <v>983</v>
       </c>
       <c r="AW30">
-        <v>11181</v>
+        <v>9421</v>
       </c>
       <c r="AX30">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="AY30">
-        <v>0.9730700179533214</v>
+        <v>0.9962335216572504</v>
       </c>
       <c r="AZ30">
-        <v>17181</v>
+        <v>16702</v>
       </c>
       <c r="BA30">
-        <v>0.9502765486725664</v>
+        <v>0.999820413049985</v>
       </c>
       <c r="BB30">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="BC30">
-        <v>0.9730700179533214</v>
+        <v>0.9962335216572504</v>
       </c>
       <c r="BD30">
-        <v>17181</v>
+        <v>16702</v>
       </c>
       <c r="BE30">
-        <v>0.9502765486725664</v>
+        <v>0.999820413049985</v>
       </c>
       <c r="BF30">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="BG30">
-        <v>0.9730700179533214</v>
+        <v>0.9962335216572504</v>
       </c>
       <c r="BH30">
-        <v>17181</v>
+        <v>16702</v>
       </c>
       <c r="BI30">
-        <v>0.9502765486725664</v>
+        <v>0.999820413049985</v>
       </c>
     </row>
     <row r="31" spans="1:61">
@@ -5179,13 +5464,22 @@
         <v>0.9158878504672897</v>
       </c>
       <c r="T31">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="U31">
-        <v>0.9868421052631579</v>
+        <v>0.9122807017543859</v>
       </c>
       <c r="V31">
-        <v>12409</v>
+        <v>11600</v>
+      </c>
+      <c r="W31">
+        <v>17</v>
+      </c>
+      <c r="X31">
+        <v>0.07456140350877193</v>
+      </c>
+      <c r="Y31">
+        <v>766</v>
       </c>
       <c r="Z31">
         <v>16113</v>
@@ -5212,76 +5506,88 @@
         <v>0.4965029343194791</v>
       </c>
       <c r="AH31">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI31">
-        <v>0.3155555555555555</v>
+        <v>0.3365384615384616</v>
       </c>
       <c r="AJ31">
-        <v>6146</v>
+        <v>6119</v>
       </c>
       <c r="AK31">
-        <v>0.4952856797485696</v>
+        <v>0.5275</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="AN31">
+        <v>27</v>
+      </c>
+      <c r="AO31">
+        <v>0.03524804177545692</v>
       </c>
       <c r="AP31">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AQ31">
-        <v>0.3155555555555555</v>
+        <v>0.3365384615384616</v>
       </c>
       <c r="AR31">
-        <v>6149</v>
+        <v>6119</v>
       </c>
       <c r="AS31">
-        <v>0.4955274397614635</v>
+        <v>0.5275</v>
       </c>
       <c r="AT31">
-        <v>0</v>
+        <v>6220</v>
       </c>
       <c r="AU31">
-        <v>6263</v>
+        <v>5481</v>
       </c>
       <c r="AV31">
-        <v>0</v>
+        <v>739</v>
       </c>
       <c r="AW31">
-        <v>7870</v>
+        <v>5519</v>
       </c>
       <c r="AX31">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AY31">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="AZ31">
-        <v>11828</v>
+        <v>11600</v>
       </c>
       <c r="BA31">
-        <v>0.9531791441695544</v>
+        <v>1</v>
       </c>
       <c r="BB31">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="BC31">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="BD31">
-        <v>11828</v>
+        <v>11600</v>
       </c>
       <c r="BE31">
-        <v>0.9531791441695544</v>
+        <v>1</v>
       </c>
       <c r="BF31">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="BG31">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="BH31">
-        <v>11828</v>
+        <v>11600</v>
       </c>
       <c r="BI31">
-        <v>0.9531791441695544</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:61">
@@ -5325,13 +5631,22 @@
         <v>0.4871794871794872</v>
       </c>
       <c r="T32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U32">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="V32">
-        <v>390</v>
+        <v>190</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>0.25</v>
+      </c>
+      <c r="Y32">
+        <v>199</v>
       </c>
       <c r="Z32">
         <v>5588</v>
@@ -5358,25 +5673,37 @@
         <v>0.9974358974358974</v>
       </c>
       <c r="AH32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI32">
         <v>1</v>
       </c>
       <c r="AJ32">
-        <v>389</v>
+        <v>190</v>
       </c>
       <c r="AK32">
-        <v>0.9974358974358974</v>
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
+        <v>199</v>
+      </c>
+      <c r="AO32">
+        <v>1</v>
       </c>
       <c r="AP32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ32">
         <v>1</v>
       </c>
       <c r="AR32">
-        <v>390</v>
+        <v>190</v>
       </c>
       <c r="AS32">
         <v>1</v>
@@ -5394,37 +5721,37 @@
         <v>0</v>
       </c>
       <c r="AX32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY32">
         <v>1</v>
       </c>
       <c r="AZ32">
-        <v>390</v>
+        <v>190</v>
       </c>
       <c r="BA32">
         <v>1</v>
       </c>
       <c r="BB32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC32">
         <v>1</v>
       </c>
       <c r="BD32">
-        <v>390</v>
+        <v>190</v>
       </c>
       <c r="BE32">
         <v>1</v>
       </c>
       <c r="BF32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG32">
         <v>1</v>
       </c>
       <c r="BH32">
-        <v>390</v>
+        <v>190</v>
       </c>
       <c r="BI32">
         <v>1</v>
@@ -5489,13 +5816,22 @@
         <v>0.9108910891089109</v>
       </c>
       <c r="T33">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="U33">
-        <v>0.9166666666666666</v>
+        <v>0.8425925925925926</v>
       </c>
       <c r="V33">
-        <v>4723</v>
+        <v>4217</v>
+      </c>
+      <c r="W33">
+        <v>9</v>
+      </c>
+      <c r="X33">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="Y33">
+        <v>480</v>
       </c>
       <c r="Z33">
         <v>4926</v>
@@ -5522,76 +5858,88 @@
         <v>0.9812524930195453</v>
       </c>
       <c r="AH33">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="AI33">
-        <v>0.9898989898989899</v>
+        <v>1</v>
       </c>
       <c r="AJ33">
-        <v>4639</v>
+        <v>4175</v>
       </c>
       <c r="AK33">
-        <v>0.9822146940503917</v>
+        <v>0.9900403130187337</v>
+      </c>
+      <c r="AL33">
+        <v>7</v>
+      </c>
+      <c r="AM33">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="AN33">
+        <v>464</v>
+      </c>
+      <c r="AO33">
+        <v>0.9666666666666667</v>
       </c>
       <c r="AP33">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="AQ33">
-        <v>0.9898989898989899</v>
+        <v>1</v>
       </c>
       <c r="AR33">
-        <v>4717</v>
+        <v>4217</v>
       </c>
       <c r="AS33">
-        <v>0.9987296210035994</v>
+        <v>1</v>
       </c>
       <c r="AT33">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AU33">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="AV33">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AW33">
         <v>0</v>
       </c>
       <c r="AX33">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="AY33">
-        <v>0.9898989898989899</v>
+        <v>1</v>
       </c>
       <c r="AZ33">
-        <v>4717</v>
+        <v>4217</v>
       </c>
       <c r="BA33">
-        <v>0.9987296210035994</v>
+        <v>1</v>
       </c>
       <c r="BB33">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="BC33">
-        <v>0.9898989898989899</v>
+        <v>1</v>
       </c>
       <c r="BD33">
-        <v>4717</v>
+        <v>4217</v>
       </c>
       <c r="BE33">
-        <v>0.9987296210035994</v>
+        <v>1</v>
       </c>
       <c r="BF33">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="BG33">
-        <v>0.9898989898989899</v>
+        <v>1</v>
       </c>
       <c r="BH33">
-        <v>4717</v>
+        <v>4217</v>
       </c>
       <c r="BI33">
-        <v>0.9987296210035994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:61">
@@ -5623,13 +5971,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K34">
-        <v>-0.02590909090909088</v>
+        <v>-0.02577272727272728</v>
       </c>
       <c r="L34">
-        <v>0.02590909090909088</v>
+        <v>0.02577272727272728</v>
       </c>
       <c r="M34">
         <v>457</v>
@@ -5653,13 +6001,22 @@
         <v>0.9308855291576674</v>
       </c>
       <c r="T34">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="U34">
-        <v>0.9934640522875817</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="V34">
-        <v>21308</v>
+        <v>19276</v>
+      </c>
+      <c r="W34">
+        <v>31</v>
+      </c>
+      <c r="X34">
+        <v>0.06753812636165578</v>
+      </c>
+      <c r="Y34">
+        <v>1940</v>
       </c>
       <c r="Z34">
         <v>19241</v>
@@ -5686,76 +6043,88 @@
         <v>0.8473635090993934</v>
       </c>
       <c r="AH34">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="AI34">
-        <v>0.6403508771929824</v>
+        <v>0.6517647058823529</v>
       </c>
       <c r="AJ34">
-        <v>18037</v>
+        <v>16448</v>
       </c>
       <c r="AK34">
-        <v>0.8464895813778862</v>
+        <v>0.853289064121187</v>
+      </c>
+      <c r="AL34">
+        <v>15</v>
+      </c>
+      <c r="AM34">
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="AN34">
+        <v>1589</v>
+      </c>
+      <c r="AO34">
+        <v>0.8190721649484536</v>
       </c>
       <c r="AP34">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="AQ34">
-        <v>0.6403508771929824</v>
+        <v>0.6517647058823529</v>
       </c>
       <c r="AR34">
-        <v>18167</v>
+        <v>16511</v>
       </c>
       <c r="AS34">
-        <v>0.8525905763093674</v>
+        <v>0.8565573770491803</v>
       </c>
       <c r="AT34">
-        <v>0</v>
+        <v>3179</v>
       </c>
       <c r="AU34">
-        <v>3271</v>
+        <v>2828</v>
       </c>
       <c r="AV34">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="AW34">
-        <v>3271</v>
+        <v>2828</v>
       </c>
       <c r="AX34">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="AY34">
-        <v>0.9824561403508771</v>
+        <v>1</v>
       </c>
       <c r="AZ34">
-        <v>21199</v>
+        <v>19276</v>
       </c>
       <c r="BA34">
-        <v>0.9948845504036042</v>
+        <v>1</v>
       </c>
       <c r="BB34">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="BC34">
-        <v>0.9824561403508771</v>
+        <v>1</v>
       </c>
       <c r="BD34">
-        <v>21199</v>
+        <v>19276</v>
       </c>
       <c r="BE34">
-        <v>0.9948845504036042</v>
+        <v>1</v>
       </c>
       <c r="BF34">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="BG34">
-        <v>0.9846491228070176</v>
+        <v>1</v>
       </c>
       <c r="BH34">
-        <v>21201</v>
+        <v>19276</v>
       </c>
       <c r="BI34">
-        <v>0.9949784118640886</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:61">
@@ -5787,13 +6156,13 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K35">
-        <v>-0.1327727272727273</v>
+        <v>-0.1326818181818182</v>
       </c>
       <c r="L35">
-        <v>0.1327727272727273</v>
+        <v>0.1326818181818182</v>
       </c>
       <c r="M35">
         <v>449</v>
@@ -5817,13 +6186,22 @@
         <v>0.9622222222222222</v>
       </c>
       <c r="T35">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="U35">
-        <v>0.995575221238938</v>
+        <v>0.9446902654867256</v>
       </c>
       <c r="V35">
-        <v>18829</v>
+        <v>16658</v>
+      </c>
+      <c r="W35">
+        <v>24</v>
+      </c>
+      <c r="X35">
+        <v>0.05309734513274336</v>
+      </c>
+      <c r="Y35">
+        <v>2351</v>
       </c>
       <c r="Z35">
         <v>16733</v>
@@ -5850,76 +6228,88 @@
         <v>0.6949525656480947</v>
       </c>
       <c r="AH35">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AI35">
-        <v>0.5555555555555556</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AJ35">
-        <v>13012</v>
+        <v>12234</v>
       </c>
       <c r="AK35">
-        <v>0.6910616602050029</v>
+        <v>0.7344218993876815</v>
+      </c>
+      <c r="AL35">
+        <v>7</v>
+      </c>
+      <c r="AM35">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="AN35">
+        <v>995</v>
+      </c>
+      <c r="AO35">
+        <v>0.4232241599319438</v>
       </c>
       <c r="AP35">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AQ35">
-        <v>0.5555555555555556</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AR35">
-        <v>13031</v>
+        <v>12244</v>
       </c>
       <c r="AS35">
-        <v>0.6920707419406235</v>
+        <v>0.735022211550006</v>
       </c>
       <c r="AT35">
-        <v>0</v>
+        <v>5780</v>
       </c>
       <c r="AU35">
-        <v>5817</v>
+        <v>4424</v>
       </c>
       <c r="AV35">
-        <v>0</v>
+        <v>1356</v>
       </c>
       <c r="AW35">
-        <v>6037</v>
+        <v>4477</v>
       </c>
       <c r="AX35">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="AY35">
-        <v>0.9755555555555555</v>
+        <v>0.9953161592505855</v>
       </c>
       <c r="AZ35">
-        <v>17673</v>
+        <v>16352</v>
       </c>
       <c r="BA35">
-        <v>0.9386053428222423</v>
+        <v>0.9816304478328731</v>
       </c>
       <c r="BB35">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="BC35">
-        <v>0.9755555555555555</v>
+        <v>0.9953161592505855</v>
       </c>
       <c r="BD35">
-        <v>17673</v>
+        <v>16352</v>
       </c>
       <c r="BE35">
-        <v>0.9386053428222423</v>
+        <v>0.9816304478328731</v>
       </c>
       <c r="BF35">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="BG35">
-        <v>0.9822222222222222</v>
+        <v>1</v>
       </c>
       <c r="BH35">
-        <v>18129</v>
+        <v>16658</v>
       </c>
       <c r="BI35">
-        <v>0.9628233044771364</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:61">
@@ -5951,13 +6341,13 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K36">
-        <v>-0.04781818181818187</v>
+        <v>-0.04749999999999999</v>
       </c>
       <c r="L36">
-        <v>0.04781818181818187</v>
+        <v>0.04749999999999999</v>
       </c>
       <c r="M36">
         <v>519</v>
@@ -5981,13 +6371,22 @@
         <v>0.9292364990689013</v>
       </c>
       <c r="T36">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="U36">
-        <v>0.9980952380952381</v>
+        <v>0.9676190476190476</v>
       </c>
       <c r="V36">
-        <v>20938</v>
+        <v>19846</v>
+      </c>
+      <c r="W36">
+        <v>16</v>
+      </c>
+      <c r="X36">
+        <v>0.03047619047619048</v>
+      </c>
+      <c r="Y36">
+        <v>1070</v>
       </c>
       <c r="Z36">
         <v>16614</v>
@@ -6014,76 +6413,88 @@
         <v>0.6247374451021577</v>
       </c>
       <c r="AH36">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="AI36">
-        <v>0.517175572519084</v>
+        <v>0.5078740157480315</v>
       </c>
       <c r="AJ36">
-        <v>13077</v>
+        <v>12023</v>
       </c>
       <c r="AK36">
-        <v>0.6245582195052058</v>
+        <v>0.6058147737579361</v>
+      </c>
+      <c r="AL36">
+        <v>13</v>
+      </c>
+      <c r="AM36">
+        <v>0.8125</v>
+      </c>
+      <c r="AN36">
+        <v>1054</v>
+      </c>
+      <c r="AO36">
+        <v>0.9850467289719627</v>
       </c>
       <c r="AP36">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="AQ36">
-        <v>0.517175572519084</v>
+        <v>0.5078740157480315</v>
       </c>
       <c r="AR36">
-        <v>13281</v>
+        <v>12205</v>
       </c>
       <c r="AS36">
-        <v>0.6343012704174229</v>
+        <v>0.6149853874836239</v>
       </c>
       <c r="AT36">
-        <v>0</v>
+        <v>7839</v>
       </c>
       <c r="AU36">
-        <v>7861</v>
+        <v>7823</v>
       </c>
       <c r="AV36">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AW36">
-        <v>8160</v>
+        <v>8010</v>
       </c>
       <c r="AX36">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="AY36">
-        <v>0.9961832061068703</v>
+        <v>1</v>
       </c>
       <c r="AZ36">
-        <v>20928</v>
+        <v>19846</v>
       </c>
       <c r="BA36">
-        <v>0.9995223994650874</v>
+        <v>1</v>
       </c>
       <c r="BB36">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="BC36">
-        <v>0.9961832061068703</v>
+        <v>1</v>
       </c>
       <c r="BD36">
-        <v>20928</v>
+        <v>19846</v>
       </c>
       <c r="BE36">
-        <v>0.9995223994650874</v>
+        <v>1</v>
       </c>
       <c r="BF36">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="BG36">
-        <v>0.9961832061068703</v>
+        <v>1</v>
       </c>
       <c r="BH36">
-        <v>20928</v>
+        <v>19846</v>
       </c>
       <c r="BI36">
-        <v>0.9995223994650874</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:61">
@@ -6145,13 +6556,22 @@
         <v>0.8984771573604061</v>
       </c>
       <c r="T37">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="U37">
-        <v>0.9948586118251928</v>
+        <v>0.9203084832904884</v>
       </c>
       <c r="V37">
-        <v>21815</v>
+        <v>18126</v>
+      </c>
+      <c r="W37">
+        <v>29</v>
+      </c>
+      <c r="X37">
+        <v>0.07455012853470437</v>
+      </c>
+      <c r="Y37">
+        <v>3620</v>
       </c>
       <c r="Z37">
         <v>18433</v>
@@ -6178,73 +6598,85 @@
         <v>0.4228495485999725</v>
       </c>
       <c r="AH37">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="AI37">
-        <v>0.3798449612403101</v>
+        <v>0.3798882681564246</v>
       </c>
       <c r="AJ37">
-        <v>9221</v>
+        <v>8357</v>
       </c>
       <c r="AK37">
-        <v>0.4226908090763236</v>
+        <v>0.4610504248041488</v>
+      </c>
+      <c r="AL37">
+        <v>11</v>
+      </c>
+      <c r="AM37">
+        <v>0.3793103448275862</v>
+      </c>
+      <c r="AN37">
+        <v>864</v>
+      </c>
+      <c r="AO37">
+        <v>0.2386740331491713</v>
       </c>
       <c r="AP37">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="AQ37">
-        <v>0.3798449612403101</v>
+        <v>0.3798882681564246</v>
       </c>
       <c r="AR37">
-        <v>9261</v>
+        <v>8365</v>
       </c>
       <c r="AS37">
-        <v>0.4245244098097639</v>
+        <v>0.4614917797638751</v>
       </c>
       <c r="AT37">
-        <v>0</v>
+        <v>12525</v>
       </c>
       <c r="AU37">
-        <v>12594</v>
+        <v>9769</v>
       </c>
       <c r="AV37">
-        <v>0</v>
+        <v>2756</v>
       </c>
       <c r="AW37">
-        <v>12594</v>
+        <v>9824</v>
       </c>
       <c r="AX37">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="AY37">
-        <v>0.9974160206718347</v>
+        <v>1</v>
       </c>
       <c r="AZ37">
-        <v>21755</v>
+        <v>18126</v>
       </c>
       <c r="BA37">
-        <v>0.9972495988998396</v>
+        <v>1</v>
       </c>
       <c r="BB37">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="BC37">
-        <v>0.9974160206718347</v>
+        <v>1</v>
       </c>
       <c r="BD37">
-        <v>21755</v>
+        <v>18126</v>
       </c>
       <c r="BE37">
-        <v>0.9972495988998396</v>
+        <v>1</v>
       </c>
       <c r="BF37">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="BG37">
         <v>1</v>
       </c>
       <c r="BH37">
-        <v>21815</v>
+        <v>18126</v>
       </c>
       <c r="BI37">
         <v>1</v>
@@ -6279,13 +6711,13 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38">
-        <v>-0.06233333333333335</v>
+        <v>-0.06225000000000003</v>
       </c>
       <c r="L38">
-        <v>0.06233333333333335</v>
+        <v>0.06225000000000003</v>
       </c>
       <c r="M38">
         <v>274</v>
@@ -6309,13 +6741,22 @@
         <v>0.95</v>
       </c>
       <c r="T38">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="U38">
-        <v>0.9964788732394366</v>
+        <v>0.954225352112676</v>
       </c>
       <c r="V38">
-        <v>11251</v>
+        <v>10604</v>
+      </c>
+      <c r="W38">
+        <v>12</v>
+      </c>
+      <c r="X38">
+        <v>0.04225352112676056</v>
+      </c>
+      <c r="Y38">
+        <v>576</v>
       </c>
       <c r="Z38">
         <v>18781</v>
@@ -6342,76 +6783,88 @@
         <v>0.6337539992890153</v>
       </c>
       <c r="AH38">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AI38">
-        <v>0.7773851590106007</v>
+        <v>0.7749077490774908</v>
       </c>
       <c r="AJ38">
-        <v>7130</v>
+        <v>6892</v>
       </c>
       <c r="AK38">
-        <v>0.6337214469824904</v>
+        <v>0.6499434175782723</v>
+      </c>
+      <c r="AL38">
+        <v>10</v>
+      </c>
+      <c r="AM38">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AN38">
+        <v>238</v>
+      </c>
+      <c r="AO38">
+        <v>0.4131944444444444</v>
       </c>
       <c r="AP38">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AQ38">
-        <v>0.7773851590106007</v>
+        <v>0.7749077490774908</v>
       </c>
       <c r="AR38">
-        <v>7189</v>
+        <v>6892</v>
       </c>
       <c r="AS38">
-        <v>0.6389654252955292</v>
+        <v>0.6499434175782723</v>
       </c>
       <c r="AT38">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="AU38">
-        <v>4121</v>
+        <v>3712</v>
       </c>
       <c r="AV38">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="AW38">
-        <v>4121</v>
+        <v>3775</v>
       </c>
       <c r="AX38">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="AY38">
-        <v>0.9964664310954063</v>
+        <v>1</v>
       </c>
       <c r="AZ38">
-        <v>11201</v>
+        <v>10604</v>
       </c>
       <c r="BA38">
-        <v>0.9955559505821705</v>
+        <v>1</v>
       </c>
       <c r="BB38">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="BC38">
-        <v>0.9964664310954063</v>
+        <v>1</v>
       </c>
       <c r="BD38">
-        <v>11201</v>
+        <v>10604</v>
       </c>
       <c r="BE38">
-        <v>0.9955559505821705</v>
+        <v>1</v>
       </c>
       <c r="BF38">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="BG38">
-        <v>0.9964664310954063</v>
+        <v>1</v>
       </c>
       <c r="BH38">
-        <v>11201</v>
+        <v>10604</v>
       </c>
       <c r="BI38">
-        <v>0.9955559505821705</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9797,130 +10250,130 @@
         <v>85.16666666666667</v>
       </c>
       <c r="G24">
-        <v>0.0966183574879227</v>
+        <v>129.2270531400966</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>10.08547008547009</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>34.28991185112635</v>
+        <v>61.6258570029383</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>786.2666666666667</v>
       </c>
       <c r="O24">
-        <v>0.6410256410256411</v>
+        <v>76.63461538461539</v>
       </c>
       <c r="P24">
-        <v>0.07462686567164178</v>
+        <v>151.1940298507463</v>
       </c>
       <c r="Q24">
-        <v>0.2054794520547945</v>
+        <v>13.01369863013699</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
       <c r="S24">
-        <v>0.3498542274052479</v>
+        <v>153.1195335276968</v>
       </c>
       <c r="T24">
-        <v>34.28991185112635</v>
+        <v>61.6258570029383</v>
       </c>
       <c r="U24">
-        <v>-0.9897971674898384</v>
+        <v>1.48466375924632</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>74.78873239436621</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>324.8484848484848</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>305.1</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>169.8387096774193</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>104.0594059405941</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>41.81818181818182</v>
       </c>
       <c r="AB24">
         <v>0</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>118.4210526315789</v>
       </c>
       <c r="AD24">
-        <v>0.3498542274052479</v>
+        <v>153.1195335276968</v>
       </c>
       <c r="AE24">
-        <v>-1</v>
+        <v>-0.2266104140778451</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>54.50381679389313</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>123.3526011560694</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>123.2934131736527</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>256.0571428571429</v>
       </c>
       <c r="AJ24">
-        <v>0</v>
+        <v>97.51773049645391</v>
       </c>
       <c r="AK24">
-        <v>0</v>
+        <v>46.22857142857143</v>
       </c>
       <c r="AL24">
-        <v>0</v>
+        <v>21.27659574468085</v>
       </c>
       <c r="AM24">
-        <v>0</v>
+        <v>111.4772727272727</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>118.4210526315789</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>-0.0586363636363636</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>56.70329670329671</v>
       </c>
       <c r="AQ24">
-        <v>0</v>
+        <v>199.2156862745098</v>
       </c>
       <c r="AR24">
-        <v>0</v>
+        <v>133.5754189944134</v>
       </c>
       <c r="AS24">
-        <v>0</v>
+        <v>222.8571428571428</v>
       </c>
       <c r="AT24">
-        <v>0</v>
+        <v>244.3046357615894</v>
       </c>
       <c r="AU24">
-        <v>0</v>
+        <v>35.94444444444444</v>
       </c>
       <c r="AV24">
-        <v>0</v>
+        <v>137.8590425531915</v>
       </c>
       <c r="AW24">
-        <v>0</v>
+        <v>111.4772727272727</v>
       </c>
       <c r="AX24">
-        <v>0</v>
+        <v>0.2366560392131347</v>
       </c>
     </row>
     <row r="25" spans="1:50">
@@ -9941,130 +10394,130 @@
         <v>1022</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>2675</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>583.5</v>
+        <v>1048.666666666667</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5897</v>
       </c>
       <c r="O25">
-        <v>20</v>
+        <v>2391</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>2026</v>
       </c>
       <c r="Q25">
-        <v>3</v>
+        <v>190</v>
       </c>
       <c r="R25">
         <v>0</v>
       </c>
       <c r="S25">
-        <v>4.8</v>
+        <v>2100.8</v>
       </c>
       <c r="T25">
-        <v>583.5</v>
+        <v>1048.666666666667</v>
       </c>
       <c r="U25">
-        <v>-0.9917737789203085</v>
+        <v>1.003305785123967</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>1062</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>3216</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>3051</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>3159</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>2102</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="AB25">
         <v>0</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>2175</v>
       </c>
       <c r="AD25">
-        <v>4.8</v>
+        <v>2100.8</v>
       </c>
       <c r="AE25">
-        <v>-1</v>
+        <v>0.03531987814166015</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>714</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>2134</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>2059</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>4481</v>
       </c>
       <c r="AJ25">
-        <v>0</v>
+        <v>1375</v>
       </c>
       <c r="AK25">
-        <v>0</v>
+        <v>809</v>
       </c>
       <c r="AL25">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>1928.666666666667</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>2175</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>-0.1132567049808428</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>2032</v>
       </c>
       <c r="AR25">
-        <v>0</v>
+        <v>2391</v>
       </c>
       <c r="AS25">
-        <v>0</v>
+        <v>1092</v>
       </c>
       <c r="AT25">
-        <v>0</v>
+        <v>3689</v>
       </c>
       <c r="AU25">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="AV25">
-        <v>0</v>
+        <v>1944</v>
       </c>
       <c r="AW25">
-        <v>0</v>
+        <v>1928.666666666667</v>
       </c>
       <c r="AX25">
-        <v>0</v>
+        <v>0.007950224680262741</v>
       </c>
     </row>
     <row r="26" spans="1:50">
@@ -11410,31 +11863,31 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>555</v>
+        <v>514</v>
       </c>
       <c r="C6">
-        <v>8.547747747747747</v>
+        <v>6.949416342412452</v>
       </c>
       <c r="D6">
-        <v>8.545945945945945</v>
+        <v>6.947470817120623</v>
       </c>
       <c r="E6">
-        <v>8.42396396396396</v>
+        <v>7.354863813229576</v>
       </c>
       <c r="F6">
-        <v>0.8893489445731341</v>
+        <v>0.3984649399459387</v>
       </c>
       <c r="G6">
         <v>0.027336860670194</v>
       </c>
       <c r="H6">
-        <v>7.280612612612611</v>
+        <v>6.190058365758759</v>
       </c>
       <c r="I6">
         <v>0.0888045540796964</v>
       </c>
       <c r="J6">
-        <v>1.329459459459458</v>
+        <v>0.7110311284046692</v>
       </c>
       <c r="K6">
         <v>0.01508704061895551</v>
@@ -11443,16 +11896,16 @@
         <v>0.06871508379888268</v>
       </c>
       <c r="M6">
-        <v>-0.1863603603603603</v>
+        <v>0.4535214007782101</v>
       </c>
       <c r="N6">
-        <v>0.3446486486486487</v>
+        <v>0.09922178988326846</v>
       </c>
       <c r="O6">
-        <v>0.0002522522522522522</v>
+        <v>0.0002529182879377431</v>
       </c>
       <c r="P6">
-        <v>0.3447567567567568</v>
+        <v>0.09929961089494163</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -11460,31 +11913,31 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C7">
-        <v>5.563106796116505</v>
+        <v>2.808080808080808</v>
       </c>
       <c r="D7">
-        <v>5.563106796116505</v>
+        <v>2.808080808080808</v>
       </c>
       <c r="E7">
-        <v>4.247184466019416</v>
+        <v>3.143838383838383</v>
       </c>
       <c r="F7">
-        <v>0.2190645858870805</v>
+        <v>0.2199628893096557</v>
       </c>
       <c r="G7">
         <v>0.03490566037735849</v>
       </c>
       <c r="H7">
-        <v>1.602427184466019</v>
+        <v>1.602020202020202</v>
       </c>
       <c r="I7">
         <v>0.08813559322033898</v>
       </c>
       <c r="J7">
-        <v>1.763592233009708</v>
+        <v>0.6490909090909091</v>
       </c>
       <c r="K7">
         <v>0.01693548387096774</v>
@@ -11493,16 +11946,16 @@
         <v>0.05685483870967743</v>
       </c>
       <c r="M7">
-        <v>0.8809708737864076</v>
+        <v>0.8925252525252524</v>
       </c>
       <c r="N7">
-        <v>0.01145631067961165</v>
+        <v>0.01191919191919192</v>
       </c>
       <c r="O7">
-        <v>0.0001941747572815534</v>
+        <v>0.000202020202020202</v>
       </c>
       <c r="P7">
-        <v>0.01077669902912621</v>
+        <v>0.01121212121212121</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -11560,31 +12013,31 @@
         <v>81</v>
       </c>
       <c r="B9">
-        <v>418.6666666666667</v>
+        <v>411.1666666666667</v>
       </c>
       <c r="C9">
-        <v>6.519965524471456</v>
+        <v>5.794405958909625</v>
       </c>
       <c r="D9">
-        <v>6.519012462781137</v>
+        <v>5.7934289433043</v>
       </c>
       <c r="E9">
-        <v>6.549921729838755</v>
+        <v>6.187847357686187</v>
       </c>
       <c r="F9">
-        <v>0.3499991284489742</v>
+        <v>0.2683348449148709</v>
       </c>
       <c r="G9">
         <v>0.02982465628039027</v>
       </c>
       <c r="H9">
-        <v>4.119611480184886</v>
+        <v>3.937784608634941</v>
       </c>
       <c r="I9">
         <v>0.09076896502845806</v>
       </c>
       <c r="J9">
-        <v>1.5225961857493</v>
+        <v>1.233774576587036</v>
       </c>
       <c r="K9">
         <v>0.01685547600538766</v>
@@ -11593,16 +12046,16 @@
         <v>0.06484352194956432</v>
       </c>
       <c r="M9">
-        <v>0.9074493442650625</v>
+        <v>1.016022034244632</v>
       </c>
       <c r="N9">
-        <v>0.073904961981863</v>
+        <v>0.03307763239422967</v>
       </c>
       <c r="O9">
-        <v>0.0002647196395069077</v>
+        <v>0.0002661382195775976</v>
       </c>
       <c r="P9">
-        <v>0.0738015472033109</v>
+        <v>0.03296459325684089</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -11720,31 +12173,31 @@
         <v>49</v>
       </c>
       <c r="B14">
-        <v>367</v>
+        <v>310</v>
       </c>
       <c r="C14">
-        <v>5.880108991825613</v>
+        <v>1.687096774193548</v>
       </c>
       <c r="D14">
-        <v>5.880108991825613</v>
+        <v>1.687096774193548</v>
       </c>
       <c r="E14">
-        <v>5.892425068119897</v>
+        <v>2.033064516129031</v>
       </c>
       <c r="F14">
-        <v>0.2644473316042018</v>
+        <v>0.2649412227881694</v>
       </c>
       <c r="G14">
         <v>0.03023872679045093</v>
       </c>
       <c r="H14">
-        <v>4.258038147138969</v>
+        <v>1.119774193548386</v>
       </c>
       <c r="I14">
         <v>0.09145569620253165</v>
       </c>
       <c r="J14">
-        <v>1.23190735694823</v>
+        <v>0.4898709677419351</v>
       </c>
       <c r="K14">
         <v>0.01492063492063492</v>
@@ -11753,16 +12206,16 @@
         <v>0.07777777777777778</v>
       </c>
       <c r="M14">
-        <v>0.4022615803814713</v>
+        <v>0.4231612903225804</v>
       </c>
       <c r="N14">
-        <v>0.02525885558583103</v>
+        <v>0.02558064516129028</v>
       </c>
       <c r="O14">
-        <v>0.000217983651226158</v>
+        <v>0.0002580645161290323</v>
       </c>
       <c r="P14">
-        <v>0.02479564032697544</v>
+        <v>0.02496774193548383</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -11770,31 +12223,31 @@
         <v>50</v>
       </c>
       <c r="B15">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="C15">
-        <v>7.011990407673861</v>
+        <v>1.844155844155844</v>
       </c>
       <c r="D15">
-        <v>7.009592326139089</v>
+        <v>1.841558441558442</v>
       </c>
       <c r="E15">
-        <v>6.323884892086328</v>
+        <v>2.217532467532468</v>
       </c>
       <c r="F15">
-        <v>0.3189905882696837</v>
+        <v>0.3212091562724243</v>
       </c>
       <c r="G15">
         <v>0.03194444444444445</v>
       </c>
       <c r="H15">
-        <v>5.220767386091125</v>
+        <v>1.19574025974026</v>
       </c>
       <c r="I15">
         <v>0.09568034557235421</v>
       </c>
       <c r="J15">
-        <v>0.6433093525179849</v>
+        <v>0.5972987012987011</v>
       </c>
       <c r="K15">
         <v>0.01857451403887689</v>
@@ -11803,16 +12256,16 @@
         <v>0.07672413793103448</v>
       </c>
       <c r="M15">
-        <v>0.459424460431655</v>
+        <v>0.4243376623376625</v>
       </c>
       <c r="N15">
-        <v>0.04805755395683453</v>
+        <v>0.04916883116883116</v>
       </c>
       <c r="O15">
-        <v>0.0003836930455635492</v>
+        <v>0.0001558441558441559</v>
       </c>
       <c r="P15">
-        <v>0.04800959232613908</v>
+        <v>0.04911688311688311</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -11820,31 +12273,31 @@
         <v>51</v>
       </c>
       <c r="B16">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="C16">
-        <v>3.375555555555556</v>
+        <v>1.562945368171021</v>
       </c>
       <c r="D16">
-        <v>3.373333333333334</v>
+        <v>1.560570071258907</v>
       </c>
       <c r="E16">
-        <v>1.884444444444443</v>
+        <v>1.919928741092638</v>
       </c>
       <c r="F16">
-        <v>2.28509754411596</v>
+        <v>0.3080049075363901</v>
       </c>
       <c r="G16">
         <v>0.0324561403508772</v>
       </c>
       <c r="H16">
-        <v>1.101666666666667</v>
+        <v>1.007648456057007</v>
       </c>
       <c r="I16">
         <v>0.1118568232662192</v>
       </c>
       <c r="J16">
-        <v>1.46142222222222</v>
+        <v>0.4744180522565328</v>
       </c>
       <c r="K16">
         <v>0.02131519274376417</v>
@@ -11853,16 +12306,16 @@
         <v>0.07346938775510203</v>
       </c>
       <c r="M16">
-        <v>-0.6788666666666668</v>
+        <v>0.4376247030878864</v>
       </c>
       <c r="N16">
-        <v>1.023155555555554</v>
+        <v>0.03463182897862228</v>
       </c>
       <c r="O16">
-        <v>0.0002222222222222222</v>
+        <v>0.0002375296912114014</v>
       </c>
       <c r="P16">
-        <v>1.022844444444443</v>
+        <v>0.03427553444180519</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -11870,31 +12323,31 @@
         <v>52</v>
       </c>
       <c r="B17">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C17">
-        <v>2.812244897959184</v>
+        <v>1.802521008403361</v>
       </c>
       <c r="D17">
-        <v>2.812244897959184</v>
+        <v>1.802521008403361</v>
       </c>
       <c r="E17">
-        <v>2.902857142857141</v>
+        <v>2.182268907563025</v>
       </c>
       <c r="F17">
-        <v>0.1768839750909802</v>
+        <v>0.177256123950524</v>
       </c>
       <c r="G17">
         <v>0.02834645669291339</v>
       </c>
       <c r="H17">
-        <v>1.71542857142857</v>
+        <v>1.513403361344537</v>
       </c>
       <c r="I17">
         <v>0.05526315789473684</v>
       </c>
       <c r="J17">
-        <v>0.8650612244897961</v>
+        <v>0.3348319327731091</v>
       </c>
       <c r="K17">
         <v>0.01301115241635688</v>
@@ -11903,16 +12356,16 @@
         <v>0.05046728971962617</v>
       </c>
       <c r="M17">
-        <v>0.3222448979591838</v>
+        <v>0.3339075630252102</v>
       </c>
       <c r="N17">
-        <v>0.01485714285714285</v>
+        <v>0.01504201680672268</v>
       </c>
       <c r="O17">
-        <v>0.0001224489795918367</v>
+        <v>0.0001260504201680672</v>
       </c>
       <c r="P17">
-        <v>0.01493877551020407</v>
+        <v>0.01512605042016806</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -11970,31 +12423,31 @@
         <v>81</v>
       </c>
       <c r="B19">
-        <v>246.5</v>
+        <v>225.6666666666667</v>
       </c>
       <c r="C19">
-        <v>3.179983308835702</v>
+        <v>1.149453165820629</v>
       </c>
       <c r="D19">
-        <v>3.179213258209536</v>
+        <v>1.148624382569043</v>
       </c>
       <c r="E19">
-        <v>2.833935257917968</v>
+        <v>1.392132438719527</v>
       </c>
       <c r="F19">
-        <v>0.5075699065134709</v>
+        <v>0.1785685684245847</v>
       </c>
       <c r="G19">
         <v>0.02049762804644766</v>
       </c>
       <c r="H19">
-        <v>2.049316795220888</v>
+        <v>0.8060943784483651</v>
       </c>
       <c r="I19">
         <v>0.059042670489307</v>
       </c>
       <c r="J19">
-        <v>0.7002833593630385</v>
+        <v>0.3160699423450463</v>
       </c>
       <c r="K19">
         <v>0.01130358235327214</v>
@@ -12003,16 +12456,16 @@
         <v>0.04640643219725674</v>
       </c>
       <c r="M19">
-        <v>0.08417737868427388</v>
+        <v>0.2698385364622232</v>
       </c>
       <c r="N19">
-        <v>0.1852215179925605</v>
+        <v>0.02073722035257774</v>
       </c>
       <c r="O19">
-        <v>0.0001577246497672944</v>
+        <v>0.0001295814638921094</v>
       </c>
       <c r="P19">
-        <v>0.185098075434627</v>
+        <v>0.02058103498572336</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -12020,31 +12473,31 @@
         <v>82</v>
       </c>
       <c r="B20">
-        <v>418.6666666666667</v>
+        <v>411.1666666666667</v>
       </c>
       <c r="C20">
-        <v>6.519965524471456</v>
+        <v>5.794405958909625</v>
       </c>
       <c r="D20">
-        <v>6.519012462781137</v>
+        <v>5.7934289433043</v>
       </c>
       <c r="E20">
-        <v>6.549921729838755</v>
+        <v>6.187847357686187</v>
       </c>
       <c r="F20">
-        <v>0.3499991284489742</v>
+        <v>0.2683348449148709</v>
       </c>
       <c r="G20">
         <v>0.02982465628039027</v>
       </c>
       <c r="H20">
-        <v>4.119611480184886</v>
+        <v>3.937784608634941</v>
       </c>
       <c r="I20">
         <v>0.09076896502845806</v>
       </c>
       <c r="J20">
-        <v>1.5225961857493</v>
+        <v>1.233774576587036</v>
       </c>
       <c r="K20">
         <v>0.01685547600538766</v>
@@ -12053,16 +12506,16 @@
         <v>0.06484352194956432</v>
       </c>
       <c r="M20">
-        <v>0.9074493442650625</v>
+        <v>1.016022034244632</v>
       </c>
       <c r="N20">
-        <v>0.073904961981863</v>
+        <v>0.03307763239422967</v>
       </c>
       <c r="O20">
-        <v>0.0002647196395069077</v>
+        <v>0.0002661382195775976</v>
       </c>
       <c r="P20">
-        <v>0.0738015472033109</v>
+        <v>0.03296459325684089</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -12070,31 +12523,31 @@
         <v>83</v>
       </c>
       <c r="B21">
-        <v>-0.4112261146496815</v>
+        <v>-0.4511552492906364</v>
       </c>
       <c r="C21">
-        <v>-0.5122699196950909</v>
+        <v>-0.8016270910302373</v>
       </c>
       <c r="D21">
-        <v>-0.5123167387145595</v>
+        <v>-0.8017366927583439</v>
       </c>
       <c r="E21">
-        <v>-0.5673329583454834</v>
+        <v>-0.7750215287727968</v>
       </c>
       <c r="F21">
-        <v>0.4502033441133801</v>
+        <v>-0.3345308229304492</v>
       </c>
       <c r="G21">
         <v>-0.3127287753547435</v>
       </c>
       <c r="H21">
-        <v>-0.5025461005053524</v>
+        <v>-0.7952924147550562</v>
       </c>
       <c r="I21">
         <v>-0.3495279970329526</v>
       </c>
       <c r="J21">
-        <v>-0.5400728269797845</v>
+        <v>-0.7438187264164707</v>
       </c>
       <c r="K21">
         <v>-0.3293821930831807</v>
@@ -12103,16 +12556,16 @@
         <v>-0.2843320226598434</v>
       </c>
       <c r="M21">
-        <v>-0.9072373800077528</v>
+        <v>-0.7344166490810049</v>
       </c>
       <c r="N21">
-        <v>1.506212208566126</v>
+        <v>-0.3730742241335475</v>
       </c>
       <c r="O21">
-        <v>-0.4041822886239665</v>
+        <v>-0.5131046412733383</v>
       </c>
       <c r="P21">
-        <v>1.508051422346374</v>
+        <v>-0.3756624016147283</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -12120,31 +12573,31 @@
         <v>54</v>
       </c>
       <c r="B22">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="C22">
-        <v>4.276162790697675</v>
+        <v>2.875389408099688</v>
       </c>
       <c r="D22">
-        <v>4.276162790697675</v>
+        <v>2.875389408099688</v>
       </c>
       <c r="E22">
-        <v>3.327558139534885</v>
+        <v>2.990436137071651</v>
       </c>
       <c r="F22">
-        <v>1.263181187733185</v>
+        <v>0.8789596416924692</v>
       </c>
       <c r="G22">
         <v>0.03105413105413106</v>
       </c>
       <c r="H22">
-        <v>1.098546511627908</v>
+        <v>1.067196261682243</v>
       </c>
       <c r="I22">
         <v>0.0903954802259887</v>
       </c>
       <c r="J22">
-        <v>1.737587209302327</v>
+        <v>1.208566978193146</v>
       </c>
       <c r="K22">
         <v>0.01715116279069768</v>
@@ -12153,16 +12606,16 @@
         <v>0.07132459970887918</v>
       </c>
       <c r="M22">
-        <v>0.4912499999999998</v>
+        <v>0.7145171339563863</v>
       </c>
       <c r="N22">
-        <v>0.5268313953488373</v>
+        <v>0.3347352024922118</v>
       </c>
       <c r="O22">
-        <v>0.0001744186046511628</v>
+        <v>0.0001557632398753894</v>
       </c>
       <c r="P22">
-        <v>0.5264244186046512</v>
+        <v>0.3342990654205607</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -12170,31 +12623,31 @@
         <v>55</v>
       </c>
       <c r="B23">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="C23">
-        <v>6.652561247216036</v>
+        <v>4.843230403800475</v>
       </c>
       <c r="D23">
-        <v>6.652561247216036</v>
+        <v>4.843230403800475</v>
       </c>
       <c r="E23">
-        <v>4.611024498886414</v>
+        <v>4.831235154394299</v>
       </c>
       <c r="F23">
-        <v>1.796000359894115</v>
+        <v>0.94217544414045</v>
       </c>
       <c r="G23">
         <v>0.02582056892778994</v>
       </c>
       <c r="H23">
-        <v>2.404810690423163</v>
+        <v>2.442612826603326</v>
       </c>
       <c r="I23">
         <v>0.1061224489795918</v>
       </c>
       <c r="J23">
-        <v>1.637527839643653</v>
+        <v>1.118147268408551</v>
       </c>
       <c r="K23">
         <v>0.02162162162162162</v>
@@ -12203,16 +12656,16 @@
         <v>0.07780320366132723</v>
       </c>
       <c r="M23">
-        <v>0.5684855233853005</v>
+        <v>1.270261282660331</v>
       </c>
       <c r="N23">
-        <v>0.7826503340757228</v>
+        <v>0.3557482185273162</v>
       </c>
       <c r="O23">
-        <v>0.000200445434298441</v>
+        <v>0.0002137767220902613</v>
       </c>
       <c r="P23">
-        <v>0.7819821826280614</v>
+        <v>0.3550593824228031</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -12220,31 +12673,31 @@
         <v>56</v>
       </c>
       <c r="B24">
-        <v>621</v>
+        <v>571</v>
       </c>
       <c r="C24">
-        <v>10.5877616747182</v>
+        <v>9.516637478108581</v>
       </c>
       <c r="D24">
-        <v>10.5877616747182</v>
+        <v>9.516637478108581</v>
       </c>
       <c r="E24">
-        <v>10.58388083735909</v>
+        <v>9.916760070052533</v>
       </c>
       <c r="F24">
-        <v>0.6701767518057278</v>
+        <v>0.2811693319896577</v>
       </c>
       <c r="G24">
         <v>0.02371794871794872</v>
       </c>
       <c r="H24">
-        <v>8.313172302737515</v>
+        <v>8.196147110332745</v>
       </c>
       <c r="I24">
         <v>0.1114093959731544</v>
       </c>
       <c r="J24">
-        <v>2.033059581320448</v>
+        <v>0.7775306479859891</v>
       </c>
       <c r="K24">
         <v>0.02113636363636364</v>
@@ -12253,16 +12706,16 @@
         <v>0.07777777777777778</v>
       </c>
       <c r="M24">
-        <v>0.2371014492753626</v>
+        <v>0.9428546409807343</v>
       </c>
       <c r="N24">
-        <v>0.2182608695652175</v>
+        <v>0.02376532399299471</v>
       </c>
       <c r="O24">
-        <v>0.0005475040257648954</v>
+        <v>0.0002276707530647986</v>
       </c>
       <c r="P24">
-        <v>0.2178743961352658</v>
+        <v>0.02336252189141852</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -12270,31 +12723,31 @@
         <v>57</v>
       </c>
       <c r="B25">
-        <v>523</v>
+        <v>486</v>
       </c>
       <c r="C25">
-        <v>13.15678776290631</v>
+        <v>10.77572016460905</v>
       </c>
       <c r="D25">
-        <v>13.15487571701721</v>
+        <v>10.77366255144033</v>
       </c>
       <c r="E25">
-        <v>11.62711281070746</v>
+        <v>11.14312757201646</v>
       </c>
       <c r="F25">
-        <v>2.15347866129235</v>
+        <v>0.2662345646356759</v>
       </c>
       <c r="G25">
         <v>0.03137996219281664</v>
       </c>
       <c r="H25">
-        <v>10.12728489483749</v>
+        <v>9.566913580246917</v>
       </c>
       <c r="I25">
         <v>0.08745247148288973</v>
       </c>
       <c r="J25">
-        <v>2.1787189292543</v>
+        <v>0.5365432098765436</v>
       </c>
       <c r="K25">
         <v>0.01673076923076923</v>
@@ -12303,16 +12756,16 @@
         <v>0.08414872798434442</v>
       </c>
       <c r="M25">
-        <v>-0.6791586998087963</v>
+        <v>1.039526748971193</v>
       </c>
       <c r="N25">
-        <v>0.9671701720841298</v>
+        <v>0.02368312757201643</v>
       </c>
       <c r="O25">
-        <v>0.0002676864244741874</v>
+        <v>0.0001440329218106996</v>
       </c>
       <c r="P25">
-        <v>0.9665965583173994</v>
+        <v>0.02283950617283947</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -12320,31 +12773,31 @@
         <v>58</v>
       </c>
       <c r="B26">
-        <v>587</v>
+        <v>552</v>
       </c>
       <c r="C26">
-        <v>22.78023850085179</v>
+        <v>19.83876811594203</v>
       </c>
       <c r="D26">
-        <v>22.77853492333901</v>
+        <v>19.83695652173913</v>
       </c>
       <c r="E26">
-        <v>20.6810391822828</v>
+        <v>19.92360507246376</v>
       </c>
       <c r="F26">
-        <v>0.3260596048009555</v>
+        <v>0.3234975414970027</v>
       </c>
       <c r="G26">
         <v>0.03104026845637584</v>
       </c>
       <c r="H26">
-        <v>18.71879045996594</v>
+        <v>18.82266304347826</v>
       </c>
       <c r="I26">
         <v>0.1198300283286119</v>
       </c>
       <c r="J26">
-        <v>1.678449744463372</v>
+        <v>0.6754891304347825</v>
       </c>
       <c r="K26">
         <v>0.01756373937677054</v>
@@ -12353,16 +12806,16 @@
         <v>0.09917582417582418</v>
       </c>
       <c r="M26">
-        <v>0.2835945485519589</v>
+        <v>0.4252355072463769</v>
       </c>
       <c r="N26">
-        <v>0.02914821124361154</v>
+        <v>0.02786231884057967</v>
       </c>
       <c r="O26">
-        <v>0.0002044293015332197</v>
+        <v>0.000217391304347826</v>
       </c>
       <c r="P26">
-        <v>0.02930153321976146</v>
+        <v>0.02802536231884054</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -12370,31 +12823,31 @@
         <v>59</v>
       </c>
       <c r="B27">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C27">
-        <v>6.955445544554456</v>
+        <v>5.356020942408377</v>
       </c>
       <c r="D27">
-        <v>6.955445544554456</v>
+        <v>5.356020942408377</v>
       </c>
       <c r="E27">
-        <v>6.32193069306931</v>
+        <v>5.781675392670159</v>
       </c>
       <c r="F27">
-        <v>0.211705786117914</v>
+        <v>0.2117208190348183</v>
       </c>
       <c r="G27">
         <v>0.03060344827586207</v>
       </c>
       <c r="H27">
-        <v>5.43712871287129</v>
+        <v>5.441780104712044</v>
       </c>
       <c r="I27">
         <v>0.09406250000000001</v>
       </c>
       <c r="J27">
-        <v>0.7030198019801983</v>
+        <v>0.1372774869109948</v>
       </c>
       <c r="K27">
         <v>0.0152755905511811</v>
@@ -12403,16 +12856,16 @@
         <v>0.05968503937007874</v>
       </c>
       <c r="M27">
-        <v>0.1817821782178217</v>
+        <v>0.2026178010471204</v>
       </c>
       <c r="N27">
-        <v>0.005990099009900993</v>
+        <v>0.006020942408376966</v>
       </c>
       <c r="O27">
         <v>0</v>
       </c>
       <c r="P27">
-        <v>0.006089108910891092</v>
+        <v>0.006073298429319375</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -12470,31 +12923,31 @@
         <v>81</v>
       </c>
       <c r="B29">
-        <v>454.3333333333333</v>
+        <v>423.6666666666667</v>
       </c>
       <c r="C29">
-        <v>10.73482625349074</v>
+        <v>8.867627752161368</v>
       </c>
       <c r="D29">
-        <v>10.73422364959043</v>
+        <v>8.866982884266099</v>
       </c>
       <c r="E29">
-        <v>9.525424360306662</v>
+        <v>9.097806566444811</v>
       </c>
       <c r="F29">
-        <v>1.070100391940708</v>
+        <v>0.4839595571650122</v>
       </c>
       <c r="G29">
         <v>0.02893605460415404</v>
       </c>
       <c r="H29">
-        <v>7.683288928743884</v>
+        <v>7.589552154509255</v>
       </c>
       <c r="I29">
         <v>0.1015453874983728</v>
       </c>
       <c r="J29">
-        <v>1.66139385099405</v>
+        <v>0.742259120301668</v>
       </c>
       <c r="K29">
         <v>0.01824654120123397</v>
@@ -12503,16 +12956,16 @@
         <v>0.07831919544637193</v>
       </c>
       <c r="M29">
-        <v>0.1805091666036079</v>
+        <v>0.7658355191436903</v>
       </c>
       <c r="N29">
-        <v>0.4216751802212367</v>
+        <v>0.128635855638916</v>
       </c>
       <c r="O29">
-        <v>0.0002324139651203177</v>
+        <v>0.0001597724901981625</v>
       </c>
       <c r="P29">
-        <v>0.4213780329693384</v>
+        <v>0.1282765227759636</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -12520,31 +12973,31 @@
         <v>82</v>
       </c>
       <c r="B30">
-        <v>246.5</v>
+        <v>225.6666666666667</v>
       </c>
       <c r="C30">
-        <v>3.179983308835702</v>
+        <v>1.149453165820629</v>
       </c>
       <c r="D30">
-        <v>3.179213258209536</v>
+        <v>1.148624382569043</v>
       </c>
       <c r="E30">
-        <v>2.833935257917968</v>
+        <v>1.392132438719527</v>
       </c>
       <c r="F30">
-        <v>0.5075699065134709</v>
+        <v>0.1785685684245847</v>
       </c>
       <c r="G30">
         <v>0.02049762804644766</v>
       </c>
       <c r="H30">
-        <v>2.049316795220888</v>
+        <v>0.8060943784483651</v>
       </c>
       <c r="I30">
         <v>0.059042670489307</v>
       </c>
       <c r="J30">
-        <v>0.7002833593630385</v>
+        <v>0.3160699423450463</v>
       </c>
       <c r="K30">
         <v>0.01130358235327214</v>
@@ -12553,16 +13006,16 @@
         <v>0.04640643219725674</v>
       </c>
       <c r="M30">
-        <v>0.08417737868427388</v>
+        <v>0.2698385364622232</v>
       </c>
       <c r="N30">
-        <v>0.1852215179925605</v>
+        <v>0.02073722035257774</v>
       </c>
       <c r="O30">
-        <v>0.0001577246497672944</v>
+        <v>0.0001295814638921094</v>
       </c>
       <c r="P30">
-        <v>0.185098075434627</v>
+        <v>0.02058103498572336</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -12570,31 +13023,31 @@
         <v>83</v>
       </c>
       <c r="B31">
-        <v>0.8431372549019607</v>
+        <v>0.877400295420975</v>
       </c>
       <c r="C31">
-        <v>2.375749244866673</v>
+        <v>6.714649031246524</v>
       </c>
       <c r="D31">
-        <v>2.376377354325613</v>
+        <v>6.719654065181843</v>
       </c>
       <c r="E31">
-        <v>2.361200413344936</v>
+        <v>5.535158806307901</v>
       </c>
       <c r="F31">
-        <v>1.108281791746271</v>
+        <v>1.710216929187088</v>
       </c>
       <c r="G31">
         <v>0.4116781970374763</v>
       </c>
       <c r="H31">
-        <v>2.749195315561609</v>
+        <v>8.415215336345891</v>
       </c>
       <c r="I31">
         <v>0.7198644075010678</v>
       </c>
       <c r="J31">
-        <v>1.37245941772087</v>
+        <v>1.348401479731219</v>
       </c>
       <c r="K31">
         <v>0.6142264134477677</v>
@@ -12603,16 +13056,16 @@
         <v>0.6876797404606698</v>
       </c>
       <c r="M31">
-        <v>1.144390445806681</v>
+        <v>1.83812508466857</v>
       </c>
       <c r="N31">
-        <v>1.276599310875822</v>
+        <v>5.203138774234317</v>
       </c>
       <c r="O31">
-        <v>0.4735424390748013</v>
+        <v>0.232988773233727</v>
       </c>
       <c r="P31">
-        <v>1.276512232663169</v>
+        <v>5.23275373978745</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -12620,31 +13073,31 @@
         <v>61</v>
       </c>
       <c r="B32">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C32">
-        <v>5.590163934426229</v>
+        <v>3.554585152838428</v>
       </c>
       <c r="D32">
-        <v>5.590163934426229</v>
+        <v>3.554585152838428</v>
       </c>
       <c r="E32">
-        <v>5.33274590163934</v>
+        <v>3.88471615720524</v>
       </c>
       <c r="F32">
-        <v>1.03757888658124</v>
+        <v>0.2710854010060371</v>
       </c>
       <c r="G32">
         <v>0.0350597609561753</v>
       </c>
       <c r="H32">
-        <v>1.724754098360656</v>
+        <v>1.548864628820961</v>
       </c>
       <c r="I32">
         <v>0.09469387755102041</v>
       </c>
       <c r="J32">
-        <v>2.941803278688521</v>
+        <v>1.216899563318778</v>
       </c>
       <c r="K32">
         <v>0.02313725490196079</v>
@@ -12653,16 +13106,16 @@
         <v>0.06915520628683694</v>
       </c>
       <c r="M32">
-        <v>0.6659426229508195</v>
+        <v>1.118689956331877</v>
       </c>
       <c r="N32">
-        <v>0.4077459016393445</v>
+        <v>0.02449781659388644</v>
       </c>
       <c r="O32">
-        <v>0.0002459016393442623</v>
+        <v>0.0002620087336244541</v>
       </c>
       <c r="P32">
-        <v>0.4077868852459017</v>
+        <v>0.02454148471615718</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -12670,31 +13123,31 @@
         <v>62</v>
       </c>
       <c r="B33">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="C33">
-        <v>4.131634819532909</v>
+        <v>3.798226164079823</v>
       </c>
       <c r="D33">
-        <v>4.131634819532909</v>
+        <v>3.798226164079823</v>
       </c>
       <c r="E33">
-        <v>4.232059447983016</v>
+        <v>4.116585365853659</v>
       </c>
       <c r="F33">
-        <v>0.3789461488139104</v>
+        <v>0.3650194654822247</v>
       </c>
       <c r="G33">
         <v>0.02020618556701031</v>
       </c>
       <c r="H33">
-        <v>1.971464968152867</v>
+        <v>1.811862527716187</v>
       </c>
       <c r="I33">
         <v>0.09957173447537473</v>
       </c>
       <c r="J33">
-        <v>1.656475583864118</v>
+        <v>1.659046563192904</v>
       </c>
       <c r="K33">
         <v>0.0163135593220339</v>
@@ -12703,16 +13156,16 @@
         <v>0.05090137857900318</v>
       </c>
       <c r="M33">
-        <v>0.6041188959660301</v>
+        <v>0.6456762749445683</v>
       </c>
       <c r="N33">
-        <v>0.09592356687898088</v>
+        <v>0.08917960088691791</v>
       </c>
       <c r="O33">
         <v>0</v>
       </c>
       <c r="P33">
-        <v>0.09602972399150743</v>
+        <v>0.08884700665188465</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -12720,31 +13173,31 @@
         <v>63</v>
       </c>
       <c r="B34">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="C34">
-        <v>13.76271186440678</v>
+        <v>4.796226415094339</v>
       </c>
       <c r="D34">
-        <v>13.75932203389831</v>
+        <v>4.79245283018868</v>
       </c>
       <c r="E34">
-        <v>5.992576271186431</v>
+        <v>5.258301886792451</v>
       </c>
       <c r="F34">
-        <v>10.81098191214512</v>
+        <v>0.2794398590591107</v>
       </c>
       <c r="G34">
         <v>0.02838283828382839</v>
       </c>
       <c r="H34">
-        <v>3.342610169491524</v>
+        <v>3.197811320754716</v>
       </c>
       <c r="I34">
         <v>0.1021943573667712</v>
       </c>
       <c r="J34">
-        <v>7.096440677966096</v>
+        <v>1.230075471698114</v>
       </c>
       <c r="K34">
         <v>0.02444444444444445</v>
@@ -12753,16 +13206,16 @@
         <v>0.0732484076433121</v>
       </c>
       <c r="M34">
-        <v>-4.446508474576274</v>
+        <v>0.8303773584905659</v>
       </c>
       <c r="N34">
-        <v>5.289898305084738</v>
+        <v>0.02377358490566034</v>
       </c>
       <c r="O34">
-        <v>3.389830508474576e-05</v>
+        <v>3.773584905660378e-05</v>
       </c>
       <c r="P34">
-        <v>5.292813559322028</v>
+        <v>0.0273962264150943</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -12770,31 +13223,31 @@
         <v>64</v>
       </c>
       <c r="B35">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="C35">
-        <v>4.917293233082707</v>
+        <v>3.196335078534031</v>
       </c>
       <c r="D35">
-        <v>4.917293233082707</v>
+        <v>3.196335078534031</v>
       </c>
       <c r="E35">
-        <v>3.455037593984963</v>
+        <v>3.354188481675392</v>
       </c>
       <c r="F35">
-        <v>2.171661835940206</v>
+        <v>0.3334332802578066</v>
       </c>
       <c r="G35">
         <v>0.02542787286063569</v>
       </c>
       <c r="H35">
-        <v>1.749022556390978</v>
+        <v>1.674528795811519</v>
       </c>
       <c r="I35">
         <v>0.1032338308457711</v>
       </c>
       <c r="J35">
-        <v>1.910501253132832</v>
+        <v>0.943952879581151</v>
       </c>
       <c r="K35">
         <v>0.01468354430379747</v>
@@ -12803,16 +13256,16 @@
         <v>0.09380530973451327</v>
       </c>
       <c r="M35">
-        <v>-0.2046867167919802</v>
+        <v>0.7354973821989522</v>
       </c>
       <c r="N35">
-        <v>0.9673934837092729</v>
+        <v>0.04829842931937171</v>
       </c>
       <c r="O35">
-        <v>0.0002005012531328321</v>
+        <v>0.0002094240837696335</v>
       </c>
       <c r="P35">
-        <v>0.9671177944862154</v>
+        <v>0.04798429319371728</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -12820,31 +13273,31 @@
         <v>65</v>
       </c>
       <c r="B36">
-        <v>557</v>
+        <v>531</v>
       </c>
       <c r="C36">
-        <v>18.43806104129264</v>
+        <v>15.41619585687382</v>
       </c>
       <c r="D36">
-        <v>18.43806104129264</v>
+        <v>15.41619585687382</v>
       </c>
       <c r="E36">
-        <v>16.66664272890484</v>
+        <v>15.71817325800377</v>
       </c>
       <c r="F36">
-        <v>1.11805200437721</v>
+        <v>0.289869685186767</v>
       </c>
       <c r="G36">
         <v>0.02495606326889279</v>
       </c>
       <c r="H36">
-        <v>14.20427289048474</v>
+        <v>13.48227871939736</v>
       </c>
       <c r="I36">
         <v>0.08081180811808117</v>
       </c>
       <c r="J36">
-        <v>2.309245960502693</v>
+        <v>0.7744067796610166</v>
       </c>
       <c r="K36">
         <v>0.01490196078431373</v>
@@ -12853,16 +13306,16 @@
         <v>0.06910569105691057</v>
       </c>
       <c r="M36">
-        <v>0.1526750448833033</v>
+        <v>1.461035781544257</v>
       </c>
       <c r="N36">
-        <v>0.4641472172351883</v>
+        <v>0.05003766478342751</v>
       </c>
       <c r="O36">
-        <v>0.0004488330341113106</v>
+        <v>0.0004519774011299436</v>
       </c>
       <c r="P36">
-        <v>0.4641292639138238</v>
+        <v>0.05005649717514127</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -12870,31 +13323,31 @@
         <v>66</v>
       </c>
       <c r="B37">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="C37">
-        <v>22.89333333333333</v>
+        <v>17.19711538461538</v>
       </c>
       <c r="D37">
-        <v>22.89333333333333</v>
+        <v>17.19711538461538</v>
       </c>
       <c r="E37">
-        <v>16.92275555555555</v>
+        <v>16.868125</v>
       </c>
       <c r="F37">
-        <v>4.517388317716579</v>
+        <v>1.695904129682396</v>
       </c>
       <c r="G37">
         <v>0.02882096069868996</v>
       </c>
       <c r="H37">
-        <v>16.57208888888888</v>
+        <v>15.87110576923077</v>
       </c>
       <c r="I37">
         <v>0.1054973821989529</v>
       </c>
       <c r="J37">
-        <v>1.566044444444445</v>
+        <v>0.5333173076923079</v>
       </c>
       <c r="K37">
         <v>0.01825192802056555</v>
@@ -12903,16 +13356,16 @@
         <v>0.08650693568726354</v>
       </c>
       <c r="M37">
-        <v>-1.215466666666666</v>
+        <v>0.4636057692307692</v>
       </c>
       <c r="N37">
-        <v>2.13942222222222</v>
+        <v>0.7287019230769236</v>
       </c>
       <c r="O37">
-        <v>8.888888888888889e-05</v>
+        <v>9.615384615384615e-05</v>
       </c>
       <c r="P37">
-        <v>2.138888888888887</v>
+        <v>0.7281250000000005</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -12920,7 +13373,7 @@
         <v>67</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -12929,22 +13382,22 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>1.465</v>
+        <v>1.553333333333333</v>
       </c>
       <c r="F38">
-        <v>0.4861576354679803</v>
+        <v>0.3761576354679803</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.0175</v>
+        <v>0.02</v>
       </c>
       <c r="I38">
         <v>0.08068965517241379</v>
       </c>
       <c r="J38">
-        <v>1.085</v>
+        <v>1.123333333333333</v>
       </c>
       <c r="K38">
         <v>0.02857142857142857</v>
@@ -12953,16 +13406,16 @@
         <v>0.1868965517241379</v>
       </c>
       <c r="M38">
-        <v>0.3625</v>
+        <v>0.41</v>
       </c>
       <c r="N38">
-        <v>0.095</v>
+        <v>0.04</v>
       </c>
       <c r="O38">
         <v>0</v>
       </c>
       <c r="P38">
-        <v>0.095</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -12970,31 +13423,31 @@
         <v>81</v>
       </c>
       <c r="B39">
-        <v>365.1666666666667</v>
+        <v>344.3333333333333</v>
       </c>
       <c r="C39">
-        <v>11.62219970434577</v>
+        <v>7.993114008672638</v>
       </c>
       <c r="D39">
-        <v>11.62163473259435</v>
+        <v>7.992485077855028</v>
       </c>
       <c r="E39">
-        <v>8.766969583209022</v>
+        <v>8.200015024921754</v>
       </c>
       <c r="F39">
-        <v>3.339101517595711</v>
+        <v>0.5391253034457236</v>
       </c>
       <c r="G39">
         <v>0.02714228027253874</v>
       </c>
       <c r="H39">
-        <v>6.59403559529494</v>
+        <v>6.264408626955252</v>
       </c>
       <c r="I39">
         <v>0.09766716509266192</v>
       </c>
       <c r="J39">
-        <v>2.913418533099784</v>
+        <v>1.059616427524045</v>
       </c>
       <c r="K39">
         <v>0.01862211529618598</v>
@@ -13003,16 +13456,16 @@
         <v>0.0737871548313066</v>
       </c>
       <c r="M39">
-        <v>-0.7406542157057946</v>
+        <v>0.8758137537901649</v>
       </c>
       <c r="N39">
-        <v>1.560755116128291</v>
+        <v>0.1607481699276979</v>
       </c>
       <c r="O39">
-        <v>0.0001696705200936733</v>
+        <v>0.0001762166522890802</v>
       </c>
       <c r="P39">
-        <v>1.561127685974727</v>
+        <v>0.1611584180253325</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -13020,31 +13473,31 @@
         <v>82</v>
       </c>
       <c r="B40">
-        <v>454.3333333333333</v>
+        <v>423.6666666666667</v>
       </c>
       <c r="C40">
-        <v>10.73482625349074</v>
+        <v>8.867627752161368</v>
       </c>
       <c r="D40">
-        <v>10.73422364959043</v>
+        <v>8.866982884266099</v>
       </c>
       <c r="E40">
-        <v>9.525424360306662</v>
+        <v>9.097806566444811</v>
       </c>
       <c r="F40">
-        <v>1.070100391940708</v>
+        <v>0.4839595571650122</v>
       </c>
       <c r="G40">
         <v>0.02893605460415404</v>
       </c>
       <c r="H40">
-        <v>7.683288928743884</v>
+        <v>7.589552154509255</v>
       </c>
       <c r="I40">
         <v>0.1015453874983728</v>
       </c>
       <c r="J40">
-        <v>1.66139385099405</v>
+        <v>0.742259120301668</v>
       </c>
       <c r="K40">
         <v>0.01824654120123397</v>
@@ -13053,16 +13506,16 @@
         <v>0.07831919544637193</v>
       </c>
       <c r="M40">
-        <v>0.1805091666036079</v>
+        <v>0.7658355191436903</v>
       </c>
       <c r="N40">
-        <v>0.4216751802212367</v>
+        <v>0.128635855638916</v>
       </c>
       <c r="O40">
-        <v>0.0002324139651203177</v>
+        <v>0.0001597724901981625</v>
       </c>
       <c r="P40">
-        <v>0.4213780329693384</v>
+        <v>0.1282765227759636</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -13070,31 +13523,31 @@
         <v>83</v>
       </c>
       <c r="B41">
-        <v>-0.1962582538517974</v>
+        <v>-0.1872541306058223</v>
       </c>
       <c r="C41">
-        <v>0.08266304734708374</v>
+        <v>-0.09861867998186769</v>
       </c>
       <c r="D41">
-        <v>0.0826711937418767</v>
+        <v>-0.09862405485893189</v>
       </c>
       <c r="E41">
-        <v>-0.07962425067991641</v>
+        <v>-0.09868219718303939</v>
       </c>
       <c r="F41">
-        <v>2.120362858236132</v>
+        <v>0.1139883394469301</v>
       </c>
       <c r="G41">
         <v>-0.06199097825028954</v>
       </c>
       <c r="H41">
-        <v>-0.1417691490650504</v>
+        <v>-0.1746010173692111</v>
       </c>
       <c r="I41">
         <v>-0.03819200951666057</v>
       </c>
       <c r="J41">
-        <v>0.7535989623150585</v>
+        <v>0.427555955248347</v>
       </c>
       <c r="K41">
         <v>0.02058330347707837</v>
@@ -13103,16 +13556,16 @@
         <v>-0.05786628155761109</v>
       </c>
       <c r="M41">
-        <v>-5.103139079536312</v>
+        <v>0.1436055548447863</v>
       </c>
       <c r="N41">
-        <v>2.701320801735172</v>
+        <v>0.2496373513378882</v>
       </c>
       <c r="O41">
-        <v>-0.269964177901973</v>
+        <v>0.1029223621070332</v>
       </c>
       <c r="P41">
-        <v>2.704815068250895</v>
+        <v>0.2563360351355757</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -13120,31 +13573,31 @@
         <v>68</v>
       </c>
       <c r="B42">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C42">
-        <v>4.585858585858586</v>
+        <v>3.703296703296703</v>
       </c>
       <c r="D42">
-        <v>4.585858585858586</v>
+        <v>3.703296703296703</v>
       </c>
       <c r="E42">
-        <v>4.010202020202021</v>
+        <v>4.092197802197803</v>
       </c>
       <c r="F42">
-        <v>0.3388619085876637</v>
+        <v>0.3336493433750986</v>
       </c>
       <c r="G42">
         <v>0.03119266055045872</v>
       </c>
       <c r="H42">
-        <v>2.233030303030303</v>
+        <v>2.327472527472528</v>
       </c>
       <c r="I42">
         <v>0.1598130841121495</v>
       </c>
       <c r="J42">
-        <v>0.948888888888889</v>
+        <v>0.7157142857142859</v>
       </c>
       <c r="K42">
         <v>0.01858407079646018</v>
@@ -13153,16 +13606,16 @@
         <v>0.03856502242152466</v>
       </c>
       <c r="M42">
-        <v>0.827878787878788</v>
+        <v>1.048571428571428</v>
       </c>
       <c r="N42">
-        <v>0.04545454545454543</v>
+        <v>0.04285714285714284</v>
       </c>
       <c r="O42">
-        <v>0.000404040404040404</v>
+        <v>0.0004395604395604396</v>
       </c>
       <c r="P42">
-        <v>0.04525252525252523</v>
+        <v>0.04263736263736261</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -13170,31 +13623,31 @@
         <v>69</v>
       </c>
       <c r="B43">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="C43">
-        <v>11.62280701754386</v>
+        <v>9.851764705882353</v>
       </c>
       <c r="D43">
-        <v>11.62280701754386</v>
+        <v>9.851764705882353</v>
       </c>
       <c r="E43">
-        <v>11.72754385964913</v>
+        <v>10.23310588235294</v>
       </c>
       <c r="F43">
-        <v>0.5148686270504919</v>
+        <v>0.3756511863900171</v>
       </c>
       <c r="G43">
         <v>0.02758620689655173</v>
       </c>
       <c r="H43">
-        <v>8.503969298245616</v>
+        <v>7.326847058823527</v>
       </c>
       <c r="I43">
         <v>0.1194842406876791</v>
       </c>
       <c r="J43">
-        <v>2.415504385964913</v>
+        <v>2.002094117647059</v>
       </c>
       <c r="K43">
         <v>0.02548387096774194</v>
@@ -13203,16 +13656,16 @@
         <v>0.09577922077922078</v>
       </c>
       <c r="M43">
-        <v>0.8080043859649129</v>
+        <v>0.9040941176470592</v>
       </c>
       <c r="N43">
-        <v>0.1231798245614036</v>
+        <v>0.05357647058823534</v>
       </c>
       <c r="O43">
-        <v>6.578947368421052e-05</v>
+        <v>7.058823529411764e-05</v>
       </c>
       <c r="P43">
-        <v>0.1233552631578948</v>
+        <v>0.05374117647058826</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -13220,31 +13673,31 @@
         <v>70</v>
       </c>
       <c r="B44">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="C44">
-        <v>12.68</v>
+        <v>11.31850117096019</v>
       </c>
       <c r="D44">
-        <v>12.67777777777778</v>
+        <v>11.31615925058548</v>
       </c>
       <c r="E44">
-        <v>12.14314818114327</v>
+        <v>11.29566744730678</v>
       </c>
       <c r="F44">
-        <v>0.6603199869490854</v>
+        <v>0.6806638329027673</v>
       </c>
       <c r="G44">
         <v>0.0351528384279476</v>
       </c>
       <c r="H44">
-        <v>9.196377777777768</v>
+        <v>8.895597189695545</v>
       </c>
       <c r="I44">
         <v>0.09876847290640395</v>
       </c>
       <c r="J44">
-        <v>2.587349665924276</v>
+        <v>2.026065573770491</v>
       </c>
       <c r="K44">
         <v>0.01776155717761557</v>
@@ -13253,16 +13706,16 @@
         <v>0.07399267399267398</v>
       </c>
       <c r="M44">
-        <v>0.3593318485523387</v>
+        <v>0.3739110070257612</v>
       </c>
       <c r="N44">
-        <v>0.2173333333333332</v>
+        <v>0.227470725995316</v>
       </c>
       <c r="O44">
-        <v>8.888888888888889e-05</v>
+        <v>9.36768149882904e-05</v>
       </c>
       <c r="P44">
-        <v>0.2173111111111111</v>
+        <v>0.2275175644028103</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -13270,31 +13723,31 @@
         <v>71</v>
       </c>
       <c r="B45">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="C45">
-        <v>12.88740458015267</v>
+        <v>12.57283464566929</v>
       </c>
       <c r="D45">
-        <v>12.88740458015267</v>
+        <v>12.57283464566929</v>
       </c>
       <c r="E45">
-        <v>13.17972351962402</v>
+        <v>12.8688779527559</v>
       </c>
       <c r="F45">
-        <v>0.348365012126082</v>
+        <v>0.3482312740723464</v>
       </c>
       <c r="G45">
         <v>0.02067669172932331</v>
       </c>
       <c r="H45">
-        <v>11.5445038167939</v>
+        <v>11.20958661417323</v>
       </c>
       <c r="I45">
         <v>0.1189066059225513</v>
       </c>
       <c r="J45">
-        <v>0.5841873804971321</v>
+        <v>0.5100787401574803</v>
       </c>
       <c r="K45">
         <v>0.01831275720164609</v>
@@ -13303,16 +13756,16 @@
         <v>0.07346514047866805</v>
       </c>
       <c r="M45">
-        <v>1.050936902485659</v>
+        <v>1.149114173228346</v>
       </c>
       <c r="N45">
-        <v>0.05893129770992377</v>
+        <v>0.05887795275590561</v>
       </c>
       <c r="O45">
-        <v>9.541984732824427e-05</v>
+        <v>9.842519685039371e-05</v>
       </c>
       <c r="P45">
-        <v>0.05807251908396956</v>
+        <v>0.05799212598425207</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -13320,31 +13773,31 @@
         <v>72</v>
       </c>
       <c r="B46">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="C46">
-        <v>17.14987080103359</v>
+        <v>17.10893854748603</v>
       </c>
       <c r="D46">
-        <v>17.14987080103359</v>
+        <v>17.10893854748603</v>
       </c>
       <c r="E46">
-        <v>17.2948062015504</v>
+        <v>17.38039106145252</v>
       </c>
       <c r="F46">
-        <v>0.6592693557415921</v>
+        <v>0.4708714951032479</v>
       </c>
       <c r="G46">
         <v>0.04526854219948849</v>
       </c>
       <c r="H46">
-        <v>15.36416020671835</v>
+        <v>15.41946927374302</v>
       </c>
       <c r="I46">
         <v>0.1165865384615385</v>
       </c>
       <c r="J46">
-        <v>1.612273901808785</v>
+        <v>1.188435754189945</v>
       </c>
       <c r="K46">
         <v>0.0183206106870229</v>
@@ -13353,16 +13806,16 @@
         <v>0.09172932330827067</v>
       </c>
       <c r="M46">
-        <v>0.318191214470284</v>
+        <v>0.7723184357541912</v>
       </c>
       <c r="N46">
-        <v>0.1938242894056849</v>
+        <v>0.09958100558659215</v>
       </c>
       <c r="O46">
-        <v>0.0001808785529715763</v>
+        <v>0.0001675977653631285</v>
       </c>
       <c r="P46">
-        <v>0.1935400516795867</v>
+        <v>0.09938547486033519</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -13370,31 +13823,31 @@
         <v>73</v>
       </c>
       <c r="B47">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C47">
-        <v>10.22614840989399</v>
+        <v>10.14022140221402</v>
       </c>
       <c r="D47">
-        <v>10.22614840989399</v>
+        <v>10.14022140221402</v>
       </c>
       <c r="E47">
-        <v>10.21583596134606</v>
+        <v>10.3139114391144</v>
       </c>
       <c r="F47">
-        <v>0.3687376936165697</v>
+        <v>0.3613741793453846</v>
       </c>
       <c r="G47">
         <v>0.06586206896551725</v>
       </c>
       <c r="H47">
-        <v>9.575300353356896</v>
+        <v>9.667970479704803</v>
       </c>
       <c r="I47">
         <v>0.1146511627906977</v>
       </c>
       <c r="J47">
-        <v>0.2888888888888888</v>
+        <v>0.2527675276752766</v>
       </c>
       <c r="K47">
         <v>0.01812227074235808</v>
@@ -13403,16 +13856,16 @@
         <v>0.08056155507559394</v>
       </c>
       <c r="M47">
-        <v>0.3515053763440863</v>
+        <v>0.3930258302583029</v>
       </c>
       <c r="N47">
-        <v>0.04469964664310948</v>
+        <v>0.04103321033210326</v>
       </c>
       <c r="O47">
-        <v>0.0001413427561837456</v>
+        <v>0.0001476014760147602</v>
       </c>
       <c r="P47">
-        <v>0.04484098939929323</v>
+        <v>0.04114391143911434</v>
       </c>
     </row>
   </sheetData>
@@ -13492,13 +13945,13 @@
         <v>18000</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>15261</v>
       </c>
       <c r="E4">
-        <v>-0.1515</v>
+        <v>-0.1521666666666667</v>
       </c>
       <c r="F4">
         <v>12409</v>
@@ -13530,13 +13983,13 @@
         <v>18000</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>18565</v>
       </c>
       <c r="E5">
-        <v>0.03222222222222215</v>
+        <v>0.03138888888888891</v>
       </c>
       <c r="F5">
         <v>20829</v>
@@ -13568,13 +14021,13 @@
         <v>18000</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>18201</v>
       </c>
       <c r="E6">
-        <v>0.01138888888888889</v>
+        <v>0.01116666666666677</v>
       </c>
       <c r="F6">
         <v>18380</v>
@@ -13606,13 +14059,13 @@
         <v>18000</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>16549</v>
       </c>
       <c r="E7">
-        <v>-0.0805555555555556</v>
+        <v>-0.08061111111111108</v>
       </c>
       <c r="F7">
         <v>14637</v>
@@ -13644,13 +14097,13 @@
         <v>22000</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>19721</v>
       </c>
       <c r="E8">
-        <v>-0.1035909090909091</v>
+        <v>-0.1032727272727273</v>
       </c>
       <c r="F8">
         <v>15645</v>
@@ -13755,13 +14208,13 @@
         <v>17666.66666666667</v>
       </c>
       <c r="C11">
-        <v>5.333333333333333</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D11">
         <v>15164.16666666667</v>
       </c>
       <c r="E11">
-        <v>-0.1780058922558923</v>
+        <v>-0.1782491582491582</v>
       </c>
       <c r="F11">
         <v>15050</v>
@@ -13832,13 +14285,13 @@
         <v>22000</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>18631</v>
       </c>
       <c r="E15">
-        <v>-0.1531363636363636</v>
+        <v>-0.1516363636363637</v>
       </c>
       <c r="F15">
         <v>12903</v>
@@ -14007,13 +14460,13 @@
         <v>15600</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="D20">
         <v>11777.2</v>
       </c>
       <c r="E20">
-        <v>-0.2670340909090909</v>
+        <v>-0.2666590909090909</v>
       </c>
       <c r="F20">
         <v>11724</v>
@@ -14045,13 +14498,13 @@
         <v>17666.66666666667</v>
       </c>
       <c r="C21">
-        <v>5.333333333333333</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D21">
         <v>15164.16666666667</v>
       </c>
       <c r="E21">
-        <v>-0.1780058922558923</v>
+        <v>-0.1782491582491582</v>
       </c>
       <c r="F21">
         <v>15050</v>
@@ -14083,13 +14536,13 @@
         <v>-0.1169811320754718</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>4.657142857142857</v>
       </c>
       <c r="D22">
         <v>-0.2233532999945045</v>
       </c>
       <c r="E22">
-        <v>0.5001418634233536</v>
+        <v>0.495990744238761</v>
       </c>
       <c r="F22">
         <v>-0.2209966777408637</v>
@@ -14159,13 +14612,13 @@
         <v>22000</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>19683</v>
       </c>
       <c r="E24">
-        <v>-0.1053181818181819</v>
+        <v>-0.1052727272727273</v>
       </c>
       <c r="F24">
         <v>18562</v>
@@ -14197,13 +14650,13 @@
         <v>22000</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <v>21766</v>
       </c>
       <c r="E25">
-        <v>-0.01063636363636367</v>
+        <v>-0.01045454545454549</v>
       </c>
       <c r="F25">
         <v>16031</v>
@@ -14235,13 +14688,13 @@
         <v>22000</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D26">
         <v>21778</v>
       </c>
       <c r="E26">
-        <v>-0.01009090909090904</v>
+        <v>-0.009545454545454524</v>
       </c>
       <c r="F26">
         <v>18018</v>
@@ -14311,13 +14764,13 @@
         <v>12000</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>5910</v>
       </c>
       <c r="E28">
-        <v>-0.5075000000000001</v>
+        <v>-0.507</v>
       </c>
       <c r="F28">
         <v>16085</v>
@@ -14384,13 +14837,13 @@
         <v>20333.33333333333</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D30">
         <v>17617.33333333333</v>
       </c>
       <c r="E30">
-        <v>-0.1619015151515152</v>
+        <v>-0.1616893939393939</v>
       </c>
       <c r="F30">
         <v>17380.16666666667</v>
@@ -14422,13 +14875,13 @@
         <v>15600</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="D31">
         <v>11777.2</v>
       </c>
       <c r="E31">
-        <v>-0.2670340909090909</v>
+        <v>-0.2666590909090909</v>
       </c>
       <c r="F31">
         <v>11724</v>
@@ -14460,13 +14913,13 @@
         <v>0.3034188034188035</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>-0.4191919191919191</v>
       </c>
       <c r="D32">
         <v>0.495884703777921</v>
       </c>
       <c r="E32">
-        <v>-0.3937046966537583</v>
+        <v>-0.393647546805307</v>
       </c>
       <c r="F32">
         <v>0.4824434209029911</v>
@@ -14498,13 +14951,13 @@
         <v>22000</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D33">
         <v>8913</v>
       </c>
       <c r="E33">
-        <v>-0.5948636363636364</v>
+        <v>-0.5947727272727272</v>
       </c>
       <c r="F33">
         <v>8827</v>
@@ -14612,13 +15065,13 @@
         <v>22000</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D36">
         <v>18393</v>
       </c>
       <c r="E36">
-        <v>-0.1639545454545455</v>
+        <v>-0.1635</v>
       </c>
       <c r="F36">
         <v>18255</v>
@@ -14761,13 +15214,13 @@
         <v>20333.33333333333</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D40">
         <v>14199.33333333333</v>
       </c>
       <c r="E40">
-        <v>-0.2760467171717172</v>
+        <v>-0.2759558080808081</v>
       </c>
       <c r="F40">
         <v>13163.83333333333</v>
@@ -14799,13 +15252,13 @@
         <v>20333.33333333333</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D41">
         <v>17617.33333333333</v>
       </c>
       <c r="E41">
-        <v>-0.1619015151515152</v>
+        <v>-0.1616893939393939</v>
       </c>
       <c r="F41">
         <v>17380.16666666667</v>
@@ -14837,13 +15290,13 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>-0.4782608695652174</v>
       </c>
       <c r="D42">
         <v>-0.1940134715810186</v>
       </c>
       <c r="E42">
-        <v>0.7050286213404457</v>
+        <v>0.7067032126067874</v>
       </c>
       <c r="F42">
         <v>-0.2425945282457974</v>
@@ -14913,13 +15366,13 @@
         <v>22000</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D44">
         <v>21430</v>
       </c>
       <c r="E44">
-        <v>-0.02590909090909088</v>
+        <v>-0.02577272727272728</v>
       </c>
       <c r="F44">
         <v>19241</v>
@@ -14951,13 +15404,13 @@
         <v>22000</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D45">
         <v>19079</v>
       </c>
       <c r="E45">
-        <v>-0.1327727272727273</v>
+        <v>-0.1326818181818182</v>
       </c>
       <c r="F45">
         <v>16733</v>
@@ -14989,13 +15442,13 @@
         <v>22000</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D46">
         <v>20948</v>
       </c>
       <c r="E46">
-        <v>-0.04781818181818187</v>
+        <v>-0.04749999999999999</v>
       </c>
       <c r="F46">
         <v>16614</v>
@@ -15065,13 +15518,13 @@
         <v>12000</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>11252</v>
       </c>
       <c r="E48">
-        <v>-0.06233333333333335</v>
+        <v>-0.06225000000000003</v>
       </c>
       <c r="F48">
         <v>18781</v>
@@ -15103,13 +15556,13 @@
         <v>22000</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="D49">
         <v>17658.4</v>
       </c>
       <c r="E49">
-        <v>-0.1973454545454545</v>
+        <v>-0.1972363636363636</v>
       </c>
       <c r="F49">
         <v>15189.4</v>
@@ -15141,13 +15594,13 @@
         <v>20333.33333333333</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D50">
         <v>14199.33333333333</v>
       </c>
       <c r="E50">
-        <v>-0.2760467171717172</v>
+        <v>-0.2759558080808081</v>
       </c>
       <c r="F50">
         <v>13163.83333333333</v>
@@ -15179,13 +15632,13 @@
         <v>0.08196721311475419</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D51">
         <v>0.2436076811117893</v>
       </c>
       <c r="E51">
-        <v>-0.2851012445741417</v>
+        <v>-0.2852610531806348</v>
       </c>
       <c r="F51">
         <v>0.1538736183735741</v>
@@ -15665,85 +16118,85 @@
         <v>18087</v>
       </c>
       <c r="D6">
-        <v>16911</v>
+        <v>16914</v>
       </c>
       <c r="E6">
         <v>15524</v>
       </c>
       <c r="F6">
-        <v>19645</v>
+        <v>16972</v>
       </c>
       <c r="G6">
-        <v>2603</v>
+        <v>2497</v>
       </c>
       <c r="K6">
-        <v>18595</v>
+        <v>12734</v>
       </c>
       <c r="L6">
-        <v>15250</v>
+        <v>13287</v>
       </c>
       <c r="M6">
-        <v>17715</v>
+        <v>15696</v>
       </c>
       <c r="N6">
-        <v>6049</v>
+        <v>5862</v>
       </c>
       <c r="P6">
-        <v>14711</v>
+        <v>13649</v>
       </c>
       <c r="Q6">
-        <v>19613</v>
+        <v>16417</v>
       </c>
       <c r="R6">
-        <v>21716</v>
+        <v>18665</v>
       </c>
       <c r="S6">
-        <v>21758</v>
+        <v>18599</v>
       </c>
       <c r="T6">
-        <v>21759</v>
+        <v>19657</v>
       </c>
       <c r="U6">
-        <v>5479</v>
+        <v>5119</v>
       </c>
       <c r="W6">
-        <v>8611</v>
+        <v>7897</v>
       </c>
       <c r="X6">
-        <v>16940</v>
+        <v>14806</v>
       </c>
       <c r="Y6">
-        <v>10178</v>
+        <v>8119</v>
       </c>
       <c r="Z6">
-        <v>18373</v>
+        <v>13892</v>
       </c>
       <c r="AA6">
-        <v>18080</v>
+        <v>16705</v>
       </c>
       <c r="AB6">
-        <v>12409</v>
+        <v>11600</v>
       </c>
       <c r="AC6">
-        <v>390</v>
+        <v>190</v>
       </c>
       <c r="AD6">
-        <v>4723</v>
+        <v>4217</v>
       </c>
       <c r="AE6">
-        <v>21308</v>
+        <v>19276</v>
       </c>
       <c r="AF6">
-        <v>18829</v>
+        <v>16658</v>
       </c>
       <c r="AG6">
-        <v>20938</v>
+        <v>19846</v>
       </c>
       <c r="AH6">
-        <v>21815</v>
+        <v>18126</v>
       </c>
       <c r="AI6">
-        <v>11251</v>
+        <v>10604</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -16259,85 +16712,85 @@
         <v>0.8106382978723404</v>
       </c>
       <c r="D12">
-        <v>0.8568872987477638</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E12">
         <v>0.6707616707616708</v>
       </c>
       <c r="F12">
-        <v>0.736936936936937</v>
+        <v>0.7431906614785992</v>
       </c>
       <c r="G12">
-        <v>0.9805825242718447</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>0.8583106267029973</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.9639423076923077</v>
+        <v>0.9973958333333334</v>
       </c>
       <c r="M12">
-        <v>0.9644444444444444</v>
+        <v>0.9833729216152018</v>
       </c>
       <c r="N12">
-        <v>0.9836734693877551</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>0.9593023255813954</v>
+        <v>0.9937694704049844</v>
       </c>
       <c r="Q12">
-        <v>0.9131403118040089</v>
+        <v>0.9382422802850356</v>
       </c>
       <c r="R12">
-        <v>0.6843800322061192</v>
+        <v>0.702276707530648</v>
       </c>
       <c r="S12">
-        <v>0.5659655831739961</v>
+        <v>0.588477366255144</v>
       </c>
       <c r="T12">
-        <v>0.2367972742759795</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="U12">
-        <v>0.9702970297029703</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>0.9754098360655737</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>0.9490445859872612</v>
+        <v>0.9623059866962306</v>
       </c>
       <c r="Y12">
-        <v>0.9288135593220339</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>0.9774436090225563</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>0.3913824057450628</v>
+        <v>0.3954802259887006</v>
       </c>
       <c r="AB12">
-        <v>0.3155555555555555</v>
+        <v>0.3365384615384616</v>
       </c>
       <c r="AC12">
         <v>1</v>
       </c>
       <c r="AD12">
-        <v>0.9898989898989899</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>0.6403508771929824</v>
+        <v>0.6517647058823529</v>
       </c>
       <c r="AF12">
-        <v>0.5555555555555556</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AG12">
-        <v>0.517175572519084</v>
+        <v>0.5078740157480315</v>
       </c>
       <c r="AH12">
-        <v>0.3798449612403101</v>
+        <v>0.3798882681564246</v>
       </c>
       <c r="AI12">
-        <v>0.7773851590106007</v>
+        <v>0.7749077490774908</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -16351,85 +16804,85 @@
         <v>0.8854425830707138</v>
       </c>
       <c r="D13">
-        <v>0.9583111584175981</v>
+        <v>0.9582594300579401</v>
       </c>
       <c r="E13">
         <v>0.8356093790260242</v>
       </c>
       <c r="F13">
-        <v>0.690913718503436</v>
+        <v>0.6981498939429649</v>
       </c>
       <c r="G13">
-        <v>0.9830964271993853</v>
+        <v>0.9855826992390869</v>
       </c>
       <c r="K13">
-        <v>0.6933584296853993</v>
+        <v>0.9981152819224124</v>
       </c>
       <c r="L13">
-        <v>0.984</v>
+        <v>1.004590953563634</v>
       </c>
       <c r="M13">
-        <v>0.8899802427321479</v>
+        <v>0.9445081549439348</v>
       </c>
       <c r="N13">
-        <v>0.9823111258059183</v>
+        <v>0.9970999658819516</v>
       </c>
       <c r="P13">
-        <v>0.9320916321120251</v>
+        <v>0.9894497765404059</v>
       </c>
       <c r="Q13">
-        <v>0.9090399225003823</v>
+        <v>0.9249558384601327</v>
       </c>
       <c r="R13">
-        <v>0.7061153066863143</v>
+        <v>0.742351995713903</v>
       </c>
       <c r="S13">
-        <v>0.5188896038238808</v>
+        <v>0.495833109306952</v>
       </c>
       <c r="T13">
-        <v>0.4835240590100648</v>
+        <v>0.5137101287073307</v>
       </c>
       <c r="U13">
-        <v>0.9461580580397883</v>
+        <v>0.9988278960734518</v>
       </c>
       <c r="W13">
-        <v>0.9722448031587504</v>
+        <v>0.9929086995061416</v>
       </c>
       <c r="X13">
-        <v>0.9416174734356553</v>
+        <v>0.9546805349182764</v>
       </c>
       <c r="Y13">
-        <v>0.920613087050501</v>
+        <v>0.9907624091636901</v>
       </c>
       <c r="Z13">
-        <v>0.9879170521961574</v>
+        <v>0.9988482579902102</v>
       </c>
       <c r="AA13">
-        <v>0.4194690265486726</v>
+        <v>0.4360371146363364</v>
       </c>
       <c r="AB13">
-        <v>0.4952856797485696</v>
+        <v>0.5275</v>
       </c>
       <c r="AC13">
-        <v>0.9974358974358974</v>
+        <v>1</v>
       </c>
       <c r="AD13">
-        <v>0.9822146940503917</v>
+        <v>0.9900403130187337</v>
       </c>
       <c r="AE13">
-        <v>0.8464895813778862</v>
+        <v>0.853289064121187</v>
       </c>
       <c r="AF13">
-        <v>0.6910616602050029</v>
+        <v>0.7344218993876815</v>
       </c>
       <c r="AG13">
-        <v>0.6245582195052058</v>
+        <v>0.6058147737579361</v>
       </c>
       <c r="AH13">
-        <v>0.4226908090763236</v>
+        <v>0.4610504248041488</v>
       </c>
       <c r="AI13">
-        <v>0.6337214469824904</v>
+        <v>0.6499434175782723</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -16449,10 +16902,10 @@
         <v>2702</v>
       </c>
       <c r="F14">
-        <v>6125</v>
+        <v>5235</v>
       </c>
       <c r="G14">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -16464,37 +16917,37 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5702</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>253</v>
+        <v>38</v>
       </c>
       <c r="M14">
-        <v>2119</v>
+        <v>905</v>
       </c>
       <c r="N14">
-        <v>1142</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1784</v>
+        <v>1232</v>
       </c>
       <c r="R14">
-        <v>6867</v>
+        <v>5091</v>
       </c>
       <c r="S14">
-        <v>10950</v>
+        <v>9685</v>
       </c>
       <c r="T14">
-        <v>11503</v>
+        <v>9841</v>
       </c>
       <c r="U14">
-        <v>1196</v>
+        <v>0</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -16503,19 +16956,19 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <v>989</v>
+        <v>671</v>
       </c>
       <c r="Y14">
-        <v>808</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>972</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>11181</v>
+        <v>9421</v>
       </c>
       <c r="AB14">
-        <v>7870</v>
+        <v>5519</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -16524,19 +16977,19 @@
         <v>0</v>
       </c>
       <c r="AE14">
-        <v>3271</v>
+        <v>2828</v>
       </c>
       <c r="AF14">
-        <v>6037</v>
+        <v>4477</v>
       </c>
       <c r="AG14">
-        <v>8160</v>
+        <v>8010</v>
       </c>
       <c r="AH14">
-        <v>12594</v>
+        <v>9824</v>
       </c>
       <c r="AI14">
-        <v>4121</v>
+        <v>3775</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -16556,79 +17009,79 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.9891891891891892</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9805825242718447</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0.989100817438692</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.9615384615384616</v>
+        <v>0.9947916666666666</v>
       </c>
       <c r="M15">
-        <v>0.9844444444444445</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0.9836734693877551</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0.9883720930232558</v>
+        <v>0.9937694704049844</v>
       </c>
       <c r="Q15">
-        <v>0.9732739420935412</v>
+        <v>0.997624703087886</v>
       </c>
       <c r="R15">
-        <v>0.9790660225442834</v>
+        <v>0.9982486865148862</v>
       </c>
       <c r="S15">
-        <v>0.982791586998088</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>0.9744463373083475</v>
+        <v>0.9945652173913043</v>
       </c>
       <c r="U15">
-        <v>0.9702970297029703</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>0.9836065573770492</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>0.9978768577494692</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>0.9322033898305084</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>0.9924812030075187</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>0.9730700179533214</v>
+        <v>0.9962335216572504</v>
       </c>
       <c r="AB15">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="AC15">
         <v>1</v>
       </c>
       <c r="AD15">
-        <v>0.9898989898989899</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>0.9824561403508771</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>0.9755555555555555</v>
+        <v>0.9953161592505855</v>
       </c>
       <c r="AG15">
-        <v>0.9961832061068703</v>
+        <v>1</v>
       </c>
       <c r="AH15">
-        <v>0.9974160206718347</v>
+        <v>1</v>
       </c>
       <c r="AI15">
-        <v>0.9964664310954063</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -16648,79 +17101,79 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.9891891891891892</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9805825242718447</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>0.989100817438692</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.9615384615384616</v>
+        <v>0.9947916666666666</v>
       </c>
       <c r="M16">
-        <v>0.9844444444444445</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>0.9836734693877551</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>0.9883720930232558</v>
+        <v>0.9937694704049844</v>
       </c>
       <c r="Q16">
-        <v>0.9732739420935412</v>
+        <v>0.997624703087886</v>
       </c>
       <c r="R16">
-        <v>0.9790660225442834</v>
+        <v>0.9982486865148862</v>
       </c>
       <c r="S16">
-        <v>0.982791586998088</v>
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>0.9744463373083475</v>
+        <v>0.9945652173913043</v>
       </c>
       <c r="U16">
-        <v>0.9702970297029703</v>
+        <v>1</v>
       </c>
       <c r="W16">
-        <v>0.9836065573770492</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>0.9978768577494692</v>
+        <v>1</v>
       </c>
       <c r="Y16">
-        <v>0.9322033898305084</v>
+        <v>1</v>
       </c>
       <c r="Z16">
-        <v>0.9924812030075187</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>0.9730700179533214</v>
+        <v>0.9962335216572504</v>
       </c>
       <c r="AB16">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="AC16">
         <v>1</v>
       </c>
       <c r="AD16">
-        <v>0.9898989898989899</v>
+        <v>1</v>
       </c>
       <c r="AE16">
-        <v>0.9824561403508771</v>
+        <v>1</v>
       </c>
       <c r="AF16">
-        <v>0.9755555555555555</v>
+        <v>0.9953161592505855</v>
       </c>
       <c r="AG16">
-        <v>0.9961832061068703</v>
+        <v>1</v>
       </c>
       <c r="AH16">
-        <v>0.9974160206718347</v>
+        <v>1</v>
       </c>
       <c r="AI16">
-        <v>0.9964664310954063</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -16728,25 +17181,25 @@
         <v>136</v>
       </c>
       <c r="B17">
-        <v>-0.1515</v>
+        <v>-0.1521666666666667</v>
       </c>
       <c r="C17">
-        <v>0.03222222222222215</v>
+        <v>0.03138888888888891</v>
       </c>
       <c r="D17">
-        <v>0.01138888888888889</v>
+        <v>0.01116666666666677</v>
       </c>
       <c r="E17">
-        <v>-0.0805555555555556</v>
+        <v>-0.08061111111111108</v>
       </c>
       <c r="F17">
-        <v>-0.1035909090909091</v>
+        <v>-0.1032727272727273</v>
       </c>
       <c r="G17">
         <v>-0.776</v>
       </c>
       <c r="K17">
-        <v>-0.1531363636363636</v>
+        <v>-0.1516363636363637</v>
       </c>
       <c r="L17">
         <v>-0.2854090909090909</v>
@@ -16761,22 +17214,22 @@
         <v>-0.3311363636363637</v>
       </c>
       <c r="Q17">
-        <v>-0.1053181818181819</v>
+        <v>-0.1052727272727273</v>
       </c>
       <c r="R17">
-        <v>-0.01063636363636367</v>
+        <v>-0.01045454545454549</v>
       </c>
       <c r="S17">
-        <v>-0.01009090909090904</v>
+        <v>-0.009545454545454524</v>
       </c>
       <c r="T17">
         <v>-0.006727272727272693</v>
       </c>
       <c r="U17">
-        <v>-0.5075000000000001</v>
+        <v>-0.507</v>
       </c>
       <c r="W17">
-        <v>-0.5948636363636364</v>
+        <v>-0.5947727272727272</v>
       </c>
       <c r="X17">
         <v>-0.2264090909090909</v>
@@ -16785,7 +17238,7 @@
         <v>-0.5315</v>
       </c>
       <c r="Z17">
-        <v>-0.1639545454545455</v>
+        <v>-0.1635</v>
       </c>
       <c r="AA17">
         <v>-0.1761363636363636</v>
@@ -16797,19 +17250,19 @@
         <v>-0.772090909090909</v>
       </c>
       <c r="AE17">
-        <v>-0.02590909090909088</v>
+        <v>-0.02577272727272728</v>
       </c>
       <c r="AF17">
-        <v>-0.1327727272727273</v>
+        <v>-0.1326818181818182</v>
       </c>
       <c r="AG17">
-        <v>-0.04781818181818187</v>
+        <v>-0.04749999999999999</v>
       </c>
       <c r="AH17">
         <v>-0.008136363636363608</v>
       </c>
       <c r="AI17">
-        <v>-0.06233333333333335</v>
+        <v>-0.06225000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -17794,7 +18247,7 @@
         <v>0.1223061710866589</v>
       </c>
       <c r="W6">
-        <v>0.9170812603648425</v>
+        <v>0.9095840867992767</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -17869,13 +18322,13 @@
         <v>0.1588008311071535</v>
       </c>
       <c r="BK6">
-        <v>0.9719626168224299</v>
+        <v>1</v>
       </c>
       <c r="BL6">
-        <v>0.9719626168224299</v>
+        <v>1</v>
       </c>
       <c r="BM6">
-        <v>0.9719626168224299</v>
+        <v>1</v>
       </c>
       <c r="BN6">
         <v>1</v>
@@ -17884,7 +18337,7 @@
         <v>0.03323139653414883</v>
       </c>
       <c r="BU6">
-        <v>0.83640081799591</v>
+        <v>1</v>
       </c>
       <c r="BV6">
         <v>1</v>
@@ -17899,10 +18352,10 @@
         <v>0.185845653609714</v>
       </c>
       <c r="BZ6">
-        <v>0.991140642303433</v>
+        <v>1</v>
       </c>
       <c r="CA6">
-        <v>0.991140642303433</v>
+        <v>1</v>
       </c>
       <c r="CB6">
         <v>1</v>
@@ -17914,7 +18367,7 @@
         <v>0.1934209317283837</v>
       </c>
       <c r="CE6">
-        <v>0.9762470308788599</v>
+        <v>1</v>
       </c>
       <c r="CF6">
         <v>1</v>
@@ -17992,7 +18445,7 @@
         <v>0.08508137963452612</v>
       </c>
       <c r="DI6">
-        <v>0.9148936170212766</v>
+        <v>0.9057344854673999</v>
       </c>
       <c r="DJ6">
         <v>1</v>
@@ -18010,7 +18463,7 @@
         <v>0.2728755504811613</v>
       </c>
       <c r="DS6">
-        <v>0.9940227136879857</v>
+        <v>1</v>
       </c>
       <c r="DT6">
         <v>1</v>
@@ -18130,7 +18583,7 @@
         <v>0.1461073586917881</v>
       </c>
       <c r="FL6">
-        <v>0.8661800486618005</v>
+        <v>0.8590647021140295</v>
       </c>
       <c r="FM6">
         <v>1</v>
@@ -18210,7 +18663,7 @@
         <v>0.1079559860047665</v>
       </c>
       <c r="W7">
-        <v>0.8992322456813819</v>
+        <v>0.9841101694915254</v>
       </c>
       <c r="X7">
         <v>1</v>
@@ -18240,16 +18693,16 @@
         <v>0.128710214159197</v>
       </c>
       <c r="AV7">
-        <v>0.9916597164303587</v>
+        <v>1</v>
       </c>
       <c r="AW7">
-        <v>0.9916597164303587</v>
+        <v>1</v>
       </c>
       <c r="AX7">
-        <v>0.9916597164303587</v>
+        <v>1</v>
       </c>
       <c r="AY7">
-        <v>0.9916597164303587</v>
+        <v>1</v>
       </c>
       <c r="AZ7">
         <v>0.09719483493416449</v>
@@ -18270,7 +18723,7 @@
         <v>0.1852101595864239</v>
       </c>
       <c r="BF7">
-        <v>0.9875853507138423</v>
+        <v>1</v>
       </c>
       <c r="BG7">
         <v>1</v>
@@ -18318,7 +18771,7 @@
         <v>0.1673711292842047</v>
       </c>
       <c r="CE7">
-        <v>0.9752950864671973</v>
+        <v>0.9701986754966887</v>
       </c>
       <c r="CF7">
         <v>1</v>
@@ -18333,7 +18786,7 @@
         <v>0.199834695564331</v>
       </c>
       <c r="CJ7">
-        <v>0.9887408088235294</v>
+        <v>1</v>
       </c>
       <c r="CK7">
         <v>1</v>
@@ -18348,16 +18801,16 @@
         <v>0.2118799194581732</v>
       </c>
       <c r="CO7">
-        <v>0.9503239740820735</v>
+        <v>0.9527186761229315</v>
       </c>
       <c r="CP7">
-        <v>0.9935205183585313</v>
+        <v>1</v>
       </c>
       <c r="CQ7">
-        <v>0.9935205183585313</v>
+        <v>1</v>
       </c>
       <c r="CR7">
-        <v>0.9935205183585313</v>
+        <v>1</v>
       </c>
       <c r="CS7">
         <v>0.1976311336717428</v>
@@ -18378,10 +18831,10 @@
         <v>0.2326938180186245</v>
       </c>
       <c r="DD7">
-        <v>0.9517839922854388</v>
+        <v>1</v>
       </c>
       <c r="DE7">
-        <v>0.9517839922854388</v>
+        <v>1</v>
       </c>
       <c r="DF7">
         <v>1</v>
@@ -18483,13 +18936,13 @@
         <v>0.2360242650489967</v>
       </c>
       <c r="ER7">
-        <v>0.9902774964553372</v>
+        <v>1</v>
       </c>
       <c r="ES7">
-        <v>0.9902774964553372</v>
+        <v>1</v>
       </c>
       <c r="ET7">
-        <v>0.9902774964553372</v>
+        <v>1</v>
       </c>
       <c r="EU7">
         <v>1</v>
@@ -18498,13 +18951,13 @@
         <v>0.1330258399287174</v>
       </c>
       <c r="EW7">
-        <v>0.9211977935382191</v>
+        <v>0.991518235793045</v>
       </c>
       <c r="EX7">
-        <v>0.9290780141843972</v>
+        <v>1</v>
       </c>
       <c r="EY7">
-        <v>0.9290780141843972</v>
+        <v>1</v>
       </c>
       <c r="EZ7">
         <v>1</v>
@@ -18513,7 +18966,7 @@
         <v>0.1817834638151614</v>
       </c>
       <c r="FB7">
-        <v>0.5471300684570827</v>
+        <v>0.5442501324854266</v>
       </c>
       <c r="FC7">
         <v>1</v>
@@ -18543,7 +18996,7 @@
         <v>0.1467294703163882</v>
       </c>
       <c r="FL7">
-        <v>0.2368261659600242</v>
+        <v>0.2654934965570008</v>
       </c>
       <c r="FM7">
         <v>1</v>
@@ -18623,16 +19076,16 @@
         <v>0.141524263475483</v>
       </c>
       <c r="W8">
-        <v>0.7972632337054375</v>
+        <v>0.8082551594746716</v>
       </c>
       <c r="X8">
-        <v>0.9992797983435362</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0.9992797983435362</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0.9992797983435362</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <v>0.296875</v>
@@ -18656,7 +19109,7 @@
         <v>0.08206752187214857</v>
       </c>
       <c r="AV8">
-        <v>0.9251477347340775</v>
+        <v>1</v>
       </c>
       <c r="AW8">
         <v>1</v>
@@ -18686,25 +19139,25 @@
         <v>0.1859406608226568</v>
       </c>
       <c r="BF8">
-        <v>0.9746146872166818</v>
+        <v>1</v>
       </c>
       <c r="BG8">
-        <v>0.9746146872166818</v>
+        <v>1</v>
       </c>
       <c r="BH8">
-        <v>0.9746146872166818</v>
+        <v>1</v>
       </c>
       <c r="BI8">
-        <v>0.9746146872166818</v>
+        <v>1</v>
       </c>
       <c r="BJ8">
         <v>0.1516770555060849</v>
       </c>
       <c r="BK8">
-        <v>0.9646712463199215</v>
+        <v>1</v>
       </c>
       <c r="BL8">
-        <v>0.9646712463199215</v>
+        <v>1</v>
       </c>
       <c r="BM8">
         <v>1</v>
@@ -18731,13 +19184,13 @@
         <v>0.3921150231163948</v>
       </c>
       <c r="BZ8">
-        <v>0.9961028838659393</v>
+        <v>1</v>
       </c>
       <c r="CA8">
-        <v>0.9992205767731879</v>
+        <v>1</v>
       </c>
       <c r="CB8">
-        <v>0.9992205767731879</v>
+        <v>1</v>
       </c>
       <c r="CC8">
         <v>1</v>
@@ -18746,10 +19199,10 @@
         <v>0.2202977120279335</v>
       </c>
       <c r="CE8">
-        <v>0.9970802919708029</v>
+        <v>0.9974988631195998</v>
       </c>
       <c r="CF8">
-        <v>0.9993743482794578</v>
+        <v>1</v>
       </c>
       <c r="CG8">
         <v>1</v>
@@ -18776,28 +19229,28 @@
         <v>0.1733937397034596</v>
       </c>
       <c r="CO8">
-        <v>0.206914753233043</v>
+        <v>0.255125284738041</v>
       </c>
       <c r="CP8">
-        <v>0.9762470308788599</v>
+        <v>1</v>
       </c>
       <c r="CQ8">
-        <v>0.9904988123515439</v>
+        <v>1</v>
       </c>
       <c r="CR8">
-        <v>0.9904988123515439</v>
+        <v>1</v>
       </c>
       <c r="CS8">
         <v>0.3626057529610829</v>
       </c>
       <c r="CT8">
-        <v>0.9953336444237051</v>
+        <v>1</v>
       </c>
       <c r="CU8">
-        <v>0.9953336444237051</v>
+        <v>1</v>
       </c>
       <c r="CV8">
-        <v>0.9953336444237051</v>
+        <v>1</v>
       </c>
       <c r="CW8">
         <v>1</v>
@@ -18809,22 +19262,22 @@
         <v>0.2018400089756535</v>
       </c>
       <c r="DD8">
-        <v>0.9722067815453029</v>
+        <v>1</v>
       </c>
       <c r="DE8">
-        <v>0.9722067815453029</v>
+        <v>1</v>
       </c>
       <c r="DF8">
-        <v>0.9722067815453029</v>
+        <v>1</v>
       </c>
       <c r="DG8">
-        <v>0.9722067815453029</v>
+        <v>1</v>
       </c>
       <c r="DH8">
         <v>0.01351430753863329</v>
       </c>
       <c r="DI8">
-        <v>0.9704433497536946</v>
+        <v>1</v>
       </c>
       <c r="DJ8">
         <v>1</v>
@@ -18839,16 +19292,16 @@
         <v>0.2286795381779373</v>
       </c>
       <c r="DN8">
-        <v>0.9834535426389478</v>
+        <v>1</v>
       </c>
       <c r="DO8">
-        <v>0.9834535426389478</v>
+        <v>1</v>
       </c>
       <c r="DP8">
-        <v>0.9949087823504454</v>
+        <v>1</v>
       </c>
       <c r="DQ8">
-        <v>0.9949087823504454</v>
+        <v>1</v>
       </c>
       <c r="DR8">
         <v>0.02854346762355244</v>
@@ -18869,13 +19322,13 @@
         <v>0.184</v>
       </c>
       <c r="DX8">
-        <v>0.9664167916041979</v>
+        <v>0.9747303543913713</v>
       </c>
       <c r="DY8">
-        <v>0.9970014992503748</v>
+        <v>1</v>
       </c>
       <c r="DZ8">
-        <v>0.9970014992503748</v>
+        <v>1</v>
       </c>
       <c r="EA8">
         <v>1</v>
@@ -18884,16 +19337,16 @@
         <v>0.2258220114157087</v>
       </c>
       <c r="EC8">
-        <v>0.3216708318457694</v>
+        <v>0.4076923076923077</v>
       </c>
       <c r="ED8">
-        <v>0.8268475544448411</v>
+        <v>1</v>
       </c>
       <c r="EE8">
-        <v>0.8268475544448411</v>
+        <v>1</v>
       </c>
       <c r="EF8">
-        <v>0.8304177079614423</v>
+        <v>1</v>
       </c>
       <c r="EG8">
         <v>0</v>
@@ -18902,16 +19355,16 @@
         <v>0.4429597128041484</v>
       </c>
       <c r="EM8">
-        <v>0.9972985141828006</v>
+        <v>1</v>
       </c>
       <c r="EN8">
-        <v>0.9972985141828006</v>
+        <v>1</v>
       </c>
       <c r="EO8">
-        <v>0.9972985141828006</v>
+        <v>1</v>
       </c>
       <c r="EP8">
-        <v>0.9972985141828006</v>
+        <v>1</v>
       </c>
       <c r="EQ8">
         <v>0.0516565562295847</v>
@@ -18932,7 +19385,7 @@
         <v>0.184338801823995</v>
       </c>
       <c r="EW8">
-        <v>0.9889110036963321</v>
+        <v>0.9865145228215768</v>
       </c>
       <c r="EX8">
         <v>1</v>
@@ -18962,7 +19415,7 @@
         <v>0.1087942807387379</v>
       </c>
       <c r="FG8">
-        <v>0.6053074978938501</v>
+        <v>0.7672651933701657</v>
       </c>
       <c r="FH8">
         <v>1</v>
@@ -18977,7 +19430,7 @@
         <v>0.2847493778883754</v>
       </c>
       <c r="FL8">
-        <v>0.4817358726194193</v>
+        <v>0.4606887589343729</v>
       </c>
       <c r="FM8">
         <v>1</v>
@@ -19057,16 +19510,16 @@
         <v>0.2104862836570154</v>
       </c>
       <c r="W9">
-        <v>0.5723921946518911</v>
+        <v>0.5911573472041612</v>
       </c>
       <c r="X9">
-        <v>0.9968682245242111</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>0.9968682245242111</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>0.9968682245242111</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <v>0.4356398809523809</v>
@@ -19087,55 +19540,55 @@
         <v>0.4402340185711985</v>
       </c>
       <c r="AV9">
-        <v>0.960352422907489</v>
+        <v>1</v>
       </c>
       <c r="AW9">
-        <v>0.9955947136563876</v>
+        <v>1</v>
       </c>
       <c r="AX9">
-        <v>0.9955947136563876</v>
+        <v>1</v>
       </c>
       <c r="AY9">
-        <v>0.9985315712187959</v>
+        <v>1</v>
       </c>
       <c r="AZ9">
         <v>0.06602633420265887</v>
       </c>
       <c r="BA9">
-        <v>0.9749518304431599</v>
+        <v>1</v>
       </c>
       <c r="BB9">
-        <v>0.9749518304431599</v>
+        <v>1</v>
       </c>
       <c r="BC9">
-        <v>0.9749518304431599</v>
+        <v>1</v>
       </c>
       <c r="BD9">
-        <v>0.9749518304431599</v>
+        <v>1</v>
       </c>
       <c r="BE9">
         <v>0.1314340301191279</v>
       </c>
       <c r="BF9">
-        <v>0.7028644719965798</v>
+        <v>0.7908946532556909</v>
       </c>
       <c r="BG9">
-        <v>0.9144933732364259</v>
+        <v>1</v>
       </c>
       <c r="BH9">
-        <v>0.9144933732364259</v>
+        <v>1</v>
       </c>
       <c r="BI9">
-        <v>0.9144933732364259</v>
+        <v>1</v>
       </c>
       <c r="BJ9">
         <v>0.2787177203918076</v>
       </c>
       <c r="BK9">
-        <v>0.9973375931842385</v>
+        <v>1</v>
       </c>
       <c r="BL9">
-        <v>0.9973375931842385</v>
+        <v>1</v>
       </c>
       <c r="BM9">
         <v>1</v>
@@ -19177,31 +19630,31 @@
         <v>0.07360639177151254</v>
       </c>
       <c r="CJ9">
-        <v>0.9351216469120399</v>
+        <v>1</v>
       </c>
       <c r="CK9">
-        <v>0.9862757330006239</v>
+        <v>1</v>
       </c>
       <c r="CL9">
-        <v>0.9862757330006239</v>
+        <v>1</v>
       </c>
       <c r="CM9">
-        <v>0.9862757330006239</v>
+        <v>1</v>
       </c>
       <c r="CN9">
         <v>0.1472176459820611</v>
       </c>
       <c r="CO9">
-        <v>0.1468241302266199</v>
+        <v>0.1794771751853297</v>
       </c>
       <c r="CP9">
-        <v>0.9865943185445261</v>
+        <v>1</v>
       </c>
       <c r="CQ9">
-        <v>0.9865943185445261</v>
+        <v>1</v>
       </c>
       <c r="CR9">
-        <v>0.9885094158953081</v>
+        <v>1</v>
       </c>
       <c r="CS9">
         <v>0.01116751269035533</v>
@@ -19225,16 +19678,16 @@
         <v>0.1367032114097216</v>
       </c>
       <c r="DN9">
-        <v>0.9900638750887154</v>
+        <v>1</v>
       </c>
       <c r="DO9">
-        <v>0.9900638750887154</v>
+        <v>1</v>
       </c>
       <c r="DP9">
-        <v>0.9900638750887154</v>
+        <v>1</v>
       </c>
       <c r="DQ9">
-        <v>0.9964513839602555</v>
+        <v>1</v>
       </c>
       <c r="DR9">
         <v>0.01913771543521992</v>
@@ -19255,28 +19708,28 @@
         <v>0.1801931034482759</v>
       </c>
       <c r="DX9">
-        <v>0.6169626454378444</v>
+        <v>0.6634746922024624</v>
       </c>
       <c r="DY9">
-        <v>0.9188609920391917</v>
+        <v>0.9989740082079344</v>
       </c>
       <c r="DZ9">
-        <v>0.9188609920391917</v>
+        <v>0.9989740082079344</v>
       </c>
       <c r="EA9">
-        <v>0.9188609920391917</v>
+        <v>0.9989740082079344</v>
       </c>
       <c r="EB9">
         <v>0.04421577297210387</v>
       </c>
       <c r="EC9">
-        <v>0.2565055762081784</v>
+        <v>0.2410714285714286</v>
       </c>
       <c r="ED9">
-        <v>0.8884758364312267</v>
+        <v>1</v>
       </c>
       <c r="EE9">
-        <v>0.8884758364312267</v>
+        <v>1</v>
       </c>
       <c r="EF9">
         <v>1</v>
@@ -19300,7 +19753,7 @@
         <v>0.2013208239425546</v>
       </c>
       <c r="EW9">
-        <v>0.8664410309815153</v>
+        <v>0.8809126321647189</v>
       </c>
       <c r="EX9">
         <v>1</v>
@@ -19315,7 +19768,7 @@
         <v>0.2701451212526256</v>
       </c>
       <c r="FB9">
-        <v>0.8529775578724156</v>
+        <v>0.8430484814186002</v>
       </c>
       <c r="FC9">
         <v>1</v>
@@ -19330,10 +19783,10 @@
         <v>0.1877090875761881</v>
       </c>
       <c r="FG9">
-        <v>0.0927734375</v>
+        <v>0.1210191082802548</v>
       </c>
       <c r="FH9">
-        <v>0.9853515625</v>
+        <v>1</v>
       </c>
       <c r="FI9">
         <v>1</v>
@@ -19425,7 +19878,7 @@
         <v>0.04330409208457989</v>
       </c>
       <c r="W10">
-        <v>0.8243559718969555</v>
+        <v>0.8138957816377171</v>
       </c>
       <c r="X10">
         <v>1</v>
@@ -19440,16 +19893,16 @@
         <v>0.01785714285714286</v>
       </c>
       <c r="AB10">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="AZ10">
         <v>0.08803511227021182</v>
@@ -19485,13 +19938,13 @@
         <v>0.09171861086375779</v>
       </c>
       <c r="BK10">
-        <v>0.9902912621359223</v>
+        <v>1</v>
       </c>
       <c r="BL10">
-        <v>0.9902912621359223</v>
+        <v>1</v>
       </c>
       <c r="BM10">
-        <v>0.9902912621359223</v>
+        <v>1</v>
       </c>
       <c r="BN10">
         <v>1</v>
@@ -19500,37 +19953,37 @@
         <v>0.4626571525654095</v>
       </c>
       <c r="BU10">
-        <v>0.8895417156286721</v>
+        <v>0.9959772041568891</v>
       </c>
       <c r="BV10">
-        <v>0.9879553466509988</v>
+        <v>0.9959772041568891</v>
       </c>
       <c r="BW10">
-        <v>0.9923619271445359</v>
+        <v>1</v>
       </c>
       <c r="BX10">
-        <v>0.9923619271445359</v>
+        <v>1</v>
       </c>
       <c r="CD10">
         <v>0.1775705228337774</v>
       </c>
       <c r="CE10">
-        <v>0.7034928848641656</v>
+        <v>0.6651651651651652</v>
       </c>
       <c r="CF10">
-        <v>0.9912031047865459</v>
+        <v>0.9990990990990991</v>
       </c>
       <c r="CG10">
-        <v>0.9992238033635188</v>
+        <v>1</v>
       </c>
       <c r="CH10">
-        <v>0.9992238033635188</v>
+        <v>1</v>
       </c>
       <c r="CN10">
         <v>0.06443346146805784</v>
       </c>
       <c r="CO10">
-        <v>0.6605113636363636</v>
+        <v>0.6583273766976412</v>
       </c>
       <c r="CP10">
         <v>1</v>
@@ -19545,13 +19998,13 @@
         <v>0.1725888324873096</v>
       </c>
       <c r="CT10">
-        <v>0.7411764705882353</v>
+        <v>1</v>
       </c>
       <c r="CU10">
-        <v>0.7411764705882353</v>
+        <v>1</v>
       </c>
       <c r="CV10">
-        <v>0.9901960784313726</v>
+        <v>1</v>
       </c>
       <c r="CW10">
         <v>1</v>
@@ -19560,7 +20013,7 @@
         <v>0.1863570066195445</v>
       </c>
       <c r="DD10">
-        <v>0.9879590608067429</v>
+        <v>1</v>
       </c>
       <c r="DE10">
         <v>1</v>
@@ -19575,7 +20028,7 @@
         <v>0.5032023033080675</v>
       </c>
       <c r="DI10">
-        <v>0.9851704810836058</v>
+        <v>0.9879756871035941</v>
       </c>
       <c r="DJ10">
         <v>1</v>
@@ -19608,16 +20061,16 @@
         <v>0.321328081035453</v>
       </c>
       <c r="EC10">
-        <v>0.6607455591693771</v>
+        <v>0.6826053243732231</v>
       </c>
       <c r="ED10">
-        <v>0.9909932449337002</v>
+        <v>1</v>
       </c>
       <c r="EE10">
-        <v>0.9909932449337002</v>
+        <v>1</v>
       </c>
       <c r="EF10">
-        <v>0.9909932449337002</v>
+        <v>1</v>
       </c>
       <c r="EL10">
         <v>0.2181890706023135</v>
@@ -19638,7 +20091,7 @@
         <v>0.342230517965469</v>
       </c>
       <c r="ER10">
-        <v>0.9266430324515953</v>
+        <v>0.9421099030267411</v>
       </c>
       <c r="ES10">
         <v>1</v>
@@ -19653,7 +20106,7 @@
         <v>0.1227527648199591</v>
       </c>
       <c r="EW10">
-        <v>0.8906917164816396</v>
+        <v>0.9738562091503268</v>
       </c>
       <c r="EX10">
         <v>1</v>
@@ -19668,7 +20121,7 @@
         <v>0.04177009738399847</v>
       </c>
       <c r="FB10">
-        <v>0.5177142857142857</v>
+        <v>0.3928057553956835</v>
       </c>
       <c r="FC10">
         <v>1</v>
@@ -19683,7 +20136,7 @@
         <v>0.1373905870491728</v>
       </c>
       <c r="FG10">
-        <v>0.03235490326884589</v>
+        <v>0.04087652760219132</v>
       </c>
       <c r="FH10">
         <v>1</v>
@@ -19698,13 +20151,13 @@
         <v>0.1267330252399573</v>
       </c>
       <c r="FL10">
-        <v>0.6760168302945302</v>
+        <v>0.7005813953488372</v>
       </c>
       <c r="FM10">
-        <v>0.9649368863955119</v>
+        <v>1</v>
       </c>
       <c r="FN10">
-        <v>0.9649368863955119</v>
+        <v>1</v>
       </c>
       <c r="FO10">
         <v>1</v>
@@ -19778,16 +20231,16 @@
         <v>0.2116018457481872</v>
       </c>
       <c r="W11">
-        <v>0.7812800769971127</v>
+        <v>0.8030553261767135</v>
       </c>
       <c r="X11">
-        <v>0.9951876804619827</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>0.9951876804619827</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <v>0.9951876804619827</v>
+        <v>1</v>
       </c>
       <c r="AU11">
         <v>0.03665933122215662</v>
@@ -19808,16 +20261,16 @@
         <v>0.2003053240887984</v>
       </c>
       <c r="BA11">
-        <v>0.943979628955984</v>
+        <v>0.9840517241379311</v>
       </c>
       <c r="BB11">
-        <v>0.943979628955984</v>
+        <v>0.9840517241379311</v>
       </c>
       <c r="BC11">
-        <v>0.943979628955984</v>
+        <v>0.9840517241379311</v>
       </c>
       <c r="BD11">
-        <v>0.943979628955984</v>
+        <v>0.9840517241379311</v>
       </c>
       <c r="BE11">
         <v>0.0428186109238031</v>
@@ -19853,7 +20306,7 @@
         <v>0.1835541963982331</v>
       </c>
       <c r="BU11">
-        <v>0.9944465012958164</v>
+        <v>1</v>
       </c>
       <c r="BV11">
         <v>1</v>
@@ -19868,25 +20321,25 @@
         <v>0.1781232535690697</v>
       </c>
       <c r="BZ11">
-        <v>0.8301940639269406</v>
+        <v>0.9052287581699346</v>
       </c>
       <c r="CA11">
-        <v>0.915810502283105</v>
+        <v>0.9985994397759104</v>
       </c>
       <c r="CB11">
-        <v>0.9477739726027398</v>
+        <v>0.9985994397759104</v>
       </c>
       <c r="CC11">
-        <v>0.9477739726027398</v>
+        <v>0.9985994397759104</v>
       </c>
       <c r="CD11">
         <v>0.1525774143159055</v>
       </c>
       <c r="CE11">
-        <v>0.00993676603432701</v>
+        <v>0.01157488600491056</v>
       </c>
       <c r="CF11">
-        <v>0.994579945799458</v>
+        <v>1</v>
       </c>
       <c r="CG11">
         <v>1</v>
@@ -19913,16 +20366,16 @@
         <v>0.1294160717554457</v>
       </c>
       <c r="CO11">
-        <v>0.3338048090523338</v>
+        <v>0.3639167309175019</v>
       </c>
       <c r="CP11">
-        <v>0.987977369165488</v>
+        <v>1</v>
       </c>
       <c r="CQ11">
-        <v>0.987977369165488</v>
+        <v>1</v>
       </c>
       <c r="CR11">
-        <v>0.987977369165488</v>
+        <v>1</v>
       </c>
       <c r="CS11">
         <v>0.1236886632825719</v>
@@ -19958,13 +20411,13 @@
         <v>0.1639344262295082</v>
       </c>
       <c r="DI11">
-        <v>0.99568345323741</v>
+        <v>1</v>
       </c>
       <c r="DJ11">
-        <v>0.99568345323741</v>
+        <v>1</v>
       </c>
       <c r="DK11">
-        <v>0.99568345323741</v>
+        <v>1</v>
       </c>
       <c r="DL11">
         <v>1</v>
@@ -19973,70 +20426,70 @@
         <v>0.2183952653536431</v>
       </c>
       <c r="DN11">
-        <v>0.7840959573522879</v>
+        <v>1</v>
       </c>
       <c r="DO11">
-        <v>0.7867614393602843</v>
+        <v>1</v>
       </c>
       <c r="DP11">
-        <v>0.7956463793869392</v>
+        <v>1</v>
       </c>
       <c r="DQ11">
-        <v>0.7956463793869392</v>
+        <v>1</v>
       </c>
       <c r="DR11">
         <v>0.07850812809220899</v>
       </c>
       <c r="DS11">
-        <v>0.9563711911357341</v>
+        <v>1</v>
       </c>
       <c r="DT11">
-        <v>0.9861495844875346</v>
+        <v>1</v>
       </c>
       <c r="DU11">
-        <v>0.9861495844875346</v>
+        <v>1</v>
       </c>
       <c r="DV11">
-        <v>0.9861495844875346</v>
+        <v>1</v>
       </c>
       <c r="DW11">
         <v>0.2841931034482759</v>
       </c>
       <c r="DX11">
-        <v>0.1756572541382668</v>
+        <v>0.1955614150736102</v>
       </c>
       <c r="DY11">
-        <v>0.9002921129503408</v>
+        <v>1</v>
       </c>
       <c r="DZ11">
-        <v>0.9002921129503408</v>
+        <v>1</v>
       </c>
       <c r="EA11">
-        <v>0.9002921129503408</v>
+        <v>1</v>
       </c>
       <c r="EQ11">
         <v>0.1269248716752217</v>
       </c>
       <c r="ER11">
-        <v>0.4075027583670467</v>
+        <v>0.3838209982788296</v>
       </c>
       <c r="ES11">
-        <v>0.9775652813534388</v>
+        <v>1</v>
       </c>
       <c r="ET11">
-        <v>0.9783008458992276</v>
+        <v>1</v>
       </c>
       <c r="EU11">
-        <v>0.9783008458992276</v>
+        <v>1</v>
       </c>
       <c r="EV11">
         <v>0.131243775879239</v>
       </c>
       <c r="EW11">
-        <v>0.1339754816112084</v>
+        <v>0.1623342175066313</v>
       </c>
       <c r="EX11">
-        <v>0.8029772329246935</v>
+        <v>0.8408488063660478</v>
       </c>
       <c r="EY11">
         <v>1</v>
@@ -20048,7 +20501,7 @@
         <v>0.1889440519381325</v>
       </c>
       <c r="FB11">
-        <v>0.3711470439615968</v>
+        <v>0.3048712206047032</v>
       </c>
       <c r="FC11">
         <v>1</v>
@@ -20063,7 +20516,7 @@
         <v>0.2544796297144952</v>
       </c>
       <c r="FG11">
-        <v>0.2485143165856294</v>
+        <v>0.2705351891785924</v>
       </c>
       <c r="FH11">
         <v>1</v>
@@ -20078,7 +20531,7 @@
         <v>0.06425524351226448</v>
       </c>
       <c r="FL11">
-        <v>0.5878284923928078</v>
+        <v>0.56047197640118</v>
       </c>
       <c r="FM11">
         <v>1</v>
@@ -20158,16 +20611,16 @@
         <v>0.1339181583084022</v>
       </c>
       <c r="W12">
-        <v>0.3358576296857251</v>
+        <v>0.3305052063247204</v>
       </c>
       <c r="X12">
-        <v>0.9931843998485422</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>0.9931843998485422</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>0.9931843998485422</v>
+        <v>1</v>
       </c>
       <c r="AA12">
         <v>0.02678571428571428</v>
@@ -20209,16 +20662,16 @@
         <v>0.1376151944257137</v>
       </c>
       <c r="BF12">
-        <v>0.9975440032746623</v>
+        <v>0.9987674609695973</v>
       </c>
       <c r="BG12">
-        <v>0.9987720016373312</v>
+        <v>1</v>
       </c>
       <c r="BH12">
-        <v>0.9987720016373312</v>
+        <v>1</v>
       </c>
       <c r="BI12">
-        <v>0.9987720016373312</v>
+        <v>1</v>
       </c>
       <c r="BJ12">
         <v>0.03918076580587711</v>
@@ -20254,10 +20707,10 @@
         <v>0.06401463191586648</v>
       </c>
       <c r="BZ12">
-        <v>0.9103174603174603</v>
+        <v>0.9544211485870556</v>
       </c>
       <c r="CA12">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="CB12">
         <v>1</v>
@@ -20269,7 +20722,7 @@
         <v>0.03248185243039603</v>
       </c>
       <c r="CE12">
-        <v>0.2135785007072136</v>
+        <v>0.371007371007371</v>
       </c>
       <c r="CF12">
         <v>1</v>
@@ -20284,7 +20737,7 @@
         <v>0.1602534668013592</v>
       </c>
       <c r="CJ12">
-        <v>0.1888252148997135</v>
+        <v>0.1868322263933006</v>
       </c>
       <c r="CK12">
         <v>1</v>
@@ -20299,7 +20752,7 @@
         <v>0.08443163097199341</v>
       </c>
       <c r="CO12">
-        <v>0.7631436314363144</v>
+        <v>0.7603583426651735</v>
       </c>
       <c r="CP12">
         <v>1</v>
@@ -20344,7 +20797,7 @@
         <v>0.0865503261061167</v>
       </c>
       <c r="DI12">
-        <v>0.7623896809232859</v>
+        <v>0.7328584149599288</v>
       </c>
       <c r="DJ12">
         <v>1</v>
@@ -20374,37 +20827,37 @@
         <v>0.1137932909258957</v>
       </c>
       <c r="DS12">
-        <v>0.9632107023411371</v>
+        <v>1</v>
       </c>
       <c r="DT12">
-        <v>0.9985666507405638</v>
+        <v>1</v>
       </c>
       <c r="DU12">
-        <v>0.9985666507405638</v>
+        <v>1</v>
       </c>
       <c r="DV12">
-        <v>0.9985666507405638</v>
+        <v>1</v>
       </c>
       <c r="DW12">
         <v>0.1395862068965517</v>
       </c>
       <c r="DX12">
-        <v>0.1787267694741004</v>
+        <v>0.1375854214123007</v>
       </c>
       <c r="DY12">
-        <v>0.955713720838276</v>
+        <v>1</v>
       </c>
       <c r="DZ12">
-        <v>0.955713720838276</v>
+        <v>1</v>
       </c>
       <c r="EA12">
-        <v>0.9746935547647292</v>
+        <v>1</v>
       </c>
       <c r="EQ12">
         <v>0.06966868875408307</v>
       </c>
       <c r="ER12">
-        <v>0.391158740790355</v>
+        <v>0.3924731182795699</v>
       </c>
       <c r="ES12">
         <v>1</v>
@@ -20434,22 +20887,22 @@
         <v>0.09270574756540004</v>
       </c>
       <c r="FB12">
-        <v>0.3671472708547889</v>
+        <v>0.3220244716351502</v>
       </c>
       <c r="FC12">
-        <v>0.9948506694129763</v>
+        <v>1</v>
       </c>
       <c r="FD12">
-        <v>0.9948506694129763</v>
+        <v>1</v>
       </c>
       <c r="FE12">
-        <v>0.9948506694129763</v>
+        <v>1</v>
       </c>
       <c r="FF12">
         <v>0.04491086567984968</v>
       </c>
       <c r="FG12">
-        <v>0.2051282051282051</v>
+        <v>0.163265306122449</v>
       </c>
       <c r="FH12">
         <v>1</v>
@@ -20538,16 +20991,16 @@
         <v>0.02687490492368541</v>
       </c>
       <c r="W13">
-        <v>0.2264150943396226</v>
+        <v>0.1916167664670659</v>
       </c>
       <c r="X13">
-        <v>0.9905660377358491</v>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>0.9905660377358491</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>0.9905660377358491</v>
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>0.01805054151624549</v>
@@ -20559,7 +21012,7 @@
         <v>0.153361745436041</v>
       </c>
       <c r="BA13">
-        <v>0.9995812395309883</v>
+        <v>0.9995794785534062</v>
       </c>
       <c r="BB13">
         <v>1</v>
@@ -20574,13 +21027,13 @@
         <v>0.100472016183412</v>
       </c>
       <c r="BF13">
-        <v>0.6789709172259508</v>
+        <v>1</v>
       </c>
       <c r="BG13">
-        <v>0.6789709172259508</v>
+        <v>1</v>
       </c>
       <c r="BH13">
-        <v>0.6789709172259508</v>
+        <v>1</v>
       </c>
       <c r="BI13">
         <v>1</v>
@@ -20607,10 +21060,10 @@
         <v>0.05105928974241732</v>
       </c>
       <c r="BZ13">
-        <v>0.3810945273631841</v>
+        <v>0.3814741035856574</v>
       </c>
       <c r="CA13">
-        <v>0.9990049751243781</v>
+        <v>1</v>
       </c>
       <c r="CB13">
         <v>1</v>
@@ -20622,28 +21075,28 @@
         <v>0.1702635687390945</v>
       </c>
       <c r="CJ13">
-        <v>0.0372168284789644</v>
+        <v>0.01071932299012694</v>
       </c>
       <c r="CK13">
-        <v>0.9991909385113269</v>
+        <v>1</v>
       </c>
       <c r="CL13">
-        <v>0.9991909385113269</v>
+        <v>1</v>
       </c>
       <c r="CM13">
-        <v>0.9991909385113269</v>
+        <v>1</v>
       </c>
       <c r="CN13">
         <v>0.07097748489840747</v>
       </c>
       <c r="CO13">
-        <v>0.007736943907156673</v>
+        <v>0.008281573498964804</v>
       </c>
       <c r="CP13">
-        <v>0.6531270148291425</v>
+        <v>0.6742581090407177</v>
       </c>
       <c r="CQ13">
-        <v>0.6531270148291425</v>
+        <v>0.6742581090407177</v>
       </c>
       <c r="CR13">
         <v>1</v>
@@ -20727,13 +21180,13 @@
         <v>0.124115519681325</v>
       </c>
       <c r="EX13">
-        <v>0.7846283783783784</v>
+        <v>1</v>
       </c>
       <c r="EY13">
-        <v>0.7846283783783784</v>
+        <v>1</v>
       </c>
       <c r="EZ13">
-        <v>0.995777027027027</v>
+        <v>1</v>
       </c>
       <c r="FA13">
         <v>0.05718923047546305</v>
@@ -20824,15 +21277,6 @@
       <c r="AU14">
         <v>0.2785679781010144</v>
       </c>
-      <c r="AW14">
-        <v>1</v>
-      </c>
-      <c r="AX14">
-        <v>1</v>
-      </c>
-      <c r="AY14">
-        <v>1</v>
-      </c>
       <c r="BE14">
         <v>0.0264104293099573</v>
       </c>
@@ -20879,46 +21323,46 @@
         <v>0.05076725167692732</v>
       </c>
       <c r="CE14">
-        <v>0.05402843601895735</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="CF14">
-        <v>0.9886255924170616</v>
+        <v>1</v>
       </c>
       <c r="CG14">
-        <v>0.9886255924170616</v>
+        <v>1</v>
       </c>
       <c r="CH14">
-        <v>0.9886255924170616</v>
+        <v>1</v>
       </c>
       <c r="CI14">
         <v>0.1429424189549086</v>
       </c>
       <c r="CJ14">
-        <v>0.07613234821715387</v>
+        <v>0.09810822701275847</v>
       </c>
       <c r="CK14">
-        <v>0.9926116286540315</v>
+        <v>1</v>
       </c>
       <c r="CL14">
-        <v>0.9926116286540315</v>
+        <v>1</v>
       </c>
       <c r="CM14">
-        <v>0.9926116286540315</v>
+        <v>1</v>
       </c>
       <c r="CN14">
         <v>0.04567087680761486</v>
       </c>
       <c r="CO14">
-        <v>0.03027245206861756</v>
+        <v>0.03064351378958121</v>
       </c>
       <c r="CP14">
-        <v>0.987891019172553</v>
+        <v>1</v>
       </c>
       <c r="CQ14">
-        <v>0.987891019172553</v>
+        <v>1</v>
       </c>
       <c r="CR14">
-        <v>0.987891019172553</v>
+        <v>1</v>
       </c>
       <c r="CS14">
         <v>0.01116751269035533</v>
@@ -20945,13 +21389,13 @@
         <v>0.0216357815077132</v>
       </c>
       <c r="DN14">
-        <v>0.9461883408071748</v>
+        <v>1</v>
       </c>
       <c r="DO14">
-        <v>0.9461883408071748</v>
+        <v>1</v>
       </c>
       <c r="DP14">
-        <v>0.9461883408071748</v>
+        <v>1</v>
       </c>
       <c r="DQ14">
         <v>1</v>
@@ -20975,7 +21419,7 @@
         <v>0.03448275862068965</v>
       </c>
       <c r="DX14">
-        <v>0.232</v>
+        <v>0.2357723577235772</v>
       </c>
       <c r="DY14">
         <v>1</v>
@@ -21005,13 +21449,13 @@
         <v>0.01603857644530636</v>
       </c>
       <c r="EW14">
-        <v>0.4901960784313725</v>
+        <v>0.5067567567567568</v>
       </c>
       <c r="EX14">
-        <v>0.9673202614379085</v>
+        <v>1</v>
       </c>
       <c r="EY14">
-        <v>0.9673202614379085</v>
+        <v>1</v>
       </c>
       <c r="EZ14">
         <v>1</v>
@@ -21025,16 +21469,16 @@
         <v>0.04715768206446873</v>
       </c>
       <c r="CJ15">
-        <v>0.002921129503407984</v>
+        <v>0.002985074626865672</v>
       </c>
       <c r="CK15">
-        <v>0.9902629016553067</v>
+        <v>1</v>
       </c>
       <c r="CL15">
-        <v>0.9902629016553067</v>
+        <v>1</v>
       </c>
       <c r="CM15">
-        <v>0.9902629016553067</v>
+        <v>1</v>
       </c>
       <c r="CN15">
         <v>0.05500640673622552</v>
@@ -21149,9 +21593,6 @@
       <c r="CD16">
         <v>0.005513185702471745</v>
       </c>
-      <c r="CH16">
-        <v>1</v>
-      </c>
       <c r="CS16">
         <v>0.00338409475465313</v>
       </c>
@@ -21236,7 +21677,7 @@
         <v>18201</v>
       </c>
       <c r="M17">
-        <v>0.9600851516764236</v>
+        <v>0.9600922312876907</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -21266,31 +21707,31 @@
         <v>19721</v>
       </c>
       <c r="W17">
-        <v>0.6960549758208195</v>
+        <v>0.700624558095687</v>
       </c>
       <c r="X17">
-        <v>0.9970475948078391</v>
+        <v>1</v>
       </c>
       <c r="Y17">
-        <v>0.9970475948078391</v>
+        <v>1</v>
       </c>
       <c r="Z17">
-        <v>0.9970475948078391</v>
+        <v>1</v>
       </c>
       <c r="AA17">
         <v>2688</v>
       </c>
       <c r="AB17">
-        <v>0.9984633115635805</v>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>0.9984633115635805</v>
+        <v>1</v>
       </c>
       <c r="AD17">
-        <v>0.9984633115635805</v>
+        <v>1</v>
       </c>
       <c r="AE17">
-        <v>0.9984633115635805</v>
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>277</v>
@@ -21305,58 +21746,58 @@
         <v>18631</v>
       </c>
       <c r="AV17">
-        <v>0.6962624361387469</v>
+        <v>1</v>
       </c>
       <c r="AW17">
-        <v>0.9969884377520839</v>
+        <v>1</v>
       </c>
       <c r="AX17">
-        <v>0.9969884377520839</v>
+        <v>1</v>
       </c>
       <c r="AY17">
-        <v>0.9982791072869051</v>
+        <v>1</v>
       </c>
       <c r="AZ17">
         <v>15721</v>
       </c>
       <c r="BA17">
-        <v>0.9881311475409836</v>
+        <v>0.9971400617144578</v>
       </c>
       <c r="BB17">
-        <v>0.9881967213114754</v>
+        <v>0.9972153232482878</v>
       </c>
       <c r="BC17">
-        <v>0.9881967213114754</v>
+        <v>0.9972153232482878</v>
       </c>
       <c r="BD17">
-        <v>0.9881967213114754</v>
+        <v>0.9972153232482878</v>
       </c>
       <c r="BE17">
         <v>17796</v>
       </c>
       <c r="BF17">
-        <v>0.8944961896697714</v>
+        <v>0.9446992864424058</v>
       </c>
       <c r="BG17">
-        <v>0.9513971210838272</v>
+        <v>1</v>
       </c>
       <c r="BH17">
-        <v>0.9513971210838272</v>
+        <v>1</v>
       </c>
       <c r="BI17">
-        <v>0.9837990403612757</v>
+        <v>1</v>
       </c>
       <c r="BJ17">
         <v>6738</v>
       </c>
       <c r="BK17">
-        <v>0.9872706232435113</v>
+        <v>1</v>
       </c>
       <c r="BL17">
-        <v>0.9872706232435113</v>
+        <v>1</v>
       </c>
       <c r="BM17">
-        <v>0.9940486030748884</v>
+        <v>1</v>
       </c>
       <c r="BN17">
         <v>1</v>
@@ -21368,88 +21809,88 @@
         <v>14715</v>
       </c>
       <c r="BU17">
-        <v>0.9424240364353205</v>
+        <v>0.998241629423401</v>
       </c>
       <c r="BV17">
-        <v>0.994425939772959</v>
+        <v>0.998241629423401</v>
       </c>
       <c r="BW17">
-        <v>0.9964652300999253</v>
+        <v>1</v>
       </c>
       <c r="BX17">
-        <v>0.9964652300999253</v>
+        <v>1</v>
       </c>
       <c r="BY17">
         <v>19683</v>
       </c>
       <c r="BZ17">
-        <v>0.9274970682710447</v>
+        <v>0.9449351282207468</v>
       </c>
       <c r="CA17">
-        <v>0.9797583235609035</v>
+        <v>0.9998172625936529</v>
       </c>
       <c r="CB17">
-        <v>0.9903635343904553</v>
+        <v>0.9998172625936529</v>
       </c>
       <c r="CC17">
-        <v>0.9906694539336155</v>
+        <v>0.9998172625936529</v>
       </c>
       <c r="CD17">
         <v>21766</v>
       </c>
       <c r="CE17">
-        <v>0.7093387364155461</v>
+        <v>0.7436914010179481</v>
       </c>
       <c r="CF17">
-        <v>0.9913888377233376</v>
+        <v>0.9998392713635146</v>
       </c>
       <c r="CG17">
-        <v>0.9937833855221956</v>
+        <v>1</v>
       </c>
       <c r="CH17">
-        <v>0.9993092650580218</v>
+        <v>1</v>
       </c>
       <c r="CI17">
         <v>21778</v>
       </c>
       <c r="CJ17">
-        <v>0.5195330453166651</v>
+        <v>0.4959406419699984</v>
       </c>
       <c r="CK17">
-        <v>0.997334313815608</v>
+        <v>1</v>
       </c>
       <c r="CL17">
-        <v>0.997334313815608</v>
+        <v>1</v>
       </c>
       <c r="CM17">
-        <v>0.997334313815608</v>
+        <v>1</v>
       </c>
       <c r="CN17">
         <v>21852</v>
       </c>
       <c r="CO17">
-        <v>0.4849487568362517</v>
+        <v>0.5149819402757287</v>
       </c>
       <c r="CP17">
-        <v>0.965715336182729</v>
+        <v>0.9759881975886453</v>
       </c>
       <c r="CQ17">
-        <v>0.9681970678799577</v>
+        <v>0.9759881975886453</v>
       </c>
       <c r="CR17">
-        <v>0.9931982168298176</v>
+        <v>1</v>
       </c>
       <c r="CS17">
         <v>5910</v>
       </c>
       <c r="CT17">
-        <v>0.9499908742471254</v>
+        <v>1</v>
       </c>
       <c r="CU17">
-        <v>0.9499908742471254</v>
+        <v>1</v>
       </c>
       <c r="CV17">
-        <v>0.9963496988501551</v>
+        <v>1</v>
       </c>
       <c r="CW17">
         <v>1</v>
@@ -21461,28 +21902,28 @@
         <v>8913</v>
       </c>
       <c r="DD17">
-        <v>0.9802578097781907</v>
+        <v>1</v>
       </c>
       <c r="DE17">
-        <v>0.9825804203925212</v>
+        <v>1</v>
       </c>
       <c r="DF17">
-        <v>0.9941934734641737</v>
+        <v>1</v>
       </c>
       <c r="DG17">
-        <v>0.9941934734641737</v>
+        <v>1</v>
       </c>
       <c r="DH17">
         <v>17019</v>
       </c>
       <c r="DI17">
-        <v>0.9489374262101535</v>
+        <v>0.9587329461029312</v>
       </c>
       <c r="DJ17">
-        <v>0.9992916174734356</v>
+        <v>1</v>
       </c>
       <c r="DK17">
-        <v>0.9992916174734356</v>
+        <v>1</v>
       </c>
       <c r="DL17">
         <v>1</v>
@@ -21491,61 +21932,61 @@
         <v>10307</v>
       </c>
       <c r="DN17">
-        <v>0.9458636274317155</v>
+        <v>1</v>
       </c>
       <c r="DO17">
-        <v>0.9464531342110434</v>
+        <v>1</v>
       </c>
       <c r="DP17">
-        <v>0.9510709373157792</v>
+        <v>1</v>
       </c>
       <c r="DQ17">
-        <v>0.953134211043427</v>
+        <v>1</v>
       </c>
       <c r="DR17">
         <v>18393</v>
       </c>
       <c r="DS17">
-        <v>0.9907472922222827</v>
+        <v>1</v>
       </c>
       <c r="DT17">
-        <v>0.9987481630653676</v>
+        <v>1</v>
       </c>
       <c r="DU17">
-        <v>0.9987481630653676</v>
+        <v>1</v>
       </c>
       <c r="DV17">
-        <v>0.9987481630653676</v>
+        <v>1</v>
       </c>
       <c r="DW17">
         <v>18125</v>
       </c>
       <c r="DX17">
-        <v>0.4220685840707964</v>
+        <v>0.4381322957198444</v>
       </c>
       <c r="DY17">
-        <v>0.9502765486725664</v>
+        <v>0.999820413049985</v>
       </c>
       <c r="DZ17">
-        <v>0.9502765486725664</v>
+        <v>0.999820413049985</v>
       </c>
       <c r="EA17">
-        <v>0.9534845132743363</v>
+        <v>0.999820413049985</v>
       </c>
       <c r="EB17">
         <v>12439</v>
       </c>
       <c r="EC17">
-        <v>0.4955274397614635</v>
+        <v>0.5275</v>
       </c>
       <c r="ED17">
-        <v>0.9531791441695544</v>
+        <v>1</v>
       </c>
       <c r="EE17">
-        <v>0.9531791441695544</v>
+        <v>1</v>
       </c>
       <c r="EF17">
-        <v>0.9588202111370779</v>
+        <v>1</v>
       </c>
       <c r="EG17">
         <v>390</v>
@@ -21566,70 +22007,70 @@
         <v>5014</v>
       </c>
       <c r="EM17">
-        <v>0.9987296210035994</v>
+        <v>1</v>
       </c>
       <c r="EN17">
-        <v>0.9987296210035994</v>
+        <v>1</v>
       </c>
       <c r="EO17">
-        <v>0.9987296210035994</v>
+        <v>1</v>
       </c>
       <c r="EP17">
-        <v>0.9987296210035994</v>
+        <v>1</v>
       </c>
       <c r="EQ17">
         <v>21430</v>
       </c>
       <c r="ER17">
-        <v>0.8525905763093674</v>
+        <v>0.8565573770491803</v>
       </c>
       <c r="ES17">
-        <v>0.9948845504036042</v>
+        <v>1</v>
       </c>
       <c r="ET17">
-        <v>0.9949784118640886</v>
+        <v>1</v>
       </c>
       <c r="EU17">
-        <v>0.9972310869157124</v>
+        <v>1</v>
       </c>
       <c r="EV17">
         <v>19079</v>
       </c>
       <c r="EW17">
-        <v>0.6920707419406235</v>
+        <v>0.735022211550006</v>
       </c>
       <c r="EX17">
-        <v>0.9386053428222423</v>
+        <v>0.9816304478328731</v>
       </c>
       <c r="EY17">
-        <v>0.9628233044771364</v>
+        <v>1</v>
       </c>
       <c r="EZ17">
-        <v>0.9994689043496734</v>
+        <v>1</v>
       </c>
       <c r="FA17">
         <v>20948</v>
       </c>
       <c r="FB17">
-        <v>0.6343012704174229</v>
+        <v>0.6149853874836239</v>
       </c>
       <c r="FC17">
-        <v>0.9995223994650874</v>
+        <v>1</v>
       </c>
       <c r="FD17">
-        <v>0.9995223994650874</v>
+        <v>1</v>
       </c>
       <c r="FE17">
-        <v>0.9995223994650874</v>
+        <v>1</v>
       </c>
       <c r="FF17">
         <v>21821</v>
       </c>
       <c r="FG17">
-        <v>0.4245244098097639</v>
+        <v>0.4614917797638751</v>
       </c>
       <c r="FH17">
-        <v>0.9972495988998396</v>
+        <v>1</v>
       </c>
       <c r="FI17">
         <v>1</v>
@@ -21641,13 +22082,13 @@
         <v>11252</v>
       </c>
       <c r="FL17">
-        <v>0.6389654252955292</v>
+        <v>0.6499434175782723</v>
       </c>
       <c r="FM17">
-        <v>0.9955559505821705</v>
+        <v>1</v>
       </c>
       <c r="FN17">
-        <v>0.9955559505821705</v>
+        <v>1</v>
       </c>
       <c r="FO17">
         <v>1</v>

--- a/Output/IB metric.xlsx
+++ b/Output/IB metric.xlsx
@@ -6896,13 +6896,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX28"/>
+  <dimension ref="A1:AY28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:50">
+    <row r="1" spans="1:51">
       <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
@@ -6937,118 +6937,121 @@
         <v>47</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:51">
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
@@ -7083,118 +7086,121 @@
         <v>2298.79732004732</v>
       </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>2010.419139500618</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>2046.423782396334</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1656.272625524196</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1830.159316012689</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>97</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1878.981764553527</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1837.821221627508</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>0.02239638025812329</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>2051.216225648787</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>1806.580737007979</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>1569.988717033326</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>1667.556063417815</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>2009.186207920007</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>1460.158910530713</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>13517.1737558673</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>1752.026050849282</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>1878.981764553527</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>-0.06756622980554139</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>1726.219816166476</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>1997.539646639047</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>1679.181468219341</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>1835.545183152243</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>1802.897325233633</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>1911.481712788561</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>1276.30750247277</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>1789.244349850816</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>1752.026050849282</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>0.02124300548127867</v>
       </c>
-      <c r="AP2">
+      <c r="AQ2">
         <v>1767.632695592775</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <v>2065.740821976261</v>
       </c>
-      <c r="AR2">
+      <c r="AS2">
         <v>1716.223526158104</v>
       </c>
-      <c r="AS2">
+      <c r="AT2">
         <v>1727.798150377256</v>
       </c>
-      <c r="AT2">
+      <c r="AU2">
         <v>1651.670016916376</v>
       </c>
-      <c r="AU2">
+      <c r="AV2">
         <v>1853.045268244006</v>
       </c>
-      <c r="AV2">
+      <c r="AW2">
         <v>1793.235559853958</v>
       </c>
-      <c r="AW2">
+      <c r="AX2">
         <v>1789.244349850816</v>
       </c>
-      <c r="AX2">
+      <c r="AY2">
         <v>0.002230667937263675</v>
       </c>
     </row>
-    <row r="3" spans="1:50">
+    <row r="3" spans="1:51">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>89</v>
@@ -7227,118 +7233,121 @@
         <v>0</v>
       </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>128.1610337972167</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>135.8060288335518</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>101.7532874139011</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>108.8531468531469</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
       <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>118.9395502372602</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>116.5267030318407</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.02070638868723651</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>133.5780669144982</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>117.4043887147335</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>99.48948948948949</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>104.7571090047393</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>133.8850284270373</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>93.67224880382776</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>578</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>112.8011626655183</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>118.9395502372602</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>-0.05160930539502617</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>106.9066366704162</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>124.7421093148576</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>102.2687439143135</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>121.4973262032086</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>91.76401869158879</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>121.9828259172522</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>91.57337367624811</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>111.7605540018644</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>112.8011626655183</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>-0.009225159023755536</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <v>111.8872017353579</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>133.7321937321937</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>103.3185279187817</v>
       </c>
-      <c r="AS3">
+      <c r="AT3">
         <v>109.0546095126248</v>
       </c>
-      <c r="AT3">
+      <c r="AU3">
         <v>104.0467625899281</v>
       </c>
-      <c r="AU3">
+      <c r="AV3">
         <v>123.6319317489336</v>
       </c>
-      <c r="AV3">
+      <c r="AW3">
         <v>114.0802082101029</v>
       </c>
-      <c r="AW3">
+      <c r="AX3">
         <v>111.7605540018644</v>
       </c>
-      <c r="AX3">
+      <c r="AY3">
         <v>0.02075557184693078</v>
       </c>
     </row>
-    <row r="4" spans="1:50">
+    <row r="4" spans="1:51">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>90</v>
@@ -7371,118 +7380,121 @@
         <v>0</v>
       </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>12893</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>20724</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>16250</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>7783</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
       <c r="S4">
-        <v>11530</v>
+        <v>0</v>
       </c>
       <c r="T4">
+        <v>9608.333333333334</v>
+      </c>
+      <c r="U4">
         <v>15254.83333333333</v>
       </c>
-      <c r="U4">
-        <v>-0.244173977646429</v>
-      </c>
       <c r="V4">
+        <v>-0.3701449813720241</v>
+      </c>
+      <c r="W4">
         <v>14373</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>18726</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>16565</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>17683</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>21194</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>15662</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>578</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>17367.16666666667</v>
       </c>
-      <c r="AD4">
-        <v>11530</v>
-      </c>
       <c r="AE4">
-        <v>0.5062590344030067</v>
+        <v>9608.333333333334</v>
       </c>
       <c r="AF4">
+        <v>0.8075108412836081</v>
+      </c>
+      <c r="AG4">
         <v>9504</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>16204</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>10503</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>18176</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>7855</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>15626</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>6053</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>12978</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>17367.16666666667</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>-0.252727848526434</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <v>5158</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <v>18776</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <v>16283</v>
       </c>
-      <c r="AS4">
+      <c r="AT4">
         <v>18572</v>
       </c>
-      <c r="AT4">
+      <c r="AU4">
         <v>17355</v>
       </c>
-      <c r="AU4">
+      <c r="AV4">
         <v>20288</v>
       </c>
-      <c r="AV4">
+      <c r="AW4">
         <v>15228.8</v>
       </c>
-      <c r="AW4">
+      <c r="AX4">
         <v>12978</v>
       </c>
-      <c r="AX4">
+      <c r="AY4">
         <v>0.1734319617814764</v>
       </c>
     </row>
-    <row r="5" spans="1:50">
+    <row r="5" spans="1:51">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>91</v>
@@ -7515,118 +7527,121 @@
         <v>0.3</v>
       </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>100.6</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>152.6</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>159.7</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>71.5</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
       <c r="S5">
-        <v>96.94</v>
+        <v>0</v>
       </c>
       <c r="T5">
+        <v>80.78333333333333</v>
+      </c>
+      <c r="U5">
         <v>131.3</v>
       </c>
-      <c r="U5">
-        <v>-0.2616907844630616</v>
-      </c>
       <c r="V5">
+        <v>-0.3847423203858846</v>
+      </c>
+      <c r="W5">
         <v>107.6</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>159.5</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>166.5</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>168.8</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>158.3</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>167.2</v>
       </c>
-      <c r="AB5">
-        <v>1</v>
-      </c>
       <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
         <v>154.65</v>
       </c>
-      <c r="AD5">
-        <v>96.94</v>
-      </c>
       <c r="AE5">
-        <v>0.5953166907365381</v>
+        <v>80.78333333333333</v>
       </c>
       <c r="AF5">
+        <v>0.9143800288838457</v>
+      </c>
+      <c r="AG5">
         <v>88.89999999999999</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>129.9</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>102.7</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>149.6</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>85.59999999999999</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>128.1</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>66.09999999999999</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>114.1333333333333</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>154.65</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>-0.2619894385170816</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <v>46.1</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>140.4</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <v>157.6</v>
       </c>
-      <c r="AS5">
+      <c r="AT5">
         <v>170.3</v>
       </c>
-      <c r="AT5">
+      <c r="AU5">
         <v>166.8</v>
       </c>
-      <c r="AU5">
+      <c r="AV5">
         <v>164.1</v>
       </c>
-      <c r="AV5">
+      <c r="AW5">
         <v>136.24</v>
       </c>
-      <c r="AW5">
+      <c r="AX5">
         <v>114.1333333333333</v>
       </c>
-      <c r="AX5">
+      <c r="AY5">
         <v>0.1936915887850468</v>
       </c>
     </row>
-    <row r="6" spans="1:50">
+    <row r="6" spans="1:51">
       <c r="A6" s="1" t="s">
         <v>85</v>
       </c>
@@ -7661,118 +7676,121 @@
         <v>0</v>
       </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>33.07017543859649</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>31.30434782608695</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>30.81081081081081</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>35.27777777777778</v>
       </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
       <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <v>32.04210526315789</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>34.94722955145119</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>-0.08312888676958541</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>32.20183486238532</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>38.72881355932203</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>42.16216216216216</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>31.86746987951807</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>32.21621621621622</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>32.67605633802817</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>100</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>35.07518796992481</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>32.04210526315789</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>0.09465928289844183</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>28.52272727272727</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>49.48979591836734</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>35.23255813953488</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>39.32692307692308</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>40.07042253521127</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>34.6969696969697</v>
       </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
       <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
         <v>38.61301369863014</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>35.07518796992481</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>0.1008640561452969</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <v>32.05882352941176</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>36.25</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <v>28.4472049689441</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <v>48.36363636363637</v>
       </c>
-      <c r="AT6">
+      <c r="AU6">
         <v>22.09039548022599</v>
       </c>
-      <c r="AU6">
+      <c r="AV6">
         <v>15.18324607329843</v>
       </c>
-      <c r="AV6">
+      <c r="AW6">
         <v>28.01498127340824</v>
       </c>
-      <c r="AW6">
+      <c r="AX6">
         <v>38.61301369863014</v>
       </c>
-      <c r="AX6">
+      <c r="AY6">
         <v>-0.2744678907463232</v>
       </c>
     </row>
-    <row r="7" spans="1:50">
+    <row r="7" spans="1:51">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>90</v>
@@ -7805,118 +7823,121 @@
         <v>0</v>
       </c>
       <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
         <v>377</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>432</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>456</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>254</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>3</v>
       </c>
-      <c r="S7">
-        <v>303.8</v>
-      </c>
       <c r="T7">
+        <v>253.1666666666667</v>
+      </c>
+      <c r="U7">
         <v>439.3333333333333</v>
       </c>
-      <c r="U7">
-        <v>-0.3084977238239757</v>
-      </c>
       <c r="V7">
+        <v>-0.4237481031866465</v>
+      </c>
+      <c r="W7">
         <v>351</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>457</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>624</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>529</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>596</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>232</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>10</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>464.8333333333333</v>
       </c>
-      <c r="AD7">
-        <v>303.8</v>
-      </c>
       <c r="AE7">
-        <v>0.5300636383585691</v>
+        <v>253.1666666666667</v>
       </c>
       <c r="AF7">
+        <v>0.836076366030283</v>
+      </c>
+      <c r="AG7">
         <v>251</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>485</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>303</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>409</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>569</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>229</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>9</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>374.3333333333333</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>464.8333333333333</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <v>-0.194693438508426</v>
       </c>
-      <c r="AP7">
+      <c r="AQ7">
         <v>109</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>464</v>
       </c>
-      <c r="AR7">
+      <c r="AS7">
         <v>458</v>
       </c>
-      <c r="AS7">
+      <c r="AT7">
         <v>532</v>
       </c>
-      <c r="AT7">
+      <c r="AU7">
         <v>391</v>
       </c>
-      <c r="AU7">
+      <c r="AV7">
         <v>290</v>
       </c>
-      <c r="AV7">
+      <c r="AW7">
         <v>390.8</v>
       </c>
-      <c r="AW7">
+      <c r="AX7">
         <v>374.3333333333333</v>
       </c>
-      <c r="AX7">
+      <c r="AY7">
         <v>0.04398931433659858</v>
       </c>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:51">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>91</v>
@@ -7949,118 +7970,121 @@
         <v>0.3</v>
       </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>11.4</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>13.8</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>14.8</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>7.2</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
       <c r="S8">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="T8">
+        <v>7.916666666666667</v>
+      </c>
+      <c r="U8">
         <v>12.63333333333333</v>
       </c>
-      <c r="U8">
-        <v>-0.2480211081794195</v>
-      </c>
       <c r="V8">
+        <v>-0.3733509234828496</v>
+      </c>
+      <c r="W8">
         <v>10.9</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>11.8</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>14.8</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>16.6</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>18.5</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>7.1</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>0.1</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>13.28333333333333</v>
       </c>
-      <c r="AD8">
-        <v>9.5</v>
-      </c>
       <c r="AE8">
-        <v>0.3982456140350876</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="AF8">
+        <v>0.6778947368421049</v>
+      </c>
+      <c r="AG8">
         <v>8.800000000000001</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>9.800000000000001</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>8.600000000000001</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>10.4</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>14.2</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>6.6</v>
       </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
       <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
         <v>9.733333333333333</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>13.28333333333333</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>-0.2672521957340025</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <v>3.4</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>12.8</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <v>16.1</v>
       </c>
-      <c r="AS8">
+      <c r="AT8">
         <v>11</v>
       </c>
-      <c r="AT8">
+      <c r="AU8">
         <v>17.7</v>
       </c>
-      <c r="AU8">
+      <c r="AV8">
         <v>19.1</v>
       </c>
-      <c r="AV8">
+      <c r="AW8">
         <v>12.2</v>
       </c>
-      <c r="AW8">
+      <c r="AX8">
         <v>9.733333333333333</v>
       </c>
-      <c r="AX8">
+      <c r="AY8">
         <v>0.2534246575342467</v>
       </c>
     </row>
-    <row r="9" spans="1:50">
+    <row r="9" spans="1:51">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -8095,118 +8119,121 @@
         <v>0</v>
       </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>446.4705882352941</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>467.0880361173815</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>342.36</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>531.4965986394558</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
       <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
         <v>425.090645395214</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>389.4155565105286</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>0.09161187396919224</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>456.8125</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>396.6239316239316</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>321.9076305220884</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>391.6956521739131</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>495.6737588652483</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>267.1926910299003</v>
       </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
       <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
         <v>378.87405268856</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>425.090645395214</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>-0.1087217354869938</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>380.4741379310345</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>350.2795698924731</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>326.840490797546</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>439.8795180722892</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>403.8812785388128</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>399.8263027295285</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>477.6068376068376</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>388.4749655489206</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>378.87405268856</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <v>0.02534064497748179</v>
       </c>
-      <c r="AP9">
+      <c r="AQ9">
         <v>288.0701754385965</v>
       </c>
-      <c r="AQ9">
+      <c r="AR9">
         <v>461.4148681055156</v>
       </c>
-      <c r="AR9">
+      <c r="AS9">
         <v>417.281795511222</v>
       </c>
-      <c r="AS9">
+      <c r="AT9">
         <v>318.2758620689655</v>
       </c>
-      <c r="AT9">
+      <c r="AU9">
         <v>380.0618556701031</v>
       </c>
-      <c r="AU9">
+      <c r="AV9">
         <v>380.9533468559838</v>
       </c>
-      <c r="AV9">
+      <c r="AW9">
         <v>380.5865809562073</v>
       </c>
-      <c r="AW9">
+      <c r="AX9">
         <v>388.4749655489206</v>
       </c>
-      <c r="AX9">
+      <c r="AY9">
         <v>-0.02030603074143245</v>
       </c>
     </row>
-    <row r="10" spans="1:50">
+    <row r="10" spans="1:51">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>90</v>
@@ -8239,118 +8266,121 @@
         <v>94</v>
       </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>12903</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>20692</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>17118</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>7813</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
       <c r="S10">
-        <v>11724</v>
+        <v>0</v>
       </c>
       <c r="T10">
+        <v>9770</v>
+      </c>
+      <c r="U10">
         <v>15050</v>
       </c>
-      <c r="U10">
-        <v>-0.2209966777408637</v>
-      </c>
       <c r="V10">
+        <v>-0.3508305647840532</v>
+      </c>
+      <c r="W10">
         <v>14618</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>18562</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>16031</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>18018</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>20967</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>16085</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>705</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>17380.16666666667</v>
       </c>
-      <c r="AD10">
-        <v>11724</v>
-      </c>
       <c r="AE10">
-        <v>0.4824434209029911</v>
+        <v>9770</v>
       </c>
       <c r="AF10">
+        <v>0.7789321050835893</v>
+      </c>
+      <c r="AG10">
         <v>8827</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>16288</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>10655</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>18255</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>8845</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>16113</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>5588</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>13163.83333333333</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>17380.16666666667</v>
       </c>
-      <c r="AO10">
+      <c r="AP10">
         <v>-0.2425945282457974</v>
       </c>
-      <c r="AP10">
+      <c r="AQ10">
         <v>4926</v>
       </c>
-      <c r="AQ10">
+      <c r="AR10">
         <v>19241</v>
       </c>
-      <c r="AR10">
+      <c r="AS10">
         <v>16733</v>
       </c>
-      <c r="AS10">
+      <c r="AT10">
         <v>16614</v>
       </c>
-      <c r="AT10">
+      <c r="AU10">
         <v>18433</v>
       </c>
-      <c r="AU10">
+      <c r="AV10">
         <v>18781</v>
       </c>
-      <c r="AV10">
+      <c r="AW10">
         <v>15189.4</v>
       </c>
-      <c r="AW10">
+      <c r="AX10">
         <v>13163.83333333333</v>
       </c>
-      <c r="AX10">
+      <c r="AY10">
         <v>0.1538736183735741</v>
       </c>
     </row>
-    <row r="11" spans="1:50">
+    <row r="11" spans="1:51">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>91</v>
@@ -8383,118 +8413,121 @@
         <v>0</v>
       </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>28.9</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>44.3</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>50</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>14.7</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
       <c r="S11">
-        <v>27.57999999999999</v>
+        <v>0</v>
       </c>
       <c r="T11">
+        <v>22.98333333333333</v>
+      </c>
+      <c r="U11">
         <v>38.78333333333334</v>
       </c>
-      <c r="U11">
-        <v>-0.2888697894284489</v>
-      </c>
       <c r="V11">
+        <v>-0.407391491190374</v>
+      </c>
+      <c r="W11">
         <v>32</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>46.8</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>49.8</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>46</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>42.3</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>60.2</v>
       </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
       <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
         <v>46.18333333333333</v>
       </c>
-      <c r="AD11">
-        <v>27.57999999999999</v>
-      </c>
       <c r="AE11">
-        <v>0.6745226009185401</v>
+        <v>22.98333333333333</v>
       </c>
       <c r="AF11">
+        <v>1.009427121102248</v>
+      </c>
+      <c r="AG11">
         <v>23.2</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>46.5</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>32.6</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>41.5</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>21.9</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>40.3</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>11.7</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>34.33333333333334</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>46.18333333333333</v>
       </c>
-      <c r="AO11">
+      <c r="AP11">
         <v>-0.2565860700108263</v>
       </c>
-      <c r="AP11">
+      <c r="AQ11">
         <v>17.1</v>
       </c>
-      <c r="AQ11">
+      <c r="AR11">
         <v>41.7</v>
       </c>
-      <c r="AR11">
+      <c r="AS11">
         <v>40.1</v>
       </c>
-      <c r="AS11">
+      <c r="AT11">
         <v>52.2</v>
       </c>
-      <c r="AT11">
+      <c r="AU11">
         <v>48.5</v>
       </c>
-      <c r="AU11">
+      <c r="AV11">
         <v>49.3</v>
       </c>
-      <c r="AV11">
+      <c r="AW11">
         <v>39.92</v>
       </c>
-      <c r="AW11">
+      <c r="AX11">
         <v>34.33333333333334</v>
       </c>
-      <c r="AX11">
+      <c r="AY11">
         <v>0.1627184466019418</v>
       </c>
     </row>
-    <row r="12" spans="1:50">
+    <row r="12" spans="1:51">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -8529,118 +8562,121 @@
         <v>0</v>
       </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
         <v>2743.191489361702</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>2402.790697674419</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>1730.851063829787</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>2250</v>
       </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
       <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
         <v>2206.297709923664</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>2102.972350230415</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>0.04913300913439378</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>2439.491525423728</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>1986.25</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>1715.376344086021</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>2080.229885057472</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>3331.451612903226</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>1589.381443298969</v>
       </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
       <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
         <v>2112.672064777328</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>2206.297709923664</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>-0.04243563537469064</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>1643.728813559322</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>2114.675324675325</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>1374.805194805195</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>3125.51724137931</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>2214.21052631579</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>2213.943661971831</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>1281.25</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>1998.880952380952</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>2112.672064777328</v>
       </c>
-      <c r="AO12">
+      <c r="AP12">
         <v>-0.05386122829638929</v>
       </c>
-      <c r="AP12">
+      <c r="AQ12">
         <v>2447.619047619048</v>
       </c>
-      <c r="AQ12">
+      <c r="AR12">
         <v>2417.341772151899</v>
       </c>
-      <c r="AR12">
+      <c r="AS12">
         <v>2287.945205479452</v>
       </c>
-      <c r="AS12">
+      <c r="AT12">
         <v>2032.696629213483</v>
       </c>
-      <c r="AT12">
+      <c r="AU12">
         <v>2439.722222222222</v>
       </c>
-      <c r="AU12">
+      <c r="AV12">
         <v>2366.746987951807</v>
       </c>
-      <c r="AV12">
+      <c r="AW12">
         <v>2307.913669064748</v>
       </c>
-      <c r="AW12">
+      <c r="AX12">
         <v>1998.880952380952</v>
       </c>
-      <c r="AX12">
+      <c r="AY12">
         <v>0.1546028623243889</v>
       </c>
     </row>
-    <row r="13" spans="1:50">
+    <row r="13" spans="1:51">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>90</v>
@@ -8673,118 +8709,121 @@
         <v>103</v>
       </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>12893</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>20664</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>16270</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>7875</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
       <c r="S13">
-        <v>11561</v>
+        <v>0</v>
       </c>
       <c r="T13">
+        <v>9634.166666666666</v>
+      </c>
+      <c r="U13">
         <v>15156.66666666667</v>
       </c>
-      <c r="U13">
-        <v>-0.2372333406641741</v>
-      </c>
       <c r="V13">
+        <v>-0.3643611172201452</v>
+      </c>
+      <c r="W13">
         <v>14393</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>19068</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>15953</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>18098</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>20655</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>15417</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>782</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>17264</v>
       </c>
-      <c r="AD13">
-        <v>11561</v>
-      </c>
       <c r="AE13">
-        <v>0.4932964276446674</v>
+        <v>9634.166666666666</v>
       </c>
       <c r="AF13">
+        <v>0.791955713173601</v>
+      </c>
+      <c r="AG13">
         <v>9698</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>16283</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>10586</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>18128</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>8414</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>15719</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>5125</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>13138</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>17264</v>
       </c>
-      <c r="AO13">
+      <c r="AP13">
         <v>-0.2389944392956441</v>
       </c>
-      <c r="AP13">
+      <c r="AQ13">
         <v>5140</v>
       </c>
-      <c r="AQ13">
+      <c r="AR13">
         <v>19097</v>
       </c>
-      <c r="AR13">
+      <c r="AS13">
         <v>16702</v>
       </c>
-      <c r="AS13">
+      <c r="AT13">
         <v>18091</v>
       </c>
-      <c r="AT13">
+      <c r="AU13">
         <v>17566</v>
       </c>
-      <c r="AU13">
+      <c r="AV13">
         <v>19644</v>
       </c>
-      <c r="AV13">
+      <c r="AW13">
         <v>15319.2</v>
       </c>
-      <c r="AW13">
+      <c r="AX13">
         <v>13138</v>
       </c>
-      <c r="AX13">
+      <c r="AY13">
         <v>0.1660222256051149</v>
       </c>
     </row>
-    <row r="14" spans="1:50">
+    <row r="14" spans="1:51">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>91</v>
@@ -8817,118 +8856,121 @@
         <v>0</v>
       </c>
       <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
         <v>4.7</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>8.6</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>9.4</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>3.5</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
       <c r="S14">
-        <v>5.24</v>
+        <v>0</v>
       </c>
       <c r="T14">
+        <v>4.366666666666667</v>
+      </c>
+      <c r="U14">
         <v>7.233333333333333</v>
       </c>
-      <c r="U14">
-        <v>-0.2755760368663595</v>
-      </c>
       <c r="V14">
+        <v>-0.3963133640552995</v>
+      </c>
+      <c r="W14">
         <v>5.9</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>9.6</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>9.300000000000001</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>8.699999999999999</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>6.2</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>9.699999999999999</v>
       </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
       <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
         <v>8.233333333333334</v>
       </c>
-      <c r="AD14">
-        <v>5.24</v>
-      </c>
       <c r="AE14">
-        <v>0.5712468193384226</v>
+        <v>4.366666666666667</v>
       </c>
       <c r="AF14">
+        <v>0.8854961832061068</v>
+      </c>
+      <c r="AG14">
         <v>5.9</v>
-      </c>
-      <c r="AG14">
-        <v>7.7</v>
       </c>
       <c r="AH14">
         <v>7.7</v>
       </c>
       <c r="AI14">
+        <v>7.7</v>
+      </c>
+      <c r="AJ14">
         <v>5.8</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>3.8</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>7.1</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>4</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>6.333333333333333</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>8.233333333333334</v>
       </c>
-      <c r="AO14">
+      <c r="AP14">
         <v>-0.2307692307692309</v>
       </c>
-      <c r="AP14">
+      <c r="AQ14">
         <v>2.1</v>
       </c>
-      <c r="AQ14">
+      <c r="AR14">
         <v>7.9</v>
       </c>
-      <c r="AR14">
+      <c r="AS14">
         <v>7.3</v>
       </c>
-      <c r="AS14">
+      <c r="AT14">
         <v>8.9</v>
       </c>
-      <c r="AT14">
+      <c r="AU14">
         <v>7.2</v>
       </c>
-      <c r="AU14">
+      <c r="AV14">
         <v>8.300000000000001</v>
       </c>
-      <c r="AV14">
+      <c r="AW14">
         <v>6.680000000000001</v>
       </c>
-      <c r="AW14">
+      <c r="AX14">
         <v>6.333333333333333</v>
       </c>
-      <c r="AX14">
+      <c r="AY14">
         <v>0.05473684210526342</v>
       </c>
     </row>
-    <row r="15" spans="1:50">
+    <row r="15" spans="1:51">
       <c r="A15" s="1" t="s">
         <v>86</v>
       </c>
@@ -8963,118 +9005,121 @@
         <v>0</v>
       </c>
       <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>526.2448979591836</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>581.2921348314607</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>501.8518518518518</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>579.925925925926</v>
       </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
       <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
         <v>544.5990566037735</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>531.1107888631091</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>0.02539633542285458</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>587.0612244897959</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>555.7941176470588</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>464.5428571428571</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>416.0581395348837</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>579.6260387811634</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>410.0131926121372</v>
       </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
       <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
         <v>496.7862232779098</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>544.5990566037735</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>-0.08779455775049261</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>545.5113636363636</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>676.8125</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>458.4565217391304</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>489.2722371967655</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>478.5</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>456.9241982507289</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>206.2361623616236</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>466.057745696835</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>496.7862232779098</v>
       </c>
-      <c r="AO15">
+      <c r="AP15">
         <v>-0.06185452844952333</v>
       </c>
-      <c r="AP15">
+      <c r="AQ15">
         <v>1197.441860465116</v>
       </c>
-      <c r="AQ15">
+      <c r="AR15">
         <v>641.9152542372881</v>
       </c>
-      <c r="AR15">
+      <c r="AS15">
         <v>544.3069306930694</v>
       </c>
-      <c r="AS15">
+      <c r="AT15">
         <v>519.3059490084986</v>
       </c>
-      <c r="AT15">
+      <c r="AU15">
         <v>477.0628415300546</v>
       </c>
-      <c r="AU15">
+      <c r="AV15">
         <v>535.2815013404826</v>
       </c>
-      <c r="AV15">
+      <c r="AW15">
         <v>555.8915175995384</v>
       </c>
-      <c r="AW15">
+      <c r="AX15">
         <v>466.057745696835</v>
       </c>
-      <c r="AX15">
+      <c r="AY15">
         <v>0.1927524490948791</v>
       </c>
     </row>
-    <row r="16" spans="1:50">
+    <row r="16" spans="1:51">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>90</v>
@@ -9107,118 +9152,121 @@
         <v>51.5</v>
       </c>
       <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <v>12893</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>20694</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>16260</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>7829</v>
       </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
       <c r="S16">
-        <v>11545.5</v>
+        <v>0</v>
       </c>
       <c r="T16">
+        <v>9621.25</v>
+      </c>
+      <c r="U16">
         <v>15205.75</v>
       </c>
-      <c r="U16">
-        <v>-0.2407148611544975</v>
-      </c>
       <c r="V16">
+        <v>-0.3672623842954146</v>
+      </c>
+      <c r="W16">
         <v>14383</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>18897</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>16259</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>17890.5</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>20924.5</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>15539.5</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>680</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>17315.58333333333</v>
       </c>
-      <c r="AD16">
-        <v>11545.5</v>
-      </c>
       <c r="AE16">
-        <v>0.4997690297807225</v>
+        <v>9621.25</v>
       </c>
       <c r="AF16">
+        <v>0.7997228357368671</v>
+      </c>
+      <c r="AG16">
         <v>9601</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>16243.5</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>10544.5</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>18152</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>8134.5</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>15672.5</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>5589</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>13058</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>17315.58333333333</v>
       </c>
-      <c r="AO16">
+      <c r="AP16">
         <v>-0.2458815999075976</v>
       </c>
-      <c r="AP16">
+      <c r="AQ16">
         <v>5149</v>
       </c>
-      <c r="AQ16">
+      <c r="AR16">
         <v>18936.5</v>
       </c>
-      <c r="AR16">
+      <c r="AS16">
         <v>16492.5</v>
       </c>
-      <c r="AS16">
+      <c r="AT16">
         <v>18331.5</v>
       </c>
-      <c r="AT16">
+      <c r="AU16">
         <v>17460.5</v>
       </c>
-      <c r="AU16">
+      <c r="AV16">
         <v>19966</v>
       </c>
-      <c r="AV16">
+      <c r="AW16">
         <v>15274</v>
       </c>
-      <c r="AW16">
+      <c r="AX16">
         <v>13058</v>
       </c>
-      <c r="AX16">
+      <c r="AY16">
         <v>0.1697043957727065</v>
       </c>
     </row>
-    <row r="17" spans="1:50">
+    <row r="17" spans="1:51">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>91</v>
@@ -9251,118 +9299,121 @@
         <v>0</v>
       </c>
       <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <v>24.5</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>35.6</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>32.4</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>13.5</v>
       </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
       <c r="S17">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="T17">
+        <v>17.66666666666667</v>
+      </c>
+      <c r="U17">
         <v>28.73333333333333</v>
       </c>
-      <c r="U17">
-        <v>-0.2621809744779583</v>
-      </c>
       <c r="V17">
+        <v>-0.3851508120649652</v>
+      </c>
+      <c r="W17">
         <v>24.5</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>34</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>35</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>43</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>36.1</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>37.9</v>
       </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
       <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
         <v>35.08333333333334</v>
       </c>
-      <c r="AD17">
-        <v>21.2</v>
-      </c>
       <c r="AE17">
-        <v>0.6548742138364783</v>
+        <v>17.66666666666667</v>
       </c>
       <c r="AF17">
+        <v>0.9858490566037736</v>
+      </c>
+      <c r="AG17">
         <v>17.6</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>24</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>23</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>37.1</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>17</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>34.3</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>27.1</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>25.5</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>35.08333333333334</v>
       </c>
-      <c r="AO17">
+      <c r="AP17">
         <v>-0.2731591448931117</v>
       </c>
-      <c r="AP17">
+      <c r="AQ17">
         <v>4.3</v>
       </c>
-      <c r="AQ17">
+      <c r="AR17">
         <v>29.5</v>
       </c>
-      <c r="AR17">
+      <c r="AS17">
         <v>30.3</v>
       </c>
-      <c r="AS17">
+      <c r="AT17">
         <v>35.3</v>
       </c>
-      <c r="AT17">
+      <c r="AU17">
         <v>36.6</v>
       </c>
-      <c r="AU17">
+      <c r="AV17">
         <v>37.3</v>
       </c>
-      <c r="AV17">
+      <c r="AW17">
         <v>27.2</v>
       </c>
-      <c r="AW17">
+      <c r="AX17">
         <v>25.5</v>
       </c>
-      <c r="AX17">
+      <c r="AY17">
         <v>0.06666666666666665</v>
       </c>
     </row>
-    <row r="18" spans="1:50">
+    <row r="18" spans="1:51">
       <c r="A18" s="1" t="s">
         <v>87</v>
       </c>
@@ -9397,118 +9448,121 @@
         <v>0</v>
       </c>
       <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
         <v>772.0359281437126</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>732.2968197879859</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>595.2380952380953</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>347.4553571428572</v>
       </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
       <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
         <v>608.7645195353749</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>698.5399239543726</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-0.1285186448768556</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>781.141304347826</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>793.4745762711864</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>557.7441077441077</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>549.1614906832298</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>668.5804416403785</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>567.4637681159421</v>
       </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
       <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
         <v>642.0404411764706</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>608.7645195353749</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>0.05466140120402008</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>650.9589041095891</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>746.7281105990783</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>709.6621621621622</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>744.9180327868853</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>538.0136986301369</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>685.3508771929825</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>411.7687074829932</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>657.6880877742947</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>642.0404411764706</v>
       </c>
-      <c r="AO18">
+      <c r="AP18">
         <v>0.02437174606813142</v>
       </c>
-      <c r="AP18">
+      <c r="AQ18">
         <v>716.3888888888889</v>
       </c>
-      <c r="AQ18">
+      <c r="AR18">
         <v>834.4888888888889</v>
       </c>
-      <c r="AR18">
+      <c r="AS18">
         <v>532.1241830065359</v>
       </c>
-      <c r="AS18">
+      <c r="AT18">
         <v>604.9511400651465</v>
       </c>
-      <c r="AT18">
+      <c r="AU18">
         <v>672.6744186046512</v>
       </c>
-      <c r="AU18">
+      <c r="AV18">
         <v>694.7945205479452</v>
       </c>
-      <c r="AV18">
+      <c r="AW18">
         <v>660.4931506849315</v>
       </c>
-      <c r="AW18">
+      <c r="AX18">
         <v>657.6880877742947</v>
       </c>
-      <c r="AX18">
+      <c r="AY18">
         <v>0.004265035299832576</v>
       </c>
     </row>
-    <row r="19" spans="1:50">
+    <row r="19" spans="1:51">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>90</v>
@@ -9541,118 +9595,121 @@
         <v>0</v>
       </c>
       <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
         <v>12893</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>20724</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>16250</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>7783</v>
       </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
       <c r="S19">
-        <v>11530</v>
+        <v>0</v>
       </c>
       <c r="T19">
+        <v>9608.333333333334</v>
+      </c>
+      <c r="U19">
         <v>15254.83333333333</v>
       </c>
-      <c r="U19">
-        <v>-0.244173977646429</v>
-      </c>
       <c r="V19">
+        <v>-0.3701449813720241</v>
+      </c>
+      <c r="W19">
         <v>14373</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>18726</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>16565</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>17683</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>21194</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>15662</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>578</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>17367.16666666667</v>
       </c>
-      <c r="AD19">
-        <v>11530</v>
-      </c>
       <c r="AE19">
-        <v>0.5062590344030067</v>
+        <v>9608.333333333334</v>
       </c>
       <c r="AF19">
+        <v>0.8075108412836081</v>
+      </c>
+      <c r="AG19">
         <v>9504</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>16204</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>10503</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>18176</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>7855</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>15626</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>6053</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>12978</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>17367.16666666667</v>
       </c>
-      <c r="AO19">
+      <c r="AP19">
         <v>-0.252727848526434</v>
       </c>
-      <c r="AP19">
+      <c r="AQ19">
         <v>5158</v>
       </c>
-      <c r="AQ19">
+      <c r="AR19">
         <v>18776</v>
       </c>
-      <c r="AR19">
+      <c r="AS19">
         <v>16283</v>
       </c>
-      <c r="AS19">
+      <c r="AT19">
         <v>18572</v>
       </c>
-      <c r="AT19">
+      <c r="AU19">
         <v>17355</v>
       </c>
-      <c r="AU19">
+      <c r="AV19">
         <v>20288</v>
       </c>
-      <c r="AV19">
+      <c r="AW19">
         <v>15228.8</v>
       </c>
-      <c r="AW19">
+      <c r="AX19">
         <v>12978</v>
       </c>
-      <c r="AX19">
+      <c r="AY19">
         <v>0.1734319617814764</v>
       </c>
     </row>
-    <row r="20" spans="1:50">
+    <row r="20" spans="1:51">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>91</v>
@@ -9685,118 +9742,121 @@
         <v>0</v>
       </c>
       <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
         <v>16.7</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>28.3</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>27.3</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>22.4</v>
       </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
       <c r="S20">
-        <v>18.94</v>
+        <v>0</v>
       </c>
       <c r="T20">
+        <v>15.78333333333333</v>
+      </c>
+      <c r="U20">
         <v>21.91666666666667</v>
       </c>
-      <c r="U20">
-        <v>-0.1358174904942967</v>
-      </c>
       <c r="V20">
+        <v>-0.2798479087452472</v>
+      </c>
+      <c r="W20">
         <v>18.4</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>23.6</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>29.7</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>32.2</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>31.7</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>27.6</v>
       </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
       <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
         <v>27.2</v>
       </c>
-      <c r="AD20">
-        <v>18.94</v>
-      </c>
       <c r="AE20">
-        <v>0.4361140443505811</v>
+        <v>15.78333333333333</v>
       </c>
       <c r="AF20">
+        <v>0.7233368532206974</v>
+      </c>
+      <c r="AG20">
         <v>14.6</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>21.7</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>14.8</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>24.4</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>14.6</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>22.8</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>14.7</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>18.81666666666667</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>27.2</v>
       </c>
-      <c r="AO20">
+      <c r="AP20">
         <v>-0.3082107843137256</v>
       </c>
-      <c r="AP20">
+      <c r="AQ20">
         <v>7.2</v>
       </c>
-      <c r="AQ20">
+      <c r="AR20">
         <v>22.5</v>
       </c>
-      <c r="AR20">
+      <c r="AS20">
         <v>30.6</v>
       </c>
-      <c r="AS20">
+      <c r="AT20">
         <v>30.7</v>
       </c>
-      <c r="AT20">
+      <c r="AU20">
         <v>25.8</v>
       </c>
-      <c r="AU20">
+      <c r="AV20">
         <v>29.2</v>
       </c>
-      <c r="AV20">
+      <c r="AW20">
         <v>23.36</v>
       </c>
-      <c r="AW20">
+      <c r="AX20">
         <v>18.81666666666667</v>
       </c>
-      <c r="AX20">
+      <c r="AY20">
         <v>0.241452612931798</v>
       </c>
     </row>
-    <row r="21" spans="1:50">
+    <row r="21" spans="1:51">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -9831,118 +9891,121 @@
         <v>0</v>
       </c>
       <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
         <v>43.75</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>41.95454545454545</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>38.25581395348837</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>55.88235294117646</v>
       </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
       <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
         <v>42.95580110497237</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>37.30566037735849</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.1514553199289579</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>40.56603773584906</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>26.20178041543026</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>27.34767025089606</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>39.86547085201794</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>31.91489361702128</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>41.29554655870445</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>142.2222222222222</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>34.10342511752854</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>42.95580110497237</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>-0.2060810358491747</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>36.11702127659575</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>44.80198019801981</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>44.0625</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>25.46052631578947</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>41.98581560283689</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>60.05882352941177</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>43.6046511627907</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>40.37569944044765</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>34.10342511752854</v>
       </c>
-      <c r="AO21">
+      <c r="AP21">
         <v>0.1839191899729529</v>
       </c>
-      <c r="AP21">
+      <c r="AQ21">
         <v>29.5</v>
       </c>
-      <c r="AQ21">
+      <c r="AR21">
         <v>32.34615384615385</v>
       </c>
-      <c r="AR21">
+      <c r="AS21">
         <v>34.54819277108433</v>
       </c>
-      <c r="AS21">
+      <c r="AT21">
         <v>38.9751552795031</v>
       </c>
-      <c r="AT21">
+      <c r="AU21">
         <v>31.25806451612903</v>
       </c>
-      <c r="AU21">
+      <c r="AV21">
         <v>60.09569377990431</v>
       </c>
-      <c r="AV21">
+      <c r="AW21">
         <v>37.48873148744365</v>
       </c>
-      <c r="AW21">
+      <c r="AX21">
         <v>40.37569944044765</v>
       </c>
-      <c r="AX21">
+      <c r="AY21">
         <v>-0.07150261154638682</v>
       </c>
     </row>
-    <row r="22" spans="1:50">
+    <row r="22" spans="1:51">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>90</v>
@@ -9975,118 +10038,121 @@
         <v>0</v>
       </c>
       <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
         <v>630</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>923</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>987</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>570</v>
       </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
       <c r="S22">
-        <v>622</v>
+        <v>0</v>
       </c>
       <c r="T22">
+        <v>518.3333333333334</v>
+      </c>
+      <c r="U22">
         <v>817.3333333333334</v>
       </c>
-      <c r="U22">
-        <v>-0.2389885807504079</v>
-      </c>
       <c r="V22">
+        <v>-0.3658238172920065</v>
+      </c>
+      <c r="W22">
         <v>645</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>883</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>763</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>889</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>750</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>1020</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>128</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>825</v>
       </c>
-      <c r="AD22">
-        <v>622</v>
-      </c>
       <c r="AE22">
-        <v>0.3263665594855305</v>
+        <v>518.3333333333334</v>
       </c>
       <c r="AF22">
+        <v>0.5916398713826365</v>
+      </c>
+      <c r="AG22">
         <v>679</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>905</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>705</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>774</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>592</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>1021</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>375</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>779.3333333333334</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>825</v>
       </c>
-      <c r="AO22">
+      <c r="AP22">
         <v>-0.05535353535353527</v>
       </c>
-      <c r="AP22">
+      <c r="AQ22">
         <v>354</v>
       </c>
-      <c r="AQ22">
+      <c r="AR22">
         <v>841</v>
       </c>
-      <c r="AR22">
+      <c r="AS22">
         <v>1147</v>
       </c>
-      <c r="AS22">
+      <c r="AT22">
         <v>1255</v>
       </c>
-      <c r="AT22">
+      <c r="AU22">
         <v>969</v>
       </c>
-      <c r="AU22">
+      <c r="AV22">
         <v>1256</v>
       </c>
-      <c r="AV22">
+      <c r="AW22">
         <v>913.2</v>
       </c>
-      <c r="AW22">
+      <c r="AX22">
         <v>779.3333333333334</v>
       </c>
-      <c r="AX22">
+      <c r="AY22">
         <v>0.171770744225834</v>
       </c>
     </row>
-    <row r="23" spans="1:50">
+    <row r="23" spans="1:51">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>91</v>
@@ -10119,118 +10185,121 @@
         <v>0</v>
       </c>
       <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
         <v>14.4</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>22</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>25.8</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>10.2</v>
       </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
       <c r="S23">
-        <v>14.48</v>
+        <v>0</v>
       </c>
       <c r="T23">
+        <v>12.06666666666667</v>
+      </c>
+      <c r="U23">
         <v>22</v>
       </c>
-      <c r="U23">
-        <v>-0.3418181818181818</v>
-      </c>
       <c r="V23">
+        <v>-0.4515151515151514</v>
+      </c>
+      <c r="W23">
         <v>15.9</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>33.7</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>27.9</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>22.3</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>23.5</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>24.7</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>0.9</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>24.66666666666667</v>
       </c>
-      <c r="AD23">
-        <v>14.48</v>
-      </c>
       <c r="AE23">
-        <v>0.7034990791896869</v>
+        <v>12.06666666666667</v>
       </c>
       <c r="AF23">
+        <v>1.044198895027624</v>
+      </c>
+      <c r="AG23">
         <v>18.8</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>20.2</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>16</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>30.4</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>14.1</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>17</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>8.6</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>19.41666666666667</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>24.66666666666667</v>
       </c>
-      <c r="AO23">
+      <c r="AP23">
         <v>-0.2128378378378378</v>
       </c>
-      <c r="AP23">
+      <c r="AQ23">
         <v>12</v>
       </c>
-      <c r="AQ23">
+      <c r="AR23">
         <v>26</v>
       </c>
-      <c r="AR23">
+      <c r="AS23">
         <v>33.2</v>
       </c>
-      <c r="AS23">
+      <c r="AT23">
         <v>32.2</v>
       </c>
-      <c r="AT23">
+      <c r="AU23">
         <v>31</v>
       </c>
-      <c r="AU23">
+      <c r="AV23">
         <v>20.9</v>
       </c>
-      <c r="AV23">
+      <c r="AW23">
         <v>26.88</v>
       </c>
-      <c r="AW23">
+      <c r="AX23">
         <v>19.41666666666667</v>
       </c>
-      <c r="AX23">
+      <c r="AY23">
         <v>0.3843776824034335</v>
       </c>
     </row>
-    <row r="24" spans="1:50">
+    <row r="24" spans="1:51">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -10265,118 +10334,121 @@
         <v>0</v>
       </c>
       <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
         <v>786.2666666666667</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>76.63461538461539</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>151.1940298507463</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>13.01369863013699</v>
       </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
       <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
         <v>153.1195335276968</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>61.6258570029383</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>1.48466375924632</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>74.78873239436621</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>324.8484848484848</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>305.1</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>169.8387096774193</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>104.0594059405941</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>41.81818181818182</v>
       </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
       <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
         <v>118.4210526315789</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>153.1195335276968</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>-0.2266104140778451</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>54.50381679389313</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>123.3526011560694</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>123.2934131736527</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>256.0571428571429</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>97.51773049645391</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>46.22857142857143</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>21.27659574468085</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>111.4772727272727</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>118.4210526315789</v>
       </c>
-      <c r="AO24">
+      <c r="AP24">
         <v>-0.0586363636363636</v>
       </c>
-      <c r="AP24">
+      <c r="AQ24">
         <v>56.70329670329671</v>
       </c>
-      <c r="AQ24">
+      <c r="AR24">
         <v>199.2156862745098</v>
       </c>
-      <c r="AR24">
+      <c r="AS24">
         <v>133.5754189944134</v>
       </c>
-      <c r="AS24">
+      <c r="AT24">
         <v>222.8571428571428</v>
       </c>
-      <c r="AT24">
+      <c r="AU24">
         <v>244.3046357615894</v>
       </c>
-      <c r="AU24">
+      <c r="AV24">
         <v>35.94444444444444</v>
       </c>
-      <c r="AV24">
+      <c r="AW24">
         <v>137.8590425531915</v>
       </c>
-      <c r="AW24">
+      <c r="AX24">
         <v>111.4772727272727</v>
       </c>
-      <c r="AX24">
+      <c r="AY24">
         <v>0.2366560392131347</v>
       </c>
     </row>
-    <row r="25" spans="1:50">
+    <row r="25" spans="1:51">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>90</v>
@@ -10409,118 +10481,121 @@
         <v>0</v>
       </c>
       <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>5897</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>2391</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>2026</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>190</v>
       </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
       <c r="S25">
-        <v>2100.8</v>
+        <v>0</v>
       </c>
       <c r="T25">
+        <v>1750.666666666667</v>
+      </c>
+      <c r="U25">
         <v>1048.666666666667</v>
       </c>
-      <c r="U25">
-        <v>1.003305785123967</v>
-      </c>
       <c r="V25">
+        <v>0.6694214876033058</v>
+      </c>
+      <c r="W25">
         <v>1062</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>3216</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>3051</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>3159</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>2102</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>460</v>
       </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
       <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
         <v>2175</v>
       </c>
-      <c r="AD25">
-        <v>2100.8</v>
-      </c>
       <c r="AE25">
-        <v>0.03531987814166015</v>
+        <v>1750.666666666667</v>
       </c>
       <c r="AF25">
+        <v>0.2423838537699923</v>
+      </c>
+      <c r="AG25">
         <v>714</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>2134</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>2059</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>4481</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>1375</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>809</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>200</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>1928.666666666667</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>2175</v>
       </c>
-      <c r="AO25">
+      <c r="AP25">
         <v>-0.1132567049808428</v>
       </c>
-      <c r="AP25">
+      <c r="AQ25">
         <v>516</v>
       </c>
-      <c r="AQ25">
+      <c r="AR25">
         <v>2032</v>
       </c>
-      <c r="AR25">
+      <c r="AS25">
         <v>2391</v>
       </c>
-      <c r="AS25">
+      <c r="AT25">
         <v>1092</v>
       </c>
-      <c r="AT25">
+      <c r="AU25">
         <v>3689</v>
       </c>
-      <c r="AU25">
+      <c r="AV25">
         <v>647</v>
       </c>
-      <c r="AV25">
+      <c r="AW25">
         <v>1944</v>
       </c>
-      <c r="AW25">
+      <c r="AX25">
         <v>1928.666666666667</v>
       </c>
-      <c r="AX25">
+      <c r="AY25">
         <v>0.007950224680262741</v>
       </c>
     </row>
-    <row r="26" spans="1:50">
+    <row r="26" spans="1:51">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>91</v>
@@ -10553,118 +10628,121 @@
         <v>1.9</v>
       </c>
       <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
         <v>7.5</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>31.2</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>13.4</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>14.6</v>
       </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
       <c r="S26">
-        <v>13.72</v>
+        <v>0</v>
       </c>
       <c r="T26">
+        <v>11.43333333333333</v>
+      </c>
+      <c r="U26">
         <v>14.98333333333333</v>
       </c>
-      <c r="U26">
-        <v>-0.08431590656284771</v>
-      </c>
       <c r="V26">
+        <v>-0.2369299221357065</v>
+      </c>
+      <c r="W26">
         <v>14.2</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>9.9</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>10</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>18.6</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>20.2</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>11</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>26.3</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>13.98333333333333</v>
       </c>
-      <c r="AD26">
-        <v>13.72</v>
-      </c>
       <c r="AE26">
-        <v>0.01919339164237144</v>
+        <v>11.43333333333333</v>
       </c>
       <c r="AF26">
+        <v>0.2230320699708457</v>
+      </c>
+      <c r="AG26">
         <v>13.1</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>17.3</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>16.7</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>17.5</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>14.1</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>17.5</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>9.4</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>16.03333333333333</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>13.98333333333333</v>
       </c>
-      <c r="AO26">
+      <c r="AP26">
         <v>0.1466030989272942</v>
       </c>
-      <c r="AP26">
+      <c r="AQ26">
         <v>9.1</v>
       </c>
-      <c r="AQ26">
+      <c r="AR26">
         <v>10.2</v>
       </c>
-      <c r="AR26">
+      <c r="AS26">
         <v>17.9</v>
       </c>
-      <c r="AS26">
+      <c r="AT26">
         <v>4.9</v>
       </c>
-      <c r="AT26">
+      <c r="AU26">
         <v>15.1</v>
       </c>
-      <c r="AU26">
+      <c r="AV26">
         <v>18</v>
       </c>
-      <c r="AV26">
+      <c r="AW26">
         <v>11.44</v>
       </c>
-      <c r="AW26">
+      <c r="AX26">
         <v>16.03333333333333</v>
       </c>
-      <c r="AX26">
+      <c r="AY26">
         <v>-0.2864864864864864</v>
       </c>
     </row>
-    <row r="27" spans="1:50">
+    <row r="27" spans="1:51">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>95</v>
@@ -10694,82 +10772,85 @@
         <v>0</v>
       </c>
       <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
         <v>149.5707656612529</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>158.6830015313936</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>121.3592233009709</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>126.9657422512235</v>
       </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="V27">
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="W27">
         <v>156.7393675027263</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>148.8553259141495</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>119.5165945165945</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>120.703071672355</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>157.2255192878338</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>109.9087719298246</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>5780.000000000001</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>135.5777460770328</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>147.7119416590702</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>121.1418685121107</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>152.4832214765101</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>109.8601398601399</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>140.6480648064806</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>105.2695652173913</v>
       </c>
-      <c r="AP27">
+      <c r="AQ27">
         <v>151.2609970674487</v>
       </c>
-      <c r="AQ27">
+      <c r="AR27">
         <v>164.1258741258741</v>
       </c>
-      <c r="AR27">
+      <c r="AS27">
         <v>130.8922829581993</v>
       </c>
-      <c r="AS27">
+      <c r="AT27">
         <v>134.4822592324402</v>
       </c>
-      <c r="AT27">
+      <c r="AU27">
         <v>127.7982326951399</v>
       </c>
-      <c r="AU27">
+      <c r="AV27">
         <v>141.6759776536313</v>
       </c>
     </row>
-    <row r="28" spans="1:50">
+    <row r="28" spans="1:51">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>96</v>
@@ -10799,78 +10880,81 @@
         <v>0</v>
       </c>
       <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
         <v>895.3472222222222</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>942</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>629.8449612403101</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>763.0392156862745</v>
       </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="V28">
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="W28">
         <v>903.9622641509435</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>555.6676557863501</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>593.7275985663083</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>792.9596412556053</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>901.8723404255319</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>634.089068825911</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>642.2222222222222</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>505.5319148936171</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>802.1782178217823</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>656.4375</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>597.8947368421052</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>557.0921985815604</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>919.1764705882352</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>703.8372093023256</v>
       </c>
-      <c r="AP28">
+      <c r="AQ28">
         <v>429.8333333333333</v>
       </c>
-      <c r="AQ28">
+      <c r="AR28">
         <v>722.1538461538462</v>
       </c>
-      <c r="AR28">
+      <c r="AS28">
         <v>490.4518072289156</v>
       </c>
-      <c r="AS28">
+      <c r="AT28">
         <v>576.7701863354037</v>
       </c>
-      <c r="AT28">
+      <c r="AU28">
         <v>559.8387096774194</v>
       </c>
-      <c r="AU28">
+      <c r="AV28">
         <v>970.7177033492824</v>
       </c>
     </row>
@@ -13875,7 +13959,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13937,6 +14021,11 @@
         <v>121</v>
       </c>
     </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>40</v>
@@ -14279,83 +14368,68 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15">
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>18631</v>
-      </c>
-      <c r="E15">
-        <v>-0.1516363636363637</v>
-      </c>
-      <c r="F15">
-        <v>12903</v>
-      </c>
-      <c r="G15">
-        <v>12893</v>
-      </c>
-      <c r="H15">
-        <v>12893</v>
-      </c>
-      <c r="I15">
-        <v>12893</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>86.2</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>14.4</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>2010.419139500618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>22000</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D16">
-        <v>15721</v>
+        <v>18631</v>
       </c>
       <c r="E16">
-        <v>-0.2854090909090909</v>
+        <v>-0.1516363636363637</v>
       </c>
       <c r="F16">
-        <v>20692</v>
+        <v>12903</v>
       </c>
       <c r="G16">
-        <v>20664</v>
+        <v>12893</v>
       </c>
       <c r="H16">
-        <v>20724</v>
+        <v>12893</v>
       </c>
       <c r="I16">
-        <v>20724</v>
+        <v>12893</v>
       </c>
       <c r="J16">
-        <v>130.6</v>
+        <v>86.2</v>
       </c>
       <c r="K16">
-        <v>22</v>
+        <v>14.4</v>
       </c>
       <c r="L16">
-        <v>2046.423782396334</v>
+        <v>2010.419139500618</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>22000</v>
@@ -14364,127 +14438,127 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>17796</v>
+        <v>15721</v>
       </c>
       <c r="E17">
-        <v>-0.1910909090909091</v>
+        <v>-0.2854090909090909</v>
       </c>
       <c r="F17">
-        <v>17118</v>
+        <v>20692</v>
       </c>
       <c r="G17">
-        <v>16270</v>
+        <v>20664</v>
       </c>
       <c r="H17">
-        <v>16250</v>
+        <v>20724</v>
       </c>
       <c r="I17">
-        <v>16250</v>
+        <v>20724</v>
       </c>
       <c r="J17">
-        <v>133.9</v>
+        <v>130.6</v>
       </c>
       <c r="K17">
-        <v>25.8</v>
+        <v>22</v>
       </c>
       <c r="L17">
-        <v>1656.272625524196</v>
+        <v>2046.423782396334</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6738</v>
+        <v>17796</v>
       </c>
       <c r="E18">
-        <v>-0.4385</v>
+        <v>-0.1910909090909091</v>
       </c>
       <c r="F18">
-        <v>7813</v>
+        <v>17118</v>
       </c>
       <c r="G18">
-        <v>7875</v>
+        <v>16270</v>
       </c>
       <c r="H18">
-        <v>7783</v>
+        <v>16250</v>
       </c>
       <c r="I18">
-        <v>7783</v>
+        <v>16250</v>
       </c>
       <c r="J18">
-        <v>61.3</v>
+        <v>133.9</v>
       </c>
       <c r="K18">
-        <v>10.2</v>
+        <v>25.8</v>
       </c>
       <c r="L18">
-        <v>1830.159316012689</v>
+        <v>1656.272625524196</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>6738</v>
+      </c>
+      <c r="E19">
+        <v>-0.4385</v>
+      </c>
+      <c r="F19">
+        <v>7813</v>
+      </c>
+      <c r="G19">
+        <v>7875</v>
+      </c>
+      <c r="H19">
+        <v>7783</v>
+      </c>
+      <c r="I19">
+        <v>7783</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>61.3</v>
       </c>
       <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
-        <v>97</v>
+        <v>10.2</v>
+      </c>
+      <c r="L19">
+        <v>1830.159316012689</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="B20">
-        <v>15600</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>11777.2</v>
-      </c>
-      <c r="E20">
-        <v>-0.2666590909090909</v>
-      </c>
-      <c r="F20">
-        <v>11724</v>
-      </c>
-      <c r="G20">
-        <v>11561</v>
-      </c>
-      <c r="H20">
-        <v>14412.5</v>
-      </c>
-      <c r="I20">
-        <v>14412.5</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>82.46000000000001</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>14.48</v>
+        <v>0</v>
       </c>
       <c r="L20" t="s">
         <v>97</v>
@@ -14492,536 +14566,536 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B21">
-        <v>17666.66666666667</v>
+        <v>13000</v>
       </c>
       <c r="C21">
-        <v>1.166666666666667</v>
+        <v>5.5</v>
       </c>
       <c r="D21">
-        <v>15164.16666666667</v>
+        <v>9814.333333333334</v>
       </c>
       <c r="E21">
-        <v>-0.1782491582491582</v>
+        <v>-0.2666590909090909</v>
       </c>
       <c r="F21">
-        <v>15050</v>
+        <v>11724</v>
       </c>
       <c r="G21">
-        <v>15156.66666666667</v>
+        <v>11561</v>
       </c>
       <c r="H21">
-        <v>15254.83333333333</v>
+        <v>14412.5</v>
       </c>
       <c r="I21">
-        <v>15254.83333333333</v>
+        <v>14412.5</v>
       </c>
       <c r="J21">
-        <v>109.3</v>
+        <v>68.71666666666667</v>
       </c>
       <c r="K21">
-        <v>22</v>
+        <v>12.06666666666667</v>
       </c>
       <c r="L21">
-        <v>1737.899446472746</v>
+        <v>1844.285241311073</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B22">
-        <v>-0.1169811320754718</v>
+        <v>17666.66666666667</v>
       </c>
       <c r="C22">
-        <v>4.657142857142857</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D22">
-        <v>-0.2233532999945045</v>
+        <v>15164.16666666667</v>
       </c>
       <c r="E22">
-        <v>0.495990744238761</v>
+        <v>-0.1782491582491582</v>
       </c>
       <c r="F22">
-        <v>-0.2209966777408637</v>
+        <v>15050</v>
       </c>
       <c r="G22">
-        <v>-0.2372333406641741</v>
+        <v>15156.66666666667</v>
       </c>
       <c r="H22">
-        <v>-0.05521747205803629</v>
+        <v>15254.83333333333</v>
       </c>
       <c r="I22">
-        <v>-0.05521747205803629</v>
+        <v>15254.83333333333</v>
       </c>
       <c r="J22">
-        <v>-0.245562671546203</v>
+        <v>109.3</v>
       </c>
       <c r="K22">
-        <v>-0.3418181818181818</v>
-      </c>
-      <c r="L22" t="s">
-        <v>97</v>
+        <v>22</v>
+      </c>
+      <c r="L22">
+        <v>1737.899446472746</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="B23">
-        <v>22000</v>
+        <v>-0.2641509433962265</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>3.714285714285714</v>
       </c>
       <c r="D23">
-        <v>14715</v>
+        <v>-0.3527944166620871</v>
       </c>
       <c r="E23">
-        <v>-0.3311363636363637</v>
+        <v>0.495990744238761</v>
       </c>
       <c r="F23">
-        <v>14618</v>
+        <v>-0.2209966777408637</v>
       </c>
       <c r="G23">
-        <v>14393</v>
+        <v>-0.2372333406641741</v>
       </c>
       <c r="H23">
-        <v>14373</v>
+        <v>-0.05521747205803629</v>
       </c>
       <c r="I23">
-        <v>14373</v>
+        <v>-0.05521747205803629</v>
       </c>
       <c r="J23">
-        <v>91.70000000000002</v>
+        <v>-0.3713022262885025</v>
       </c>
       <c r="K23">
-        <v>15.9</v>
+        <v>-0.4515151515151514</v>
       </c>
       <c r="L23">
-        <v>2051.216225648787</v>
+        <v>0.06121516124206638</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24">
         <v>22000</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>19683</v>
+        <v>14715</v>
       </c>
       <c r="E24">
-        <v>-0.1052727272727273</v>
+        <v>-0.3311363636363637</v>
       </c>
       <c r="F24">
-        <v>18562</v>
+        <v>14618</v>
       </c>
       <c r="G24">
-        <v>19068</v>
+        <v>14393</v>
       </c>
       <c r="H24">
-        <v>18726</v>
+        <v>14373</v>
       </c>
       <c r="I24">
-        <v>18726</v>
+        <v>14373</v>
       </c>
       <c r="J24">
-        <v>125.8</v>
+        <v>91.70000000000002</v>
       </c>
       <c r="K24">
-        <v>33.7</v>
+        <v>15.9</v>
       </c>
       <c r="L24">
-        <v>1806.580737007979</v>
+        <v>2051.216225648787</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25">
         <v>22000</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>21766</v>
+        <v>19683</v>
       </c>
       <c r="E25">
-        <v>-0.01045454545454549</v>
+        <v>-0.1052727272727273</v>
       </c>
       <c r="F25">
-        <v>16031</v>
+        <v>18562</v>
       </c>
       <c r="G25">
-        <v>15953</v>
+        <v>19068</v>
       </c>
       <c r="H25">
-        <v>16565</v>
+        <v>18726</v>
       </c>
       <c r="I25">
-        <v>16565</v>
+        <v>18726</v>
       </c>
       <c r="J25">
-        <v>138.6</v>
+        <v>125.8</v>
       </c>
       <c r="K25">
-        <v>27.9</v>
+        <v>33.7</v>
       </c>
       <c r="L25">
-        <v>1569.988717033326</v>
+        <v>1806.580737007979</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26">
         <v>22000</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D26">
-        <v>21778</v>
+        <v>21766</v>
       </c>
       <c r="E26">
-        <v>-0.009545454545454524</v>
+        <v>-0.01045454545454549</v>
       </c>
       <c r="F26">
-        <v>18018</v>
+        <v>16031</v>
       </c>
       <c r="G26">
-        <v>18098</v>
+        <v>15953</v>
       </c>
       <c r="H26">
-        <v>17683</v>
+        <v>16565</v>
       </c>
       <c r="I26">
-        <v>17683</v>
+        <v>16565</v>
       </c>
       <c r="J26">
-        <v>146.5</v>
+        <v>138.6</v>
       </c>
       <c r="K26">
-        <v>22.3</v>
+        <v>27.9</v>
       </c>
       <c r="L26">
-        <v>1667.556063417815</v>
+        <v>1569.988717033326</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27">
         <v>22000</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D27">
-        <v>21852</v>
+        <v>21778</v>
       </c>
       <c r="E27">
-        <v>-0.006727272727272693</v>
+        <v>-0.009545454545454524</v>
       </c>
       <c r="F27">
-        <v>20967</v>
+        <v>18018</v>
       </c>
       <c r="G27">
-        <v>20655</v>
+        <v>18098</v>
       </c>
       <c r="H27">
-        <v>21194</v>
+        <v>17683</v>
       </c>
       <c r="I27">
-        <v>21194</v>
+        <v>17683</v>
       </c>
       <c r="J27">
-        <v>134.8</v>
+        <v>146.5</v>
       </c>
       <c r="K27">
-        <v>23.5</v>
+        <v>22.3</v>
       </c>
       <c r="L27">
-        <v>2009.186207920007</v>
+        <v>1667.556063417815</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>5910</v>
+        <v>21852</v>
       </c>
       <c r="E28">
-        <v>-0.507</v>
+        <v>-0.006727272727272693</v>
       </c>
       <c r="F28">
-        <v>16085</v>
+        <v>20967</v>
       </c>
       <c r="G28">
-        <v>15417</v>
+        <v>20655</v>
       </c>
       <c r="H28">
-        <v>15662</v>
+        <v>21194</v>
       </c>
       <c r="I28">
-        <v>15662</v>
+        <v>21194</v>
       </c>
       <c r="J28">
-        <v>142.5</v>
+        <v>134.8</v>
       </c>
       <c r="K28">
-        <v>24.7</v>
+        <v>23.5</v>
       </c>
       <c r="L28">
-        <v>1460.158910530713</v>
+        <v>2009.186207920007</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>236</v>
+        <v>5910</v>
+      </c>
+      <c r="E29">
+        <v>-0.507</v>
       </c>
       <c r="F29">
-        <v>705</v>
+        <v>16085</v>
       </c>
       <c r="G29">
-        <v>782</v>
+        <v>15417</v>
       </c>
       <c r="H29">
-        <v>578</v>
+        <v>15662</v>
       </c>
       <c r="I29">
-        <v>578</v>
+        <v>15662</v>
       </c>
       <c r="J29">
-        <v>0.1</v>
+        <v>142.5</v>
       </c>
       <c r="K29">
-        <v>0.9</v>
+        <v>24.7</v>
       </c>
       <c r="L29">
-        <v>13517.1737558673</v>
+        <v>1460.158910530713</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="B30">
-        <v>20333.33333333333</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>3.833333333333333</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>17617.33333333333</v>
-      </c>
-      <c r="E30">
-        <v>-0.1616893939393939</v>
+        <v>236</v>
       </c>
       <c r="F30">
-        <v>17380.16666666667</v>
+        <v>705</v>
       </c>
       <c r="G30">
-        <v>17264</v>
+        <v>782</v>
       </c>
       <c r="H30">
-        <v>17367.16666666667</v>
+        <v>578</v>
       </c>
       <c r="I30">
-        <v>17367.16666666667</v>
+        <v>578</v>
       </c>
       <c r="J30">
-        <v>129.9833333333333</v>
+        <v>0.1</v>
       </c>
       <c r="K30">
-        <v>24.66666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="L30">
-        <v>1712.300393956179</v>
+        <v>13517.1737558673</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B31">
-        <v>15600</v>
+        <v>20333.33333333333</v>
       </c>
       <c r="C31">
-        <v>6.6</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D31">
-        <v>11777.2</v>
+        <v>17617.33333333333</v>
       </c>
       <c r="E31">
-        <v>-0.2666590909090909</v>
+        <v>-0.1616893939393939</v>
       </c>
       <c r="F31">
-        <v>11724</v>
+        <v>17380.16666666667</v>
       </c>
       <c r="G31">
-        <v>11561</v>
+        <v>17264</v>
       </c>
       <c r="H31">
-        <v>14412.5</v>
+        <v>17367.16666666667</v>
       </c>
       <c r="I31">
-        <v>14412.5</v>
+        <v>17367.16666666667</v>
       </c>
       <c r="J31">
-        <v>82.46000000000001</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="K31">
-        <v>14.48</v>
-      </c>
-      <c r="L31" t="s">
-        <v>97</v>
+        <v>24.66666666666667</v>
+      </c>
+      <c r="L31">
+        <v>1712.300393956179</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B32">
-        <v>0.3034188034188035</v>
+        <v>13000</v>
       </c>
       <c r="C32">
-        <v>-0.4191919191919191</v>
+        <v>5.5</v>
       </c>
       <c r="D32">
-        <v>0.495884703777921</v>
+        <v>9814.333333333334</v>
       </c>
       <c r="E32">
-        <v>-0.393647546805307</v>
+        <v>-0.2666590909090909</v>
       </c>
       <c r="F32">
-        <v>0.4824434209029911</v>
+        <v>11724</v>
       </c>
       <c r="G32">
-        <v>0.4932964276446674</v>
+        <v>11561</v>
       </c>
       <c r="H32">
-        <v>0.2050072275224053</v>
+        <v>14412.5</v>
       </c>
       <c r="I32">
-        <v>0.2050072275224053</v>
+        <v>14412.5</v>
       </c>
       <c r="J32">
-        <v>0.5763198318376588</v>
+        <v>68.71666666666667</v>
       </c>
       <c r="K32">
-        <v>0.7034990791896869</v>
+        <v>12.06666666666667</v>
       </c>
       <c r="L32">
-        <v>-1</v>
+        <v>1844.285241311073</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="B33">
-        <v>22000</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>-0.303030303030303</v>
       </c>
       <c r="D33">
-        <v>8913</v>
+        <v>0.7950616445335053</v>
       </c>
       <c r="E33">
-        <v>-0.5947727272727272</v>
+        <v>-0.393647546805307</v>
       </c>
       <c r="F33">
-        <v>8827</v>
+        <v>0.4824434209029911</v>
       </c>
       <c r="G33">
-        <v>9698</v>
+        <v>0.4932964276446674</v>
       </c>
       <c r="H33">
-        <v>9504</v>
+        <v>0.2050072275224053</v>
       </c>
       <c r="I33">
-        <v>9504</v>
+        <v>0.2050072275224053</v>
       </c>
       <c r="J33">
-        <v>70.09999999999999</v>
+        <v>0.8915837982051906</v>
       </c>
       <c r="K33">
-        <v>18.8</v>
+        <v>1.044198895027624</v>
       </c>
       <c r="L33">
-        <v>1726.219816166476</v>
+        <v>-0.0715642268335176</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34">
         <v>22000</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>17019</v>
+        <v>8913</v>
       </c>
       <c r="E34">
-        <v>-0.2264090909090909</v>
+        <v>-0.5947727272727272</v>
       </c>
       <c r="F34">
-        <v>16288</v>
+        <v>8827</v>
       </c>
       <c r="G34">
-        <v>16283</v>
+        <v>9698</v>
       </c>
       <c r="H34">
-        <v>16204</v>
+        <v>9504</v>
       </c>
       <c r="I34">
-        <v>16204</v>
+        <v>9504</v>
       </c>
       <c r="J34">
-        <v>109.7</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="K34">
-        <v>20.2</v>
+        <v>18.8</v>
       </c>
       <c r="L34">
-        <v>1997.539646639047</v>
+        <v>1726.219816166476</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35">
         <v>22000</v>
@@ -15030,635 +15104,673 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>10307</v>
+        <v>17019</v>
       </c>
       <c r="E35">
-        <v>-0.5315</v>
+        <v>-0.2264090909090909</v>
       </c>
       <c r="F35">
-        <v>10655</v>
+        <v>16288</v>
       </c>
       <c r="G35">
-        <v>10586</v>
+        <v>16283</v>
       </c>
       <c r="H35">
-        <v>10503</v>
+        <v>16204</v>
       </c>
       <c r="I35">
-        <v>10503</v>
+        <v>16204</v>
       </c>
       <c r="J35">
-        <v>86.7</v>
+        <v>109.7</v>
       </c>
       <c r="K35">
-        <v>16</v>
+        <v>20.2</v>
       </c>
       <c r="L35">
-        <v>1679.181468219341</v>
+        <v>1997.539646639047</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36">
         <v>22000</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>18393</v>
+        <v>10307</v>
       </c>
       <c r="E36">
-        <v>-0.1635</v>
+        <v>-0.5315</v>
       </c>
       <c r="F36">
-        <v>18255</v>
+        <v>10655</v>
       </c>
       <c r="G36">
-        <v>18128</v>
+        <v>10586</v>
       </c>
       <c r="H36">
-        <v>18176</v>
+        <v>10503</v>
       </c>
       <c r="I36">
-        <v>18176</v>
+        <v>10503</v>
       </c>
       <c r="J36">
-        <v>119.2</v>
+        <v>86.7</v>
       </c>
       <c r="K36">
-        <v>30.4</v>
+        <v>16</v>
       </c>
       <c r="L36">
-        <v>1835.545183152243</v>
+        <v>1679.181468219341</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B37">
         <v>22000</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D37">
-        <v>18125</v>
+        <v>18393</v>
       </c>
       <c r="E37">
-        <v>-0.1761363636363636</v>
+        <v>-0.1635</v>
       </c>
       <c r="F37">
-        <v>8845</v>
+        <v>18255</v>
       </c>
       <c r="G37">
-        <v>8414</v>
+        <v>18128</v>
       </c>
       <c r="H37">
-        <v>7855</v>
+        <v>18176</v>
       </c>
       <c r="I37">
-        <v>7855</v>
+        <v>18176</v>
       </c>
       <c r="J37">
-        <v>71.5</v>
+        <v>119.2</v>
       </c>
       <c r="K37">
-        <v>14.1</v>
+        <v>30.4</v>
       </c>
       <c r="L37">
-        <v>1802.897325233633</v>
+        <v>1835.545183152243</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B38">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>12439</v>
+        <v>18125</v>
       </c>
       <c r="E38">
-        <v>0.03658333333333341</v>
+        <v>-0.1761363636363636</v>
       </c>
       <c r="F38">
-        <v>16113</v>
+        <v>8845</v>
       </c>
       <c r="G38">
-        <v>15719</v>
+        <v>8414</v>
       </c>
       <c r="H38">
-        <v>15626</v>
+        <v>7855</v>
       </c>
       <c r="I38">
-        <v>15626</v>
+        <v>7855</v>
       </c>
       <c r="J38">
-        <v>111.1</v>
+        <v>71.5</v>
       </c>
       <c r="K38">
-        <v>17</v>
+        <v>14.1</v>
       </c>
       <c r="L38">
-        <v>1911.481712788561</v>
+        <v>1802.897325233633</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>390</v>
+        <v>12439</v>
+      </c>
+      <c r="E39">
+        <v>0.03658333333333341</v>
       </c>
       <c r="F39">
-        <v>5588</v>
+        <v>16113</v>
       </c>
       <c r="G39">
-        <v>5125</v>
+        <v>15719</v>
       </c>
       <c r="H39">
-        <v>6053</v>
+        <v>15626</v>
       </c>
       <c r="I39">
-        <v>6053</v>
+        <v>15626</v>
       </c>
       <c r="J39">
-        <v>57.5</v>
+        <v>111.1</v>
       </c>
       <c r="K39">
-        <v>8.6</v>
+        <v>17</v>
       </c>
       <c r="L39">
-        <v>1276.30750247277</v>
+        <v>1911.481712788561</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="B40">
-        <v>20333.33333333333</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>14199.33333333333</v>
-      </c>
-      <c r="E40">
-        <v>-0.2759558080808081</v>
+        <v>390</v>
       </c>
       <c r="F40">
-        <v>13163.83333333333</v>
+        <v>5588</v>
       </c>
       <c r="G40">
-        <v>13138</v>
+        <v>5125</v>
       </c>
       <c r="H40">
-        <v>12978</v>
+        <v>6053</v>
       </c>
       <c r="I40">
-        <v>12978</v>
+        <v>6053</v>
       </c>
       <c r="J40">
-        <v>94.71666666666665</v>
+        <v>57.5</v>
       </c>
       <c r="K40">
-        <v>19.41666666666667</v>
+        <v>8.6</v>
       </c>
       <c r="L40">
-        <v>1849.974740391479</v>
+        <v>1276.30750247277</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B41">
         <v>20333.33333333333</v>
       </c>
       <c r="C41">
-        <v>3.833333333333333</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>17617.33333333333</v>
+        <v>14199.33333333333</v>
       </c>
       <c r="E41">
-        <v>-0.1616893939393939</v>
+        <v>-0.2759558080808081</v>
       </c>
       <c r="F41">
-        <v>17380.16666666667</v>
+        <v>13163.83333333333</v>
       </c>
       <c r="G41">
-        <v>17264</v>
+        <v>13138</v>
       </c>
       <c r="H41">
-        <v>17367.16666666667</v>
+        <v>12978</v>
       </c>
       <c r="I41">
-        <v>17367.16666666667</v>
+        <v>12978</v>
       </c>
       <c r="J41">
-        <v>129.9833333333333</v>
+        <v>94.71666666666665</v>
       </c>
       <c r="K41">
-        <v>24.66666666666667</v>
+        <v>19.41666666666667</v>
       </c>
       <c r="L41">
-        <v>1712.300393956179</v>
+        <v>1849.974740391479</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>20333.33333333333</v>
       </c>
       <c r="C42">
-        <v>-0.4782608695652174</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D42">
-        <v>-0.1940134715810186</v>
+        <v>17617.33333333333</v>
       </c>
       <c r="E42">
-        <v>0.7067032126067874</v>
+        <v>-0.1616893939393939</v>
       </c>
       <c r="F42">
-        <v>-0.2425945282457974</v>
+        <v>17380.16666666667</v>
       </c>
       <c r="G42">
-        <v>-0.2389944392956441</v>
+        <v>17264</v>
       </c>
       <c r="H42">
-        <v>-0.252727848526434</v>
+        <v>17367.16666666667</v>
       </c>
       <c r="I42">
-        <v>-0.252727848526434</v>
+        <v>17367.16666666667</v>
       </c>
       <c r="J42">
-        <v>-0.2713168354917299</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="K42">
-        <v>-0.2128378378378378</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="L42">
-        <v>0.0804031505927596</v>
+        <v>1712.300393956179</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="B43">
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>-0.4782608695652174</v>
       </c>
       <c r="D43">
-        <v>5014</v>
+        <v>-0.1940134715810186</v>
       </c>
       <c r="E43">
-        <v>-0.772090909090909</v>
+        <v>0.7067032126067874</v>
       </c>
       <c r="F43">
-        <v>4926</v>
+        <v>-0.2425945282457974</v>
       </c>
       <c r="G43">
-        <v>5140</v>
+        <v>-0.2389944392956441</v>
       </c>
       <c r="H43">
-        <v>5158</v>
+        <v>-0.252727848526434</v>
       </c>
       <c r="I43">
-        <v>5158</v>
+        <v>-0.252727848526434</v>
       </c>
       <c r="J43">
-        <v>34.1</v>
+        <v>-0.2713168354917299</v>
       </c>
       <c r="K43">
-        <v>12</v>
+        <v>-0.2128378378378378</v>
       </c>
       <c r="L43">
-        <v>1767.632695592775</v>
+        <v>0.0804031505927596</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B44">
         <v>22000</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>21430</v>
+        <v>5014</v>
       </c>
       <c r="E44">
-        <v>-0.02577272727272728</v>
+        <v>-0.772090909090909</v>
       </c>
       <c r="F44">
-        <v>19241</v>
+        <v>4926</v>
       </c>
       <c r="G44">
-        <v>19097</v>
+        <v>5140</v>
       </c>
       <c r="H44">
-        <v>18776</v>
+        <v>5158</v>
       </c>
       <c r="I44">
-        <v>18776</v>
+        <v>5158</v>
       </c>
       <c r="J44">
-        <v>114.4</v>
+        <v>34.1</v>
       </c>
       <c r="K44">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="L44">
-        <v>2065.740821976261</v>
+        <v>1767.632695592775</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B45">
         <v>22000</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>19079</v>
+        <v>21430</v>
       </c>
       <c r="E45">
-        <v>-0.1326818181818182</v>
+        <v>-0.02577272727272728</v>
       </c>
       <c r="F45">
-        <v>16733</v>
+        <v>19241</v>
       </c>
       <c r="G45">
-        <v>16702</v>
+        <v>19097</v>
       </c>
       <c r="H45">
-        <v>16283</v>
+        <v>18776</v>
       </c>
       <c r="I45">
-        <v>16283</v>
+        <v>18776</v>
       </c>
       <c r="J45">
-        <v>124.4</v>
+        <v>114.4</v>
       </c>
       <c r="K45">
-        <v>33.2</v>
+        <v>26</v>
       </c>
       <c r="L45">
-        <v>1716.223526158104</v>
+        <v>2065.740821976261</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B46">
         <v>22000</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D46">
-        <v>20948</v>
+        <v>19079</v>
       </c>
       <c r="E46">
-        <v>-0.04749999999999999</v>
+        <v>-0.1326818181818182</v>
       </c>
       <c r="F46">
-        <v>16614</v>
+        <v>16733</v>
       </c>
       <c r="G46">
-        <v>18091</v>
+        <v>16702</v>
       </c>
       <c r="H46">
-        <v>18572</v>
+        <v>16283</v>
       </c>
       <c r="I46">
-        <v>18572</v>
+        <v>16283</v>
       </c>
       <c r="J46">
-        <v>138.1</v>
+        <v>124.4</v>
       </c>
       <c r="K46">
-        <v>32.2</v>
+        <v>33.2</v>
       </c>
       <c r="L46">
-        <v>1727.798150377256</v>
+        <v>1716.223526158104</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B47">
         <v>22000</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D47">
-        <v>21821</v>
+        <v>20948</v>
       </c>
       <c r="E47">
-        <v>-0.008136363636363608</v>
+        <v>-0.04749999999999999</v>
       </c>
       <c r="F47">
-        <v>18433</v>
+        <v>16614</v>
       </c>
       <c r="G47">
-        <v>17566</v>
+        <v>18091</v>
       </c>
       <c r="H47">
-        <v>17355</v>
+        <v>18572</v>
       </c>
       <c r="I47">
-        <v>17355</v>
+        <v>18572</v>
       </c>
       <c r="J47">
-        <v>135.8</v>
+        <v>138.1</v>
       </c>
       <c r="K47">
-        <v>31</v>
+        <v>32.2</v>
       </c>
       <c r="L47">
-        <v>1651.670016916376</v>
+        <v>1727.798150377256</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B48">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>11252</v>
+        <v>21821</v>
       </c>
       <c r="E48">
-        <v>-0.06225000000000003</v>
+        <v>-0.008136363636363608</v>
       </c>
       <c r="F48">
-        <v>18781</v>
+        <v>18433</v>
       </c>
       <c r="G48">
-        <v>19644</v>
+        <v>17566</v>
       </c>
       <c r="H48">
-        <v>20288</v>
+        <v>17355</v>
       </c>
       <c r="I48">
-        <v>20288</v>
+        <v>17355</v>
       </c>
       <c r="J48">
-        <v>143.2</v>
+        <v>135.8</v>
       </c>
       <c r="K48">
-        <v>20.9</v>
+        <v>31</v>
       </c>
       <c r="L48">
-        <v>1853.045268244006</v>
+        <v>1651.670016916376</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="B49">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="C49">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>17658.4</v>
+        <v>11252</v>
       </c>
       <c r="E49">
-        <v>-0.1972363636363636</v>
+        <v>-0.06225000000000003</v>
       </c>
       <c r="F49">
-        <v>15189.4</v>
+        <v>18781</v>
       </c>
       <c r="G49">
-        <v>15319.2</v>
+        <v>19644</v>
       </c>
       <c r="H49">
-        <v>15228.8</v>
+        <v>20288</v>
       </c>
       <c r="I49">
-        <v>15228.8</v>
+        <v>20288</v>
       </c>
       <c r="J49">
-        <v>109.36</v>
+        <v>143.2</v>
       </c>
       <c r="K49">
-        <v>26.88</v>
+        <v>20.9</v>
       </c>
       <c r="L49">
-        <v>1744.171145179213</v>
+        <v>1853.045268244006</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B50">
-        <v>20333.33333333333</v>
+        <v>22000</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D50">
-        <v>14199.33333333333</v>
+        <v>17658.4</v>
       </c>
       <c r="E50">
-        <v>-0.2759558080808081</v>
+        <v>-0.1972363636363636</v>
       </c>
       <c r="F50">
-        <v>13163.83333333333</v>
+        <v>15189.4</v>
       </c>
       <c r="G50">
-        <v>13138</v>
+        <v>15319.2</v>
       </c>
       <c r="H50">
-        <v>12978</v>
+        <v>15228.8</v>
       </c>
       <c r="I50">
-        <v>12978</v>
+        <v>15228.8</v>
       </c>
       <c r="J50">
-        <v>94.71666666666665</v>
+        <v>109.36</v>
       </c>
       <c r="K50">
-        <v>19.41666666666667</v>
+        <v>26.88</v>
       </c>
       <c r="L50">
-        <v>1849.974740391479</v>
+        <v>1744.171145179213</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51">
+        <v>20333.33333333333</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>14199.33333333333</v>
+      </c>
+      <c r="E51">
+        <v>-0.2759558080808081</v>
+      </c>
+      <c r="F51">
+        <v>13163.83333333333</v>
+      </c>
+      <c r="G51">
+        <v>13138</v>
+      </c>
+      <c r="H51">
+        <v>12978</v>
+      </c>
+      <c r="I51">
+        <v>12978</v>
+      </c>
+      <c r="J51">
+        <v>94.71666666666665</v>
+      </c>
+      <c r="K51">
+        <v>19.41666666666667</v>
+      </c>
+      <c r="L51">
+        <v>1849.974740391479</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>0.08196721311475419</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <v>0.2</v>
       </c>
-      <c r="D51">
+      <c r="D52">
         <v>0.2436076811117893</v>
       </c>
-      <c r="E51">
+      <c r="E52">
         <v>-0.2852610531806348</v>
       </c>
-      <c r="F51">
+      <c r="F52">
         <v>0.1538736183735741</v>
       </c>
-      <c r="G51">
+      <c r="G52">
         <v>0.1660222256051149</v>
       </c>
-      <c r="H51">
+      <c r="H52">
         <v>0.1734319617814764</v>
       </c>
-      <c r="I51">
+      <c r="I52">
         <v>0.1734319617814764</v>
       </c>
-      <c r="J51">
+      <c r="J52">
         <v>0.1546014428998768</v>
       </c>
-      <c r="K51">
+      <c r="K52">
         <v>0.3843776824034335</v>
       </c>
-      <c r="L51">
+      <c r="L52">
         <v>-0.05719191343654562</v>
       </c>
     </row>
@@ -16625,6 +16737,9 @@
       <c r="I11">
         <v>2298.79732004732</v>
       </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
       <c r="K11">
         <v>2010.419139500618</v>
       </c>
@@ -17317,6 +17432,9 @@
       </c>
       <c r="I23">
         <v>0.3</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
       </c>
       <c r="K23">
         <v>100.6</v>

--- a/Output/IB metric.xlsx
+++ b/Output/IB metric.xlsx
@@ -1298,6 +1298,12 @@
       <c r="AA5">
         <v>5096</v>
       </c>
+      <c r="AB5">
+        <v>5158</v>
+      </c>
+      <c r="AC5">
+        <v>5158</v>
+      </c>
       <c r="AD5">
         <v>106</v>
       </c>
@@ -1357,6 +1363,42 @@
       </c>
       <c r="AW5">
         <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>91</v>
+      </c>
+      <c r="AY5">
+        <v>1</v>
+      </c>
+      <c r="AZ5">
+        <v>4217</v>
+      </c>
+      <c r="BA5">
+        <v>1</v>
+      </c>
+      <c r="BB5">
+        <v>91</v>
+      </c>
+      <c r="BC5">
+        <v>1</v>
+      </c>
+      <c r="BD5">
+        <v>4217</v>
+      </c>
+      <c r="BE5">
+        <v>1</v>
+      </c>
+      <c r="BF5">
+        <v>91</v>
+      </c>
+      <c r="BG5">
+        <v>1</v>
+      </c>
+      <c r="BH5">
+        <v>4217</v>
+      </c>
+      <c r="BI5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:61">
@@ -1441,6 +1483,12 @@
       <c r="AA6">
         <v>18788</v>
       </c>
+      <c r="AB6">
+        <v>18714</v>
+      </c>
+      <c r="AC6">
+        <v>18714</v>
+      </c>
       <c r="AD6">
         <v>295</v>
       </c>
@@ -1499,7 +1547,43 @@
         <v>386</v>
       </c>
       <c r="AW6">
+        <v>2828</v>
+      </c>
+      <c r="AX6">
+        <v>425</v>
+      </c>
+      <c r="AY6">
+        <v>1</v>
+      </c>
+      <c r="AZ6">
         <v>19276</v>
+      </c>
+      <c r="BA6">
+        <v>1</v>
+      </c>
+      <c r="BB6">
+        <v>425</v>
+      </c>
+      <c r="BC6">
+        <v>1</v>
+      </c>
+      <c r="BD6">
+        <v>19276</v>
+      </c>
+      <c r="BE6">
+        <v>1</v>
+      </c>
+      <c r="BF6">
+        <v>425</v>
+      </c>
+      <c r="BG6">
+        <v>1</v>
+      </c>
+      <c r="BH6">
+        <v>19276</v>
+      </c>
+      <c r="BI6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:61">
@@ -1584,6 +1668,12 @@
       <c r="AA7">
         <v>16271</v>
       </c>
+      <c r="AB7">
+        <v>16283</v>
+      </c>
+      <c r="AC7">
+        <v>16283</v>
+      </c>
       <c r="AD7">
         <v>252</v>
       </c>
@@ -1642,7 +1732,43 @@
         <v>1373</v>
       </c>
       <c r="AW7">
-        <v>35934</v>
+        <v>4477</v>
+      </c>
+      <c r="AX7">
+        <v>425</v>
+      </c>
+      <c r="AY7">
+        <v>0.9953161592505855</v>
+      </c>
+      <c r="AZ7">
+        <v>16352</v>
+      </c>
+      <c r="BA7">
+        <v>0.9816304478328731</v>
+      </c>
+      <c r="BB7">
+        <v>425</v>
+      </c>
+      <c r="BC7">
+        <v>0.9953161592505855</v>
+      </c>
+      <c r="BD7">
+        <v>16352</v>
+      </c>
+      <c r="BE7">
+        <v>0.9816304478328731</v>
+      </c>
+      <c r="BF7">
+        <v>427</v>
+      </c>
+      <c r="BG7">
+        <v>1</v>
+      </c>
+      <c r="BH7">
+        <v>16658</v>
+      </c>
+      <c r="BI7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:61">
@@ -1727,6 +1853,12 @@
       <c r="AA8">
         <v>17617</v>
       </c>
+      <c r="AB8">
+        <v>17692</v>
+      </c>
+      <c r="AC8">
+        <v>17692</v>
+      </c>
       <c r="AD8">
         <v>272</v>
       </c>
@@ -1785,7 +1917,43 @@
         <v>19</v>
       </c>
       <c r="AW8">
-        <v>55780</v>
+        <v>8010</v>
+      </c>
+      <c r="AX8">
+        <v>508</v>
+      </c>
+      <c r="AY8">
+        <v>1</v>
+      </c>
+      <c r="AZ8">
+        <v>19846</v>
+      </c>
+      <c r="BA8">
+        <v>1</v>
+      </c>
+      <c r="BB8">
+        <v>508</v>
+      </c>
+      <c r="BC8">
+        <v>1</v>
+      </c>
+      <c r="BD8">
+        <v>19846</v>
+      </c>
+      <c r="BE8">
+        <v>1</v>
+      </c>
+      <c r="BF8">
+        <v>508</v>
+      </c>
+      <c r="BG8">
+        <v>1</v>
+      </c>
+      <c r="BH8">
+        <v>19846</v>
+      </c>
+      <c r="BI8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:61">
@@ -1870,6 +2038,12 @@
       <c r="AA9">
         <v>17566</v>
       </c>
+      <c r="AB9">
+        <v>17355</v>
+      </c>
+      <c r="AC9">
+        <v>17355</v>
+      </c>
       <c r="AD9">
         <v>149</v>
       </c>
@@ -1928,7 +2102,43 @@
         <v>2807</v>
       </c>
       <c r="AW9">
-        <v>73906</v>
+        <v>9824</v>
+      </c>
+      <c r="AX9">
+        <v>358</v>
+      </c>
+      <c r="AY9">
+        <v>1</v>
+      </c>
+      <c r="AZ9">
+        <v>18126</v>
+      </c>
+      <c r="BA9">
+        <v>1</v>
+      </c>
+      <c r="BB9">
+        <v>358</v>
+      </c>
+      <c r="BC9">
+        <v>1</v>
+      </c>
+      <c r="BD9">
+        <v>18126</v>
+      </c>
+      <c r="BE9">
+        <v>1</v>
+      </c>
+      <c r="BF9">
+        <v>358</v>
+      </c>
+      <c r="BG9">
+        <v>1</v>
+      </c>
+      <c r="BH9">
+        <v>18126</v>
+      </c>
+      <c r="BI9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:61">
@@ -2013,6 +2223,12 @@
       <c r="AA10">
         <v>19644</v>
       </c>
+      <c r="AB10">
+        <v>20175</v>
+      </c>
+      <c r="AC10">
+        <v>20175</v>
+      </c>
       <c r="AD10">
         <v>217</v>
       </c>
@@ -2071,7 +2287,43 @@
         <v>818</v>
       </c>
       <c r="AW10">
-        <v>84510</v>
+        <v>3775</v>
+      </c>
+      <c r="AX10">
+        <v>271</v>
+      </c>
+      <c r="AY10">
+        <v>1</v>
+      </c>
+      <c r="AZ10">
+        <v>10604</v>
+      </c>
+      <c r="BA10">
+        <v>1</v>
+      </c>
+      <c r="BB10">
+        <v>271</v>
+      </c>
+      <c r="BC10">
+        <v>1</v>
+      </c>
+      <c r="BD10">
+        <v>10604</v>
+      </c>
+      <c r="BE10">
+        <v>1</v>
+      </c>
+      <c r="BF10">
+        <v>271</v>
+      </c>
+      <c r="BG10">
+        <v>1</v>
+      </c>
+      <c r="BH10">
+        <v>10604</v>
+      </c>
+      <c r="BI10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:61">
@@ -2147,6 +2399,12 @@
       <c r="AA11">
         <v>4842</v>
       </c>
+      <c r="AB11">
+        <v>4833</v>
+      </c>
+      <c r="AC11">
+        <v>4833</v>
+      </c>
       <c r="AD11">
         <v>6</v>
       </c>
@@ -2205,7 +2463,43 @@
         <v>5</v>
       </c>
       <c r="AW11">
-        <v>84813</v>
+        <v>66</v>
+      </c>
+      <c r="AX11">
+        <v>3</v>
+      </c>
+      <c r="AY11">
+        <v>0.75</v>
+      </c>
+      <c r="AZ11">
+        <v>300</v>
+      </c>
+      <c r="BA11">
+        <v>0.9900990099009901</v>
+      </c>
+      <c r="BB11">
+        <v>3</v>
+      </c>
+      <c r="BC11">
+        <v>0.75</v>
+      </c>
+      <c r="BD11">
+        <v>300</v>
+      </c>
+      <c r="BE11">
+        <v>0.9900990099009901</v>
+      </c>
+      <c r="BF11">
+        <v>4</v>
+      </c>
+      <c r="BG11">
+        <v>1</v>
+      </c>
+      <c r="BH11">
+        <v>303</v>
+      </c>
+      <c r="BI11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:61">
@@ -2281,6 +2575,12 @@
       <c r="AA12">
         <v>2128</v>
       </c>
+      <c r="AB12">
+        <v>2128</v>
+      </c>
+      <c r="AC12">
+        <v>2128</v>
+      </c>
       <c r="AD12">
         <v>30</v>
       </c>
@@ -2328,6 +2628,42 @@
       </c>
       <c r="AW12">
         <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>30</v>
+      </c>
+      <c r="AY12">
+        <v>1</v>
+      </c>
+      <c r="AZ12">
+        <v>2119</v>
+      </c>
+      <c r="BA12">
+        <v>1</v>
+      </c>
+      <c r="BB12">
+        <v>30</v>
+      </c>
+      <c r="BC12">
+        <v>1</v>
+      </c>
+      <c r="BD12">
+        <v>2119</v>
+      </c>
+      <c r="BE12">
+        <v>1</v>
+      </c>
+      <c r="BF12">
+        <v>30</v>
+      </c>
+      <c r="BG12">
+        <v>1</v>
+      </c>
+      <c r="BH12">
+        <v>2119</v>
+      </c>
+      <c r="BI12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:61">
@@ -2412,6 +2748,12 @@
       <c r="AA13">
         <v>15742</v>
       </c>
+      <c r="AB13">
+        <v>15550</v>
+      </c>
+      <c r="AC13">
+        <v>15550</v>
+      </c>
       <c r="AD13">
         <v>519</v>
       </c>
@@ -2471,6 +2813,42 @@
       </c>
       <c r="AW13">
         <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>494</v>
+      </c>
+      <c r="AY13">
+        <v>1</v>
+      </c>
+      <c r="AZ13">
+        <v>14646</v>
+      </c>
+      <c r="BA13">
+        <v>1</v>
+      </c>
+      <c r="BB13">
+        <v>494</v>
+      </c>
+      <c r="BC13">
+        <v>1</v>
+      </c>
+      <c r="BD13">
+        <v>14646</v>
+      </c>
+      <c r="BE13">
+        <v>1</v>
+      </c>
+      <c r="BF13">
+        <v>494</v>
+      </c>
+      <c r="BG13">
+        <v>1</v>
+      </c>
+      <c r="BH13">
+        <v>14646</v>
+      </c>
+      <c r="BI13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:61">
@@ -2555,6 +2933,12 @@
       <c r="AA14">
         <v>14655</v>
       </c>
+      <c r="AB14">
+        <v>14655</v>
+      </c>
+      <c r="AC14">
+        <v>14655</v>
+      </c>
       <c r="AD14">
         <v>482</v>
       </c>
@@ -2614,6 +2998,42 @@
       </c>
       <c r="AW14">
         <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>456</v>
+      </c>
+      <c r="AY14">
+        <v>1</v>
+      </c>
+      <c r="AZ14">
+        <v>14149</v>
+      </c>
+      <c r="BA14">
+        <v>1</v>
+      </c>
+      <c r="BB14">
+        <v>456</v>
+      </c>
+      <c r="BC14">
+        <v>1</v>
+      </c>
+      <c r="BD14">
+        <v>14149</v>
+      </c>
+      <c r="BE14">
+        <v>1</v>
+      </c>
+      <c r="BF14">
+        <v>456</v>
+      </c>
+      <c r="BG14">
+        <v>1</v>
+      </c>
+      <c r="BH14">
+        <v>14149</v>
+      </c>
+      <c r="BI14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:61">
@@ -2698,6 +3118,12 @@
       <c r="AA15">
         <v>9414</v>
       </c>
+      <c r="AB15">
+        <v>7668</v>
+      </c>
+      <c r="AC15">
+        <v>7668</v>
+      </c>
       <c r="AD15">
         <v>223</v>
       </c>
@@ -2756,7 +3182,43 @@
         <v>618</v>
       </c>
       <c r="AW15">
+        <v>3065</v>
+      </c>
+      <c r="AX15">
+        <v>462</v>
+      </c>
+      <c r="AY15">
+        <v>1</v>
+      </c>
+      <c r="AZ15">
         <v>9141</v>
+      </c>
+      <c r="BA15">
+        <v>1</v>
+      </c>
+      <c r="BB15">
+        <v>462</v>
+      </c>
+      <c r="BC15">
+        <v>1</v>
+      </c>
+      <c r="BD15">
+        <v>9141</v>
+      </c>
+      <c r="BE15">
+        <v>1</v>
+      </c>
+      <c r="BF15">
+        <v>462</v>
+      </c>
+      <c r="BG15">
+        <v>1</v>
+      </c>
+      <c r="BH15">
+        <v>9141</v>
+      </c>
+      <c r="BI15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:61">
@@ -2841,6 +3303,12 @@
       <c r="AA16">
         <v>15716</v>
       </c>
+      <c r="AB16">
+        <v>16742</v>
+      </c>
+      <c r="AC16">
+        <v>16742</v>
+      </c>
       <c r="AD16">
         <v>311</v>
       </c>
@@ -2899,10 +3367,46 @@
         <v>1843</v>
       </c>
       <c r="AW16">
-        <v>24970</v>
+        <v>2996</v>
+      </c>
+      <c r="AX16">
+        <v>423</v>
+      </c>
+      <c r="AY16">
+        <v>1</v>
+      </c>
+      <c r="AZ16">
+        <v>15829</v>
+      </c>
+      <c r="BA16">
+        <v>1</v>
+      </c>
+      <c r="BB16">
+        <v>423</v>
+      </c>
+      <c r="BC16">
+        <v>1</v>
+      </c>
+      <c r="BD16">
+        <v>15829</v>
+      </c>
+      <c r="BE16">
+        <v>1</v>
+      </c>
+      <c r="BF16">
+        <v>423</v>
+      </c>
+      <c r="BG16">
+        <v>1</v>
+      </c>
+      <c r="BH16">
+        <v>15829</v>
+      </c>
+      <c r="BI16">
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:49">
+    <row r="17" spans="1:61">
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
@@ -2984,6 +3488,12 @@
       <c r="AA17">
         <v>15979</v>
       </c>
+      <c r="AB17">
+        <v>17195</v>
+      </c>
+      <c r="AC17">
+        <v>17195</v>
+      </c>
       <c r="AD17">
         <v>251</v>
       </c>
@@ -3030,10 +3540,46 @@
         <v>0</v>
       </c>
       <c r="AW17">
-        <v>38700</v>
+        <v>1073</v>
+      </c>
+      <c r="AX17">
+        <v>274</v>
+      </c>
+      <c r="AY17">
+        <v>1</v>
+      </c>
+      <c r="AZ17">
+        <v>13730</v>
+      </c>
+      <c r="BA17">
+        <v>1</v>
+      </c>
+      <c r="BB17">
+        <v>274</v>
+      </c>
+      <c r="BC17">
+        <v>1</v>
+      </c>
+      <c r="BD17">
+        <v>13730</v>
+      </c>
+      <c r="BE17">
+        <v>1</v>
+      </c>
+      <c r="BF17">
+        <v>274</v>
+      </c>
+      <c r="BG17">
+        <v>1</v>
+      </c>
+      <c r="BH17">
+        <v>13730</v>
+      </c>
+      <c r="BI17">
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:49">
+    <row r="18" spans="1:61">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -3076,6 +3622,12 @@
       <c r="AA18">
         <v>1059</v>
       </c>
+      <c r="AB18">
+        <v>1054</v>
+      </c>
+      <c r="AC18">
+        <v>1054</v>
+      </c>
       <c r="AT18">
         <v>0</v>
       </c>
@@ -3089,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:49">
+    <row r="19" spans="1:61">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
@@ -3162,6 +3714,12 @@
       <c r="AA19">
         <v>13683</v>
       </c>
+      <c r="AB19">
+        <v>13206</v>
+      </c>
+      <c r="AC19">
+        <v>13206</v>
+      </c>
       <c r="AD19">
         <v>238</v>
       </c>
@@ -3220,10 +3778,46 @@
         <v>356</v>
       </c>
       <c r="AW19">
+        <v>150</v>
+      </c>
+      <c r="AX19">
+        <v>230</v>
+      </c>
+      <c r="AY19">
+        <v>0.9913793103448276</v>
+      </c>
+      <c r="AZ19">
+        <v>10508</v>
+      </c>
+      <c r="BA19">
+        <v>0.9977212305355109</v>
+      </c>
+      <c r="BB19">
+        <v>230</v>
+      </c>
+      <c r="BC19">
+        <v>0.9913793103448276</v>
+      </c>
+      <c r="BD19">
+        <v>10508</v>
+      </c>
+      <c r="BE19">
+        <v>0.9977212305355109</v>
+      </c>
+      <c r="BF19">
+        <v>232</v>
+      </c>
+      <c r="BG19">
+        <v>1</v>
+      </c>
+      <c r="BH19">
         <v>10532</v>
       </c>
+      <c r="BI19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:49">
+    <row r="20" spans="1:61">
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
@@ -3305,6 +3899,12 @@
       <c r="AA20">
         <v>16451</v>
       </c>
+      <c r="AB20">
+        <v>16451</v>
+      </c>
+      <c r="AC20">
+        <v>16451</v>
+      </c>
       <c r="AD20">
         <v>269</v>
       </c>
@@ -3363,10 +3963,46 @@
         <v>235</v>
       </c>
       <c r="AW20">
-        <v>30209</v>
+        <v>4395</v>
+      </c>
+      <c r="AX20">
+        <v>439</v>
+      </c>
+      <c r="AY20">
+        <v>0.9954648526077098</v>
+      </c>
+      <c r="AZ20">
+        <v>19557</v>
+      </c>
+      <c r="BA20">
+        <v>0.9939015093764293</v>
+      </c>
+      <c r="BB20">
+        <v>439</v>
+      </c>
+      <c r="BC20">
+        <v>0.9954648526077098</v>
+      </c>
+      <c r="BD20">
+        <v>19557</v>
+      </c>
+      <c r="BE20">
+        <v>0.9939015093764293</v>
+      </c>
+      <c r="BF20">
+        <v>439</v>
+      </c>
+      <c r="BG20">
+        <v>0.9954648526077098</v>
+      </c>
+      <c r="BH20">
+        <v>19557</v>
+      </c>
+      <c r="BI20">
+        <v>0.9939015093764293</v>
       </c>
     </row>
-    <row r="21" spans="1:49">
+    <row r="21" spans="1:61">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -3448,6 +4084,12 @@
       <c r="AA21">
         <v>15598</v>
       </c>
+      <c r="AB21">
+        <v>15358</v>
+      </c>
+      <c r="AC21">
+        <v>15358</v>
+      </c>
       <c r="AD21">
         <v>262</v>
       </c>
@@ -3506,10 +4148,46 @@
         <v>365</v>
       </c>
       <c r="AW21">
-        <v>47501</v>
+        <v>7131</v>
+      </c>
+      <c r="AX21">
+        <v>551</v>
+      </c>
+      <c r="AY21">
+        <v>0.9910071942446043</v>
+      </c>
+      <c r="AZ21">
+        <v>15792</v>
+      </c>
+      <c r="BA21">
+        <v>0.9132546842470507</v>
+      </c>
+      <c r="BB21">
+        <v>551</v>
+      </c>
+      <c r="BC21">
+        <v>0.9910071942446043</v>
+      </c>
+      <c r="BD21">
+        <v>15792</v>
+      </c>
+      <c r="BE21">
+        <v>0.9132546842470507</v>
+      </c>
+      <c r="BF21">
+        <v>555</v>
+      </c>
+      <c r="BG21">
+        <v>0.9982014388489209</v>
+      </c>
+      <c r="BH21">
+        <v>16842</v>
+      </c>
+      <c r="BI21">
+        <v>0.9739764052741152</v>
       </c>
     </row>
-    <row r="22" spans="1:49">
+    <row r="22" spans="1:61">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
@@ -3591,6 +4269,12 @@
       <c r="AA22">
         <v>15445</v>
       </c>
+      <c r="AB22">
+        <v>15201</v>
+      </c>
+      <c r="AC22">
+        <v>15201</v>
+      </c>
       <c r="AD22">
         <v>351</v>
       </c>
@@ -3649,10 +4333,46 @@
         <v>163</v>
       </c>
       <c r="AW22">
-        <v>62670</v>
+        <v>7464</v>
+      </c>
+      <c r="AX22">
+        <v>620</v>
+      </c>
+      <c r="AY22">
+        <v>1</v>
+      </c>
+      <c r="AZ22">
+        <v>15169</v>
+      </c>
+      <c r="BA22">
+        <v>1</v>
+      </c>
+      <c r="BB22">
+        <v>620</v>
+      </c>
+      <c r="BC22">
+        <v>1</v>
+      </c>
+      <c r="BD22">
+        <v>15169</v>
+      </c>
+      <c r="BE22">
+        <v>1</v>
+      </c>
+      <c r="BF22">
+        <v>620</v>
+      </c>
+      <c r="BG22">
+        <v>1</v>
+      </c>
+      <c r="BH22">
+        <v>15169</v>
+      </c>
+      <c r="BI22">
+        <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:49">
+    <row r="23" spans="1:61">
       <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
@@ -3734,6 +4454,12 @@
       <c r="AA23">
         <v>16284</v>
       </c>
+      <c r="AB23">
+        <v>16608</v>
+      </c>
+      <c r="AC23">
+        <v>16608</v>
+      </c>
       <c r="AD23">
         <v>296</v>
       </c>
@@ -3792,10 +4518,46 @@
         <v>3483</v>
       </c>
       <c r="AW23">
-        <v>80025</v>
+        <v>9584</v>
+      </c>
+      <c r="AX23">
+        <v>415</v>
+      </c>
+      <c r="AY23">
+        <v>1</v>
+      </c>
+      <c r="AZ23">
+        <v>17355</v>
+      </c>
+      <c r="BA23">
+        <v>1</v>
+      </c>
+      <c r="BB23">
+        <v>415</v>
+      </c>
+      <c r="BC23">
+        <v>1</v>
+      </c>
+      <c r="BD23">
+        <v>17355</v>
+      </c>
+      <c r="BE23">
+        <v>1</v>
+      </c>
+      <c r="BF23">
+        <v>415</v>
+      </c>
+      <c r="BG23">
+        <v>1</v>
+      </c>
+      <c r="BH23">
+        <v>17355</v>
+      </c>
+      <c r="BI23">
+        <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:49">
+    <row r="24" spans="1:61">
       <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
@@ -3877,6 +4639,12 @@
       <c r="AA24">
         <v>18173</v>
       </c>
+      <c r="AB24">
+        <v>18490</v>
+      </c>
+      <c r="AC24">
+        <v>18490</v>
+      </c>
       <c r="AD24">
         <v>282</v>
       </c>
@@ -3935,10 +4703,46 @@
         <v>1500</v>
       </c>
       <c r="AW24">
-        <v>90956</v>
+        <v>3204</v>
+      </c>
+      <c r="AX24">
+        <v>425</v>
+      </c>
+      <c r="AY24">
+        <v>1</v>
+      </c>
+      <c r="AZ24">
+        <v>10931</v>
+      </c>
+      <c r="BA24">
+        <v>1</v>
+      </c>
+      <c r="BB24">
+        <v>425</v>
+      </c>
+      <c r="BC24">
+        <v>1</v>
+      </c>
+      <c r="BD24">
+        <v>10931</v>
+      </c>
+      <c r="BE24">
+        <v>1</v>
+      </c>
+      <c r="BF24">
+        <v>425</v>
+      </c>
+      <c r="BG24">
+        <v>1</v>
+      </c>
+      <c r="BH24">
+        <v>10931</v>
+      </c>
+      <c r="BI24">
+        <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:49">
+    <row r="25" spans="1:61">
       <c r="A25" s="1" t="s">
         <v>60</v>
       </c>
@@ -4011,6 +4815,12 @@
       <c r="AA25">
         <v>5443</v>
       </c>
+      <c r="AB25">
+        <v>5548</v>
+      </c>
+      <c r="AC25">
+        <v>5548</v>
+      </c>
       <c r="AD25">
         <v>16</v>
       </c>
@@ -4059,8 +4869,44 @@
       <c r="AW25">
         <v>0</v>
       </c>
+      <c r="AX25">
+        <v>4</v>
+      </c>
+      <c r="AY25">
+        <v>1</v>
+      </c>
+      <c r="AZ25">
+        <v>52</v>
+      </c>
+      <c r="BA25">
+        <v>1</v>
+      </c>
+      <c r="BB25">
+        <v>4</v>
+      </c>
+      <c r="BC25">
+        <v>1</v>
+      </c>
+      <c r="BD25">
+        <v>52</v>
+      </c>
+      <c r="BE25">
+        <v>1</v>
+      </c>
+      <c r="BF25">
+        <v>4</v>
+      </c>
+      <c r="BG25">
+        <v>1</v>
+      </c>
+      <c r="BH25">
+        <v>52</v>
+      </c>
+      <c r="BI25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:49">
+    <row r="26" spans="1:61">
       <c r="A26" s="1" t="s">
         <v>61</v>
       </c>
@@ -4133,6 +4979,12 @@
       <c r="AA26">
         <v>17630</v>
       </c>
+      <c r="AB26">
+        <v>17475</v>
+      </c>
+      <c r="AC26">
+        <v>17475</v>
+      </c>
       <c r="AD26">
         <v>331</v>
       </c>
@@ -4193,8 +5045,44 @@
       <c r="AW26">
         <v>0</v>
       </c>
+      <c r="AX26">
+        <v>314</v>
+      </c>
+      <c r="AY26">
+        <v>1</v>
+      </c>
+      <c r="AZ26">
+        <v>15479</v>
+      </c>
+      <c r="BA26">
+        <v>1</v>
+      </c>
+      <c r="BB26">
+        <v>314</v>
+      </c>
+      <c r="BC26">
+        <v>1</v>
+      </c>
+      <c r="BD26">
+        <v>15479</v>
+      </c>
+      <c r="BE26">
+        <v>1</v>
+      </c>
+      <c r="BF26">
+        <v>314</v>
+      </c>
+      <c r="BG26">
+        <v>1</v>
+      </c>
+      <c r="BH26">
+        <v>15479</v>
+      </c>
+      <c r="BI26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:49">
+    <row r="27" spans="1:61">
       <c r="A27" s="1" t="s">
         <v>62</v>
       </c>
@@ -4276,6 +5164,12 @@
       <c r="AA27">
         <v>16303</v>
       </c>
+      <c r="AB27">
+        <v>16004</v>
+      </c>
+      <c r="AC27">
+        <v>16004</v>
+      </c>
       <c r="AD27">
         <v>295</v>
       </c>
@@ -4334,10 +5228,46 @@
         <v>563</v>
       </c>
       <c r="AW27">
+        <v>4080</v>
+      </c>
+      <c r="AX27">
+        <v>409</v>
+      </c>
+      <c r="AY27">
+        <v>1</v>
+      </c>
+      <c r="AZ27">
         <v>17491</v>
       </c>
+      <c r="BA27">
+        <v>1</v>
+      </c>
+      <c r="BB27">
+        <v>409</v>
+      </c>
+      <c r="BC27">
+        <v>1</v>
+      </c>
+      <c r="BD27">
+        <v>17491</v>
+      </c>
+      <c r="BE27">
+        <v>1</v>
+      </c>
+      <c r="BF27">
+        <v>409</v>
+      </c>
+      <c r="BG27">
+        <v>1</v>
+      </c>
+      <c r="BH27">
+        <v>17491</v>
+      </c>
+      <c r="BI27">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:49">
+    <row r="28" spans="1:61">
       <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
@@ -4419,6 +5349,12 @@
       <c r="AA28">
         <v>18490</v>
       </c>
+      <c r="AB28">
+        <v>18471</v>
+      </c>
+      <c r="AC28">
+        <v>18471</v>
+      </c>
       <c r="AD28">
         <v>295</v>
       </c>
@@ -4477,10 +5413,46 @@
         <v>2558</v>
       </c>
       <c r="AW28">
-        <v>35224</v>
+        <v>6076</v>
+      </c>
+      <c r="AX28">
+        <v>499</v>
+      </c>
+      <c r="AY28">
+        <v>1</v>
+      </c>
+      <c r="AZ28">
+        <v>17733</v>
+      </c>
+      <c r="BA28">
+        <v>1</v>
+      </c>
+      <c r="BB28">
+        <v>499</v>
+      </c>
+      <c r="BC28">
+        <v>1</v>
+      </c>
+      <c r="BD28">
+        <v>17733</v>
+      </c>
+      <c r="BE28">
+        <v>1</v>
+      </c>
+      <c r="BF28">
+        <v>499</v>
+      </c>
+      <c r="BG28">
+        <v>1</v>
+      </c>
+      <c r="BH28">
+        <v>17733</v>
+      </c>
+      <c r="BI28">
+        <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:49">
+    <row r="29" spans="1:61">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -4562,6 +5534,12 @@
       <c r="AA29">
         <v>14962</v>
       </c>
+      <c r="AB29">
+        <v>14893</v>
+      </c>
+      <c r="AC29">
+        <v>14893</v>
+      </c>
       <c r="AD29">
         <v>161</v>
       </c>
@@ -4620,10 +5598,46 @@
         <v>973</v>
       </c>
       <c r="AW29">
-        <v>55109</v>
+        <v>12039</v>
+      </c>
+      <c r="AX29">
+        <v>461</v>
+      </c>
+      <c r="AY29">
+        <v>1</v>
+      </c>
+      <c r="AZ29">
+        <v>19885</v>
+      </c>
+      <c r="BA29">
+        <v>1</v>
+      </c>
+      <c r="BB29">
+        <v>461</v>
+      </c>
+      <c r="BC29">
+        <v>1</v>
+      </c>
+      <c r="BD29">
+        <v>19885</v>
+      </c>
+      <c r="BE29">
+        <v>1</v>
+      </c>
+      <c r="BF29">
+        <v>461</v>
+      </c>
+      <c r="BG29">
+        <v>1</v>
+      </c>
+      <c r="BH29">
+        <v>19885</v>
+      </c>
+      <c r="BI29">
+        <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:49">
+    <row r="30" spans="1:61">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -4705,6 +5719,12 @@
       <c r="AA30">
         <v>17750</v>
       </c>
+      <c r="AB30">
+        <v>17761</v>
+      </c>
+      <c r="AC30">
+        <v>17761</v>
+      </c>
       <c r="AD30">
         <v>149</v>
       </c>
@@ -4763,10 +5783,46 @@
         <v>2257</v>
       </c>
       <c r="AW30">
-        <v>74261</v>
+        <v>13939</v>
+      </c>
+      <c r="AX30">
+        <v>593</v>
+      </c>
+      <c r="AY30">
+        <v>0.9966386554621849</v>
+      </c>
+      <c r="AZ30">
+        <v>19020</v>
+      </c>
+      <c r="BA30">
+        <v>0.9931077694235589</v>
+      </c>
+      <c r="BB30">
+        <v>593</v>
+      </c>
+      <c r="BC30">
+        <v>0.9966386554621849</v>
+      </c>
+      <c r="BD30">
+        <v>19020</v>
+      </c>
+      <c r="BE30">
+        <v>0.9931077694235589</v>
+      </c>
+      <c r="BF30">
+        <v>595</v>
+      </c>
+      <c r="BG30">
+        <v>1</v>
+      </c>
+      <c r="BH30">
+        <v>19152</v>
+      </c>
+      <c r="BI30">
+        <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:49">
+    <row r="31" spans="1:61">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,6 +5904,12 @@
       <c r="AA31">
         <v>18696</v>
       </c>
+      <c r="AB31">
+        <v>18529</v>
+      </c>
+      <c r="AC31">
+        <v>18529</v>
+      </c>
       <c r="AD31">
         <v>63</v>
       </c>
@@ -4906,10 +5968,46 @@
         <v>952</v>
       </c>
       <c r="AW31">
-        <v>82910</v>
+        <v>7742</v>
+      </c>
+      <c r="AX31">
+        <v>285</v>
+      </c>
+      <c r="AY31">
+        <v>1</v>
+      </c>
+      <c r="AZ31">
+        <v>8649</v>
+      </c>
+      <c r="BA31">
+        <v>1</v>
+      </c>
+      <c r="BB31">
+        <v>285</v>
+      </c>
+      <c r="BC31">
+        <v>1</v>
+      </c>
+      <c r="BD31">
+        <v>8649</v>
+      </c>
+      <c r="BE31">
+        <v>1</v>
+      </c>
+      <c r="BF31">
+        <v>285</v>
+      </c>
+      <c r="BG31">
+        <v>1</v>
+      </c>
+      <c r="BH31">
+        <v>8649</v>
+      </c>
+      <c r="BI31">
+        <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:49">
+    <row r="32" spans="1:61">
       <c r="A32" s="1" t="s">
         <v>67</v>
       </c>
@@ -4973,6 +6071,12 @@
       <c r="AA32">
         <v>9522</v>
       </c>
+      <c r="AB32">
+        <v>9745</v>
+      </c>
+      <c r="AC32">
+        <v>9745</v>
+      </c>
       <c r="AD32">
         <v>4</v>
       </c>
@@ -4998,7 +6102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:49">
+    <row r="33" spans="1:61">
       <c r="A33" s="1" t="s">
         <v>68</v>
       </c>
@@ -5071,6 +6175,12 @@
       <c r="AA33">
         <v>15976</v>
       </c>
+      <c r="AB33">
+        <v>15970</v>
+      </c>
+      <c r="AC33">
+        <v>15970</v>
+      </c>
       <c r="AD33">
         <v>342</v>
       </c>
@@ -5129,10 +6239,46 @@
         <v>118</v>
       </c>
       <c r="AW33">
+        <v>920</v>
+      </c>
+      <c r="AX33">
+        <v>358</v>
+      </c>
+      <c r="AY33">
+        <v>1</v>
+      </c>
+      <c r="AZ33">
         <v>14753</v>
       </c>
+      <c r="BA33">
+        <v>1</v>
+      </c>
+      <c r="BB33">
+        <v>358</v>
+      </c>
+      <c r="BC33">
+        <v>1</v>
+      </c>
+      <c r="BD33">
+        <v>14753</v>
+      </c>
+      <c r="BE33">
+        <v>1</v>
+      </c>
+      <c r="BF33">
+        <v>358</v>
+      </c>
+      <c r="BG33">
+        <v>1</v>
+      </c>
+      <c r="BH33">
+        <v>14753</v>
+      </c>
+      <c r="BI33">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:49">
+    <row r="34" spans="1:61">
       <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
@@ -5214,6 +6360,12 @@
       <c r="AA34">
         <v>15599</v>
       </c>
+      <c r="AB34">
+        <v>15574</v>
+      </c>
+      <c r="AC34">
+        <v>15574</v>
+      </c>
       <c r="AD34">
         <v>355</v>
       </c>
@@ -5272,10 +6424,46 @@
         <v>17</v>
       </c>
       <c r="AW34">
-        <v>30383</v>
+        <v>1785</v>
+      </c>
+      <c r="AX34">
+        <v>416</v>
+      </c>
+      <c r="AY34">
+        <v>1</v>
+      </c>
+      <c r="AZ34">
+        <v>15630</v>
+      </c>
+      <c r="BA34">
+        <v>1</v>
+      </c>
+      <c r="BB34">
+        <v>416</v>
+      </c>
+      <c r="BC34">
+        <v>1</v>
+      </c>
+      <c r="BD34">
+        <v>15630</v>
+      </c>
+      <c r="BE34">
+        <v>1</v>
+      </c>
+      <c r="BF34">
+        <v>416</v>
+      </c>
+      <c r="BG34">
+        <v>1</v>
+      </c>
+      <c r="BH34">
+        <v>15630</v>
+      </c>
+      <c r="BI34">
+        <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:49">
+    <row r="35" spans="1:61">
       <c r="A35" s="1" t="s">
         <v>70</v>
       </c>
@@ -5357,6 +6545,12 @@
       <c r="AA35">
         <v>15875</v>
       </c>
+      <c r="AB35">
+        <v>13712</v>
+      </c>
+      <c r="AC35">
+        <v>13712</v>
+      </c>
       <c r="AD35">
         <v>257</v>
       </c>
@@ -5415,10 +6609,46 @@
         <v>606</v>
       </c>
       <c r="AW35">
-        <v>50367</v>
+        <v>8948</v>
+      </c>
+      <c r="AX35">
+        <v>522</v>
+      </c>
+      <c r="AY35">
+        <v>0.9923954372623575</v>
+      </c>
+      <c r="AZ35">
+        <v>19214</v>
+      </c>
+      <c r="BA35">
+        <v>0.9614691753402722</v>
+      </c>
+      <c r="BB35">
+        <v>522</v>
+      </c>
+      <c r="BC35">
+        <v>0.9923954372623575</v>
+      </c>
+      <c r="BD35">
+        <v>19214</v>
+      </c>
+      <c r="BE35">
+        <v>0.9614691753402722</v>
+      </c>
+      <c r="BF35">
+        <v>524</v>
+      </c>
+      <c r="BG35">
+        <v>0.9961977186311787</v>
+      </c>
+      <c r="BH35">
+        <v>19414</v>
+      </c>
+      <c r="BI35">
+        <v>0.9714771817453963</v>
       </c>
     </row>
-    <row r="36" spans="1:49">
+    <row r="36" spans="1:61">
       <c r="A36" s="1" t="s">
         <v>71</v>
       </c>
@@ -5500,6 +6730,12 @@
       <c r="AA36">
         <v>15250</v>
       </c>
+      <c r="AB36">
+        <v>17228</v>
+      </c>
+      <c r="AC36">
+        <v>17228</v>
+      </c>
       <c r="AD36">
         <v>248</v>
       </c>
@@ -5558,10 +6794,46 @@
         <v>699</v>
       </c>
       <c r="AW36">
-        <v>64468</v>
+        <v>6905</v>
+      </c>
+      <c r="AX36">
+        <v>443</v>
+      </c>
+      <c r="AY36">
+        <v>1</v>
+      </c>
+      <c r="AZ36">
+        <v>14101</v>
+      </c>
+      <c r="BA36">
+        <v>1</v>
+      </c>
+      <c r="BB36">
+        <v>443</v>
+      </c>
+      <c r="BC36">
+        <v>1</v>
+      </c>
+      <c r="BD36">
+        <v>14101</v>
+      </c>
+      <c r="BE36">
+        <v>1</v>
+      </c>
+      <c r="BF36">
+        <v>443</v>
+      </c>
+      <c r="BG36">
+        <v>1</v>
+      </c>
+      <c r="BH36">
+        <v>14101</v>
+      </c>
+      <c r="BI36">
+        <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:49">
+    <row r="37" spans="1:61">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -5643,6 +6915,12 @@
       <c r="AA37">
         <v>18711</v>
       </c>
+      <c r="AB37">
+        <v>18216</v>
+      </c>
+      <c r="AC37">
+        <v>18216</v>
+      </c>
       <c r="AD37">
         <v>380</v>
       </c>
@@ -5701,10 +6979,46 @@
         <v>898</v>
       </c>
       <c r="AW37">
-        <v>84864</v>
+        <v>10642</v>
+      </c>
+      <c r="AX37">
+        <v>580</v>
+      </c>
+      <c r="AY37">
+        <v>1</v>
+      </c>
+      <c r="AZ37">
+        <v>20396</v>
+      </c>
+      <c r="BA37">
+        <v>1</v>
+      </c>
+      <c r="BB37">
+        <v>580</v>
+      </c>
+      <c r="BC37">
+        <v>1</v>
+      </c>
+      <c r="BD37">
+        <v>20396</v>
+      </c>
+      <c r="BE37">
+        <v>1</v>
+      </c>
+      <c r="BF37">
+        <v>580</v>
+      </c>
+      <c r="BG37">
+        <v>1</v>
+      </c>
+      <c r="BH37">
+        <v>20396</v>
+      </c>
+      <c r="BI37">
+        <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:49">
+    <row r="38" spans="1:61">
       <c r="A38" s="1" t="s">
         <v>73</v>
       </c>
@@ -5786,6 +7100,12 @@
       <c r="AA38">
         <v>13897</v>
       </c>
+      <c r="AB38">
+        <v>14925</v>
+      </c>
+      <c r="AC38">
+        <v>14925</v>
+      </c>
       <c r="AD38">
         <v>71</v>
       </c>
@@ -5832,10 +7152,46 @@
         <v>0</v>
       </c>
       <c r="AW38">
-        <v>91713</v>
+        <v>3219</v>
+      </c>
+      <c r="AX38">
+        <v>167</v>
+      </c>
+      <c r="AY38">
+        <v>1</v>
+      </c>
+      <c r="AZ38">
+        <v>6849</v>
+      </c>
+      <c r="BA38">
+        <v>1</v>
+      </c>
+      <c r="BB38">
+        <v>167</v>
+      </c>
+      <c r="BC38">
+        <v>1</v>
+      </c>
+      <c r="BD38">
+        <v>6849</v>
+      </c>
+      <c r="BE38">
+        <v>1</v>
+      </c>
+      <c r="BF38">
+        <v>167</v>
+      </c>
+      <c r="BG38">
+        <v>1</v>
+      </c>
+      <c r="BH38">
+        <v>6849</v>
+      </c>
+      <c r="BI38">
+        <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:49">
+    <row r="39" spans="1:61">
       <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
@@ -5908,6 +7264,12 @@
       <c r="AA39">
         <v>2880</v>
       </c>
+      <c r="AB39">
+        <v>3394</v>
+      </c>
+      <c r="AC39">
+        <v>3394</v>
+      </c>
       <c r="AD39">
         <v>23</v>
       </c>
@@ -5956,8 +7318,44 @@
       <c r="AW39">
         <v>0</v>
       </c>
+      <c r="AX39">
+        <v>3</v>
+      </c>
+      <c r="AY39">
+        <v>1</v>
+      </c>
+      <c r="AZ39">
+        <v>40</v>
+      </c>
+      <c r="BA39">
+        <v>1</v>
+      </c>
+      <c r="BB39">
+        <v>3</v>
+      </c>
+      <c r="BC39">
+        <v>1</v>
+      </c>
+      <c r="BD39">
+        <v>40</v>
+      </c>
+      <c r="BE39">
+        <v>1</v>
+      </c>
+      <c r="BF39">
+        <v>3</v>
+      </c>
+      <c r="BG39">
+        <v>1</v>
+      </c>
+      <c r="BH39">
+        <v>40</v>
+      </c>
+      <c r="BI39">
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:49">
+    <row r="40" spans="1:61">
       <c r="A40" s="1" t="s">
         <v>75</v>
       </c>
@@ -6030,6 +7428,12 @@
       <c r="AA40">
         <v>18655</v>
       </c>
+      <c r="AB40">
+        <v>18249</v>
+      </c>
+      <c r="AC40">
+        <v>18249</v>
+      </c>
       <c r="AD40">
         <v>260</v>
       </c>
@@ -6090,8 +7494,44 @@
       <c r="AW40">
         <v>0</v>
       </c>
+      <c r="AX40">
+        <v>248</v>
+      </c>
+      <c r="AY40">
+        <v>1</v>
+      </c>
+      <c r="AZ40">
+        <v>16108</v>
+      </c>
+      <c r="BA40">
+        <v>1</v>
+      </c>
+      <c r="BB40">
+        <v>248</v>
+      </c>
+      <c r="BC40">
+        <v>1</v>
+      </c>
+      <c r="BD40">
+        <v>16108</v>
+      </c>
+      <c r="BE40">
+        <v>1</v>
+      </c>
+      <c r="BF40">
+        <v>248</v>
+      </c>
+      <c r="BG40">
+        <v>1</v>
+      </c>
+      <c r="BH40">
+        <v>16108</v>
+      </c>
+      <c r="BI40">
+        <v>1</v>
+      </c>
     </row>
-    <row r="41" spans="1:49">
+    <row r="41" spans="1:61">
       <c r="A41" s="1" t="s">
         <v>76</v>
       </c>
@@ -6363,163 +7803,163 @@
         <v>91</v>
       </c>
       <c r="C2">
-        <v>887.9220862455065</v>
+        <v>1764.71994553252</v>
       </c>
       <c r="D2">
-        <v>1131.536678449761</v>
+        <v>2058.119871491287</v>
       </c>
       <c r="E2">
-        <v>891.6526438662153</v>
+        <v>1708.210248785971</v>
       </c>
       <c r="F2">
-        <v>869.31013185107</v>
+        <v>1671.657652862713</v>
       </c>
       <c r="G2">
-        <v>886.4310973482185</v>
+        <v>1652.612811068151</v>
       </c>
       <c r="H2">
-        <v>920.3962198003009</v>
+        <v>1852.633930545781</v>
       </c>
       <c r="I2">
-        <v>840.9797280505319</v>
+        <v>1632.200562301027</v>
       </c>
       <c r="J2">
-        <v>927.1318739377577</v>
+        <v>1772.269096604306</v>
       </c>
       <c r="M2">
-        <v>911.0039846105421</v>
+        <v>1779.782065970591</v>
       </c>
       <c r="N2">
-        <v>897.8940838038473</v>
+        <v>1722.141354822426</v>
       </c>
       <c r="O2">
-        <v>847.8084184174002</v>
+        <v>1683.319906002677</v>
       </c>
       <c r="P2">
-        <v>934.4039085705753</v>
+        <v>1551.261372094705</v>
       </c>
       <c r="Q2">
-        <v>921.0212207292085</v>
+        <v>1909.197330552458</v>
       </c>
       <c r="R2">
-        <v>1079.534863666664</v>
+        <v>2240.520300663753</v>
       </c>
       <c r="S2">
-        <v>1434.618475555975</v>
+        <v>2871.46190989941</v>
       </c>
       <c r="T2">
-        <v>932.2750008863834</v>
+        <v>1824.398299305859</v>
       </c>
       <c r="U2">
-        <v>927.1318739377577</v>
+        <v>1772.269096604306</v>
       </c>
       <c r="V2">
-        <v>0.005547352100819802</v>
+        <v>0.02941381915502173</v>
       </c>
       <c r="W2">
-        <v>994.4936188862182</v>
+        <v>1864.668014778846</v>
       </c>
       <c r="X2">
-        <v>1045.205133846646</v>
+        <v>1925.005984559094</v>
       </c>
       <c r="Y2">
-        <v>991.2705839860084</v>
+        <v>1761.398569561961</v>
       </c>
       <c r="Z2">
-        <v>999.9493209151948</v>
+        <v>1940.799366272546</v>
       </c>
       <c r="AA2">
-        <v>849.4467255930637</v>
+        <v>1696.358454779471</v>
       </c>
       <c r="AB2">
-        <v>1201.764709535019</v>
+        <v>2250.14823854642</v>
       </c>
       <c r="AC2">
-        <v>707.8213317849541</v>
+        <v>1537.418111860073</v>
       </c>
       <c r="AD2">
-        <v>988.2017692236881</v>
+        <v>1874.265611973158</v>
       </c>
       <c r="AE2">
-        <v>932.2750008863834</v>
+        <v>1824.398299305859</v>
       </c>
       <c r="AF2">
-        <v>0.05998956132485689</v>
+        <v>0.02733356673609766</v>
       </c>
       <c r="AG2">
-        <v>1217.47142502878</v>
+        <v>2227.885642635886</v>
       </c>
       <c r="AH2">
-        <v>995.7229645373437</v>
+        <v>1788.584309765993</v>
       </c>
       <c r="AI2">
-        <v>1022.551125685373</v>
+        <v>1894.933694049561</v>
       </c>
       <c r="AJ2">
-        <v>1043.69059068688</v>
+        <v>1974.129250251394</v>
       </c>
       <c r="AK2">
-        <v>1081.613592917617</v>
+        <v>2033.002385489662</v>
       </c>
       <c r="AL2">
-        <v>1124.448238943729</v>
+        <v>2206.130693425354</v>
       </c>
       <c r="AM2">
-        <v>1180.732193427201</v>
+        <v>2371.215417304196</v>
       </c>
       <c r="AN2">
-        <v>1082.510300066047</v>
+        <v>2033.957277581136</v>
       </c>
       <c r="AO2">
-        <v>988.2017692236881</v>
+        <v>1874.265611973158</v>
       </c>
       <c r="AP2">
-        <v>0.09543448896721363</v>
+        <v>0.08520225980129914</v>
       </c>
       <c r="AQ2">
-        <v>955.0348321466801</v>
+        <v>1835.605728021314</v>
       </c>
       <c r="AR2">
-        <v>966.3971398591561</v>
+        <v>1830.100628540105</v>
       </c>
       <c r="AS2">
-        <v>1296.179260566743</v>
+        <v>2201.286720545593</v>
       </c>
       <c r="AT2">
-        <v>1001.258411215639</v>
+        <v>2009.167742063054</v>
       </c>
       <c r="AU2">
-        <v>1144.920089523244</v>
+        <v>2127.433195264198</v>
       </c>
       <c r="AV2">
-        <v>960.305869134926</v>
+        <v>1880.317025913093</v>
       </c>
       <c r="AW2">
-        <v>884.6239651408274</v>
+        <v>1981.705385404066</v>
       </c>
       <c r="AX2">
-        <v>1044.68728246815</v>
+        <v>1977.602995426966</v>
       </c>
       <c r="AY2">
-        <v>1082.510300066047</v>
+        <v>2033.957277581136</v>
       </c>
       <c r="AZ2">
-        <v>-0.03494009950352395</v>
+        <v>-0.02770671870806884</v>
       </c>
       <c r="BA2">
-        <v>1110.15931565432</v>
+        <v>2021.81405914491</v>
       </c>
       <c r="BB2">
         <v>2.985374445496366</v>
       </c>
       <c r="BC2">
-        <v>561.5401563350822</v>
+        <v>1021.458058533027</v>
       </c>
       <c r="BD2">
-        <v>1044.68728246815</v>
+        <v>1977.602995426966</v>
       </c>
       <c r="BE2">
-        <v>-0.4624801452465253</v>
+        <v>-0.4834867964424308</v>
       </c>
     </row>
     <row r="3" spans="1:57">
@@ -6528,163 +7968,163 @@
         <v>92</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>111.8872017353579</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>133.2905982905983</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>103.3185279187817</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>103.8872577803875</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>104.0467625899281</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>122.9433272394881</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>117.0217917675545</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>113.0272952853598</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>116.2841530054645</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>101.1711125569291</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>95.90968586387434</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>72.82051282051282</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>115.3824948311509</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>145.7203389830509</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>202.6923076923077</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>107.3768613974799</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>113.0272952853598</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>-0.04999176414523776</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>121.6022099447514</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>125.1026615969582</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>105.8442453480358</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>108.3464005702067</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>101.8270999386879</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>141.5773353751914</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>100.14440433213</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>115.3235764921107</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>107.3768613974799</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.07400770511641386</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>150.6465517241379</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>113.2625619249823</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>120.1756668835393</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>113.0827638572513</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>123.1692094313454</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>146.3586097946288</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>166.2969283276451</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>129.4324045407637</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>115.3235764921107</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>0.1223412287219359</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>114.8094895758447</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>117.0097670924117</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>123.754512635379</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>134.1744548286604</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>128.1012658227848</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>133.6168307967771</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>128.5606060606061</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>125.071365416193</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>129.4324045407637</v>
       </c>
       <c r="AZ3">
-        <v>0</v>
+        <v>-0.03369356491555564</v>
       </c>
       <c r="BA3">
-        <v>0</v>
+        <v>141.1368909512761</v>
       </c>
       <c r="BB3">
         <v>0</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>71.20171673819742</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>125.071365416193</v>
       </c>
       <c r="BE3">
-        <v>0</v>
+        <v>-0.4307112863023166</v>
       </c>
     </row>
     <row r="4" spans="1:57">
@@ -6693,163 +8133,163 @@
         <v>93</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>5158</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>18714</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>16283</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>17692</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>17355</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>20175</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4833</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>15896.16666666667</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2128</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>15550</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>14655</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7668</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>16742</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>17195</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>12323</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>15896.16666666667</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>-0.2247816559547899</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>13206</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>16451</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>15358</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>15201</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>16608</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>18490</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>5548</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>15885.66666666667</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>12323</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.2891070897238226</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>17475</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>16004</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>18471</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>14893</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>17761</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>18529</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>9745</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>17188.83333333333</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>15885.66666666667</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>0.0820341188073106</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>15970</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>15574</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>13712</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>17228</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>18216</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>14925</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>3394</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>15937.5</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>17188.83333333333</v>
       </c>
       <c r="AZ4">
-        <v>0</v>
+        <v>-0.07279920103167747</v>
       </c>
       <c r="BA4">
-        <v>0</v>
+        <v>18249</v>
       </c>
       <c r="BB4">
         <v>0</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>18249</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>15937.5</v>
       </c>
       <c r="BE4">
-        <v>0</v>
+        <v>0.1450352941176472</v>
       </c>
     </row>
     <row r="5" spans="1:57">
@@ -8516,163 +9956,163 @@
         <v>96</v>
       </c>
       <c r="C15">
-        <v>592.5581395348837</v>
+        <v>1192.325581395349</v>
       </c>
       <c r="D15">
-        <v>318.4406779661017</v>
+        <v>635.6271186440678</v>
       </c>
       <c r="E15">
-        <v>268.4983498349835</v>
+        <v>537.1947194719472</v>
       </c>
       <c r="F15">
-        <v>249.5325779036827</v>
+        <v>500.1274787535411</v>
       </c>
       <c r="G15">
-        <v>239.9726775956284</v>
+        <v>477.0628415300546</v>
       </c>
       <c r="H15">
-        <v>263.3243967828419</v>
+        <v>533.7667560321717</v>
       </c>
       <c r="I15">
-        <v>278.2758620689655</v>
+        <v>556.0344827586207</v>
       </c>
       <c r="J15">
-        <v>274.2417582417582</v>
+        <v>549.5439560439561</v>
       </c>
       <c r="M15">
-        <v>322.4242424242424</v>
+        <v>644.8484848484849</v>
       </c>
       <c r="N15">
-        <v>216.831955922865</v>
+        <v>431.0192837465565</v>
       </c>
       <c r="O15">
-        <v>205.2521008403361</v>
+        <v>410.5042016806722</v>
       </c>
       <c r="P15">
-        <v>215.9174311926605</v>
+        <v>391.7889908256881</v>
       </c>
       <c r="Q15">
-        <v>235.2694610778443</v>
+        <v>485.8982035928144</v>
       </c>
       <c r="R15">
-        <v>289.4746376811594</v>
+        <v>600.9782608695651</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>236.2207463630614</v>
+        <v>473.3870967741935</v>
       </c>
       <c r="U15">
-        <v>274.2417582417582</v>
+        <v>549.5439560439561</v>
       </c>
       <c r="V15">
-        <v>-0.1386404905017398</v>
+        <v>-0.1385819249437273</v>
       </c>
       <c r="W15">
-        <v>267.24609375</v>
+        <v>525.17578125</v>
       </c>
       <c r="X15">
-        <v>241.217008797654</v>
+        <v>482.4340175953079</v>
       </c>
       <c r="Y15">
-        <v>231.4243323442136</v>
+        <v>459.2878338278931</v>
       </c>
       <c r="Z15">
-        <v>253.1967213114754</v>
+        <v>502.3934426229508</v>
       </c>
       <c r="AA15">
-        <v>277.8839590443686</v>
+        <v>561.296928327645</v>
       </c>
       <c r="AB15">
-        <v>308.0169491525424</v>
+        <v>621.4067796610169</v>
       </c>
       <c r="AC15">
-        <v>226.7916666666667</v>
+        <v>457.9583333333333</v>
       </c>
       <c r="AD15">
-        <v>259.5711350796097</v>
+        <v>518.5901386748844</v>
       </c>
       <c r="AE15">
-        <v>236.2207463630614</v>
+        <v>473.3870967741935</v>
       </c>
       <c r="AF15">
-        <v>0.09884986427339348</v>
+        <v>0.0954885382569961</v>
       </c>
       <c r="AG15">
-        <v>331.390977443609</v>
+        <v>659.8684210526316</v>
       </c>
       <c r="AH15">
-        <v>297.5</v>
+        <v>589.543795620438</v>
       </c>
       <c r="AI15">
-        <v>275.9701492537313</v>
+        <v>551.6567164179105</v>
       </c>
       <c r="AJ15">
-        <v>341.5981735159818</v>
+        <v>681.6210045662101</v>
       </c>
       <c r="AK15">
-        <v>281.7460317460317</v>
+        <v>563.6666666666666</v>
       </c>
       <c r="AL15">
-        <v>323.4602076124568</v>
+        <v>644.0311418685121</v>
       </c>
       <c r="AM15">
-        <v>292.0858895705521</v>
+        <v>591.0122699386503</v>
       </c>
       <c r="AN15">
-        <v>304.5486297689414</v>
+        <v>607.821063944116</v>
       </c>
       <c r="AO15">
-        <v>259.5711350796097</v>
+        <v>518.5901386748844</v>
       </c>
       <c r="AP15">
-        <v>0.1732761798631317</v>
+        <v>0.1720644466885484</v>
       </c>
       <c r="AQ15">
-        <v>274.5017182130584</v>
+        <v>548.9003436426117</v>
       </c>
       <c r="AR15">
-        <v>296.5589353612168</v>
+        <v>592.6425855513309</v>
       </c>
       <c r="AS15">
-        <v>306.4671814671815</v>
+        <v>571.1776061776062</v>
       </c>
       <c r="AT15">
-        <v>274.2805755395684</v>
+        <v>584.1366906474821</v>
       </c>
       <c r="AU15">
-        <v>320.3938356164383</v>
+        <v>632.3116438356163</v>
       </c>
       <c r="AV15">
-        <v>270.3696498054475</v>
+        <v>560.7392996108949</v>
       </c>
       <c r="AW15">
-        <v>221.5384615384615</v>
+        <v>482.6153846153846</v>
       </c>
       <c r="AX15">
-        <v>287.941348973607</v>
+        <v>578.3196480938417</v>
       </c>
       <c r="AY15">
-        <v>304.5486297689414</v>
+        <v>607.821063944116</v>
       </c>
       <c r="AZ15">
-        <v>-0.05453080123175791</v>
+        <v>-0.04853634992318512</v>
       </c>
       <c r="BA15">
-        <v>446.2918660287082</v>
+        <v>882.8708133971293</v>
       </c>
       <c r="BB15">
         <v>0.07936507936507936</v>
       </c>
       <c r="BC15">
-        <v>202.3752711496746</v>
+        <v>400.3036876355749</v>
       </c>
       <c r="BD15">
-        <v>287.941348973607</v>
+        <v>578.3196480938417</v>
       </c>
       <c r="BE15">
-        <v>-0.2971649543524764</v>
+        <v>-0.3078158610813458</v>
       </c>
     </row>
     <row r="16" spans="1:57">
@@ -8681,163 +10121,163 @@
         <v>93</v>
       </c>
       <c r="C16">
-        <v>2548</v>
+        <v>5127</v>
       </c>
       <c r="D16">
-        <v>9394</v>
+        <v>18751</v>
       </c>
       <c r="E16">
-        <v>8135.5</v>
+        <v>16277</v>
       </c>
       <c r="F16">
-        <v>8808.5</v>
+        <v>17654.5</v>
       </c>
       <c r="G16">
-        <v>8783</v>
+        <v>17460.5</v>
       </c>
       <c r="H16">
-        <v>9822</v>
+        <v>19909.5</v>
       </c>
       <c r="I16">
-        <v>2421</v>
+        <v>4837.5</v>
       </c>
       <c r="J16">
-        <v>7915.166666666667</v>
+        <v>15863.25</v>
       </c>
       <c r="M16">
-        <v>1064</v>
+        <v>2128</v>
       </c>
       <c r="N16">
-        <v>7871</v>
+        <v>15646</v>
       </c>
       <c r="O16">
-        <v>7327.5</v>
+        <v>14655</v>
       </c>
       <c r="P16">
-        <v>4707</v>
+        <v>8541</v>
       </c>
       <c r="Q16">
-        <v>7858</v>
+        <v>16229</v>
       </c>
       <c r="R16">
-        <v>7989.5</v>
+        <v>16587</v>
       </c>
       <c r="S16">
-        <v>529.5</v>
+        <v>1056.5</v>
       </c>
       <c r="T16">
-        <v>6136.166666666667</v>
+        <v>12297.66666666667</v>
       </c>
       <c r="U16">
-        <v>7915.166666666667</v>
+        <v>15863.25</v>
       </c>
       <c r="V16">
-        <v>-0.224758375271104</v>
+        <v>-0.2247700397669666</v>
       </c>
       <c r="W16">
-        <v>6841.5</v>
+        <v>13444.5</v>
       </c>
       <c r="X16">
-        <v>8225.5</v>
+        <v>16451</v>
       </c>
       <c r="Y16">
-        <v>7799</v>
+        <v>15478</v>
       </c>
       <c r="Z16">
-        <v>7722.5</v>
+        <v>15323</v>
       </c>
       <c r="AA16">
-        <v>8142</v>
+        <v>16446</v>
       </c>
       <c r="AB16">
-        <v>9086.5</v>
+        <v>18331.5</v>
       </c>
       <c r="AC16">
-        <v>2721.5</v>
+        <v>5495.5</v>
       </c>
       <c r="AD16">
-        <v>7969.5</v>
+        <v>15912.33333333333</v>
       </c>
       <c r="AE16">
-        <v>6136.166666666667</v>
+        <v>12297.66666666667</v>
       </c>
       <c r="AF16">
-        <v>0.2987750224081267</v>
+        <v>0.2939310980402787</v>
       </c>
       <c r="AG16">
-        <v>8815</v>
+        <v>17552.5</v>
       </c>
       <c r="AH16">
-        <v>8151.5</v>
+        <v>16153.5</v>
       </c>
       <c r="AI16">
-        <v>9245</v>
+        <v>18480.5</v>
       </c>
       <c r="AJ16">
-        <v>7481</v>
+        <v>14927.5</v>
       </c>
       <c r="AK16">
-        <v>8875</v>
+        <v>17755.5</v>
       </c>
       <c r="AL16">
-        <v>9348</v>
+        <v>18612.5</v>
       </c>
       <c r="AM16">
-        <v>4761</v>
+        <v>9633.5</v>
       </c>
       <c r="AN16">
-        <v>8652.583333333334</v>
+        <v>17247</v>
       </c>
       <c r="AO16">
-        <v>7969.5</v>
+        <v>15912.33333333333</v>
       </c>
       <c r="AP16">
-        <v>0.08571219440784672</v>
+        <v>0.08387623855709414</v>
       </c>
       <c r="AQ16">
-        <v>7988</v>
+        <v>15973</v>
       </c>
       <c r="AR16">
-        <v>7799.5</v>
+        <v>15586.5</v>
       </c>
       <c r="AS16">
-        <v>7937.5</v>
+        <v>14793.5</v>
       </c>
       <c r="AT16">
-        <v>7625</v>
+        <v>16239</v>
       </c>
       <c r="AU16">
-        <v>9355.5</v>
+        <v>18463.5</v>
       </c>
       <c r="AV16">
-        <v>6948.5</v>
+        <v>14411</v>
       </c>
       <c r="AW16">
-        <v>1440</v>
+        <v>3137</v>
       </c>
       <c r="AX16">
-        <v>7942.333333333333</v>
+        <v>15911.08333333333</v>
       </c>
       <c r="AY16">
-        <v>8652.583333333334</v>
+        <v>17247</v>
       </c>
       <c r="AZ16">
-        <v>-0.08208531170844946</v>
+        <v>-0.07745791538625069</v>
       </c>
       <c r="BA16">
-        <v>9327.5</v>
+        <v>18452</v>
       </c>
       <c r="BB16">
         <v>2</v>
       </c>
       <c r="BC16">
-        <v>9327.5</v>
+        <v>18452</v>
       </c>
       <c r="BD16">
-        <v>7942.333333333333</v>
+        <v>15911.08333333333</v>
       </c>
       <c r="BE16">
-        <v>0.1744029882066565</v>
+        <v>0.1596947620369449</v>
       </c>
     </row>
     <row r="17" spans="1:57">
@@ -9013,163 +10453,163 @@
         <v>96</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>716.3888888888889</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>831.7333333333333</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>532.1241830065359</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>576.28664495114</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>672.6744186046512</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>690.9246575342466</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>443.394495412844</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>638.6870618228171</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>886.6666666666667</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>691.1111111111111</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>701.1961722488038</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>649.8305084745763</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>653.984375</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>641.6044776119403</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>263.5</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>657.8245614035088</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>638.6870618228171</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>0.02996381283515159</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>825.375</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>826.6834170854272</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>619.2741935483871</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>615.425101214575</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>661.6733067729083</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>736.6533864541832</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>652.7058823529412</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>699.944482997918</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>657.8245614035088</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>0.06402911059529881</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>934.4919786096257</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>769.4230769230769</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>769.625</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>639.1845493562231</v>
       </c>
       <c r="AK18">
-        <v>0</v>
+        <v>632.0640569395018</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>765.6611570247934</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>755.4263565891473</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>742.6184210526316</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>699.944482997918</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>0.06096760399044454</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>732.5688073394497</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>734.6226415094338</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>745.2173913043478</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>730</v>
       </c>
       <c r="AU18">
-        <v>0</v>
+        <v>706.046511627907</v>
       </c>
       <c r="AV18">
-        <v>0</v>
+        <v>687.7880184331798</v>
       </c>
       <c r="AW18">
-        <v>0</v>
+        <v>617.0909090909091</v>
       </c>
       <c r="AX18">
-        <v>0</v>
+        <v>717.5289855072464</v>
       </c>
       <c r="AY18">
-        <v>0</v>
+        <v>742.6184210526316</v>
       </c>
       <c r="AZ18">
-        <v>0</v>
+        <v>-0.03378509721024958</v>
       </c>
       <c r="BA18">
-        <v>0</v>
+        <v>894.5588235294117</v>
       </c>
       <c r="BB18">
         <v>0</v>
       </c>
       <c r="BC18">
-        <v>0</v>
+        <v>418.5550458715596</v>
       </c>
       <c r="BD18">
-        <v>0</v>
+        <v>717.5289855072464</v>
       </c>
       <c r="BE18">
-        <v>0</v>
+        <v>-0.4166715849455637</v>
       </c>
     </row>
     <row r="19" spans="1:57">
@@ -9178,163 +10618,163 @@
         <v>93</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>5158</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>18714</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>16283</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>17692</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>17355</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>20175</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4833</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>15896.16666666667</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2128</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>15550</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14655</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7668</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>16742</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>17195</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>12323</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>15896.16666666667</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>-0.2247816559547899</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>13206</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>16451</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>15358</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>15201</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>16608</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>18490</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>5548</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>15885.66666666667</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>12323</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>0.2891070897238226</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>17475</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>16004</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>18471</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>14893</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>17761</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>18529</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>9745</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>17188.83333333333</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>15885.66666666667</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>0.0820341188073106</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>15970</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>15574</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>13712</v>
       </c>
       <c r="AT19">
-        <v>0</v>
+        <v>17228</v>
       </c>
       <c r="AU19">
-        <v>0</v>
+        <v>18216</v>
       </c>
       <c r="AV19">
-        <v>0</v>
+        <v>14925</v>
       </c>
       <c r="AW19">
-        <v>0</v>
+        <v>3394</v>
       </c>
       <c r="AX19">
-        <v>0</v>
+        <v>15937.5</v>
       </c>
       <c r="AY19">
-        <v>0</v>
+        <v>17188.83333333333</v>
       </c>
       <c r="AZ19">
-        <v>0</v>
+        <v>-0.07279920103167747</v>
       </c>
       <c r="BA19">
-        <v>0</v>
+        <v>18249</v>
       </c>
       <c r="BB19">
         <v>0</v>
       </c>
       <c r="BC19">
-        <v>0</v>
+        <v>18249</v>
       </c>
       <c r="BD19">
-        <v>0</v>
+        <v>15937.5</v>
       </c>
       <c r="BE19">
-        <v>0</v>
+        <v>0.1450352941176472</v>
       </c>
     </row>
     <row r="20" spans="1:57">
@@ -9510,163 +10950,163 @@
         <v>97</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>32.15384615384615</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>34.54819277108433</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>36.02484472049689</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>31.25806451612903</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>59.61722488038278</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>23.875</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>36.14819350887936</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>44.8689138576779</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>58.31896551724138</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>30.18348623853211</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>56.23574144486691</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>64.30051813471502</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>49.63414634146341</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>36.14819350887936</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>0.3730740466815137</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>33.48484848484848</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>34.57399103139014</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>41.46464646464646</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>72.12435233160622</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>36.54986522911051</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>34.98338870431893</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>44.8</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>41.06060606060606</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>49.63414634146341</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>-0.1727347181892634</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>33.08457711442786</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>26.95970695970696</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>34.83985765124555</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>51.75438596491229</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>43.47014925373135</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>53.19796954314721</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>53.2608695652174</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>40.66883116883117</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>41.06060606060606</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>-0.009541381128096993</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>42.66666666666666</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>33.34600760456274</v>
       </c>
       <c r="AS21">
-        <v>0</v>
+        <v>51.875</v>
       </c>
       <c r="AT21">
-        <v>0</v>
+        <v>52.87179487179487</v>
       </c>
       <c r="AU21">
-        <v>0</v>
+        <v>47.47967479674797</v>
       </c>
       <c r="AV21">
-        <v>0</v>
+        <v>34.97267759562841</v>
       </c>
       <c r="AW21">
-        <v>0</v>
+        <v>43.04347826086957</v>
       </c>
       <c r="AX21">
-        <v>0</v>
+        <v>43.16417910447761</v>
       </c>
       <c r="AY21">
-        <v>0</v>
+        <v>40.66883116883117</v>
       </c>
       <c r="AZ21">
-        <v>0</v>
+        <v>0.06135774901637436</v>
       </c>
       <c r="BA21">
-        <v>0</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="BB21">
         <v>0</v>
       </c>
       <c r="BC21">
-        <v>0</v>
+        <v>10.69158878504673</v>
       </c>
       <c r="BD21">
-        <v>0</v>
+        <v>43.16417910447761</v>
       </c>
       <c r="BE21">
-        <v>0</v>
+        <v>-0.7523041325732605</v>
       </c>
     </row>
     <row r="22" spans="1:57">
@@ -9675,163 +11115,163 @@
         <v>93</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>836</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1147</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1160</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>969</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1246</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>952</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1198</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1353</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>658</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1479</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1241</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1009</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>952</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>0.05987394957983194</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>663</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>771</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>821</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1392</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>1356</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>1053</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1009.333333333333</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1009</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>0.0003303600925008698</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>665</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>736</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>979</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>1180</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>1165</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>1048</v>
       </c>
       <c r="AM22">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>962.1666666666666</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>1009.333333333333</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>-0.0467305151915457</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>877</v>
       </c>
       <c r="AS22">
-        <v>0</v>
+        <v>747</v>
       </c>
       <c r="AT22">
-        <v>0</v>
+        <v>1031</v>
       </c>
       <c r="AU22">
-        <v>0</v>
+        <v>1168</v>
       </c>
       <c r="AV22">
-        <v>0</v>
+        <v>640</v>
       </c>
       <c r="AW22">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="AX22">
-        <v>0</v>
+        <v>914.5</v>
       </c>
       <c r="AY22">
-        <v>0</v>
+        <v>962.1666666666666</v>
       </c>
       <c r="AZ22">
-        <v>0</v>
+        <v>-0.04954096656850848</v>
       </c>
       <c r="BA22">
-        <v>0</v>
+        <v>572</v>
       </c>
       <c r="BB22">
         <v>0</v>
       </c>
       <c r="BC22">
-        <v>0</v>
+        <v>572</v>
       </c>
       <c r="BD22">
-        <v>0</v>
+        <v>914.5</v>
       </c>
       <c r="BE22">
-        <v>0</v>
+        <v>-0.3745215965008202</v>
       </c>
     </row>
     <row r="23" spans="1:57">
@@ -10502,112 +11942,112 @@
         <v>98</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>151.2609970674487</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>163.5839160839161</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>130.8922829581993</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>128.1100651701665</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>127.7982326951399</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>140.8868715083799</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>145.1351351351352</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>154.2028985507247</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>122.4409448818898</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>113.0787037037037</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>91.83233532934132</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>140.9259259259259</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>174.2147922998987</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>263.5</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>148.7162162162162</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>150.6501831501832</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>122.5698324022346</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>125.6280991735537</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>131.8095238095238</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>183.9800995024876</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>122.2026431718062</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>182.2210636079249</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>140.3859649122807</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>147.062101910828</v>
       </c>
       <c r="AJ27">
-        <v>0</v>
+        <v>136.7584940312213</v>
       </c>
       <c r="AK27">
-        <v>0</v>
+        <v>151.2862010221465</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>173.3302151543499</v>
       </c>
       <c r="AM27">
-        <v>0</v>
+        <v>197.2672064777328</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>138.7489139878366</v>
       </c>
       <c r="AR27">
-        <v>0</v>
+        <v>145.8239700374532</v>
       </c>
       <c r="AS27">
-        <v>0</v>
+        <v>142.2406639004149</v>
       </c>
       <c r="AT27">
-        <v>0</v>
+        <v>158.2001836547291</v>
       </c>
       <c r="AU27">
-        <v>0</v>
+        <v>154.8979591836735</v>
       </c>
       <c r="AV27">
-        <v>0</v>
+        <v>159.796573875803</v>
       </c>
       <c r="AW27">
-        <v>0</v>
+        <v>174.051282051282</v>
       </c>
       <c r="BA27">
-        <v>0</v>
+        <v>177.3469387755102</v>
       </c>
       <c r="BB27">
         <v>0</v>
@@ -10619,112 +12059,112 @@
         <v>99</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>429.8333333333333</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>719.7692307692307</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>490.4518072289156</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>549.4409937888198</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>559.8387096774194</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>965.3110047846891</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>604.125</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>472.8888888888889</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>582.3970037453183</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>631.6810344827586</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>351.743119266055</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>636.5779467680608</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>890.9326424870466</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>878.3333333333334</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>666.969696969697</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>737.7130044843049</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>775.6565656565656</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>787.6165803108807</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>447.654986522911</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>614.2857142857142</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>554.8</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>869.4029850746268</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>586.2271062271063</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>657.3309608540925</v>
       </c>
       <c r="AJ28">
-        <v>0</v>
+        <v>653.201754385965</v>
       </c>
       <c r="AK28">
-        <v>0</v>
+        <v>662.723880597015</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>940.5583756345178</v>
       </c>
       <c r="AM28">
-        <v>0</v>
+        <v>1059.239130434783</v>
       </c>
       <c r="AQ28">
-        <v>0</v>
+        <v>665.4166666666666</v>
       </c>
       <c r="AR28">
-        <v>0</v>
+        <v>592.1673003802281</v>
       </c>
       <c r="AS28">
-        <v>0</v>
+        <v>952.2222222222222</v>
       </c>
       <c r="AT28">
-        <v>0</v>
+        <v>883.4871794871794</v>
       </c>
       <c r="AU28">
-        <v>0</v>
+        <v>740.4878048780488</v>
       </c>
       <c r="AV28">
-        <v>0</v>
+        <v>815.5737704918032</v>
       </c>
       <c r="AW28">
-        <v>0</v>
+        <v>491.8840579710146</v>
       </c>
       <c r="BA28">
-        <v>0</v>
+        <v>691.25</v>
       </c>
       <c r="BB28">
         <v>0</v>
@@ -11212,15 +12652,339 @@
       <c r="A5" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="B5">
+        <v>0.03926940639269406</v>
+      </c>
+      <c r="C5">
+        <v>0.09703947368421052</v>
+      </c>
+      <c r="D5">
+        <v>0.07435582822085889</v>
+      </c>
+      <c r="E5">
+        <v>0.07542735042735042</v>
+      </c>
+      <c r="F5">
+        <v>0.09172932330827067</v>
+      </c>
+      <c r="G5">
+        <v>0.08091106290672451</v>
+      </c>
+      <c r="H5">
+        <v>0.1011627906976744</v>
+      </c>
+      <c r="I5">
+        <v>0.1064516129032258</v>
+      </c>
+      <c r="J5">
+        <v>0.06934097421203438</v>
+      </c>
+      <c r="K5">
+        <v>0.07300613496932516</v>
+      </c>
+      <c r="L5">
+        <v>0.06507462686567164</v>
+      </c>
+      <c r="M5">
+        <v>0.0671356783919598</v>
+      </c>
+      <c r="N5">
+        <v>0.07086007702182286</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.10199203187251</v>
+      </c>
+      <c r="Q5">
+        <v>0.1226618705035971</v>
+      </c>
+      <c r="R5">
+        <v>0.07488888888888889</v>
+      </c>
+      <c r="S5">
+        <v>0.04559043348281017</v>
+      </c>
+      <c r="T5">
+        <v>0.04995737425404945</v>
+      </c>
+      <c r="U5">
+        <v>0.06941176470588235</v>
+      </c>
+      <c r="V5">
+        <v>0.0583941605839416</v>
+      </c>
+      <c r="W5">
+        <v>0.07858197932053176</v>
+      </c>
+      <c r="X5">
+        <v>0.08910569105691056</v>
+      </c>
+      <c r="Y5">
+        <v>0.0768348623853211</v>
+      </c>
+      <c r="Z5">
+        <v>0.05159010600706714</v>
+      </c>
+      <c r="AA5">
+        <v>0.06631578947368422</v>
+      </c>
+      <c r="AB5">
+        <v>0.05293040293040293</v>
+      </c>
+      <c r="AC5">
+        <v>0.06791666666666667</v>
+      </c>
+      <c r="AD5">
+        <v>0.08302425106990015</v>
+      </c>
+      <c r="AE5">
+        <v>0.06857887874837026</v>
+      </c>
+      <c r="AF5">
+        <v>0.07154696132596684</v>
+      </c>
+      <c r="AG5">
+        <v>0.05295238095238095</v>
+      </c>
+      <c r="AH5">
+        <v>0.0487072560467056</v>
+      </c>
+      <c r="AI5">
+        <v>0.08426229508196721</v>
+      </c>
+      <c r="AJ5">
+        <v>0.04814814814814815</v>
+      </c>
+      <c r="AK5">
+        <v>0.07712177121771217</v>
+      </c>
     </row>
     <row r="6" spans="1:38">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B6">
+        <v>0.06545454545454546</v>
+      </c>
+      <c r="C6">
+        <v>0.07425742574257425</v>
+      </c>
+      <c r="D6">
+        <v>0.075</v>
+      </c>
+      <c r="E6">
+        <v>0.06659436008676789</v>
+      </c>
+      <c r="F6">
+        <v>0.06370370370370369</v>
+      </c>
+      <c r="G6">
+        <v>0.06293103448275862</v>
+      </c>
+      <c r="H6">
+        <v>0.1282352941176471</v>
+      </c>
+      <c r="I6">
+        <v>0.07741935483870968</v>
+      </c>
+      <c r="J6">
+        <v>0.04302103250478011</v>
+      </c>
+      <c r="K6">
+        <v>0.04274028629856851</v>
+      </c>
+      <c r="L6">
+        <v>0.04855967078189301</v>
+      </c>
+      <c r="M6">
+        <v>0.04452173913043479</v>
+      </c>
+      <c r="N6">
+        <v>0.06568627450980392</v>
+      </c>
+      <c r="O6">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="P6">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="Q6">
+        <v>0.07158273381294963</v>
+      </c>
+      <c r="R6">
+        <v>0.05535714285714286</v>
+      </c>
+      <c r="S6">
+        <v>0.03748103186646434</v>
+      </c>
+      <c r="T6">
+        <v>0.04225589225589226</v>
+      </c>
+      <c r="U6">
+        <v>0.05796766743648961</v>
+      </c>
+      <c r="V6">
+        <v>0.0412621359223301</v>
+      </c>
+      <c r="W6">
+        <v>0.0556547619047619</v>
+      </c>
+      <c r="X6">
+        <v>0.06775244299674267</v>
+      </c>
+      <c r="Y6">
+        <v>0.05504587155963303</v>
+      </c>
+      <c r="Z6">
+        <v>0.05534441805225653</v>
+      </c>
+      <c r="AA6">
+        <v>0.05890985324947589</v>
+      </c>
+      <c r="AB6">
+        <v>0.04440366972477064</v>
+      </c>
+      <c r="AC6">
+        <v>0.05352697095435685</v>
+      </c>
+      <c r="AD6">
+        <v>0.06228571428571428</v>
+      </c>
+      <c r="AE6">
+        <v>0.05535248041775458</v>
+      </c>
+      <c r="AF6">
+        <v>0.05459940652818992</v>
+      </c>
+      <c r="AG6">
+        <v>0.04346224677716391</v>
+      </c>
+      <c r="AH6">
+        <v>0.04243421052631579</v>
+      </c>
+      <c r="AI6">
+        <v>0.07045454545454545</v>
+      </c>
+      <c r="AJ6">
+        <v>0.04014598540145985</v>
+      </c>
+      <c r="AK6">
+        <v>0.07583643122676581</v>
+      </c>
     </row>
     <row r="7" spans="1:38">
       <c r="A7" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="B7">
+        <v>0.1090909090909091</v>
+      </c>
+      <c r="C7">
+        <v>0.08580858085808581</v>
+      </c>
+      <c r="D7">
+        <v>0.08137254901960785</v>
+      </c>
+      <c r="E7">
+        <v>0.06984815618221259</v>
+      </c>
+      <c r="F7">
+        <v>0.07654320987654321</v>
+      </c>
+      <c r="G7">
+        <v>0.04504310344827586</v>
+      </c>
+      <c r="H7">
+        <v>0.09411764705882353</v>
+      </c>
+      <c r="I7">
+        <v>0.1451612903225807</v>
+      </c>
+      <c r="J7">
+        <v>0.05105162523900574</v>
+      </c>
+      <c r="K7">
+        <v>0.0474437627811861</v>
+      </c>
+      <c r="L7">
+        <v>0.0897119341563786</v>
+      </c>
+      <c r="M7">
+        <v>0.04573913043478262</v>
+      </c>
+      <c r="N7">
+        <v>0.04730392156862745</v>
+      </c>
+      <c r="O7">
+        <v>0.04137931034482759</v>
+      </c>
+      <c r="P7">
+        <v>0.07983870967741936</v>
+      </c>
+      <c r="Q7">
+        <v>0.0802158273381295</v>
+      </c>
+      <c r="R7">
+        <v>0.04419642857142857</v>
+      </c>
+      <c r="S7">
+        <v>0.02928679817905918</v>
+      </c>
+      <c r="T7">
+        <v>0.06245791245791246</v>
+      </c>
+      <c r="U7">
+        <v>0.06951501154734412</v>
+      </c>
+      <c r="V7">
+        <v>0.04854368932038835</v>
+      </c>
+      <c r="W7">
+        <v>0.05982142857142857</v>
+      </c>
+      <c r="X7">
+        <v>0.08892508143322475</v>
+      </c>
+      <c r="Y7">
+        <v>0.06444954128440367</v>
+      </c>
+      <c r="Z7">
+        <v>0.05415676959619952</v>
+      </c>
+      <c r="AA7">
+        <v>0.05618448637316562</v>
+      </c>
+      <c r="AB7">
+        <v>0.03614678899082568</v>
+      </c>
+      <c r="AC7">
+        <v>0.03817427385892116</v>
+      </c>
+      <c r="AD7">
+        <v>0.06857142857142857</v>
+      </c>
+      <c r="AE7">
+        <v>0.06866840731070496</v>
+      </c>
+      <c r="AF7">
+        <v>0.0427299703264095</v>
+      </c>
+      <c r="AG7">
+        <v>0.03591160220994475</v>
+      </c>
+      <c r="AH7">
+        <v>0.04046052631578947</v>
+      </c>
+      <c r="AI7">
+        <v>0.05941558441558441</v>
+      </c>
+      <c r="AJ7">
+        <v>0.05036496350364963</v>
+      </c>
+      <c r="AK7">
+        <v>0.09814126394052045</v>
       </c>
     </row>
   </sheetData>
@@ -11600,7 +13364,7 @@
         <v>13.8825</v>
       </c>
       <c r="F8">
-        <v>0.2779929445846183</v>
+        <v>0.3791557352822926</v>
       </c>
       <c r="G8">
         <v>0.01111111111111111</v>
@@ -11618,7 +13382,7 @@
         <v>0.02413793103448276</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1011627906976744</v>
       </c>
       <c r="M8">
         <v>1.3825</v>
@@ -11710,7 +13474,7 @@
         <v>3.015333333333333</v>
       </c>
       <c r="F12">
-        <v>0.4052903225806451</v>
+        <v>0.5117419354838709</v>
       </c>
       <c r="G12">
         <v>0.02580645161290323</v>
@@ -11728,7 +13492,7 @@
         <v>0.003225806451612903</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1064516129032258</v>
       </c>
       <c r="M12">
         <v>1.376</v>
@@ -11760,7 +13524,7 @@
         <v>3.967732793522267</v>
       </c>
       <c r="F13">
-        <v>0.2083329112413629</v>
+        <v>0.2776738854533973</v>
       </c>
       <c r="G13">
         <v>0.01901140684410646</v>
@@ -11778,7 +13542,7 @@
         <v>0.01908396946564886</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06934097421203438</v>
       </c>
       <c r="M13">
         <v>0.7226518218623484</v>
@@ -11810,7 +13574,7 @@
         <v>3.115087719298247</v>
       </c>
       <c r="F14">
-        <v>0.2094459467725125</v>
+        <v>0.2824520817418377</v>
       </c>
       <c r="G14">
         <v>0.03920000000000001</v>
@@ -11828,7 +13592,7 @@
         <v>0.01779141104294478</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.07300613496932516</v>
       </c>
       <c r="M14">
         <v>0.3395175438596492</v>
@@ -11860,7 +13624,7 @@
         <v>11.00419913419914</v>
       </c>
       <c r="F15">
-        <v>0.1542088034915903</v>
+        <v>0.2192834303572619</v>
       </c>
       <c r="G15">
         <v>0.03125</v>
@@ -11878,7 +13642,7 @@
         <v>0.01662763466042155</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06507462686567164</v>
       </c>
       <c r="M15">
         <v>6.194567099567101</v>
@@ -11910,7 +13674,7 @@
         <v>7.396879432624116</v>
       </c>
       <c r="F16">
-        <v>0.3570620368040736</v>
+        <v>0.4241977151960334</v>
       </c>
       <c r="G16">
         <v>0.04170124481327801</v>
@@ -11928,7 +13692,7 @@
         <v>0.01547619047619048</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.0671356783919598</v>
       </c>
       <c r="M16">
         <v>1.604160756501182</v>
@@ -11960,7 +13724,7 @@
         <v>5.469416058394163</v>
       </c>
       <c r="F17">
-        <v>0.2215609063054607</v>
+        <v>0.2924209833272835</v>
       </c>
       <c r="G17">
         <v>0.03816254416961131</v>
@@ -11978,7 +13742,7 @@
         <v>0.01536388140161725</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.07086007702182286</v>
       </c>
       <c r="M17">
         <v>0.851824817518248</v>
@@ -12060,7 +13824,7 @@
         <v>5.661441411895211</v>
       </c>
       <c r="F19">
-        <v>0.2593168211992742</v>
+        <v>0.3346283385932807</v>
       </c>
       <c r="G19">
         <v>0.03252194123998317</v>
@@ -12078,7 +13842,7 @@
         <v>0.01459481558307264</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.0753115173940066</v>
       </c>
       <c r="M19">
         <v>1.848120339884755</v>
@@ -12160,7 +13924,7 @@
         <v>-0.4867555501160588</v>
       </c>
       <c r="F21">
-        <v>-0.2648181436111944</v>
+        <v>-0.05130457010245615</v>
       </c>
       <c r="G21">
         <v>-0.1355873825098161</v>
@@ -12210,7 +13974,7 @@
         <v>3.533017241379311</v>
       </c>
       <c r="F22">
-        <v>1.10806484529005</v>
+        <v>1.21005687716256</v>
       </c>
       <c r="G22">
         <v>0.03617886178861788</v>
@@ -12228,7 +13992,7 @@
         <v>0.02952755905511811</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.10199203187251</v>
       </c>
       <c r="M22">
         <v>0.700301724137931</v>
@@ -12260,7 +14024,7 @@
         <v>12.42356009070294</v>
       </c>
       <c r="F23">
-        <v>1.188843677049193</v>
+        <v>1.31150554755279</v>
       </c>
       <c r="G23">
         <v>0.02505446623093682</v>
@@ -12278,7 +14042,7 @@
         <v>0.02302158273381295</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1226618705035971</v>
       </c>
       <c r="M23">
         <v>0.8079818594104298</v>
@@ -12310,7 +14074,7 @@
         <v>14.63834829443446</v>
       </c>
       <c r="F24">
-        <v>0.3249283934644902</v>
+        <v>0.3998172823533791</v>
       </c>
       <c r="G24">
         <v>0.02347972972972973</v>
@@ -12328,7 +14092,7 @@
         <v>0.01880530973451328</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.07488888888888889</v>
       </c>
       <c r="M24">
         <v>1.425834829443446</v>
@@ -12360,7 +14124,7 @@
         <v>12.42740322580645</v>
       </c>
       <c r="F25">
-        <v>0.1884019476102094</v>
+        <v>0.2339923810930196</v>
       </c>
       <c r="G25">
         <v>0.026875</v>
@@ -12378,7 +14142,7 @@
         <v>0.01516936671575847</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.04559043348281017</v>
       </c>
       <c r="M25">
         <v>1.083790322580644</v>
@@ -12410,7 +14174,7 @@
         <v>9.297325301204818</v>
       </c>
       <c r="F26">
-        <v>0.3967841393195194</v>
+        <v>0.4467415135735688</v>
       </c>
       <c r="G26">
         <v>0.04900662251655629</v>
@@ -12428,7 +14192,7 @@
         <v>0.0158894645941278</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>0.04995737425404945</v>
       </c>
       <c r="M26">
         <v>1.055325301204819</v>
@@ -12460,7 +14224,7 @@
         <v>12.3296705882353</v>
       </c>
       <c r="F27">
-        <v>0.1615583525562037</v>
+        <v>0.2309701172620861</v>
       </c>
       <c r="G27">
         <v>0.00788912579957356</v>
@@ -12478,7 +14242,7 @@
         <v>0.01678657074340528</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>0.06941176470588235</v>
       </c>
       <c r="M27">
         <v>0.6748470588235298</v>
@@ -12510,7 +14274,7 @@
         <v>1.5275</v>
       </c>
       <c r="F28">
-        <v>0.131278278543655</v>
+        <v>0.1896724391275966</v>
       </c>
       <c r="G28">
         <v>0.00625</v>
@@ -12528,7 +14292,7 @@
         <v>0.02292682926829268</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>0.0583941605839416</v>
       </c>
       <c r="M28">
         <v>0.885</v>
@@ -12560,7 +14324,7 @@
         <v>10.77488745696055</v>
       </c>
       <c r="F29">
-        <v>0.561430225881611</v>
+        <v>0.6388472864995672</v>
       </c>
       <c r="G29">
         <v>0.02808063434423571</v>
@@ -12578,7 +14342,7 @@
         <v>0.01986664226278931</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>0.07741706061795632</v>
       </c>
       <c r="M29">
         <v>0.9580135159334667</v>
@@ -12610,7 +14374,7 @@
         <v>5.661441411895211</v>
       </c>
       <c r="F30">
-        <v>0.2593168211992742</v>
+        <v>0.3346283385932807</v>
       </c>
       <c r="G30">
         <v>0.03252194123998317</v>
@@ -12628,7 +14392,7 @@
         <v>0.01459481558307264</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>0.0753115173940066</v>
       </c>
       <c r="M30">
         <v>1.848120339884755</v>
@@ -12660,7 +14424,7 @@
         <v>0.9032056808574427</v>
       </c>
       <c r="F31">
-        <v>1.165035894259151</v>
+        <v>0.9091248792172533</v>
       </c>
       <c r="G31">
         <v>-0.1365634007814768</v>
@@ -12678,7 +14442,7 @@
         <v>0.3612122845752876</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>0.02795778516762804</v>
       </c>
       <c r="M31">
         <v>-0.4816281736322394</v>
@@ -12710,7 +14474,7 @@
         <v>2.998152866242038</v>
       </c>
       <c r="F32">
-        <v>0.2298668464516364</v>
+        <v>0.3084488257721682</v>
       </c>
       <c r="G32">
         <v>0.02291666666666667</v>
@@ -12728,7 +14492,7 @@
         <v>0.01847507331378299</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>0.07858197932053176</v>
       </c>
       <c r="M32">
         <v>0.6951273885350322</v>
@@ -12760,7 +14524,7 @@
         <v>9.832151589242057</v>
       </c>
       <c r="F33">
-        <v>0.3161674910763341</v>
+        <v>0.4052731821332446</v>
       </c>
       <c r="G33">
         <v>0.02460136674259681</v>
@@ -12778,7 +14542,7 @@
         <v>0.02045454545454545</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>0.08910569105691056</v>
       </c>
       <c r="M33">
         <v>0.7167237163814191</v>
@@ -12810,7 +14574,7 @@
         <v>13.88166332665333</v>
       </c>
       <c r="F34">
-        <v>0.2668943558070649</v>
+        <v>0.3437292181923861</v>
       </c>
       <c r="G34">
         <v>0.02315608919382504</v>
@@ -12828,7 +14592,7 @@
         <v>0.01811926605504587</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>0.0768348623853211</v>
       </c>
       <c r="M34">
         <v>1.244348697394789</v>
@@ -12860,7 +14624,7 @@
         <v>17.42028199566159</v>
       </c>
       <c r="F35">
-        <v>0.198232537806473</v>
+        <v>0.2498226438135402</v>
       </c>
       <c r="G35">
         <v>0.03178137651821863</v>
@@ -12878,7 +14642,7 @@
         <v>0.02102803738317757</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>0.05159010600706714</v>
       </c>
       <c r="M35">
         <v>1.446073752711498</v>
@@ -12910,7 +14674,7 @@
         <v>21.0012268907563</v>
       </c>
       <c r="F36">
-        <v>0.4301787020365064</v>
+        <v>0.4964944915101906</v>
       </c>
       <c r="G36">
         <v>0.0274015748031496</v>
@@ -12928,7 +14692,7 @@
         <v>0.01564482029598309</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>0.06631578947368422</v>
       </c>
       <c r="M36">
         <v>0.6447731092436972</v>
@@ -12960,7 +14724,7 @@
         <v>23.18463157894737</v>
       </c>
       <c r="F37">
-        <v>0.1635264224888972</v>
+        <v>0.2164568254193001</v>
       </c>
       <c r="G37">
         <v>0.02466216216216216</v>
@@ -12978,7 +14742,7 @@
         <v>0.01297989031078611</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>0.05293040293040293</v>
       </c>
       <c r="M37">
         <v>1.035824561403509</v>
@@ -13010,7 +14774,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.0848001125136247</v>
+        <v>0.1527167791802914</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -13028,7 +14792,7 @@
         <v>0.01757322175732218</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>0.06791666666666667</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -13060,7 +14824,7 @@
         <v>14.71968470791712</v>
       </c>
       <c r="F39">
-        <v>0.2674777259444854</v>
+        <v>0.336704197806805</v>
       </c>
       <c r="G39">
         <v>0.02575320601443649</v>
@@ -13078,7 +14842,7 @@
         <v>0.01778360546888684</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>0.06922647186231962</v>
       </c>
       <c r="M39">
         <v>0.963811870944991</v>
@@ -13110,7 +14874,7 @@
         <v>10.77488745696055</v>
       </c>
       <c r="F40">
-        <v>0.561430225881611</v>
+        <v>0.6388472864995672</v>
       </c>
       <c r="G40">
         <v>0.02808063434423571</v>
@@ -13128,7 +14892,7 @@
         <v>0.01986664226278931</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>0.07741706061795632</v>
       </c>
       <c r="M40">
         <v>0.9580135159334667</v>
@@ -13160,7 +14924,7 @@
         <v>0.3661102973663304</v>
       </c>
       <c r="F41">
-        <v>-0.5235779735149342</v>
+        <v>-0.4729504140939431</v>
       </c>
       <c r="G41">
         <v>-0.08288375188635966</v>
@@ -13178,7 +14942,7 @@
         <v>-0.1048509741278245</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>-0.1057982399519952</v>
       </c>
       <c r="M41">
         <v>0.00605247725119451</v>
@@ -13210,7 +14974,7 @@
         <v>5.816899441340782</v>
       </c>
       <c r="F42">
-        <v>0.2733503332296627</v>
+        <v>0.3563745842995629</v>
       </c>
       <c r="G42">
         <v>0.03706666666666666</v>
@@ -13228,7 +14992,7 @@
         <v>0.02507122507122507</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>0.08302425106990015</v>
       </c>
       <c r="M42">
         <v>0.6017877094972064</v>
@@ -13260,7 +15024,7 @@
         <v>5.941802884615385</v>
       </c>
       <c r="F43">
-        <v>0.3963647579389843</v>
+        <v>0.4649436366873546</v>
       </c>
       <c r="G43">
         <v>0.02597701149425288</v>
@@ -13278,7 +15042,7 @@
         <v>0.01276041666666667</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>0.06857887874837026</v>
       </c>
       <c r="M43">
         <v>0.6124038461538462</v>
@@ -13310,7 +15074,7 @@
         <v>12.32520912547529</v>
       </c>
       <c r="F44">
-        <v>0.4457228617080237</v>
+        <v>0.5172698230339905</v>
       </c>
       <c r="G44">
         <v>0.03083778966131907</v>
@@ -13328,7 +15092,7 @@
         <v>0.01963824289405685</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>0.07154696132596684</v>
       </c>
       <c r="M44">
         <v>2.318631178707225</v>
@@ -13360,7 +15124,7 @@
         <v>12.81882618510159</v>
       </c>
       <c r="F45">
-        <v>0.1699979660333759</v>
+        <v>0.2229503469857569</v>
       </c>
       <c r="G45">
         <v>0.0311965811965812</v>
@@ -13378,7 +15142,7 @@
         <v>0.01676528599605523</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>0.05295238095238095</v>
       </c>
       <c r="M45">
         <v>1.762302483069977</v>
@@ -13410,7 +15174,7 @@
         <v>11.74291379310345</v>
       </c>
       <c r="F46">
-        <v>0.1589812875167443</v>
+        <v>0.2076885435634499</v>
       </c>
       <c r="G46">
         <v>0.02968253968253968</v>
@@ -13428,7 +15192,7 @@
         <v>0.01353637901861252</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>0.0487072560467056</v>
       </c>
       <c r="M46">
         <v>1.222</v>
@@ -13460,7 +15224,7 @@
         <v>17.2937125748503</v>
       </c>
       <c r="F47">
-        <v>0.2168832694374987</v>
+        <v>0.3011455645194659</v>
       </c>
       <c r="G47">
         <v>0.05027027027027028</v>
@@ -13478,7 +15242,7 @@
         <v>0.01821192052980132</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>0.08426229508196721</v>
       </c>
       <c r="M47">
         <v>0.5961077844311375</v>
@@ -13510,7 +15274,7 @@
         <v>1.426666666666667</v>
       </c>
       <c r="F48">
-        <v>0.06587131191149229</v>
+        <v>0.1140194600596404</v>
       </c>
       <c r="G48">
         <v>0.008695652173913044</v>
@@ -13528,7 +15292,7 @@
         <v>0.007518796992481203</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>0.04814814814814815</v>
       </c>
       <c r="M48">
         <v>0.3166666666666667</v>
@@ -13560,7 +15324,7 @@
         <v>10.9898940007478</v>
       </c>
       <c r="F49">
-        <v>0.2768834126440483</v>
+        <v>0.3450620831815968</v>
       </c>
       <c r="G49">
         <v>0.03417180982860496</v>
@@ -13578,7 +15342,7 @@
         <v>0.01766391169606961</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>0.0681786705375485</v>
       </c>
       <c r="M49">
         <v>1.185538833643232</v>
@@ -13610,7 +15374,7 @@
         <v>14.71968470791712</v>
       </c>
       <c r="F50">
-        <v>0.2674777259444854</v>
+        <v>0.336704197806805</v>
       </c>
       <c r="G50">
         <v>0.02575320601443649</v>
@@ -13628,7 +15392,7 @@
         <v>0.01778360546888684</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>0.06922647186231962</v>
       </c>
       <c r="M50">
         <v>0.963811870944991</v>
@@ -13660,7 +15424,7 @@
         <v>-0.253387948259735</v>
       </c>
       <c r="F51">
-        <v>0.0351643736552294</v>
+        <v>0.02482263490990788</v>
       </c>
       <c r="G51">
         <v>0.326895370209412</v>
@@ -13678,7 +15442,7 @@
         <v>-0.006730568389331615</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>-0.01513584755344777</v>
       </c>
       <c r="M51">
         <v>0.2300521184500914</v>
@@ -13710,7 +15474,7 @@
         <v>3.775806451612903</v>
       </c>
       <c r="F52">
-        <v>0.3556375524085349</v>
+        <v>0.432759323626247</v>
       </c>
       <c r="G52">
         <v>0.03358490566037736</v>
@@ -13728,7 +15492,7 @@
         <v>0.02600732600732601</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>0.07712177121771217</v>
       </c>
       <c r="M52">
         <v>1.073225806451613</v>
@@ -13889,6 +15653,12 @@
       <c r="G4">
         <v>5096</v>
       </c>
+      <c r="H4">
+        <v>5158</v>
+      </c>
+      <c r="I4">
+        <v>5158</v>
+      </c>
       <c r="J4">
         <v>34.1</v>
       </c>
@@ -13896,7 +15666,7 @@
         <v>12</v>
       </c>
       <c r="L4">
-        <v>887.9220862455065</v>
+        <v>1764.71994553252</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -13921,6 +15691,12 @@
       <c r="G5">
         <v>18788</v>
       </c>
+      <c r="H5">
+        <v>18714</v>
+      </c>
+      <c r="I5">
+        <v>18714</v>
+      </c>
       <c r="J5">
         <v>114.4</v>
       </c>
@@ -13928,7 +15704,7 @@
         <v>26</v>
       </c>
       <c r="L5">
-        <v>1131.536678449761</v>
+        <v>2058.119871491287</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -13953,6 +15729,12 @@
       <c r="G6">
         <v>16271</v>
       </c>
+      <c r="H6">
+        <v>16283</v>
+      </c>
+      <c r="I6">
+        <v>16283</v>
+      </c>
       <c r="J6">
         <v>124.4</v>
       </c>
@@ -13960,7 +15742,7 @@
         <v>33.2</v>
       </c>
       <c r="L6">
-        <v>891.6526438662153</v>
+        <v>1708.210248785971</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -13985,6 +15767,12 @@
       <c r="G7">
         <v>17617</v>
       </c>
+      <c r="H7">
+        <v>17692</v>
+      </c>
+      <c r="I7">
+        <v>17692</v>
+      </c>
       <c r="J7">
         <v>138.1</v>
       </c>
@@ -13992,7 +15780,7 @@
         <v>32.2</v>
       </c>
       <c r="L7">
-        <v>869.31013185107</v>
+        <v>1671.657652862713</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -14017,6 +15805,12 @@
       <c r="G8">
         <v>17566</v>
       </c>
+      <c r="H8">
+        <v>17355</v>
+      </c>
+      <c r="I8">
+        <v>17355</v>
+      </c>
       <c r="J8">
         <v>135.8</v>
       </c>
@@ -14024,7 +15818,7 @@
         <v>31</v>
       </c>
       <c r="L8">
-        <v>886.4310973482185</v>
+        <v>1652.612811068151</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -14049,6 +15843,12 @@
       <c r="G9">
         <v>19644</v>
       </c>
+      <c r="H9">
+        <v>20175</v>
+      </c>
+      <c r="I9">
+        <v>20175</v>
+      </c>
       <c r="J9">
         <v>143.2</v>
       </c>
@@ -14056,7 +15856,7 @@
         <v>20.9</v>
       </c>
       <c r="L9">
-        <v>920.3962198003009</v>
+        <v>1852.633930545781</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -14078,6 +15878,12 @@
       <c r="G10">
         <v>4842</v>
       </c>
+      <c r="H10">
+        <v>4833</v>
+      </c>
+      <c r="I10">
+        <v>4833</v>
+      </c>
       <c r="J10">
         <v>33.3</v>
       </c>
@@ -14085,7 +15891,7 @@
         <v>8</v>
       </c>
       <c r="L10">
-        <v>840.9797280505319</v>
+        <v>1632.200562301027</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -14110,6 +15916,12 @@
       <c r="G11">
         <v>15830.33333333333</v>
       </c>
+      <c r="H11">
+        <v>15896.16666666667</v>
+      </c>
+      <c r="I11">
+        <v>15896.16666666667</v>
+      </c>
       <c r="J11">
         <v>115</v>
       </c>
@@ -14117,7 +15929,7 @@
         <v>25.88333333333334</v>
       </c>
       <c r="L11">
-        <v>892.0458163331964</v>
+        <v>1725.634798158882</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -14149,6 +15961,12 @@
       <c r="G14">
         <v>2128</v>
       </c>
+      <c r="H14">
+        <v>2128</v>
+      </c>
+      <c r="I14">
+        <v>2128</v>
+      </c>
       <c r="J14">
         <v>13.8</v>
       </c>
@@ -14156,7 +15974,7 @@
         <v>4.5</v>
       </c>
       <c r="L14">
-        <v>911.0039846105421</v>
+        <v>1779.782065970591</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -14181,6 +15999,12 @@
       <c r="G15">
         <v>15742</v>
       </c>
+      <c r="H15">
+        <v>15550</v>
+      </c>
+      <c r="I15">
+        <v>15550</v>
+      </c>
       <c r="J15">
         <v>127</v>
       </c>
@@ -14188,7 +16012,7 @@
         <v>26.7</v>
       </c>
       <c r="L15">
-        <v>897.8940838038473</v>
+        <v>1722.141354822426</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -14213,6 +16037,12 @@
       <c r="G16">
         <v>14655</v>
       </c>
+      <c r="H16">
+        <v>14655</v>
+      </c>
+      <c r="I16">
+        <v>14655</v>
+      </c>
       <c r="J16">
         <v>129.6</v>
       </c>
@@ -14220,7 +16050,7 @@
         <v>23.2</v>
       </c>
       <c r="L16">
-        <v>847.8084184174002</v>
+        <v>1683.319906002677</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -14245,6 +16075,12 @@
       <c r="G17">
         <v>9414</v>
       </c>
+      <c r="H17">
+        <v>7668</v>
+      </c>
+      <c r="I17">
+        <v>7668</v>
+      </c>
       <c r="J17">
         <v>83.49999999999999</v>
       </c>
@@ -14252,7 +16088,7 @@
         <v>21.8</v>
       </c>
       <c r="L17">
-        <v>934.4039085705753</v>
+        <v>1551.261372094705</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -14277,6 +16113,12 @@
       <c r="G18">
         <v>15716</v>
       </c>
+      <c r="H18">
+        <v>16742</v>
+      </c>
+      <c r="I18">
+        <v>16742</v>
+      </c>
       <c r="J18">
         <v>118.8</v>
       </c>
@@ -14284,7 +16126,7 @@
         <v>26.3</v>
       </c>
       <c r="L18">
-        <v>921.0212207292085</v>
+        <v>1909.197330552458</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -14309,6 +16151,12 @@
       <c r="G19">
         <v>15979</v>
       </c>
+      <c r="H19">
+        <v>17195</v>
+      </c>
+      <c r="I19">
+        <v>17195</v>
+      </c>
       <c r="J19">
         <v>98.7</v>
       </c>
@@ -14316,7 +16164,7 @@
         <v>19.3</v>
       </c>
       <c r="L19">
-        <v>1079.534863666664</v>
+        <v>2240.520300663753</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -14341,6 +16189,12 @@
       <c r="G20">
         <v>1059</v>
       </c>
+      <c r="H20">
+        <v>1054</v>
+      </c>
+      <c r="I20">
+        <v>1054</v>
+      </c>
       <c r="J20">
         <v>4</v>
       </c>
@@ -14348,7 +16202,7 @@
         <v>1.2</v>
       </c>
       <c r="L20">
-        <v>1434.618475555975</v>
+        <v>2871.46190989941</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -14373,6 +16227,12 @@
       <c r="G21">
         <v>12272.33333333333</v>
       </c>
+      <c r="H21">
+        <v>12323</v>
+      </c>
+      <c r="I21">
+        <v>12323</v>
+      </c>
       <c r="J21">
         <v>95.23333333333335</v>
       </c>
@@ -14380,7 +16240,7 @@
         <v>20.3</v>
       </c>
       <c r="L21">
-        <v>978.3199976554824</v>
+        <v>1900.326334436972</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -14405,6 +16265,12 @@
       <c r="G22">
         <v>15830.33333333333</v>
       </c>
+      <c r="H22">
+        <v>15896.16666666667</v>
+      </c>
+      <c r="I22">
+        <v>15896.16666666667</v>
+      </c>
       <c r="J22">
         <v>115</v>
       </c>
@@ -14412,7 +16278,7 @@
         <v>25.88333333333334</v>
       </c>
       <c r="L22">
-        <v>892.0458163331964</v>
+        <v>1725.634798158882</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -14437,6 +16303,12 @@
       <c r="G23">
         <v>-0.224758375271104</v>
       </c>
+      <c r="H23">
+        <v>-0.2247816559547899</v>
+      </c>
+      <c r="I23">
+        <v>-0.2247816559547899</v>
+      </c>
       <c r="J23">
         <v>-0.1718840579710144</v>
       </c>
@@ -14444,7 +16316,7 @@
         <v>-0.2157115260785577</v>
       </c>
       <c r="L23">
-        <v>0.09671496658873502</v>
+        <v>0.1012332021030595</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -14466,6 +16338,12 @@
       <c r="G24">
         <v>13683</v>
       </c>
+      <c r="H24">
+        <v>13206</v>
+      </c>
+      <c r="I24">
+        <v>13206</v>
+      </c>
       <c r="J24">
         <v>88.80000000000001</v>
       </c>
@@ -14473,7 +16351,7 @@
         <v>19.8</v>
       </c>
       <c r="L24">
-        <v>994.4936188862182</v>
+        <v>1864.668014778846</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -14498,6 +16376,12 @@
       <c r="G25">
         <v>16451</v>
       </c>
+      <c r="H25">
+        <v>16451</v>
+      </c>
+      <c r="I25">
+        <v>16451</v>
+      </c>
       <c r="J25">
         <v>109.2</v>
       </c>
@@ -14505,7 +16389,7 @@
         <v>22.3</v>
       </c>
       <c r="L25">
-        <v>1045.205133846646</v>
+        <v>1925.005984559094</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -14530,6 +16414,12 @@
       <c r="G26">
         <v>15598</v>
       </c>
+      <c r="H26">
+        <v>15358</v>
+      </c>
+      <c r="I26">
+        <v>15358</v>
+      </c>
       <c r="J26">
         <v>125.3</v>
       </c>
@@ -14537,7 +16427,7 @@
         <v>19.8</v>
       </c>
       <c r="L26">
-        <v>991.2705839860084</v>
+        <v>1761.398569561961</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -14562,6 +16452,12 @@
       <c r="G27">
         <v>15445</v>
       </c>
+      <c r="H27">
+        <v>15201</v>
+      </c>
+      <c r="I27">
+        <v>15201</v>
+      </c>
       <c r="J27">
         <v>121</v>
       </c>
@@ -14569,7 +16465,7 @@
         <v>19.3</v>
       </c>
       <c r="L27">
-        <v>999.9493209151948</v>
+        <v>1940.799366272546</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -14594,6 +16490,12 @@
       <c r="G28">
         <v>16284</v>
       </c>
+      <c r="H28">
+        <v>16608</v>
+      </c>
+      <c r="I28">
+        <v>16608</v>
+      </c>
       <c r="J28">
         <v>126</v>
       </c>
@@ -14601,7 +16503,7 @@
         <v>37.1</v>
       </c>
       <c r="L28">
-        <v>849.4467255930637</v>
+        <v>1696.358454779471</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -14626,6 +16528,12 @@
       <c r="G29">
         <v>18173</v>
       </c>
+      <c r="H29">
+        <v>18490</v>
+      </c>
+      <c r="I29">
+        <v>18490</v>
+      </c>
       <c r="J29">
         <v>100.5</v>
       </c>
@@ -14633,7 +16541,7 @@
         <v>30.1</v>
       </c>
       <c r="L29">
-        <v>1201.764709535019</v>
+        <v>2250.14823854642</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -14658,6 +16566,12 @@
       <c r="G30">
         <v>5443</v>
       </c>
+      <c r="H30">
+        <v>5548</v>
+      </c>
+      <c r="I30">
+        <v>5548</v>
+      </c>
       <c r="J30">
         <v>45.40000000000001</v>
       </c>
@@ -14665,7 +16579,7 @@
         <v>10</v>
       </c>
       <c r="L30">
-        <v>707.8213317849541</v>
+        <v>1537.418111860073</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -14690,6 +16604,12 @@
       <c r="G31">
         <v>15939</v>
       </c>
+      <c r="H31">
+        <v>15885.66666666667</v>
+      </c>
+      <c r="I31">
+        <v>15885.66666666667</v>
+      </c>
       <c r="J31">
         <v>111.8</v>
       </c>
@@ -14697,7 +16617,7 @@
         <v>24.73333333333333</v>
       </c>
       <c r="L31">
-        <v>1017.053585347759</v>
+        <v>1962.435353199479</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -14722,6 +16642,12 @@
       <c r="G32">
         <v>12272.33333333333</v>
       </c>
+      <c r="H32">
+        <v>12323</v>
+      </c>
+      <c r="I32">
+        <v>12323</v>
+      </c>
       <c r="J32">
         <v>95.23333333333335</v>
       </c>
@@ -14729,7 +16655,7 @@
         <v>20.3</v>
       </c>
       <c r="L32">
-        <v>978.3199976554824</v>
+        <v>1900.326334436972</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -14754,6 +16680,12 @@
       <c r="G33">
         <v>0.2987750224081267</v>
       </c>
+      <c r="H33">
+        <v>0.2891070897238226</v>
+      </c>
+      <c r="I33">
+        <v>0.2891070897238226</v>
+      </c>
       <c r="J33">
         <v>0.1739586979348966</v>
       </c>
@@ -14761,7 +16693,7 @@
         <v>0.2183908045977012</v>
       </c>
       <c r="L33">
-        <v>0.03959194106744279</v>
+        <v>0.03268334371680859</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -14783,6 +16715,12 @@
       <c r="G34">
         <v>17630</v>
       </c>
+      <c r="H34">
+        <v>17475</v>
+      </c>
+      <c r="I34">
+        <v>17475</v>
+      </c>
       <c r="J34">
         <v>95.90000000000001</v>
       </c>
@@ -14790,7 +16728,7 @@
         <v>20.1</v>
       </c>
       <c r="L34">
-        <v>1217.47142502878</v>
+        <v>2227.885642635886</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -14815,6 +16753,12 @@
       <c r="G35">
         <v>16303</v>
       </c>
+      <c r="H35">
+        <v>16004</v>
+      </c>
+      <c r="I35">
+        <v>16004</v>
+      </c>
       <c r="J35">
         <v>114</v>
       </c>
@@ -14822,7 +16766,7 @@
         <v>27.3</v>
       </c>
       <c r="L35">
-        <v>995.7229645373437</v>
+        <v>1788.584309765993</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -14847,6 +16791,12 @@
       <c r="G36">
         <v>18490</v>
       </c>
+      <c r="H36">
+        <v>18471</v>
+      </c>
+      <c r="I36">
+        <v>18471</v>
+      </c>
       <c r="J36">
         <v>125.6</v>
       </c>
@@ -14854,7 +16804,7 @@
         <v>28.1</v>
       </c>
       <c r="L36">
-        <v>1022.551125685373</v>
+        <v>1894.933694049561</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -14879,6 +16829,12 @@
       <c r="G37">
         <v>14962</v>
       </c>
+      <c r="H37">
+        <v>14893</v>
+      </c>
+      <c r="I37">
+        <v>14893</v>
+      </c>
       <c r="J37">
         <v>108.9</v>
       </c>
@@ -14886,7 +16842,7 @@
         <v>22.8</v>
       </c>
       <c r="L37">
-        <v>1043.69059068688</v>
+        <v>1974.129250251394</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -14911,6 +16867,12 @@
       <c r="G38">
         <v>17750</v>
       </c>
+      <c r="H38">
+        <v>17761</v>
+      </c>
+      <c r="I38">
+        <v>17761</v>
+      </c>
       <c r="J38">
         <v>117.4</v>
       </c>
@@ -14918,7 +16880,7 @@
         <v>26.8</v>
       </c>
       <c r="L38">
-        <v>1081.613592917617</v>
+        <v>2033.002385489662</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -14943,6 +16905,12 @@
       <c r="G39">
         <v>18696</v>
       </c>
+      <c r="H39">
+        <v>18529</v>
+      </c>
+      <c r="I39">
+        <v>18529</v>
+      </c>
       <c r="J39">
         <v>106.9</v>
       </c>
@@ -14950,7 +16918,7 @@
         <v>19.7</v>
       </c>
       <c r="L39">
-        <v>1124.448238943729</v>
+        <v>2206.130693425354</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -14975,6 +16943,12 @@
       <c r="G40">
         <v>9522</v>
       </c>
+      <c r="H40">
+        <v>9745</v>
+      </c>
+      <c r="I40">
+        <v>9745</v>
+      </c>
       <c r="J40">
         <v>49.4</v>
       </c>
@@ -14982,7 +16956,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L40">
-        <v>1180.732193427201</v>
+        <v>2371.215417304196</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -15007,6 +16981,12 @@
       <c r="G41">
         <v>17305.16666666667</v>
       </c>
+      <c r="H41">
+        <v>17188.83333333333</v>
+      </c>
+      <c r="I41">
+        <v>17188.83333333333</v>
+      </c>
       <c r="J41">
         <v>111.45</v>
       </c>
@@ -15014,7 +16994,7 @@
         <v>24.13333333333333</v>
       </c>
       <c r="L41">
-        <v>1083.250807516076</v>
+        <v>2071.08744305547</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -15039,6 +17019,12 @@
       <c r="G42">
         <v>15939</v>
       </c>
+      <c r="H42">
+        <v>15885.66666666667</v>
+      </c>
+      <c r="I42">
+        <v>15885.66666666667</v>
+      </c>
       <c r="J42">
         <v>111.8</v>
       </c>
@@ -15046,7 +17032,7 @@
         <v>24.73333333333333</v>
       </c>
       <c r="L42">
-        <v>1017.053585347759</v>
+        <v>1962.435353199479</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -15071,6 +17057,12 @@
       <c r="G43">
         <v>0.08571219440784672</v>
       </c>
+      <c r="H43">
+        <v>0.0820341188073106</v>
+      </c>
+      <c r="I43">
+        <v>0.0820341188073106</v>
+      </c>
       <c r="J43">
         <v>-0.003130590339892714</v>
       </c>
@@ -15078,7 +17070,7 @@
         <v>-0.02425876010781691</v>
       </c>
       <c r="L43">
-        <v>0.06508725117534664</v>
+        <v>0.05536594603172507</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -15100,6 +17092,12 @@
       <c r="G44">
         <v>15976</v>
       </c>
+      <c r="H44">
+        <v>15970</v>
+      </c>
+      <c r="I44">
+        <v>15970</v>
+      </c>
       <c r="J44">
         <v>115.1</v>
       </c>
@@ -15107,7 +17105,7 @@
         <v>24</v>
       </c>
       <c r="L44">
-        <v>955.0348321466801</v>
+        <v>1835.605728021314</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -15132,6 +17130,12 @@
       <c r="G45">
         <v>15599</v>
       </c>
+      <c r="H45">
+        <v>15574</v>
+      </c>
+      <c r="I45">
+        <v>15574</v>
+      </c>
       <c r="J45">
         <v>106.8</v>
       </c>
@@ -15139,7 +17143,7 @@
         <v>26.3</v>
       </c>
       <c r="L45">
-        <v>966.3971398591561</v>
+        <v>1830.100628540105</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -15164,6 +17168,12 @@
       <c r="G46">
         <v>15875</v>
       </c>
+      <c r="H46">
+        <v>13712</v>
+      </c>
+      <c r="I46">
+        <v>13712</v>
+      </c>
       <c r="J46">
         <v>96.40000000000001</v>
       </c>
@@ -15171,7 +17181,7 @@
         <v>14.4</v>
       </c>
       <c r="L46">
-        <v>1296.179260566743</v>
+        <v>2201.286720545593</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -15196,6 +17206,12 @@
       <c r="G47">
         <v>15250</v>
       </c>
+      <c r="H47">
+        <v>17228</v>
+      </c>
+      <c r="I47">
+        <v>17228</v>
+      </c>
       <c r="J47">
         <v>108.9</v>
       </c>
@@ -15203,7 +17219,7 @@
         <v>19.5</v>
       </c>
       <c r="L47">
-        <v>1001.258411215639</v>
+        <v>2009.167742063054</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -15228,6 +17244,12 @@
       <c r="G48">
         <v>18711</v>
       </c>
+      <c r="H48">
+        <v>18216</v>
+      </c>
+      <c r="I48">
+        <v>18216</v>
+      </c>
       <c r="J48">
         <v>117.6</v>
       </c>
@@ -15235,7 +17257,7 @@
         <v>24.6</v>
       </c>
       <c r="L48">
-        <v>1144.920089523244</v>
+        <v>2127.433195264198</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -15260,6 +17282,12 @@
       <c r="G49">
         <v>13897</v>
       </c>
+      <c r="H49">
+        <v>14925</v>
+      </c>
+      <c r="I49">
+        <v>14925</v>
+      </c>
       <c r="J49">
         <v>93.40000000000001</v>
       </c>
@@ -15267,7 +17295,7 @@
         <v>18.3</v>
       </c>
       <c r="L49">
-        <v>960.305869134926</v>
+        <v>1880.317025913093</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -15292,6 +17320,12 @@
       <c r="G50">
         <v>2880</v>
       </c>
+      <c r="H50">
+        <v>3394</v>
+      </c>
+      <c r="I50">
+        <v>3394</v>
+      </c>
       <c r="J50">
         <v>19.5</v>
       </c>
@@ -15299,7 +17333,7 @@
         <v>6.899999999999999</v>
       </c>
       <c r="L50">
-        <v>884.6239651408274</v>
+        <v>1981.705385404066</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -15324,6 +17358,12 @@
       <c r="G51">
         <v>15884.66666666667</v>
       </c>
+      <c r="H51">
+        <v>15937.5</v>
+      </c>
+      <c r="I51">
+        <v>15937.5</v>
+      </c>
       <c r="J51">
         <v>106.3666666666667</v>
       </c>
@@ -15331,7 +17371,7 @@
         <v>21.18333333333333</v>
       </c>
       <c r="L51">
-        <v>1035.494789957936</v>
+        <v>2005.639321080115</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -15356,6 +17396,12 @@
       <c r="G52">
         <v>17305.16666666667</v>
       </c>
+      <c r="H52">
+        <v>17188.83333333333</v>
+      </c>
+      <c r="I52">
+        <v>17188.83333333333</v>
+      </c>
       <c r="J52">
         <v>111.45</v>
       </c>
@@ -15363,7 +17409,7 @@
         <v>24.13333333333333</v>
       </c>
       <c r="L52">
-        <v>1083.250807516076</v>
+        <v>2071.08744305547</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -15388,6 +17434,12 @@
       <c r="G53">
         <v>-0.08208531170844946</v>
       </c>
+      <c r="H53">
+        <v>-0.07279920103167747</v>
+      </c>
+      <c r="I53">
+        <v>-0.07279920103167747</v>
+      </c>
       <c r="J53">
         <v>-0.04561088679527425</v>
       </c>
@@ -15395,7 +17447,7 @@
         <v>-0.1222375690607733</v>
       </c>
       <c r="L53">
-        <v>-0.04408583610257832</v>
+        <v>-0.03160084920354689</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -15417,6 +17469,12 @@
       <c r="G54">
         <v>18655</v>
       </c>
+      <c r="H54">
+        <v>18249</v>
+      </c>
+      <c r="I54">
+        <v>18249</v>
+      </c>
       <c r="J54">
         <v>102.9</v>
       </c>
@@ -15424,7 +17482,7 @@
         <v>26.4</v>
       </c>
       <c r="L54">
-        <v>1110.15931565432</v>
+        <v>2021.81405914491</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -15475,6 +17533,12 @@
       <c r="G56">
         <v>18655</v>
       </c>
+      <c r="H56">
+        <v>18249</v>
+      </c>
+      <c r="I56">
+        <v>18249</v>
+      </c>
       <c r="J56">
         <v>102.9</v>
       </c>
@@ -15504,6 +17568,12 @@
       <c r="G57">
         <v>15884.66666666667</v>
       </c>
+      <c r="H57">
+        <v>15937.5</v>
+      </c>
+      <c r="I57">
+        <v>15937.5</v>
+      </c>
       <c r="J57">
         <v>106.3666666666667</v>
       </c>
@@ -15511,7 +17581,7 @@
         <v>21.18333333333333</v>
       </c>
       <c r="L57">
-        <v>1035.494789957936</v>
+        <v>2005.639321080115</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -15532,6 +17602,12 @@
       </c>
       <c r="G58">
         <v>0.1744029882066565</v>
+      </c>
+      <c r="H58">
+        <v>0.1450352941176472</v>
+      </c>
+      <c r="I58">
+        <v>0.1450352941176472</v>
       </c>
       <c r="J58">
         <v>-0.03259166405515512</v>
@@ -16361,123 +18437,339 @@
       <c r="A9" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="B9">
+        <v>5158</v>
+      </c>
+      <c r="C9">
+        <v>18714</v>
+      </c>
+      <c r="D9">
+        <v>16283</v>
+      </c>
+      <c r="E9">
+        <v>17692</v>
+      </c>
+      <c r="F9">
+        <v>17355</v>
+      </c>
+      <c r="G9">
+        <v>20175</v>
+      </c>
+      <c r="H9">
+        <v>4833</v>
+      </c>
+      <c r="I9">
+        <v>2128</v>
+      </c>
+      <c r="J9">
+        <v>15550</v>
+      </c>
+      <c r="K9">
+        <v>14655</v>
+      </c>
+      <c r="L9">
+        <v>7668</v>
+      </c>
+      <c r="M9">
+        <v>16742</v>
+      </c>
+      <c r="N9">
+        <v>17195</v>
+      </c>
+      <c r="O9">
+        <v>1054</v>
+      </c>
+      <c r="P9">
+        <v>13206</v>
+      </c>
+      <c r="Q9">
+        <v>16451</v>
+      </c>
+      <c r="R9">
+        <v>15358</v>
+      </c>
+      <c r="S9">
+        <v>15201</v>
+      </c>
+      <c r="T9">
+        <v>16608</v>
+      </c>
+      <c r="U9">
+        <v>18490</v>
+      </c>
+      <c r="V9">
+        <v>5548</v>
+      </c>
+      <c r="W9">
+        <v>17475</v>
+      </c>
+      <c r="X9">
+        <v>16004</v>
+      </c>
+      <c r="Y9">
+        <v>18471</v>
+      </c>
+      <c r="Z9">
+        <v>14893</v>
+      </c>
+      <c r="AA9">
+        <v>17761</v>
+      </c>
+      <c r="AB9">
+        <v>18529</v>
+      </c>
+      <c r="AC9">
+        <v>9745</v>
+      </c>
+      <c r="AD9">
+        <v>15970</v>
+      </c>
+      <c r="AE9">
+        <v>15574</v>
+      </c>
+      <c r="AF9">
+        <v>13712</v>
+      </c>
+      <c r="AG9">
+        <v>17228</v>
+      </c>
+      <c r="AH9">
+        <v>18216</v>
+      </c>
+      <c r="AI9">
+        <v>14925</v>
+      </c>
+      <c r="AJ9">
+        <v>3394</v>
+      </c>
+      <c r="AK9">
+        <v>18249</v>
+      </c>
     </row>
     <row r="10" spans="1:38">
       <c r="A10" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="B10">
+        <v>5158</v>
+      </c>
+      <c r="C10">
+        <v>18714</v>
+      </c>
+      <c r="D10">
+        <v>16283</v>
+      </c>
+      <c r="E10">
+        <v>17692</v>
+      </c>
+      <c r="F10">
+        <v>17355</v>
+      </c>
+      <c r="G10">
+        <v>20175</v>
+      </c>
+      <c r="H10">
+        <v>4833</v>
+      </c>
+      <c r="I10">
+        <v>2128</v>
+      </c>
+      <c r="J10">
+        <v>15550</v>
+      </c>
+      <c r="K10">
+        <v>14655</v>
+      </c>
+      <c r="L10">
+        <v>7668</v>
+      </c>
+      <c r="M10">
+        <v>16742</v>
+      </c>
+      <c r="N10">
+        <v>17195</v>
+      </c>
+      <c r="O10">
+        <v>1054</v>
+      </c>
+      <c r="P10">
+        <v>13206</v>
+      </c>
+      <c r="Q10">
+        <v>16451</v>
+      </c>
+      <c r="R10">
+        <v>15358</v>
+      </c>
+      <c r="S10">
+        <v>15201</v>
+      </c>
+      <c r="T10">
+        <v>16608</v>
+      </c>
+      <c r="U10">
+        <v>18490</v>
+      </c>
+      <c r="V10">
+        <v>5548</v>
+      </c>
+      <c r="W10">
+        <v>17475</v>
+      </c>
+      <c r="X10">
+        <v>16004</v>
+      </c>
+      <c r="Y10">
+        <v>18471</v>
+      </c>
+      <c r="Z10">
+        <v>14893</v>
+      </c>
+      <c r="AA10">
+        <v>17761</v>
+      </c>
+      <c r="AB10">
+        <v>18529</v>
+      </c>
+      <c r="AC10">
+        <v>9745</v>
+      </c>
+      <c r="AD10">
+        <v>15970</v>
+      </c>
+      <c r="AE10">
+        <v>15574</v>
+      </c>
+      <c r="AF10">
+        <v>13712</v>
+      </c>
+      <c r="AG10">
+        <v>17228</v>
+      </c>
+      <c r="AH10">
+        <v>18216</v>
+      </c>
+      <c r="AI10">
+        <v>14925</v>
+      </c>
+      <c r="AJ10">
+        <v>3394</v>
+      </c>
+      <c r="AK10">
+        <v>18249</v>
+      </c>
     </row>
     <row r="11" spans="1:38">
       <c r="A11" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B11">
-        <v>887.9220862455065</v>
+        <v>1764.71994553252</v>
       </c>
       <c r="C11">
-        <v>1131.536678449761</v>
+        <v>2058.119871491287</v>
       </c>
       <c r="D11">
-        <v>891.6526438662153</v>
+        <v>1708.210248785971</v>
       </c>
       <c r="E11">
-        <v>869.31013185107</v>
+        <v>1671.657652862713</v>
       </c>
       <c r="F11">
-        <v>886.4310973482185</v>
+        <v>1652.612811068151</v>
       </c>
       <c r="G11">
-        <v>920.3962198003009</v>
+        <v>1852.633930545781</v>
       </c>
       <c r="H11">
-        <v>840.9797280505319</v>
+        <v>1632.200562301027</v>
       </c>
       <c r="I11">
-        <v>911.0039846105421</v>
+        <v>1779.782065970591</v>
       </c>
       <c r="J11">
-        <v>897.8940838038473</v>
+        <v>1722.141354822426</v>
       </c>
       <c r="K11">
-        <v>847.8084184174002</v>
+        <v>1683.319906002677</v>
       </c>
       <c r="L11">
-        <v>934.4039085705753</v>
+        <v>1551.261372094705</v>
       </c>
       <c r="M11">
-        <v>921.0212207292085</v>
+        <v>1909.197330552458</v>
       </c>
       <c r="N11">
-        <v>1079.534863666664</v>
+        <v>2240.520300663753</v>
       </c>
       <c r="O11">
-        <v>1434.618475555975</v>
+        <v>2871.46190989941</v>
       </c>
       <c r="P11">
-        <v>994.4936188862182</v>
+        <v>1864.668014778846</v>
       </c>
       <c r="Q11">
-        <v>1045.205133846646</v>
+        <v>1925.005984559094</v>
       </c>
       <c r="R11">
-        <v>991.2705839860084</v>
+        <v>1761.398569561961</v>
       </c>
       <c r="S11">
-        <v>999.9493209151948</v>
+        <v>1940.799366272546</v>
       </c>
       <c r="T11">
-        <v>849.4467255930637</v>
+        <v>1696.358454779471</v>
       </c>
       <c r="U11">
-        <v>1201.764709535019</v>
+        <v>2250.14823854642</v>
       </c>
       <c r="V11">
-        <v>707.8213317849541</v>
+        <v>1537.418111860073</v>
       </c>
       <c r="W11">
-        <v>1217.47142502878</v>
+        <v>2227.885642635886</v>
       </c>
       <c r="X11">
-        <v>995.7229645373437</v>
+        <v>1788.584309765993</v>
       </c>
       <c r="Y11">
-        <v>1022.551125685373</v>
+        <v>1894.933694049561</v>
       </c>
       <c r="Z11">
-        <v>1043.69059068688</v>
+        <v>1974.129250251394</v>
       </c>
       <c r="AA11">
-        <v>1081.613592917617</v>
+        <v>2033.002385489662</v>
       </c>
       <c r="AB11">
-        <v>1124.448238943729</v>
+        <v>2206.130693425354</v>
       </c>
       <c r="AC11">
-        <v>1180.732193427201</v>
+        <v>2371.215417304196</v>
       </c>
       <c r="AD11">
-        <v>955.0348321466801</v>
+        <v>1835.605728021314</v>
       </c>
       <c r="AE11">
-        <v>966.3971398591561</v>
+        <v>1830.100628540105</v>
       </c>
       <c r="AF11">
-        <v>1296.179260566743</v>
+        <v>2201.286720545593</v>
       </c>
       <c r="AG11">
-        <v>1001.258411215639</v>
+        <v>2009.167742063054</v>
       </c>
       <c r="AH11">
-        <v>1144.920089523244</v>
+        <v>2127.433195264198</v>
       </c>
       <c r="AI11">
-        <v>960.305869134926</v>
+        <v>1880.317025913093</v>
       </c>
       <c r="AJ11">
-        <v>884.6239651408274</v>
+        <v>1981.705385404066</v>
       </c>
       <c r="AK11">
-        <v>1110.15931565432</v>
+        <v>2021.81405914491</v>
       </c>
       <c r="AL11">
         <v>2.985374445496366</v>
@@ -16705,22 +18997,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>19276</v>
+        <v>2828</v>
       </c>
       <c r="D14">
-        <v>35934</v>
+        <v>4477</v>
       </c>
       <c r="E14">
-        <v>55780</v>
+        <v>8010</v>
       </c>
       <c r="F14">
-        <v>73906</v>
+        <v>9824</v>
       </c>
       <c r="G14">
-        <v>84510</v>
+        <v>3775</v>
       </c>
       <c r="H14">
-        <v>84813</v>
+        <v>66</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -16732,34 +19024,34 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9141</v>
+        <v>3065</v>
       </c>
       <c r="M14">
-        <v>24970</v>
+        <v>2996</v>
       </c>
       <c r="N14">
-        <v>38700</v>
+        <v>1073</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>10532</v>
+        <v>150</v>
       </c>
       <c r="Q14">
-        <v>30209</v>
+        <v>4395</v>
       </c>
       <c r="R14">
-        <v>47501</v>
+        <v>7131</v>
       </c>
       <c r="S14">
-        <v>62670</v>
+        <v>7464</v>
       </c>
       <c r="T14">
-        <v>80025</v>
+        <v>9584</v>
       </c>
       <c r="U14">
-        <v>90956</v>
+        <v>3204</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -16768,40 +19060,40 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <v>17491</v>
+        <v>4080</v>
       </c>
       <c r="Y14">
-        <v>35224</v>
+        <v>6076</v>
       </c>
       <c r="Z14">
-        <v>55109</v>
+        <v>12039</v>
       </c>
       <c r="AA14">
-        <v>74261</v>
+        <v>13939</v>
       </c>
       <c r="AB14">
-        <v>82910</v>
+        <v>7742</v>
       </c>
       <c r="AC14">
         <v>0</v>
       </c>
       <c r="AD14">
-        <v>14753</v>
+        <v>920</v>
       </c>
       <c r="AE14">
-        <v>30383</v>
+        <v>1785</v>
       </c>
       <c r="AF14">
-        <v>50367</v>
+        <v>8948</v>
       </c>
       <c r="AG14">
-        <v>64468</v>
+        <v>6905</v>
       </c>
       <c r="AH14">
-        <v>84864</v>
+        <v>10642</v>
       </c>
       <c r="AI14">
-        <v>91713</v>
+        <v>3219</v>
       </c>
       <c r="AJ14">
         <v>0</v>
@@ -16817,10 +19109,214 @@
       <c r="A15" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.9953161592505855</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0.75</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0.9913793103448276</v>
+      </c>
+      <c r="Q15">
+        <v>0.9954648526077098</v>
+      </c>
+      <c r="R15">
+        <v>0.9910071942446043</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>0.9966386554621849</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>0.9923954372623575</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AH15">
+        <v>1</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
+      </c>
+      <c r="AJ15">
+        <v>1</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:38">
       <c r="A16" s="1" t="s">
         <v>137</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.9953161592505855</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0.75</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>0.9913793103448276</v>
+      </c>
+      <c r="Q16">
+        <v>0.9954648526077098</v>
+      </c>
+      <c r="R16">
+        <v>0.9910071942446043</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>0.9966386554621849</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>0.9923954372623575</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
+      </c>
+      <c r="AJ16">
+        <v>1</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:38">
